--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CB657-DA5A-4380-9BEB-6891D7FC3821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC505BB-81B6-47FE-856F-996A22845839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -927,7 +927,7 @@
         <v>4001</v>
       </c>
       <c r="F3">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>4001</v>
       </c>
       <c r="F4">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>4001</v>
       </c>
       <c r="F5">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>4001</v>
       </c>
       <c r="F6">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>4001</v>
       </c>
       <c r="F7">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>4001</v>
       </c>
       <c r="F8">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>4001</v>
       </c>
       <c r="F9">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>4001</v>
       </c>
       <c r="F10">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>4001</v>
       </c>
       <c r="F11">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>4001</v>
       </c>
       <c r="F12">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="198" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="198" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="231" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC505BB-81B6-47FE-856F-996A22845839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2FCCD9-7CF6-41A5-B69A-7490F5A838AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="3465" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9585" yWindow="1785" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2FCCD9-7CF6-41A5-B69A-7490F5A838AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B2DA72-3B41-4CE1-8C40-DCFF21046AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="1785" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="4380" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6, 480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6, 490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotHaloStartPos : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,12 +171,6 @@
   </si>
   <si>
     <t>200, 200</t>
-  </si>
-  <si>
-    <t>6, 480</t>
-  </si>
-  <si>
-    <t>6, 490</t>
   </si>
   <si>
     <t>사츠키</t>
@@ -373,6 +359,29 @@
   </si>
   <si>
     <t>SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, -62</t>
+  </si>
+  <si>
+    <t>40, -37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, -40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, -10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, -70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, -50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -901,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -915,7 +924,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -969,10 +978,10 @@
         <v>20</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -980,13 +989,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>4001</v>
@@ -1034,10 +1043,10 @@
         <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1045,13 +1054,13 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>4001</v>
@@ -1096,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1110,13 +1119,13 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>4001</v>
@@ -1161,13 +1170,13 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1175,13 +1184,13 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>4001</v>
@@ -1226,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1246,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>4001</v>
@@ -1291,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1305,13 +1314,13 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>4001</v>
@@ -1356,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1370,13 +1379,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>4001</v>
@@ -1421,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1435,13 +1444,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>4001</v>
@@ -1486,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="S11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1500,13 +1509,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>4001</v>
@@ -1551,18 +1560,18 @@
         <v>2</v>
       </c>
       <c r="S12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1604,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1614,10 +1623,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1625,10 +1634,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1669,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1679,7 +1688,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -1690,7 +1699,7 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -1727,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1746,10 +1755,10 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1757,10 +1766,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1790,66 +1799,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1891,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1904,13 +1913,13 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1918,13 +1927,13 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B2DA72-3B41-4CE1-8C40-DCFF21046AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749738DE-7F0C-44BE-8A31-5A8BC7578635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="4380" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="4380" windowWidth="30795" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,7 +365,7 @@
     <t>40, -62</t>
   </si>
   <si>
-    <t>40, -37</t>
+    <t>40, -62</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,15 +373,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9, -10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21, -70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21, -50</t>
+    <t>FullshotPos : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, -52</t>
+  </si>
+  <si>
+    <t>40, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, -60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, -30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,9 +480,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:U12" totalsRowShown="0">
-  <autoFilter ref="A2:U12" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:V12" totalsRowShown="0">
+  <autoFilter ref="A2:V12" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer"/>
@@ -489,6 +504,7 @@
     <tableColumn id="19" xr3:uid="{81011E15-9976-4167-AB59-7D51672B7A06}" name="FullshotHaloSize : Array"/>
     <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array"/>
     <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array"/>
+    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotPos : Array"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -818,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
@@ -847,14 +863,15 @@
     <col min="19" max="19" width="28.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -918,8 +935,11 @@
       <c r="U2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -981,10 +1001,10 @@
         <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1043,13 +1063,13 @@
         <v>20</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1108,13 +1128,16 @@
         <v>33</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1173,13 +1196,13 @@
         <v>33</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1241,10 +1264,10 @@
         <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1306,10 +1329,10 @@
         <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1371,10 +1394,10 @@
         <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1436,10 +1459,10 @@
         <v>77</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1501,10 +1524,10 @@
         <v>77</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1566,10 +1589,10 @@
         <v>77</v>
       </c>
       <c r="U12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>38</v>
       </c>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749738DE-7F0C-44BE-8A31-5A8BC7578635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20711EA-50B4-42D7-9573-F594A38B283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="4380" windowWidth="30795" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9585" yWindow="1785" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,10 @@
   </si>
   <si>
     <t>9, -30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42, 0, 26, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,33 +840,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="16.625" customWidth="1"/>
+    <col min="17" max="17" width="14.75" customWidth="1"/>
+    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="20.125" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1460,6 +1464,9 @@
       </c>
       <c r="U10" t="s">
         <v>83</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20711EA-50B4-42D7-9573-F594A38B283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A38CC9-13AB-4620-A222-B4665CE2A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="1785" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="4380" windowWidth="30795" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -377,14 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FullshotPos : Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40, -52</t>
   </si>
   <si>
@@ -401,6 +393,14 @@
   </si>
   <si>
     <t>42, 0, 26, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114, 0, -114, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullshotRectOffset : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +508,7 @@
     <tableColumn id="19" xr3:uid="{81011E15-9976-4167-AB59-7D51672B7A06}" name="FullshotHaloSize : Array"/>
     <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array"/>
     <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array"/>
-    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotPos : Array"/>
+    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1005,7 +1005,7 @@
         <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1135,10 +1135,10 @@
         <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1463,10 +1463,10 @@
         <v>77</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
         <v>77</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>77</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A38CC9-13AB-4620-A222-B4665CE2A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B184CDE8-CAB2-4FDC-9EFB-B6C99492F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="4380" windowWidth="30795" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="2205" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200, 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotHaloStartPos : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,9 +164,6 @@
   <si>
     <t>Heal</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 200</t>
   </si>
   <si>
     <t>사츠키</t>
@@ -392,15 +385,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42, 0, 26, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114, 0, -114, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotRectOffset : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220, 220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190, 190</t>
+  </si>
+  <si>
+    <t>190, 190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65, -48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, -400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114, 0, -114, -400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-359, -15, -335, -676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-56, -52, -56, -554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, 66, 21, -400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,13 +502,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -840,39 +885,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="17" max="17" width="14.75" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="20.125" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="20.25" customWidth="1"/>
+    <col min="6" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="21" width="15.625" customWidth="1"/>
+    <col min="22" max="22" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -931,16 +962,16 @@
         <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -948,7 +979,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -999,13 +1030,16 @@
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="V3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1013,13 +1047,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>4001</v>
@@ -1064,13 +1098,16 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1078,13 +1115,13 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>4001</v>
@@ -1129,16 +1166,16 @@
         <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1146,13 +1183,13 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>4001</v>
@@ -1197,13 +1234,16 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="V6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1211,13 +1251,13 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>4001</v>
@@ -1262,13 +1302,16 @@
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="V7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1282,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>4001</v>
@@ -1327,13 +1370,16 @@
         <v>2</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1341,13 +1387,13 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>4001</v>
@@ -1392,13 +1438,16 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1406,13 +1455,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>4001</v>
@@ -1457,16 +1506,16 @@
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1474,13 +1523,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>4001</v>
@@ -1525,13 +1574,16 @@
         <v>2</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1539,13 +1591,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>4001</v>
@@ -1590,18 +1642,21 @@
         <v>2</v>
       </c>
       <c r="S12" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1653,10 +1708,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1664,10 +1719,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1710,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1718,7 +1773,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -1729,7 +1784,7 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -1766,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1777,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1785,10 +1840,10 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1796,10 +1851,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1829,66 +1884,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1943,13 +1998,13 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1957,13 +2012,13 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B184CDE8-CAB2-4FDC-9EFB-B6C99492F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE60DE04-3730-45BE-AFC0-B7BA52990C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2205" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="1095" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
   </si>
   <si>
     <t>Circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,36 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40, -62</t>
-  </si>
-  <si>
-    <t>40, -62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9, -40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21, -70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40, -52</t>
-  </si>
-  <si>
-    <t>40, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21, -60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9, -30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotRectOffset : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,39 +378,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10, 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 0, 0, -400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114, 0, -114, -400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-359, -15, -335, -676</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-56, -52, -56, -554</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21, 66, 21, -400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-301, -11, -301, -588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, -26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, -16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33, -69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33, -59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-75, 61, -75, -209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, -10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, -20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-311, -20, -345, -634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260, 260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-241, -14, -241, -468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14, -73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14, -63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, -71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, -61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-111, 69, -111, -296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32, -67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32, -57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-217, 5, -190, -415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230, 230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38, -64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38, -54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-181, 45, -196, -416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-90, 59, -278, -416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, -105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, -95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153, 153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-143, 77, -161, -384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52, -68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52, -58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NK울트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑니다. 토라마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002, 2</t>
+  </si>
+  <si>
+    <t>4002, 3</t>
+  </si>
+  <si>
+    <t>4002, 4</t>
+  </si>
+  <si>
+    <t>4002, 5</t>
+  </si>
+  <si>
+    <t>4003, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4003, 2</t>
+  </si>
+  <si>
+    <t>4003, 3</t>
+  </si>
+  <si>
+    <t>4003, 4</t>
+  </si>
+  <si>
+    <t>4003, 5</t>
+  </si>
+  <si>
+    <t>4004, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004, 2</t>
+  </si>
+  <si>
+    <t>4004, 3</t>
+  </si>
+  <si>
+    <t>4004, 4</t>
+  </si>
+  <si>
+    <t>4004, 5</t>
+  </si>
+  <si>
+    <t>4005, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4005, 2</t>
+  </si>
+  <si>
+    <t>4005, 3</t>
+  </si>
+  <si>
+    <t>4005, 4</t>
+  </si>
+  <si>
+    <t>4005, 5</t>
+  </si>
+  <si>
+    <t>Stasis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이부키의 미술시간!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔터 찬스!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toramaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wbuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,12 +627,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -502,14 +660,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -584,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C4" totalsRowShown="0">
-  <autoFilter ref="A2:C4" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C7" totalsRowShown="0">
+  <autoFilter ref="A2:C7" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -596,8 +757,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C8" totalsRowShown="0">
-  <autoFilter ref="A2:C8" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C27" totalsRowShown="0">
+  <autoFilter ref="A2:C27" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -886,7 +1047,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,687 +1132,687 @@
         <v>21</v>
       </c>
       <c r="V2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>6</v>
+      </c>
+      <c r="M5" s="4">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4">
+        <v>9</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>6</v>
+      </c>
+      <c r="M8" s="6">
+        <v>7</v>
+      </c>
+      <c r="N8" s="6">
+        <v>8</v>
+      </c>
+      <c r="O8" s="6">
+        <v>9</v>
+      </c>
+      <c r="P8" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
+      <c r="U8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
+      <c r="O9" s="6">
+        <v>9</v>
+      </c>
+      <c r="P9" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>6</v>
+      </c>
+      <c r="M10" s="6">
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
+        <v>8</v>
+      </c>
+      <c r="O10" s="6">
+        <v>9</v>
+      </c>
+      <c r="P10" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4004</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+      <c r="M11" s="6">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6">
+        <v>8</v>
+      </c>
+      <c r="O11" s="6">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>2</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>4001</v>
-      </c>
-      <c r="F3">
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4005</v>
+      </c>
+      <c r="F12" s="6">
         <v>6001</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="K12" s="6">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L12" s="6">
         <v>6</v>
       </c>
-      <c r="M3">
+      <c r="M12" s="6">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="N12" s="6">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O12" s="6">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="P12" s="6">
         <v>10</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="S12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>4001</v>
-      </c>
-      <c r="F4">
-        <v>6001</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>7</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>9</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>4001</v>
-      </c>
-      <c r="F5">
-        <v>6001</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>4001</v>
-      </c>
-      <c r="F6">
-        <v>6001</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>4001</v>
-      </c>
-      <c r="F7">
-        <v>6001</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>4001</v>
-      </c>
-      <c r="F8">
-        <v>6001</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V12" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>4001</v>
-      </c>
-      <c r="F9">
-        <v>6001</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>9</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>4001</v>
-      </c>
-      <c r="F10">
-        <v>6001</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>4001</v>
-      </c>
-      <c r="F11">
-        <v>6001</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>4001</v>
-      </c>
-      <c r="F12">
-        <v>6001</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>9</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1807,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,7 +2001,7 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -1851,10 +2012,43 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1871,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1884,66 +2078,218 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,13 +2344,13 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2012,13 +2358,13 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE60DE04-3730-45BE-AFC0-B7BA52990C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526E085-DC45-4C5C-A905-B6E2A0F71B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="1095" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="9300" windowWidth="33105" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>Wbuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroundPath : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GehennaCampus_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_MilleniumCorridor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,12 +745,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:C8" totalsRowShown="0">
-  <autoFilter ref="A2:C8" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:D8" totalsRowShown="0">
+  <autoFilter ref="A2:D8" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="ClubList : Array"/>
+    <tableColumn id="4" xr3:uid="{9BC5EF8C-C0E2-4DCE-9778-492A81F2FF8B}" name="BackgroundPath : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1046,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +1851,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1900,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A2FC76-0241-4A65-A3DB-AD7C89BDE480}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1911,14 +1924,15 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1928,8 +1942,11 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3001</v>
       </c>
@@ -1939,8 +1956,11 @@
       <c r="C3">
         <v>2001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3002</v>
       </c>
@@ -1950,8 +1970,11 @@
       <c r="C4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526E085-DC45-4C5C-A905-B6E2A0F71B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182968B2-66EE-4671-BB99-017271AE4E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="9300" windowWidth="33105" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4530" windowWidth="32040" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="226">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,22 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1006, 1007, 1008, 1009, 1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>만마전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001, 1002, 1003, 1004, 1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대책위원회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,59 +238,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(+포탄 탄종 변경 밑 마무리 공격 강화)원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
-4명 이하:
-5명-9명:
-10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001, 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(+쿨타임 감소 10%)원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
-4명 이하:
-5명-9명:
-10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001, 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(+3 추가 포탄)
-원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
-4명 이하:
-5명-9명:
-10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(범위 10% 증가)
-원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
-4명 이하:
-5명-9명:
-10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원형범위 내의 적의 수에 따라 범위 내의 적에게 대미지
-4명 이하:
-5명-9명:
-10명 이상:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,11 +549,338 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Background/BG_GehennaCampus_Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_MilleniumCorridor</t>
+    <t>Sprite/Background/BG_AbydosCouncilRoom_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GehennaClubRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006, 2</t>
+  </si>
+  <si>
+    <t>4006, 3</t>
+  </si>
+  <si>
+    <t>4006, 4</t>
+  </si>
+  <si>
+    <t>4006, 5</t>
+  </si>
+  <si>
+    <t>4007, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007, 2</t>
+  </si>
+  <si>
+    <t>4007, 3</t>
+  </si>
+  <si>
+    <t>4007, 4</t>
+  </si>
+  <si>
+    <t>4007, 5</t>
+  </si>
+  <si>
+    <t>4008, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008, 2</t>
+  </si>
+  <si>
+    <t>4008, 3</t>
+  </si>
+  <si>
+    <t>4008, 4</t>
+  </si>
+  <si>
+    <t>4008, 5</t>
+  </si>
+  <si>
+    <t>4009, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4009, 2</t>
+  </si>
+  <si>
+    <t>4009, 3</t>
+  </si>
+  <si>
+    <t>4009, 4</t>
+  </si>
+  <si>
+    <t>4009, 5</t>
+  </si>
+  <si>
+    <t>4010, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4010, 2</t>
+  </si>
+  <si>
+    <t>4010, 3</t>
+  </si>
+  <si>
+    <t>4010, 4</t>
+  </si>
+  <si>
+    <t>4010, 5</t>
+  </si>
+  <si>
+    <t>아비도스의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoshino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론 소환: 화력 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiroko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼날 시간이에요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 비품, 이상 없음!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급송달: 전투지원품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아로나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싯딤의 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_AronaRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4011, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4011, 2</t>
+  </si>
+  <si>
+    <t>4011, 3</t>
+  </si>
+  <si>
+    <t>4011, 4</t>
+  </si>
+  <si>
+    <t>4011, 5</t>
+  </si>
+  <si>
+    <t>4012, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4012, 2</t>
+  </si>
+  <si>
+    <t>4012, 3</t>
+  </si>
+  <si>
+    <t>4012, 4</t>
+  </si>
+  <si>
+    <t>4012, 5</t>
+  </si>
+  <si>
+    <t>80, 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43, -104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43, -94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, 54, 90, -255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55, -100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55, -90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83, 39, 83, -275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001, 1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임개발부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003, 1004, 1005, 1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 보상이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지켜냅니다. 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007, 1008, 1009, 1010, 1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012, 1013, 1014, 1015, 1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피..피버타임: 베리어 업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피버타임: 오펜스 업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피버타임: 힐링 사이클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼티메이트: 슈퍼노바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4013, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4013, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4013, 3</t>
+  </si>
+  <si>
+    <t>4013, 4</t>
+  </si>
+  <si>
+    <t>4013, 5</t>
+  </si>
+  <si>
+    <t>4014, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014, 3</t>
+  </si>
+  <si>
+    <t>4014, 4</t>
+  </si>
+  <si>
+    <t>4014, 5</t>
+  </si>
+  <si>
+    <t>4015, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4015, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4015, 3</t>
+  </si>
+  <si>
+    <t>4015, 4</t>
+  </si>
+  <si>
+    <t>4015, 5</t>
+  </si>
+  <si>
+    <t>4016, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4016, 2</t>
+  </si>
+  <si>
+    <t>4016, 3</t>
+  </si>
+  <si>
+    <t>4016, 4</t>
+  </si>
+  <si>
+    <t>4016, 5</t>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GameDevRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +917,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,7 +932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,17 +962,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -702,8 +991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:V12" totalsRowShown="0">
-  <autoFilter ref="A2:V12" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:V18" totalsRowShown="0">
+  <autoFilter ref="A2:V18" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -733,8 +1022,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C5" totalsRowShown="0">
-  <autoFilter ref="A2:C5" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -758,8 +1047,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C7" totalsRowShown="0">
-  <autoFilter ref="A2:C7" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C19" totalsRowShown="0">
+  <autoFilter ref="A2:C19" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -770,8 +1059,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C27" totalsRowShown="0">
-  <autoFilter ref="A2:C27" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C82" totalsRowShown="0">
+  <autoFilter ref="A2:C82" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -1057,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,358 +1434,334 @@
         <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6001</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5">
+        <v>7</v>
+      </c>
+      <c r="N4" s="5">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>2</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E5" s="6">
         <v>4001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F5" s="6">
         <v>6001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J5" s="6">
         <v>4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K5" s="6">
         <v>5</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L5" s="6">
         <v>6</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M5" s="6">
         <v>7</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N5" s="6">
         <v>8</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O5" s="6">
         <v>9</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P5" s="6">
         <v>10</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q5" s="6">
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
         <v>4001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F6" s="6">
         <v>6001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H6" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K6" s="6">
         <v>5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L6" s="6">
         <v>6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M6" s="6">
         <v>7</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N6" s="6">
         <v>8</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O6" s="6">
         <v>9</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P6" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q6" s="6">
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R6" s="6">
         <v>2</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6">
         <v>4001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F7" s="6">
         <v>6001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J7" s="6">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K7" s="6">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L7" s="6">
         <v>6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M7" s="6">
         <v>7</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N7" s="6">
         <v>8</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O7" s="6">
         <v>9</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q7" s="6">
         <v>1</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R7" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6</v>
-      </c>
-      <c r="M6" s="4">
-        <v>7</v>
-      </c>
-      <c r="N6" s="4">
-        <v>8</v>
-      </c>
-      <c r="O6" s="4">
-        <v>9</v>
-      </c>
-      <c r="P6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>2</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>4</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4">
-        <v>6</v>
-      </c>
-      <c r="M7" s="4">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4">
-        <v>9</v>
-      </c>
-      <c r="P7" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>2</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="C8" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
@@ -1543,294 +1808,689 @@
       <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4008</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
+        <v>9</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4009</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9</v>
+      </c>
+      <c r="P10" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4010</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>8</v>
+      </c>
+      <c r="O11" s="3">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4011</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4012</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>6</v>
+      </c>
+      <c r="M13" s="3">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9</v>
+      </c>
+      <c r="P13" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4013</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
+        <v>8</v>
+      </c>
+      <c r="O14" s="7">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>2</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="V14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4014</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7">
+        <v>5</v>
+      </c>
+      <c r="L15" s="7">
+        <v>6</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7</v>
+      </c>
+      <c r="N15" s="7">
+        <v>8</v>
+      </c>
+      <c r="O15" s="7">
+        <v>9</v>
+      </c>
+      <c r="P15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4015</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6001</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8</v>
+      </c>
+      <c r="O16" s="7">
+        <v>9</v>
+      </c>
+      <c r="P16" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>2</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4016</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5</v>
+      </c>
+      <c r="L17" s="7">
+        <v>6</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8</v>
+      </c>
+      <c r="O17" s="7">
+        <v>9</v>
+      </c>
+      <c r="P17" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>2</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4017</v>
+      </c>
+      <c r="F18" s="7">
+        <v>6001</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5</v>
+      </c>
+      <c r="L18" s="7">
+        <v>6</v>
+      </c>
+      <c r="M18" s="7">
+        <v>7</v>
+      </c>
+      <c r="N18" s="7">
+        <v>8</v>
+      </c>
+      <c r="O18" s="7">
+        <v>9</v>
+      </c>
+      <c r="P18" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2</v>
+      </c>
+      <c r="S18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="T18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V18" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4002</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6001</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>3</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6">
-        <v>6</v>
-      </c>
-      <c r="M9" s="6">
-        <v>7</v>
-      </c>
-      <c r="N9" s="6">
-        <v>8</v>
-      </c>
-      <c r="O9" s="6">
-        <v>9</v>
-      </c>
-      <c r="P9" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>2</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4003</v>
-      </c>
-      <c r="F10" s="6">
-        <v>6001</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
-        <v>6</v>
-      </c>
-      <c r="M10" s="6">
-        <v>7</v>
-      </c>
-      <c r="N10" s="6">
-        <v>8</v>
-      </c>
-      <c r="O10" s="6">
-        <v>9</v>
-      </c>
-      <c r="P10" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6">
-        <v>2</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4004</v>
-      </c>
-      <c r="F11" s="6">
-        <v>6001</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>4</v>
-      </c>
-      <c r="K11" s="6">
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>6</v>
-      </c>
-      <c r="M11" s="6">
-        <v>7</v>
-      </c>
-      <c r="N11" s="6">
-        <v>8</v>
-      </c>
-      <c r="O11" s="6">
-        <v>9</v>
-      </c>
-      <c r="P11" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>2</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4005</v>
-      </c>
-      <c r="F12" s="6">
-        <v>6001</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6">
-        <v>6</v>
-      </c>
-      <c r="M12" s="6">
-        <v>7</v>
-      </c>
-      <c r="N12" s="6">
-        <v>8</v>
-      </c>
-      <c r="O12" s="6">
-        <v>9</v>
-      </c>
-      <c r="P12" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>2</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="S16" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1848,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5D3E1-46E5-400A-8D16-38C682EDF0A3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1874,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1882,10 +2542,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1893,10 +2553,32 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2611,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1940,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,13 +2633,13 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1965,13 +2647,41 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>2002</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>2003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>2004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2715,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2016,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,10 +2734,10 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2035,10 +2745,7 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,10 +2753,7 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,10 +2761,7 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,10 +2769,133 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2101,218 +2925,658 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2345,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2356,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2367,13 +3631,13 @@
         <v>6001</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,13 +3645,13 @@
         <v>6002</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182968B2-66EE-4671-BB99-017271AE4E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E440BF-FCB6-4BF2-99A7-E17D4B4EBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="4530" windowWidth="32040" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="4530" windowWidth="32040" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,66 @@
   </si>
   <si>
     <t>Sprite/Background/BG_GameDevRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160, 160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, -73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, -63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26, 36, 108, -328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180, 180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, -121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64, -111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-199, 38, 37, -375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-89, -133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-89, -123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63, 97, -98, -315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125, 125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-107, 28, -94, -426</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -972,6 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1349,7 +1410,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1628,10 +1689,18 @@
       <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1688,10 +1757,18 @@
       <c r="R6" s="6">
         <v>2</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1748,10 +1825,18 @@
       <c r="R7" s="6">
         <v>2</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1808,10 +1893,18 @@
       <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2597,7 +2690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A2FC76-0241-4A65-A3DB-AD7C89BDE480}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3595,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E440BF-FCB6-4BF2-99A7-E17D4B4EBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE671E7F-E4E7-40F7-BC6A-7C6B59C6A8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="4530" windowWidth="32040" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="2385" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="293">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,22 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotRectOffset : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지켜냅니다. 선배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1007, 1008, 1009, 1010, 1011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피..피버타임: 베리어 업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피버타임: 오펜스 업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,6 +917,318 @@
   </si>
   <si>
     <t>-107, 28, -94, -426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4017, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4017, 2</t>
+  </si>
+  <si>
+    <t>4017, 3</t>
+  </si>
+  <si>
+    <t>4017, 4</t>
+  </si>
+  <si>
+    <t>4017, 5</t>
+  </si>
+  <si>
+    <t>FTMomoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMidori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피, 피버타임: 베리어 업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTYuzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥즈 대쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>유니크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디어</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프레시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인스피레이션</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 검: 슈퍼노바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTAris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청휘석 60 보급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청휘석 70 보급
+(+ 추가 10 청휘석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청휘석 80 보급
+(+ 추가 10 청휘석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청휘석 90 보급
+(+ 추가 10 청휘석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청휘석 100 보급
+(+ 추가 10 청휘석과 1200 청휘석의 분기 보상이 추가됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1000의 보호막을 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1000의 보호막을 획득합니다.
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1500의 보호막을 획득합니다.
+(+ 500의 추가 보호막)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 2000의 보호막을 획득합니다.
+(+ 저각 보호막을 추가로 생성합니다. 내구도는 2000입니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령 우선, 지켜냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 800의 피해를 방어합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 900의 피해를 방어합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 1000의 피해를 방어합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 아군을 격려해 주변 아군의 공격력과 사거리를 일시적으로 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 아군을 격려해 주변 아군의 공격력과 사거리를 일시적으로 증가시킵니다.
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 아군을 격려해 주변 아군의 공격력과 사거리를 일시적으로 증가시킵니다.
+(+ 지속 시간 3초 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 아군을 격려해 주변 아군의 공격력과 사거리를 일시적으로 증가시킵니다.
+(+ 추가 공격력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 아군을 격려해 주변 아군의 공격력과 사거리를 일시적으로 증가시킵니다.
+(+ 추가 사거리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 아군을 고무해 주변 아군의 자가치유력을 일시적으로 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 아군을 고무해 주변 아군의 자가치유력을 일시적으로 증가시킵니다.
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 아군을 고무해 주변 아군의 자가치유력을 일시적으로 증가시킵니다.
+(+ 범위 10% 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 아군을 고무해 주변 아군의 자가치유력을 일시적으로 증가시킵니다.
+(+ 자가 치유력 50% 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 아군을 고무해 주변 아군의 자가치유력을 일시적으로 증가시킵니다.
+(+ 적용 대상은 받는 피해 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
+(+ 적중한 대상은 불탐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 3초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 5초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 배치, 드론은 30초간 전장에 머물면서 주변 적들을 공격합니다.
+(대책위원회 시너지 : 드론 1기 추가 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 배치, 드론은 1분간 전장에 머물면서 주변 적들을 공격합니다.
+(대책위원회 시너지 : 드론 1기 추가 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 배치, 드론은 45초간 전장에 머물면서 주변 적들을 공격합니다.
+(대책위원회 시너지 : 드론 1기 추가 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 배치, 드론은 2분간 전장에 머물면서 주변 적들을 공격합니다.
+(대책위원회 시너지 : 드론 1기 추가 배치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 50 * 5
+~5명 : 50 * 10
+7명 이상 : 50 * 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 50 * 5
+~5명 : 50 * 10
+7명 이상 : 50 * 20
+(+ 비산 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 50 * 8
+~5명 : 50 * 13
+7명 이상 : 50 * 23
+(+ 추가로 3발 더 사격합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 50 * 8
+~5명 : 50 * 13
+7명 이상 : 50 * 23
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 75 * 8 + 마무리 공격 1000
+~5명 : 75 * 13 + 마무리 공격 1500
+7명 이상 : 75 * 23 + 마무리 공격 2000
+(+ 포탄 탄종 변경 및 마무리 공격 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +1236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,8 +1264,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,12 +1303,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1022,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,6 +1402,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1120,8 +1499,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C82" totalsRowShown="0">
-  <autoFilter ref="A2:C82" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C87" totalsRowShown="0">
+  <autoFilter ref="A2:C87" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -1132,8 +1511,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D4" totalsRowShown="0">
-  <autoFilter ref="A2:D4" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D14" totalsRowShown="0">
+  <autoFilter ref="A2:D14" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{277B4CB1-D202-4172-AC16-313400944C66}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{C0EBD593-997F-4FA4-B38B-502603D6C057}" name="Name : String"/>
@@ -1410,7 +1789,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1495,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,16 +1882,16 @@
         <v>1001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="5">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="5">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="F3" s="5">
         <v>6001</v>
@@ -1554,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,19 +1950,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13</v>
+        <v>165</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-1</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="5">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="F4" s="5">
-        <v>6001</v>
+        <v>6002</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -1622,16 +2001,16 @@
         <v>2</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="U4" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1639,7 +2018,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C5" s="6">
         <v>16</v>
@@ -1648,10 +2027,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="6">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="F5" s="6">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -1690,16 +2069,16 @@
         <v>2</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1707,7 +2086,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="6">
         <v>15</v>
@@ -1716,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="6">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="F6" s="6">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -1758,16 +2137,16 @@
         <v>2</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1775,7 +2154,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="6">
         <v>15</v>
@@ -1784,10 +2163,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="6">
-        <v>4001</v>
+        <v>4006</v>
       </c>
       <c r="F7" s="6">
-        <v>6001</v>
+        <v>6005</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -1826,16 +2205,16 @@
         <v>2</v>
       </c>
       <c r="S7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1843,19 +2222,19 @@
         <v>1006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-1</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="6">
-        <v>4001</v>
+        <v>4007</v>
       </c>
       <c r="F8" s="6">
-        <v>6001</v>
+        <v>6006</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1894,16 +2273,16 @@
         <v>2</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1962,16 +2341,16 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -2030,16 +2409,16 @@
         <v>2</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2098,16 +2477,16 @@
         <v>2</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2166,16 +2545,16 @@
         <v>2</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2234,16 +2613,16 @@
         <v>2</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2302,16 +2681,16 @@
         <v>2</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2370,16 +2749,16 @@
         <v>2</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2438,16 +2817,16 @@
         <v>2</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T16" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="U16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2506,16 +2885,16 @@
         <v>2</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2574,16 +2953,16 @@
         <v>2</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +3014,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2646,10 +3025,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2660,7 +3039,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2671,7 +3050,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2718,7 +3097,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2726,13 +3105,13 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2740,13 +3119,13 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>2002</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2760,7 +3139,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2774,7 +3153,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,7 +3176,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2827,7 +3206,7 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -2838,7 +3217,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2846,7 +3228,10 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2854,7 +3239,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2862,7 +3250,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2870,7 +3261,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2878,7 +3272,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2886,10 +3283,10 @@
         <v>4008</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2897,10 +3294,10 @@
         <v>4009</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,10 +3305,10 @@
         <v>4010</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2919,10 +3316,10 @@
         <v>4011</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2930,7 +3327,7 @@
         <v>4012</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -2952,10 +3349,10 @@
         <v>4014</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2963,10 +3360,10 @@
         <v>4015</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2974,10 +3371,10 @@
         <v>4016</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,10 +3382,10 @@
         <v>4017</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3005,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3076,325 +3473,325 @@
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="B17" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
+      <c r="B27" s="17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
+      <c r="B32" s="17" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B37" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>140</v>
       </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B38" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>141</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B39" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>142</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B40" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>143</v>
       </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B41" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>144</v>
       </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>145</v>
       </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B43" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B44" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>147</v>
       </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B45" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>148</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B46" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
+      <c r="B47" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -3402,7 +3799,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -3410,7 +3807,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -3418,7 +3815,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -3426,7 +3823,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -3434,7 +3831,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -3442,7 +3839,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -3450,7 +3847,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
@@ -3458,7 +3855,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -3466,7 +3863,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -3474,7 +3871,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
@@ -3482,7 +3879,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3490,7 +3887,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -3498,7 +3895,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3506,55 +3903,55 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" t="s">
-        <v>48</v>
+        <v>203</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
@@ -3562,7 +3959,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -3570,7 +3967,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -3578,7 +3975,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -3586,7 +3983,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -3594,7 +3991,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -3602,7 +3999,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -3610,7 +4007,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -3618,7 +4015,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -3626,7 +4023,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -3634,7 +4031,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -3642,7 +4039,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -3650,7 +4047,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -3658,7 +4055,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -3666,9 +4063,49 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3686,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3720,31 +4157,117 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>6001</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
+      <c r="B3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>6002</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
+      <c r="B4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>6003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="14">
+        <v>6004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
+        <v>6005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>6012</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE671E7F-E4E7-40F7-BC6A-7C6B59C6A8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF36C7-CD1D-4AB8-ACD8-BF84D4159B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="2385" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="4065" windowWidth="34785" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="295">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +526,6 @@
   </si>
   <si>
     <t>Wbuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroundPath : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1229,6 +1225,18 @@
 ~5명 : 75 * 13 + 마무리 공격 1500
 7명 이상 : 75 * 23 + 마무리 공격 2000
 (+ 포탄 탄종 변경 및 마무리 공격 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgPath : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverrideBgPath : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_AronaRoom_Night</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,9 +1439,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:V18" totalsRowShown="0">
-  <autoFilter ref="A2:V18" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W18" totalsRowShown="0">
+  <autoFilter ref="A2:W18" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer"/>
@@ -1456,6 +1464,7 @@
     <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array"/>
     <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array"/>
     <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array"/>
+    <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1480,7 +1489,7 @@
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="ClubList : Array"/>
-    <tableColumn id="4" xr3:uid="{9BC5EF8C-C0E2-4DCE-9778-492A81F2FF8B}" name="BackgroundPath : String"/>
+    <tableColumn id="4" xr3:uid="{9BC5EF8C-C0E2-4DCE-9778-492A81F2FF8B}" name="BgPath : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1786,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1802,14 +1811,15 @@
     <col min="6" max="18" width="10.625" customWidth="1"/>
     <col min="19" max="21" width="15.625" customWidth="1"/>
     <col min="22" max="22" width="20.625" customWidth="1"/>
+    <col min="23" max="23" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1876,13 +1886,16 @@
       <c r="V2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10">
         <v>-1</v>
@@ -1933,24 +1946,27 @@
         <v>2</v>
       </c>
       <c r="S3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="10">
         <v>-1</v>
@@ -2001,24 +2017,27 @@
         <v>2</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="6">
         <v>16</v>
@@ -2069,24 +2088,24 @@
         <v>2</v>
       </c>
       <c r="S5" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="6">
         <v>15</v>
@@ -2137,24 +2156,24 @@
         <v>2</v>
       </c>
       <c r="S6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="6">
         <v>15</v>
@@ -2205,24 +2224,24 @@
         <v>2</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="V7" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="9">
         <v>-1</v>
@@ -2273,19 +2292,19 @@
         <v>2</v>
       </c>
       <c r="S8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="V8" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="V8" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
@@ -2557,7 +2576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
@@ -2625,7 +2644,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1012</v>
       </c>
@@ -2693,7 +2712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1013</v>
       </c>
@@ -2761,7 +2780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1014</v>
       </c>
@@ -3014,10 +3033,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,10 +3044,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3039,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3050,7 +3069,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3089,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3097,7 +3116,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3105,13 +3124,13 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3119,13 +3138,13 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4">
         <v>2002</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3139,7 +3158,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3153,7 +3172,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,7 +3225,7 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -3217,10 +3236,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3228,10 +3247,10 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3239,10 +3258,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
         <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3250,10 +3269,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3261,10 +3280,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3272,10 +3291,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3283,10 +3302,10 @@
         <v>4008</v>
       </c>
       <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3294,10 +3313,10 @@
         <v>4009</v>
       </c>
       <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3305,10 +3324,10 @@
         <v>4010</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3316,10 +3335,10 @@
         <v>4011</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3327,7 +3346,7 @@
         <v>4012</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -3404,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -3474,7 +3493,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -3482,7 +3501,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -3490,7 +3509,7 @@
         <v>104</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -3498,7 +3517,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -3506,7 +3525,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3514,7 +3533,7 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -3522,7 +3541,7 @@
         <v>108</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -3530,7 +3549,7 @@
         <v>109</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -3538,7 +3557,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -3546,7 +3565,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3554,7 +3573,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3562,7 +3581,7 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3570,7 +3589,7 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3578,7 +3597,7 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3586,7 +3605,7 @@
         <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3594,7 +3613,7 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -3602,7 +3621,7 @@
         <v>118</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -3610,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -3618,7 +3637,7 @@
         <v>120</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -3626,172 +3645,172 @@
         <v>121</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -3799,7 +3818,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -3807,7 +3826,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -3815,7 +3834,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -3823,7 +3842,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -3831,7 +3850,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -3839,7 +3858,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -3847,7 +3866,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
@@ -3855,7 +3874,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -3863,7 +3882,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -3871,7 +3890,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
@@ -3879,7 +3898,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3887,7 +3906,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -3895,7 +3914,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3903,7 +3922,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -3911,47 +3930,47 @@
     </row>
     <row r="63" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
@@ -3959,7 +3978,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -3967,7 +3986,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -3975,7 +3994,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -3983,7 +4002,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -3991,7 +4010,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -3999,7 +4018,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -4007,7 +4026,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -4015,7 +4034,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -4023,7 +4042,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -4031,7 +4050,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -4039,7 +4058,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -4047,7 +4066,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -4055,7 +4074,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -4063,7 +4082,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -4071,7 +4090,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -4079,7 +4098,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -4087,7 +4106,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -4095,7 +4114,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -4103,7 +4122,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -4161,13 +4180,13 @@
         <v>6001</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="12">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4175,13 +4194,13 @@
         <v>6002</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4189,13 +4208,13 @@
         <v>6003</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -4203,13 +4222,13 @@
         <v>6004</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
@@ -4217,13 +4236,13 @@
         <v>6005</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="15">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4231,13 +4250,13 @@
         <v>6006</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF36C7-CD1D-4AB8-ACD8-BF84D4159B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E252B8C-5F2B-418C-BD01-97C589AF9C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="4065" windowWidth="34785" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="2460" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="330">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,6 +1237,146 @@
   </si>
   <si>
     <t>Sprite/Background/BG_AronaRoom_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호루스의 눈 + 진압 방패 '아이언 호루스'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE FANG 465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 No.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신시어리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상식적 수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아독존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건즈 앤 로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 제식 권총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵야빵야! 쨩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이퍼 앤 클립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: DualSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: DualSMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: GL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: HG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: MG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: MountMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: RG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: SG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미: SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualSMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MountMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1363,37 +1503,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1411,15 +1520,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1520,8 +1629,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D14" totalsRowShown="0">
-  <autoFilter ref="A2:D14" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D32" totalsRowShown="0">
+  <autoFilter ref="A2:D32" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{277B4CB1-D202-4172-AC16-313400944C66}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{C0EBD593-997F-4FA4-B38B-502603D6C057}" name="Name : String"/>
@@ -1797,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2430,7 @@
         <v>4008</v>
       </c>
       <c r="F9" s="3">
-        <v>6001</v>
+        <v>6007</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2389,7 +2498,7 @@
         <v>4009</v>
       </c>
       <c r="F10" s="3">
-        <v>6001</v>
+        <v>6008</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2457,7 +2566,7 @@
         <v>4010</v>
       </c>
       <c r="F11" s="3">
-        <v>6001</v>
+        <v>6009</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -2525,7 +2634,7 @@
         <v>4011</v>
       </c>
       <c r="F12" s="3">
-        <v>6001</v>
+        <v>6010</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -2593,7 +2702,7 @@
         <v>4012</v>
       </c>
       <c r="F13" s="3">
-        <v>6001</v>
+        <v>6011</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2661,7 +2770,7 @@
         <v>4013</v>
       </c>
       <c r="F14" s="7">
-        <v>6001</v>
+        <v>6012</v>
       </c>
       <c r="G14" s="7">
         <v>1</v>
@@ -2729,7 +2838,7 @@
         <v>4014</v>
       </c>
       <c r="F15" s="7">
-        <v>6001</v>
+        <v>10005</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -2797,7 +2906,7 @@
         <v>4015</v>
       </c>
       <c r="F16" s="7">
-        <v>6001</v>
+        <v>6014</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -2865,7 +2974,7 @@
         <v>4016</v>
       </c>
       <c r="F17" s="7">
-        <v>6001</v>
+        <v>6015</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -2933,7 +3042,7 @@
         <v>4017</v>
       </c>
       <c r="F18" s="7">
-        <v>6001</v>
+        <v>10001</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -3423,13 +3532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="56.875" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3492,7 +3602,7 @@
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3500,7 +3610,7 @@
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3508,7 +3618,7 @@
       <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3516,7 +3626,7 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3524,7 +3634,7 @@
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3540,7 +3650,7 @@
       <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3548,7 +3658,7 @@
       <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3556,7 +3666,7 @@
       <c r="A16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3564,7 +3674,7 @@
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3620,7 +3730,7 @@
       <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3628,7 +3738,7 @@
       <c r="A25" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3636,7 +3746,7 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3644,7 +3754,7 @@
       <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="11" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3660,7 +3770,7 @@
       <c r="A29" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3668,7 +3778,7 @@
       <c r="A30" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="11" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3676,7 +3786,7 @@
       <c r="A31" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3684,7 +3794,7 @@
       <c r="A32" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3700,7 +3810,7 @@
       <c r="A34" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3708,7 +3818,7 @@
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3716,7 +3826,7 @@
       <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3724,7 +3834,7 @@
       <c r="A37" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="11" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3732,7 +3842,7 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3740,7 +3850,7 @@
       <c r="A39" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3748,7 +3858,7 @@
       <c r="A40" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3756,7 +3866,7 @@
       <c r="A41" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="11" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3764,7 +3874,7 @@
       <c r="A42" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="11" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3772,7 +3882,7 @@
       <c r="A43" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="11" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3780,7 +3890,7 @@
       <c r="A44" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="11" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3788,7 +3898,7 @@
       <c r="A45" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="11" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3796,7 +3906,7 @@
       <c r="A46" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3804,7 +3914,7 @@
       <c r="A47" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3932,7 +4042,7 @@
       <c r="A63" t="s">
         <v>198</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="11" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3940,7 +4050,7 @@
       <c r="A64" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="11" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3948,7 +4058,7 @@
       <c r="A65" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="11" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3956,7 +4066,7 @@
       <c r="A66" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="11" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3964,7 +4074,7 @@
       <c r="A67" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="11" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4142,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4176,117 +4286,423 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>6001</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>244</v>
+      <c r="D3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>6002</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4">
+        <v>10002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>244</v>
+      <c r="D4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>6003</v>
+      <c r="A5">
+        <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="14">
-        <v>6004</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="12">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
-        <v>6005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="15">
-        <v>3</v>
-      </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>6006</v>
+      <c r="A8">
+        <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>6001</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>6002</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="17">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>6003</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="16">
+        <v>6004</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="14">
+        <v>6005</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>6006</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="17">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>6007</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="B23" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>6008</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="B24" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="17">
+        <v>3</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>6009</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="B25" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>6010</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="B26" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="17">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>6011</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="B27" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="16">
         <v>6012</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="14">
+        <v>6013</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>6014</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="17">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>6015</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>6016</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="17">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E252B8C-5F2B-418C-BD01-97C589AF9C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3797AB-42D3-499F-8914-8B752FBE4C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2460" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="4065" windowWidth="34785" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="330">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1523,12 +1523,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1617,11 +1617,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:C87" totalsRowShown="0">
-  <autoFilter ref="A2:C87" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D87" totalsRowShown="0">
+  <autoFilter ref="A2:D87" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
+    <tableColumn id="2" xr3:uid="{C5D11431-81F5-4719-AE2E-F66F913E2E3F}" name="Star : Integer"/>
     <tableColumn id="4" xr3:uid="{4354907A-D516-490F-BD5D-85A7CE5E3EDE}" name="ActionSequence : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1906,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3530,24 +3531,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="56.875" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3555,687 +3557,945 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>121</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>138</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>139</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>140</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>141</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>145</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>148</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>150</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>167</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>168</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>169</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>198</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>199</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>200</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>201</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>202</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>203</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>204</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>206</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>207</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>209</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>211</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>212</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>213</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>214</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>215</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>216</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>217</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>234</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>235</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>236</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>237</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>238</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4895,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>6012</v>
       </c>
@@ -4649,7 +4909,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>6013</v>
       </c>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3797AB-42D3-499F-8914-8B752FBE4C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67381C39-C047-4F9D-82F8-2411E3D10B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="4065" windowWidth="34785" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="484">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,6 @@
   </si>
   <si>
     <t>Sprite/Background/BG_AbydosCouncilRoom_Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_GehennaClubRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1377,6 +1373,607 @@
   </si>
   <si>
     <t>SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히나</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GehennaCouncilHall</t>
+  </si>
+  <si>
+    <t>아코</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>이오리</t>
+  </si>
+  <si>
+    <t>치나츠</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>545, 545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8, -23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8, -13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-494, 16, -578, -481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-75, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-75, -42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-244, 81, -269, -434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선도부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017, 1018, 1019, 1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4018, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4018, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4018, 3</t>
+  </si>
+  <si>
+    <t>4018, 4</t>
+  </si>
+  <si>
+    <t>4018, 5</t>
+  </si>
+  <si>
+    <t>4019, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4019, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4019, 3</t>
+  </si>
+  <si>
+    <t>4019, 4</t>
+  </si>
+  <si>
+    <t>4019, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고정된 상태로 지정한 대상을 향해 5초간 사격, 사격은 대상이 무력화 될때까지 계속됩니다. 사격 도중 취소할 수 있습니다.
+(대책위원회 시너지 : 대상이 무력화되면 범위내의 새로운 대상을 향해 재사격, 대상이 없다면 종료합니다.) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고정된 상태로 지정한 대상을 향해 10초간 사격, 사격은 대상이 무력화 될때까지 계속됩니다. 사격 도중 취소할 수 있습니다.
+(대책위원회 시너지 : 대상이 무력화되면 범위내의 새로운 대상을 향해 재사격, 대상이 없다면 종료합니다.) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고정된 상태로 지정한 대상을 향해 20초간 사격, 사격은 대상이 무력화 될때까지 계속됩니다. 사격 도중 취소할 수 있습니다.
+(대책위원회 시너지 : 대상이 무력화되면 범위내의 새로운 대상을 향해 재사격, 대상이 없다면 종료합니다.) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리카가 아군을 격려해 주변 아군의 공격력을 일시적으로 증가시킵니다.
+(대책 위원회 시너지 : 주변 아군의 스킬 쿨다운을 10% 가속시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리카가 아군을 격려해 주변 아군의 공격력을 일시적으로 증가시킵니다.
+(대책 위원회 시너지 : 주변 아군의 스킬 쿨다운을 20% 가속시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리카가 아군을 격려해 주변 아군의 공격력을 일시적으로 증가시킵니다.
+(대책 위원회 시너지 : 주변 아군의 스킬 쿨다운을 50% 가속시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 지원품 투하, 최초 투하시 범위내 아군을 즉시 회복시키며 이후 지원품 중심으로 아군을 회복시키는 영역이 생성됩니다. 
+(대책위원회 시너지 : 지원품이 500의 저각보호막을 생성합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 지원품 투하, 최초 투하시 범위내 아군을 즉시 회복시키며 이후 지원품 중심으로 아군을 회복시키는 영역이 생성됩니다. 
+(대책위원회 시너지 : 지원품이 1000의 저각보호막을 생성합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 지원품 투하, 최초 투하시 범위내 아군을 즉시 회복시키며 이후 지원품 중심으로 아군을 회복시키는 영역이 생성됩니다. 
+(대책위원회 시너지 : 지원품이 2000의 저각보호막을 생성합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 무아지경에 빠져 모든 공격을 회피합니다.
+(+ 무아지경 버프를 부여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로하가 토라마루에 탑승하여 전투에 등장, 토라마루는 탑승물 취급이며 55초 뒤 귀환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
+(+ 범위 50%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
+(+ 쿨타임 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 5초간 정지상태로 만듭니다.
+(+ 지속시간 2초 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 7초간 정지상태로 만듭니다.
+(+ 적 대상 한정으로 10초간 표적상태 부여, 지속시간 2초 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280, 280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108, -34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108, -24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-257, 10, -378, -461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96, -97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96, -87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-355, 83, -252, -474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종막: 이스보셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정찰의 결과입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일망타진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4020, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4020, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4020, 3</t>
+  </si>
+  <si>
+    <t>4020, 4</t>
+  </si>
+  <si>
+    <t>4020, 5</t>
+  </si>
+  <si>
+    <t>Overdose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4021, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4021, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4021, 3</t>
+  </si>
+  <si>
+    <t>4021, 4</t>
+  </si>
+  <si>
+    <t>4021, 5</t>
+  </si>
+  <si>
+    <t>과잉 투여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 전투자극제를 투여, 대상은 체력을 모두 회복하며 고통 수치가 절반으로 감소합니다. 효과가 종료되면 의식이 10% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 전투자극제를 투여, 대상의 능력이 100% 증가하며 고통을 무시합니다. 효과가 종료되면 의식이 50% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종막의 디스트로이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크랙 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포트 포인터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급의학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004, 2005, 2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급차량 출동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4022, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4022, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4022, 3</t>
+  </si>
+  <si>
+    <t>4022, 4</t>
+  </si>
+  <si>
+    <t>4022, 5</t>
+  </si>
+  <si>
+    <t>-49, -50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-49, -40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-319, 36, -344, -474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대용 응급돌파 키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GehennaCampus_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리니티 종합학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의실현부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠루기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하스미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이치카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마시로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215, 215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144, -34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144, -24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-278, 56, -296, -434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022, 1023, 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025, 1026, 1027, 1028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007, 2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305, 305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-49, -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-49, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-371, 65, -272, -501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162, 162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46, -124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46, -114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-232, 19, -328, -372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-356, 72, -310, -510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240, 182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
+(+ 쿨다운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
+(+ 사거리 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>282, 213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133, 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133, 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-703, -169, -643, -825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230, 173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37, -64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37, -54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-294, 56, -377, -548</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-394, -210, -277, -281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_TrinityTerrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_TrinityCampusPlaza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time On Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4023, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4023, 2</t>
+  </si>
+  <si>
+    <t>4023, 3</t>
+  </si>
+  <si>
+    <t>4023, 4</t>
+  </si>
+  <si>
+    <t>4023, 5</t>
+  </si>
+  <si>
+    <t>4024, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4024, 2</t>
+  </si>
+  <si>
+    <t>4024, 3</t>
+  </si>
+  <si>
+    <t>4024, 4</t>
+  </si>
+  <si>
+    <t>4024, 5</t>
+  </si>
+  <si>
+    <t>4025, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4025, 2</t>
+  </si>
+  <si>
+    <t>4025, 3</t>
+  </si>
+  <si>
+    <t>4025, 4</t>
+  </si>
+  <si>
+    <t>4025, 5</t>
+  </si>
+  <si>
+    <t>Mika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consecratio (콘세크라시오)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrie Eleison (키리에 엘레이손)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,18 +2006,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,6 +2053,24 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1508,10 +2124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1529,6 +2144,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1548,8 +2172,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W18" totalsRowShown="0">
-  <autoFilter ref="A2:W18" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W30" totalsRowShown="0">
+  <autoFilter ref="A2:W30" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -1580,8 +2204,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C13" totalsRowShown="0">
+  <autoFilter ref="A2:C13" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -1592,8 +2216,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:D8" totalsRowShown="0">
-  <autoFilter ref="A2:D8" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:D7" totalsRowShown="0">
+  <autoFilter ref="A2:D7" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -1605,8 +2229,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C19" totalsRowShown="0">
-  <autoFilter ref="A2:C19" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C27" totalsRowShown="0">
+  <autoFilter ref="A2:C27" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -1617,8 +2241,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D87" totalsRowShown="0">
-  <autoFilter ref="A2:D87" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D127" totalsRowShown="0">
+  <autoFilter ref="A2:D127" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -1630,8 +2254,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D32" totalsRowShown="0">
-  <autoFilter ref="A2:D32" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D37" totalsRowShown="0">
+  <autoFilter ref="A2:D37" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{277B4CB1-D202-4172-AC16-313400944C66}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{C0EBD593-997F-4FA4-B38B-502603D6C057}" name="Name : String"/>
@@ -1905,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,1101 +2621,1938 @@
         <v>62</v>
       </c>
       <c r="W2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4004</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>6</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5">
+        <v>8</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4005</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6004</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>8</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9</v>
+      </c>
+      <c r="P6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4006</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6005</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5">
+        <v>7</v>
+      </c>
+      <c r="N7" s="5">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="8">
         <v>-1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4007</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6006</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5">
+        <v>7</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8</v>
+      </c>
+      <c r="O8" s="5">
+        <v>9</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4008</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6007</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>9</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4009</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6008</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4010</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6009</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5">
-        <v>4002</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E12" s="2">
+        <v>4011</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6010</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>7</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4012</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6011</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4013</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6012</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6">
+        <v>7</v>
+      </c>
+      <c r="N14" s="6">
+        <v>8</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4014</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10005</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>6</v>
+      </c>
+      <c r="M15" s="6">
+        <v>7</v>
+      </c>
+      <c r="N15" s="6">
+        <v>8</v>
+      </c>
+      <c r="O15" s="6">
+        <v>9</v>
+      </c>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4015</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6014</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>6</v>
+      </c>
+      <c r="M16" s="6">
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
+        <v>8</v>
+      </c>
+      <c r="O16" s="6">
+        <v>9</v>
+      </c>
+      <c r="P16" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4016</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6015</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6">
+        <v>5</v>
+      </c>
+      <c r="L17" s="6">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6">
+        <v>7</v>
+      </c>
+      <c r="N17" s="6">
+        <v>8</v>
+      </c>
+      <c r="O17" s="6">
+        <v>9</v>
+      </c>
+      <c r="P17" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>2</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4017</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>6</v>
+      </c>
+      <c r="M18" s="6">
+        <v>7</v>
+      </c>
+      <c r="N18" s="6">
+        <v>8</v>
+      </c>
+      <c r="O18" s="6">
+        <v>9</v>
+      </c>
+      <c r="P18" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>2</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="17">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4018</v>
+      </c>
+      <c r="F19" s="17">
+        <v>6017</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>3</v>
+      </c>
+      <c r="J19" s="17">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17">
+        <v>5</v>
+      </c>
+      <c r="L19" s="17">
+        <v>6</v>
+      </c>
+      <c r="M19" s="17">
+        <v>7</v>
+      </c>
+      <c r="N19" s="17">
+        <v>8</v>
+      </c>
+      <c r="O19" s="17">
+        <v>9</v>
+      </c>
+      <c r="P19" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17">
+        <v>2</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="W19" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="17">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4019</v>
+      </c>
+      <c r="F20" s="17">
+        <v>6018</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3</v>
+      </c>
+      <c r="J20" s="17">
+        <v>4</v>
+      </c>
+      <c r="K20" s="17">
+        <v>5</v>
+      </c>
+      <c r="L20" s="17">
+        <v>6</v>
+      </c>
+      <c r="M20" s="17">
+        <v>7</v>
+      </c>
+      <c r="N20" s="17">
+        <v>8</v>
+      </c>
+      <c r="O20" s="17">
+        <v>9</v>
+      </c>
+      <c r="P20" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>2</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="17">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" s="17">
+        <v>4020</v>
+      </c>
+      <c r="F21" s="17">
+        <v>6019</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3</v>
+      </c>
+      <c r="J21" s="17">
+        <v>4</v>
+      </c>
+      <c r="K21" s="17">
+        <v>5</v>
+      </c>
+      <c r="L21" s="17">
+        <v>6</v>
+      </c>
+      <c r="M21" s="17">
+        <v>7</v>
+      </c>
+      <c r="N21" s="17">
+        <v>8</v>
+      </c>
+      <c r="O21" s="17">
+        <v>9</v>
+      </c>
+      <c r="P21" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1</v>
+      </c>
+      <c r="R21" s="17">
+        <v>2</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="17">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4021</v>
+      </c>
+      <c r="F22" s="17">
+        <v>6020</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>2</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3</v>
+      </c>
+      <c r="J22" s="17">
+        <v>4</v>
+      </c>
+      <c r="K22" s="17">
+        <v>5</v>
+      </c>
+      <c r="L22" s="17">
+        <v>6</v>
+      </c>
+      <c r="M22" s="17">
+        <v>7</v>
+      </c>
+      <c r="N22" s="17">
+        <v>8</v>
+      </c>
+      <c r="O22" s="17">
+        <v>9</v>
+      </c>
+      <c r="P22" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="17">
+        <v>2</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>4022</v>
+      </c>
+      <c r="F23">
+        <v>6021</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>3</v>
+      </c>
+      <c r="J23" s="19">
+        <v>4</v>
+      </c>
+      <c r="K23" s="19">
+        <v>5</v>
+      </c>
+      <c r="L23" s="19">
+        <v>6</v>
+      </c>
+      <c r="M23" s="19">
+        <v>7</v>
+      </c>
+      <c r="N23" s="19">
+        <v>8</v>
+      </c>
+      <c r="O23" s="19">
+        <v>9</v>
+      </c>
+      <c r="P23" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>1</v>
+      </c>
+      <c r="R23" s="19">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>1022</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="22">
+        <v>17</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22">
+        <v>4023</v>
+      </c>
+      <c r="F24" s="22">
         <v>6001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G24" s="22">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H24" s="22">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I24" s="22">
+        <v>3</v>
+      </c>
+      <c r="J24" s="22">
         <v>4</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K24" s="22">
         <v>5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L24" s="22">
         <v>6</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M24" s="22">
         <v>7</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N24" s="22">
         <v>8</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O24" s="22">
         <v>9</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P24" s="22">
         <v>10</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q24" s="22">
         <v>1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R24" s="22">
         <v>2</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="W3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4003</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6002</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="S24" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="W24" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="22">
+        <v>17</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4024</v>
+      </c>
+      <c r="F25" s="22">
+        <v>6001</v>
+      </c>
+      <c r="G25" s="22">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H25" s="22">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I25" s="22">
+        <v>3</v>
+      </c>
+      <c r="J25" s="22">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K25" s="22">
         <v>5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L25" s="22">
         <v>6</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M25" s="22">
         <v>7</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N25" s="22">
         <v>8</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O25" s="22">
         <v>9</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P25" s="22">
         <v>10</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q25" s="22">
         <v>1</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R25" s="22">
         <v>2</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="W4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="S25" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="W25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="22">
+        <v>17</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4025</v>
+      </c>
+      <c r="F26" s="22">
+        <v>6001</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22">
+        <v>2</v>
+      </c>
+      <c r="I26" s="22">
+        <v>3</v>
+      </c>
+      <c r="J26" s="22">
+        <v>4</v>
+      </c>
+      <c r="K26" s="22">
+        <v>5</v>
+      </c>
+      <c r="L26" s="22">
+        <v>6</v>
+      </c>
+      <c r="M26" s="22">
+        <v>7</v>
+      </c>
+      <c r="N26" s="22">
+        <v>8</v>
+      </c>
+      <c r="O26" s="22">
+        <v>9</v>
+      </c>
+      <c r="P26" s="22">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+      <c r="R26" s="22">
+        <v>2</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="W26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>1025</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="24">
+        <v>17</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="24">
+        <v>4001</v>
+      </c>
+      <c r="F27" s="24">
+        <v>6001</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24">
+        <v>2</v>
+      </c>
+      <c r="I27" s="24">
+        <v>3</v>
+      </c>
+      <c r="J27" s="24">
+        <v>4</v>
+      </c>
+      <c r="K27" s="24">
+        <v>5</v>
+      </c>
+      <c r="L27" s="24">
+        <v>6</v>
+      </c>
+      <c r="M27" s="24">
+        <v>7</v>
+      </c>
+      <c r="N27" s="24">
+        <v>8</v>
+      </c>
+      <c r="O27" s="24">
+        <v>9</v>
+      </c>
+      <c r="P27" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>1</v>
+      </c>
+      <c r="R27" s="24">
+        <v>2</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="V27" s="25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" s="24">
+        <v>17</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4001</v>
+      </c>
+      <c r="F28" s="24">
+        <v>6001</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2</v>
+      </c>
+      <c r="I28" s="24">
+        <v>3</v>
+      </c>
+      <c r="J28" s="24">
+        <v>4</v>
+      </c>
+      <c r="K28" s="24">
+        <v>5</v>
+      </c>
+      <c r="L28" s="24">
+        <v>6</v>
+      </c>
+      <c r="M28" s="24">
+        <v>7</v>
+      </c>
+      <c r="N28" s="24">
+        <v>8</v>
+      </c>
+      <c r="O28" s="24">
+        <v>9</v>
+      </c>
+      <c r="P28" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>1</v>
+      </c>
+      <c r="R28" s="24">
+        <v>2</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="V28" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>1027</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="24">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4004</v>
-      </c>
-      <c r="F5" s="6">
-        <v>6003</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="D29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="24">
+        <v>4001</v>
+      </c>
+      <c r="F29" s="24">
+        <v>6001</v>
+      </c>
+      <c r="G29" s="24">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H29" s="24">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I29" s="24">
+        <v>3</v>
+      </c>
+      <c r="J29" s="24">
         <v>4</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K29" s="24">
         <v>5</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L29" s="24">
         <v>6</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M29" s="24">
         <v>7</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N29" s="24">
         <v>8</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O29" s="24">
         <v>9</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P29" s="24">
         <v>10</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q29" s="24">
         <v>1</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R29" s="24">
         <v>2</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="S29" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="T29" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="U29" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="V29" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>1028</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="24">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4005</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6004</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="D30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="24">
+        <v>4001</v>
+      </c>
+      <c r="F30" s="24">
+        <v>6001</v>
+      </c>
+      <c r="G30" s="24">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H30" s="24">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I30" s="24">
+        <v>3</v>
+      </c>
+      <c r="J30" s="24">
         <v>4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K30" s="24">
         <v>5</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L30" s="24">
         <v>6</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M30" s="24">
         <v>7</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N30" s="24">
         <v>8</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O30" s="24">
         <v>9</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P30" s="24">
         <v>10</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q30" s="24">
         <v>1</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R30" s="24">
         <v>2</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="6">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4006</v>
-      </c>
-      <c r="F7" s="6">
-        <v>6005</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6">
-        <v>5</v>
-      </c>
-      <c r="L7" s="6">
-        <v>6</v>
-      </c>
-      <c r="M7" s="6">
-        <v>7</v>
-      </c>
-      <c r="N7" s="6">
-        <v>8</v>
-      </c>
-      <c r="O7" s="6">
-        <v>9</v>
-      </c>
-      <c r="P7" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>2</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4007</v>
-      </c>
-      <c r="F8" s="6">
-        <v>6006</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6">
-        <v>5</v>
-      </c>
-      <c r="L8" s="6">
-        <v>6</v>
-      </c>
-      <c r="M8" s="6">
-        <v>7</v>
-      </c>
-      <c r="N8" s="6">
-        <v>8</v>
-      </c>
-      <c r="O8" s="6">
-        <v>9</v>
-      </c>
-      <c r="P8" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>2</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4008</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6007</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>6</v>
-      </c>
-      <c r="M9" s="3">
-        <v>7</v>
-      </c>
-      <c r="N9" s="3">
-        <v>8</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9</v>
-      </c>
-      <c r="P9" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4009</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6008</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>6</v>
-      </c>
-      <c r="M10" s="3">
-        <v>7</v>
-      </c>
-      <c r="N10" s="3">
-        <v>8</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9</v>
-      </c>
-      <c r="P10" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4010</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6009</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>6</v>
-      </c>
-      <c r="M11" s="3">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3">
-        <v>8</v>
-      </c>
-      <c r="O11" s="3">
-        <v>9</v>
-      </c>
-      <c r="P11" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>2</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4011</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6010</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3">
-        <v>9</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4012</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6011</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>6</v>
-      </c>
-      <c r="M13" s="3">
-        <v>7</v>
-      </c>
-      <c r="N13" s="3">
-        <v>8</v>
-      </c>
-      <c r="O13" s="3">
-        <v>9</v>
-      </c>
-      <c r="P13" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1012</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4013</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6012</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7">
-        <v>4</v>
-      </c>
-      <c r="K14" s="7">
-        <v>5</v>
-      </c>
-      <c r="L14" s="7">
-        <v>6</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8</v>
-      </c>
-      <c r="O14" s="7">
-        <v>9</v>
-      </c>
-      <c r="P14" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>1</v>
-      </c>
-      <c r="R14" s="7">
-        <v>2</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>1013</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="7">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4014</v>
-      </c>
-      <c r="F15" s="7">
-        <v>10005</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7">
-        <v>4</v>
-      </c>
-      <c r="K15" s="7">
-        <v>5</v>
-      </c>
-      <c r="L15" s="7">
-        <v>6</v>
-      </c>
-      <c r="M15" s="7">
-        <v>7</v>
-      </c>
-      <c r="N15" s="7">
-        <v>8</v>
-      </c>
-      <c r="O15" s="7">
-        <v>9</v>
-      </c>
-      <c r="P15" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>2</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>1014</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4015</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6014</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7">
-        <v>4</v>
-      </c>
-      <c r="K16" s="7">
-        <v>5</v>
-      </c>
-      <c r="L16" s="7">
-        <v>6</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8</v>
-      </c>
-      <c r="O16" s="7">
-        <v>9</v>
-      </c>
-      <c r="P16" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
-      <c r="R16" s="7">
-        <v>2</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4016</v>
-      </c>
-      <c r="F17" s="7">
-        <v>6015</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7">
-        <v>4</v>
-      </c>
-      <c r="K17" s="7">
-        <v>5</v>
-      </c>
-      <c r="L17" s="7">
-        <v>6</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8</v>
-      </c>
-      <c r="O17" s="7">
-        <v>9</v>
-      </c>
-      <c r="P17" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-      <c r="R17" s="7">
-        <v>2</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>1016</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4017</v>
-      </c>
-      <c r="F18" s="7">
-        <v>10001</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3</v>
-      </c>
-      <c r="J18" s="7">
-        <v>4</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5</v>
-      </c>
-      <c r="L18" s="7">
-        <v>6</v>
-      </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>8</v>
-      </c>
-      <c r="O18" s="7">
-        <v>9</v>
-      </c>
-      <c r="P18" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>1</v>
-      </c>
-      <c r="R18" s="7">
-        <v>2</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>80</v>
+      <c r="S30" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="T30" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="V30" s="25" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3109,10 +4570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5D3E1-46E5-400A-8D16-38C682EDF0A3}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3143,10 +4604,10 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3154,10 +4615,10 @@
         <v>2002</v>
       </c>
       <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3168,7 +4629,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3179,7 +4640,51 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +4704,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3226,7 +4731,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3234,13 +4739,13 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>2001</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3248,13 +4753,13 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4">
         <v>2002</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,15 +4783,26 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
-        <v>2004</v>
+      <c r="C6" t="s">
+        <v>403</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="A7">
+        <v>3005</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3302,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3335,7 +4851,7 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -3346,10 +4862,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3357,10 +4873,10 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3368,10 +4884,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3379,10 +4895,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3390,10 +4906,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3401,10 +4917,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3412,10 +4928,10 @@
         <v>4008</v>
       </c>
       <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
         <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3423,10 +4939,10 @@
         <v>4009</v>
       </c>
       <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3434,10 +4950,10 @@
         <v>4010</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3445,10 +4961,10 @@
         <v>4011</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3456,7 +4972,7 @@
         <v>4012</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -3515,6 +5031,94 @@
       </c>
       <c r="C19" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4021</v>
+      </c>
+      <c r="B23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3531,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3622,55 +5226,55 @@
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>253</v>
+      <c r="B8" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>254</v>
+      <c r="B9" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>255</v>
+      <c r="B10" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>256</v>
+      <c r="B11" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>257</v>
+      <c r="B12" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,54 +5282,54 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>260</v>
+      <c r="B14" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>260</v>
+      <c r="B15" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>261</v>
+      <c r="B16" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>262</v>
+      <c r="B17" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3733,10 +5337,10 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3744,10 +5348,10 @@
         <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3755,10 +5359,10 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3766,10 +5370,10 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3777,10 +5381,10 @@
         <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3788,714 +5392,1154 @@
         <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>268</v>
+      <c r="B24" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>269</v>
+      <c r="B25" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>270</v>
+      <c r="B26" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>271</v>
+      <c r="B27" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>273</v>
+        <v>129</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>274</v>
+        <v>130</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>275</v>
+        <v>131</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>276</v>
+        <v>132</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>279</v>
+        <v>134</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>279</v>
+        <v>135</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>279</v>
+        <v>136</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>278</v>
+        <v>137</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>280</v>
+        <v>138</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>280</v>
+        <v>139</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>280</v>
+        <v>140</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>281</v>
+        <v>141</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>282</v>
+        <v>142</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>283</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>283</v>
+        <v>144</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>285</v>
+        <v>145</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>284</v>
+        <v>146</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>152</v>
       </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
+      <c r="B52" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>167</v>
       </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>168</v>
       </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>171</v>
       </c>
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>172</v>
       </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>173</v>
       </c>
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>174</v>
       </c>
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>175</v>
       </c>
-      <c r="B61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
+      <c r="B62" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>287</v>
+        <v>197</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>288</v>
+        <v>198</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>289</v>
+        <v>199</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>290</v>
+        <v>200</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>203</v>
       </c>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>205</v>
       </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>206</v>
       </c>
-      <c r="B71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>207</v>
-      </c>
-      <c r="B72" t="s">
-        <v>48</v>
+      <c r="B72" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>234</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" t="s">
         <v>48</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
         <v>48</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>236</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
         <v>48</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>349</v>
+      </c>
+      <c r="B91" t="s">
         <v>48</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>350</v>
+      </c>
+      <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C87">
-        <v>1</v>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>351</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>391</v>
+      </c>
+      <c r="B104" t="s">
+        <v>396</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>392</v>
+      </c>
+      <c r="B105" t="s">
+        <v>396</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>393</v>
+      </c>
+      <c r="B106" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>408</v>
+      </c>
+      <c r="B109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>410</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>465</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>466</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>467</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>469</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>470</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>471</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>473</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>475</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>478</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>479</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4512,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4550,13 +6594,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4564,13 +6608,13 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4578,13 +6622,13 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4592,13 +6636,13 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4606,13 +6650,13 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4620,13 +6664,13 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4634,13 +6678,13 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4648,13 +6692,13 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4662,13 +6706,13 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4676,13 +6720,13 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4690,13 +6734,13 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4704,13 +6748,13 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4718,13 +6762,13 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4732,237 +6776,307 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>6001</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="14">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>6002</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>6003</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
+        <v>6004</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="13">
+        <v>6005</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>6006</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>6007</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>6008</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>6009</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>6010</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>6011</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>6012</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="16">
+        <v>3</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>6013</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>6001</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="15">
-        <v>3</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>6002</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="17">
-        <v>3</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>6003</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="15">
-        <v>3</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="16">
-        <v>6004</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="15">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="14">
-        <v>6005</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>6006</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>6014</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="16">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>6015</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>6016</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="16">
+        <v>3</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>6017</v>
+      </c>
+      <c r="B33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>6018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>6019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>6020</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>6021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>415</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>248</v>
-      </c>
-      <c r="C22" s="17">
-        <v>3</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>6007</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>6008</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="17">
-        <v>3</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>6009</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" s="15">
-        <v>3</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>6010</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C26" s="17">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
-        <v>6011</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C27" s="15">
-        <v>3</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>6012</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C28" s="17">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
-        <v>6013</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C29" s="15">
-        <v>3</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>6014</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C30" s="17">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>6015</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" s="15">
-        <v>3</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>6016</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="17">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67381C39-C047-4F9D-82F8-2411E3D10B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061239F-35AE-4A6F-895A-D5E580375126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="533">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1634,10 +1634,6 @@
     <t>4021, 5</t>
   </si>
   <si>
-    <t>과잉 투여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군 하나에게 전투자극제를 투여, 대상은 체력을 모두 회복하며 고통 수치가 절반으로 감소합니다. 효과가 종료되면 의식이 10% 감소합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,6 +1970,206 @@
   </si>
   <si>
     <t>Kyrie Eleison (키리에 엘레이손)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과다 투여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아군 하나에게 60초 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 60초 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 치유량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 60초 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 파동의 범위가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 60초 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 축복 대상의 받는 피해가 20% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 60초 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 범위 내의 아군은 받는 피해가 50% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기괴멸렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsurugi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4026, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4026, 2</t>
+  </si>
+  <si>
+    <t>4026, 3</t>
+  </si>
+  <si>
+    <t>4026, 4</t>
+  </si>
+  <si>
+    <t>4026, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
+(+ 이동 속도가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
+(+ 재장전 속도가 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
+(+ 흡혈량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
+(+ 적 타격시 쿨다운 2% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4027, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4027, 2</t>
+  </si>
+  <si>
+    <t>4027, 3</t>
+  </si>
+  <si>
+    <t>4027, 4</t>
+  </si>
+  <si>
+    <t>4027, 5</t>
+  </si>
+  <si>
+    <t>4028, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028, 2</t>
+  </si>
+  <si>
+    <t>4028, 3</t>
+  </si>
+  <si>
+    <t>4028, 4</t>
+  </si>
+  <si>
+    <t>4028, 5</t>
+  </si>
+  <si>
+    <t>4029, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4029, 2</t>
+  </si>
+  <si>
+    <t>4029, 3</t>
+  </si>
+  <si>
+    <t>4029, 4</t>
+  </si>
+  <si>
+    <t>4029, 5</t>
+  </si>
+  <si>
+    <t>지정한 지역에 대구경 탄환을 사격해 원형범위의 적대 대상을 느려지게 하고 피해를 가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의의 일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나에게 공격력 3배의 피해, 적중한 적의 방어력이 크게 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나에게 공격력 3배의 피해, 적중한 적의 방어력이 크게 감소합니다.
+(+ 적중된 적의 이동속도가 크게 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나에게 공격력 3배의 피해, 적중한 적의 방어력이 크게 감소합니다.
+(+ 사거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나에게 공격력 5배의 피해, 적중한 적의 방어력이 크게 감소합니다.
+(+ 공격력 배수가 5배로 강화됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 하나에게 공격력 5배의 피해, 적중한 적의 방어력이 크게 감소합니다.
+(+ 대상이 받는 피해가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장갑탄환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의실현부의 연락망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)
+(+ 쿨타운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 45초간 머물며 적을 공격합니다. (3명)
+(+ 지원 시간 증가, 모브 추가 1명 지원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 1분간 머물며 적을 공격합니다. (3명)
+(+ 지원 시간 증가, 모브 능력치가 강화됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)
+(+ 모브 능력치가 강화됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BunkerBuster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2124,7 +2320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2146,7 +2342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2229,8 +2424,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C27" totalsRowShown="0">
-  <autoFilter ref="A2:C27" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C31" totalsRowShown="0">
+  <autoFilter ref="A2:C31" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -2241,8 +2436,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D127" totalsRowShown="0">
-  <autoFilter ref="A2:D127" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D147" totalsRowShown="0">
+  <autoFilter ref="A2:D147" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -2532,7 +2727,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4007,7 +4202,7 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -4021,538 +4216,538 @@
       <c r="F23">
         <v>6021</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="I23" s="19">
-        <v>3</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23">
         <v>6</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23">
         <v>7</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23">
         <v>8</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23">
         <v>9</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23">
         <v>10</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23">
         <v>2</v>
       </c>
       <c r="S23" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="U23" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="V23" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="V23" s="20" t="s">
-        <v>414</v>
-      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>1022</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="21">
+        <v>17</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="21">
+        <v>4023</v>
+      </c>
+      <c r="F24" s="21">
+        <v>6001</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21">
+        <v>2</v>
+      </c>
+      <c r="I24" s="21">
+        <v>3</v>
+      </c>
+      <c r="J24" s="21">
+        <v>4</v>
+      </c>
+      <c r="K24" s="21">
+        <v>5</v>
+      </c>
+      <c r="L24" s="21">
+        <v>6</v>
+      </c>
+      <c r="M24" s="21">
+        <v>7</v>
+      </c>
+      <c r="N24" s="21">
+        <v>8</v>
+      </c>
+      <c r="O24" s="21">
+        <v>9</v>
+      </c>
+      <c r="P24" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1</v>
+      </c>
+      <c r="R24" s="21">
+        <v>2</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="W24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C25" s="21">
         <v>17</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="22">
-        <v>4023</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="E25" s="21">
+        <v>4024</v>
+      </c>
+      <c r="F25" s="21">
         <v>6001</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G25" s="21">
         <v>1</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H25" s="21">
         <v>2</v>
       </c>
-      <c r="I24" s="22">
-        <v>3</v>
-      </c>
-      <c r="J24" s="22">
+      <c r="I25" s="21">
+        <v>3</v>
+      </c>
+      <c r="J25" s="21">
         <v>4</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K25" s="21">
         <v>5</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L25" s="21">
         <v>6</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M25" s="21">
         <v>7</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N25" s="21">
         <v>8</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O25" s="21">
         <v>9</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P25" s="21">
         <v>10</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q25" s="21">
         <v>1</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R25" s="21">
         <v>2</v>
       </c>
-      <c r="S24" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="T24" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="U24" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="W24" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>1023</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="S25" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="W25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C26" s="21">
         <v>17</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4025</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6001</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2</v>
+      </c>
+      <c r="I26" s="21">
+        <v>3</v>
+      </c>
+      <c r="J26" s="21">
+        <v>4</v>
+      </c>
+      <c r="K26" s="21">
+        <v>5</v>
+      </c>
+      <c r="L26" s="21">
+        <v>6</v>
+      </c>
+      <c r="M26" s="21">
+        <v>7</v>
+      </c>
+      <c r="N26" s="21">
+        <v>8</v>
+      </c>
+      <c r="O26" s="21">
+        <v>9</v>
+      </c>
+      <c r="P26" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>1</v>
+      </c>
+      <c r="R26" s="21">
+        <v>2</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="W26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>1025</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" s="23">
+        <v>17</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="23">
+        <v>4026</v>
+      </c>
+      <c r="F27" s="23">
+        <v>6001</v>
+      </c>
+      <c r="G27" s="23">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23">
+        <v>2</v>
+      </c>
+      <c r="I27" s="23">
+        <v>3</v>
+      </c>
+      <c r="J27" s="23">
+        <v>4</v>
+      </c>
+      <c r="K27" s="23">
+        <v>5</v>
+      </c>
+      <c r="L27" s="23">
+        <v>6</v>
+      </c>
+      <c r="M27" s="23">
+        <v>7</v>
+      </c>
+      <c r="N27" s="23">
+        <v>8</v>
+      </c>
+      <c r="O27" s="23">
+        <v>9</v>
+      </c>
+      <c r="P27" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>1</v>
+      </c>
+      <c r="R27" s="23">
+        <v>2</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="23">
+        <v>17</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22">
-        <v>4024</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="E28" s="23">
+        <v>4027</v>
+      </c>
+      <c r="F28" s="23">
         <v>6001</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G28" s="23">
         <v>1</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H28" s="23">
         <v>2</v>
       </c>
-      <c r="I25" s="22">
-        <v>3</v>
-      </c>
-      <c r="J25" s="22">
+      <c r="I28" s="23">
+        <v>3</v>
+      </c>
+      <c r="J28" s="23">
         <v>4</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K28" s="23">
         <v>5</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L28" s="23">
         <v>6</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M28" s="23">
         <v>7</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N28" s="23">
         <v>8</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O28" s="23">
         <v>9</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P28" s="23">
         <v>10</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q28" s="23">
         <v>1</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R28" s="23">
         <v>2</v>
       </c>
-      <c r="S25" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="U25" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="V25" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="W25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>1024</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="22">
-        <v>17</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="22">
-        <v>4025</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="S28" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>1027</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="23">
+        <v>16</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="23">
+        <v>4028</v>
+      </c>
+      <c r="F29" s="23">
         <v>6001</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G29" s="23">
         <v>1</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H29" s="23">
         <v>2</v>
       </c>
-      <c r="I26" s="22">
-        <v>3</v>
-      </c>
-      <c r="J26" s="22">
+      <c r="I29" s="23">
+        <v>3</v>
+      </c>
+      <c r="J29" s="23">
         <v>4</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K29" s="23">
         <v>5</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L29" s="23">
         <v>6</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M29" s="23">
         <v>7</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N29" s="23">
         <v>8</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O29" s="23">
         <v>9</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P29" s="23">
         <v>10</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q29" s="23">
         <v>1</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R29" s="23">
         <v>2</v>
       </c>
-      <c r="S26" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="T26" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="U26" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="V26" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="W26" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>1025</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="C27" s="24">
-        <v>17</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="24">
-        <v>4001</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="S29" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>1028</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="23">
+        <v>15</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="23">
+        <v>4029</v>
+      </c>
+      <c r="F30" s="23">
         <v>6001</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G30" s="23">
         <v>1</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H30" s="23">
         <v>2</v>
       </c>
-      <c r="I27" s="24">
-        <v>3</v>
-      </c>
-      <c r="J27" s="24">
+      <c r="I30" s="23">
+        <v>3</v>
+      </c>
+      <c r="J30" s="23">
         <v>4</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K30" s="23">
         <v>5</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L30" s="23">
         <v>6</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M30" s="23">
         <v>7</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N30" s="23">
         <v>8</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O30" s="23">
         <v>9</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P30" s="23">
         <v>10</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q30" s="23">
         <v>1</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R30" s="23">
         <v>2</v>
       </c>
-      <c r="S27" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="V27" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>1026</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C28" s="24">
-        <v>17</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="24">
-        <v>4001</v>
-      </c>
-      <c r="F28" s="24">
-        <v>6001</v>
-      </c>
-      <c r="G28" s="24">
-        <v>1</v>
-      </c>
-      <c r="H28" s="24">
-        <v>2</v>
-      </c>
-      <c r="I28" s="24">
-        <v>3</v>
-      </c>
-      <c r="J28" s="24">
-        <v>4</v>
-      </c>
-      <c r="K28" s="24">
-        <v>5</v>
-      </c>
-      <c r="L28" s="24">
-        <v>6</v>
-      </c>
-      <c r="M28" s="24">
-        <v>7</v>
-      </c>
-      <c r="N28" s="24">
-        <v>8</v>
-      </c>
-      <c r="O28" s="24">
-        <v>9</v>
-      </c>
-      <c r="P28" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="24">
-        <v>1</v>
-      </c>
-      <c r="R28" s="24">
-        <v>2</v>
-      </c>
-      <c r="S28" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="T28" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="U28" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="V28" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>1027</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="C29" s="24">
-        <v>16</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="24">
-        <v>4001</v>
-      </c>
-      <c r="F29" s="24">
-        <v>6001</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1</v>
-      </c>
-      <c r="H29" s="24">
-        <v>2</v>
-      </c>
-      <c r="I29" s="24">
-        <v>3</v>
-      </c>
-      <c r="J29" s="24">
-        <v>4</v>
-      </c>
-      <c r="K29" s="24">
-        <v>5</v>
-      </c>
-      <c r="L29" s="24">
-        <v>6</v>
-      </c>
-      <c r="M29" s="24">
-        <v>7</v>
-      </c>
-      <c r="N29" s="24">
-        <v>8</v>
-      </c>
-      <c r="O29" s="24">
-        <v>9</v>
-      </c>
-      <c r="P29" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="24">
-        <v>1</v>
-      </c>
-      <c r="R29" s="24">
-        <v>2</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="T29" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="U29" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="V29" s="25" t="s">
+      <c r="S30" s="23" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>1028</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="C30" s="24">
-        <v>15</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="24">
-        <v>4001</v>
-      </c>
-      <c r="F30" s="24">
-        <v>6001</v>
-      </c>
-      <c r="G30" s="24">
-        <v>1</v>
-      </c>
-      <c r="H30" s="24">
-        <v>2</v>
-      </c>
-      <c r="I30" s="24">
-        <v>3</v>
-      </c>
-      <c r="J30" s="24">
-        <v>4</v>
-      </c>
-      <c r="K30" s="24">
-        <v>5</v>
-      </c>
-      <c r="L30" s="24">
-        <v>6</v>
-      </c>
-      <c r="M30" s="24">
-        <v>7</v>
-      </c>
-      <c r="N30" s="24">
-        <v>8</v>
-      </c>
-      <c r="O30" s="24">
-        <v>9</v>
-      </c>
-      <c r="P30" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="24">
-        <v>1</v>
-      </c>
-      <c r="R30" s="24">
-        <v>2</v>
-      </c>
-      <c r="S30" s="24" t="s">
+      <c r="T30" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="T30" s="24" t="s">
+      <c r="U30" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="U30" s="24" t="s">
+      <c r="V30" s="24" t="s">
         <v>459</v>
-      </c>
-      <c r="V30" s="25" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -4659,7 +4854,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8">
         <v>1021</v>
@@ -4670,10 +4865,10 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4681,10 +4876,10 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4784,24 +4979,24 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3005</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>417</v>
+      <c r="B7" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -4818,10 +5013,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5071,7 +5266,7 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="C23" t="s">
         <v>389</v>
@@ -5082,10 +5277,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" t="s">
         <v>405</v>
-      </c>
-      <c r="C24" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5093,10 +5288,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" t="s">
         <v>463</v>
-      </c>
-      <c r="C25" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5104,10 +5299,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5115,10 +5310,54 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" t="s">
         <v>481</v>
       </c>
-      <c r="C27" t="s">
-        <v>482</v>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>524</v>
+      </c>
+      <c r="C30" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5135,10 +5374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5887,7 +6126,7 @@
         <v>202</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -5898,7 +6137,7 @@
         <v>203</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -5909,7 +6148,7 @@
         <v>204</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -5920,7 +6159,7 @@
         <v>205</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -6272,7 +6511,7 @@
         <v>390</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -6283,7 +6522,7 @@
         <v>391</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -6294,7 +6533,7 @@
         <v>392</v>
       </c>
       <c r="B105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -6305,7 +6544,7 @@
         <v>393</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -6316,7 +6555,7 @@
         <v>394</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -6324,7 +6563,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -6335,7 +6574,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -6346,7 +6585,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -6357,7 +6596,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -6368,7 +6607,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -6379,7 +6618,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -6390,7 +6629,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
@@ -6401,7 +6640,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -6412,7 +6651,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -6423,7 +6662,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -6434,7 +6673,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -6445,7 +6684,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -6456,7 +6695,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -6467,7 +6706,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -6478,7 +6717,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -6489,56 +6728,276 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>475</v>
       </c>
-      <c r="B123" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B124" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>476</v>
       </c>
-      <c r="B124" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>477</v>
       </c>
-      <c r="B125" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>478</v>
-      </c>
-      <c r="B126" t="s">
-        <v>48</v>
+      <c r="B126" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>479</v>
-      </c>
-      <c r="B127" t="s">
-        <v>48</v>
+        <v>478</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="C127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>491</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>492</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>493</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>495</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>501</v>
+      </c>
+      <c r="B133" t="s">
+        <v>518</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>502</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>503</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>504</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>505</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>506</v>
+      </c>
+      <c r="B138" t="s">
+        <v>525</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>509</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>510</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>511</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>512</v>
+      </c>
+      <c r="B144" t="s">
+        <v>516</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>513</v>
+      </c>
+      <c r="B145" t="s">
+        <v>516</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>514</v>
+      </c>
+      <c r="B146" t="s">
+        <v>516</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>515</v>
+      </c>
+      <c r="B147" t="s">
+        <v>516</v>
+      </c>
+      <c r="C147">
         <v>5</v>
       </c>
     </row>
@@ -7014,7 +7473,7 @@
         <v>6017</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -7028,7 +7487,7 @@
         <v>6018</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -7042,7 +7501,7 @@
         <v>6019</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -7056,7 +7515,7 @@
         <v>6020</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -7070,7 +7529,7 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C37">
         <v>3</v>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061239F-35AE-4A6F-895A-D5E580375126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C515EE-D922-4007-BCC5-8C66E112352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="632">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,10 +1779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2007, 2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>305, 305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2170,6 +2166,416 @@
   </si>
   <si>
     <t>BunkerBuster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카가 도약해 대상 지역을 강타, 지역 내의 모든 대상은 크게 밀려나며 피해를 받습니다. 일정 확률로 미카는 우주에서 운석을 끌어 지상으로 떨굽니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카가 도약해 대상 지역을 강타, 지역 내의 모든 대상은 크게 밀려나며 피해를 받습니다. 일정 확률로 미카는 우주에서 운석을 끌어 지상으로 떨굽니다.
+(+ 미카의 신비가 해방되어 착지 시 거대한 파동을 만들어냅니다. 이후 5초간 무적이됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
+총 투사 포탄 : 10발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
+총 투사 포탄 : 10발
+(+ 비산 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
+총 투사 포탄 : 10발
+(+ 쿨다운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
+총 투사 포탄 : 13발
+(+ 추가로 3발 더 사격합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
+총 투사 포탄 : 13발
+(+ 범위내의 적 소실 확인까지 지속적으로 포격을 진행합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수탄환을 장전, 직선으로 관통하는 3발의 사격을 합니다. 탄환 하나 당 100의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구호기사단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보충수업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스터후드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리우스 분교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인법연구부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히후미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아즈사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히나타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아츠코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029, 1030, 1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1032, 1033, 1034, 1035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036, 1037, 1038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039, 1040, 1041, 1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007, 2008, 2009, 2010, 2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백귀야행 연합학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1043, 1044, 1045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214, 167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-435, 8, -317, -569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195, 152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21, -83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21, -73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-137, 94, -243, -337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173, 135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75, -115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75, -105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-153, 54, -238, -304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215, 167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58, -71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58, -61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-231, 73, -309, -475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175, 135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8, -53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-281, 86, -189, -427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199, 154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-229, 62, -232, -400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174, 134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-179, 89, -179, -347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285, 214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61, -62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-383, 34, -399, -671 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267, 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-52, -57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-52, -47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-334, 48, -281, -535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189, 142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66, -80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66, -70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-435, 7, -279, -581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169, 127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57, -69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57, -59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-99, 76, -85, -374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_HyakkayouranGarden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_Market_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164, 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-108, 58, -108, -392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250, 213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-9, -11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-102, 12, -119, -349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>213, 187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47, -38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47, -28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-199, 38, -247, -627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_AriusBasilica_FineDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289, 253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56, -33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19, 26, -305, -479</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2214,7 +2620,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,6 +2675,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2320,7 +2750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2348,6 +2778,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2355,6 +2795,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2367,8 +2812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W30" totalsRowShown="0">
-  <autoFilter ref="A2:W30" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W47" totalsRowShown="0">
+  <autoFilter ref="A2:W47" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -2399,8 +2844,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C13" totalsRowShown="0">
-  <autoFilter ref="A2:C13" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93232F55-9112-4C46-BC8E-3962B6810810}" name="표1_3" displayName="표1_3" ref="A2:C18" totalsRowShown="0">
+  <autoFilter ref="A2:C18" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -2411,8 +2856,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:D7" totalsRowShown="0">
-  <autoFilter ref="A2:D7" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D8245EC-C4BA-4FCE-895D-A9581F6FD271}" name="표1_4" displayName="표1_4" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -2724,10 +3169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4333,7 +4778,7 @@
         <v>429</v>
       </c>
       <c r="W24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -4392,19 +4837,19 @@
         <v>2</v>
       </c>
       <c r="S25" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="T25" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="T25" s="22" t="s">
+      <c r="U25" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="U25" s="22" t="s">
+      <c r="V25" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="V25" s="22" t="s">
-        <v>436</v>
-      </c>
       <c r="W25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -4463,19 +4908,19 @@
         <v>2</v>
       </c>
       <c r="S26" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="T26" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="V26" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>440</v>
-      </c>
       <c r="W26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -4534,16 +4979,16 @@
         <v>2</v>
       </c>
       <c r="S27" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="T27" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="T27" s="24" t="s">
+      <c r="U27" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="U27" s="24" t="s">
-        <v>444</v>
-      </c>
       <c r="V27" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -4602,16 +5047,16 @@
         <v>2</v>
       </c>
       <c r="S28" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="T28" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="U28" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="U28" s="23" t="s">
+      <c r="V28" s="24" t="s">
         <v>450</v>
-      </c>
-      <c r="V28" s="24" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -4670,16 +5115,16 @@
         <v>2</v>
       </c>
       <c r="S29" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="T29" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="U29" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="U29" s="23" t="s">
+      <c r="V29" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -4738,16 +5183,1165 @@
         <v>2</v>
       </c>
       <c r="S30" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="T30" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="U30" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="U30" s="23" t="s">
+      <c r="V30" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="V30" s="24" t="s">
-        <v>459</v>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>1029</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="28">
+        <v>17</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="28">
+        <v>4001</v>
+      </c>
+      <c r="F31" s="28">
+        <v>6001</v>
+      </c>
+      <c r="G31" s="28">
+        <v>1</v>
+      </c>
+      <c r="H31" s="28">
+        <v>2</v>
+      </c>
+      <c r="I31" s="28">
+        <v>3</v>
+      </c>
+      <c r="J31" s="28">
+        <v>4</v>
+      </c>
+      <c r="K31" s="28">
+        <v>5</v>
+      </c>
+      <c r="L31" s="28">
+        <v>6</v>
+      </c>
+      <c r="M31" s="28">
+        <v>7</v>
+      </c>
+      <c r="N31" s="28">
+        <v>8</v>
+      </c>
+      <c r="O31" s="28">
+        <v>9</v>
+      </c>
+      <c r="P31" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>1</v>
+      </c>
+      <c r="R31" s="28">
+        <v>2</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="U31" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="V31" s="30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
+        <v>1030</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="28">
+        <v>16</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="28">
+        <v>4001</v>
+      </c>
+      <c r="F32" s="28">
+        <v>6001</v>
+      </c>
+      <c r="G32" s="28">
+        <v>1</v>
+      </c>
+      <c r="H32" s="28">
+        <v>2</v>
+      </c>
+      <c r="I32" s="28">
+        <v>3</v>
+      </c>
+      <c r="J32" s="28">
+        <v>4</v>
+      </c>
+      <c r="K32" s="28">
+        <v>5</v>
+      </c>
+      <c r="L32" s="28">
+        <v>6</v>
+      </c>
+      <c r="M32" s="28">
+        <v>7</v>
+      </c>
+      <c r="N32" s="28">
+        <v>8</v>
+      </c>
+      <c r="O32" s="28">
+        <v>9</v>
+      </c>
+      <c r="P32" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>1</v>
+      </c>
+      <c r="R32" s="28">
+        <v>2</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="28">
+        <v>1031</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" s="28">
+        <v>15</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="28">
+        <v>4001</v>
+      </c>
+      <c r="F33" s="28">
+        <v>6001</v>
+      </c>
+      <c r="G33" s="28">
+        <v>1</v>
+      </c>
+      <c r="H33" s="28">
+        <v>2</v>
+      </c>
+      <c r="I33" s="28">
+        <v>3</v>
+      </c>
+      <c r="J33" s="28">
+        <v>4</v>
+      </c>
+      <c r="K33" s="28">
+        <v>5</v>
+      </c>
+      <c r="L33" s="28">
+        <v>6</v>
+      </c>
+      <c r="M33" s="28">
+        <v>7</v>
+      </c>
+      <c r="N33" s="28">
+        <v>8</v>
+      </c>
+      <c r="O33" s="28">
+        <v>9</v>
+      </c>
+      <c r="P33" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>1</v>
+      </c>
+      <c r="R33" s="28">
+        <v>2</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
+        <v>1032</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" s="26">
+        <v>16</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="26">
+        <v>4001</v>
+      </c>
+      <c r="F34" s="26">
+        <v>6001</v>
+      </c>
+      <c r="G34" s="26">
+        <v>1</v>
+      </c>
+      <c r="H34" s="26">
+        <v>2</v>
+      </c>
+      <c r="I34" s="26">
+        <v>3</v>
+      </c>
+      <c r="J34" s="26">
+        <v>4</v>
+      </c>
+      <c r="K34" s="26">
+        <v>5</v>
+      </c>
+      <c r="L34" s="26">
+        <v>6</v>
+      </c>
+      <c r="M34" s="26">
+        <v>7</v>
+      </c>
+      <c r="N34" s="26">
+        <v>8</v>
+      </c>
+      <c r="O34" s="26">
+        <v>9</v>
+      </c>
+      <c r="P34" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>1</v>
+      </c>
+      <c r="R34" s="26">
+        <v>2</v>
+      </c>
+      <c r="S34" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="V34" s="32" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="C35" s="26">
+        <v>16</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="26">
+        <v>4001</v>
+      </c>
+      <c r="F35" s="26">
+        <v>6001</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="26">
+        <v>2</v>
+      </c>
+      <c r="I35" s="26">
+        <v>3</v>
+      </c>
+      <c r="J35" s="26">
+        <v>4</v>
+      </c>
+      <c r="K35" s="26">
+        <v>5</v>
+      </c>
+      <c r="L35" s="26">
+        <v>6</v>
+      </c>
+      <c r="M35" s="26">
+        <v>7</v>
+      </c>
+      <c r="N35" s="26">
+        <v>8</v>
+      </c>
+      <c r="O35" s="26">
+        <v>9</v>
+      </c>
+      <c r="P35" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>1</v>
+      </c>
+      <c r="R35" s="26">
+        <v>2</v>
+      </c>
+      <c r="S35" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="T35" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="U35" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="V35" s="32" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="C36" s="26">
+        <v>16</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="26">
+        <v>4001</v>
+      </c>
+      <c r="F36" s="26">
+        <v>6001</v>
+      </c>
+      <c r="G36" s="26">
+        <v>1</v>
+      </c>
+      <c r="H36" s="26">
+        <v>2</v>
+      </c>
+      <c r="I36" s="26">
+        <v>3</v>
+      </c>
+      <c r="J36" s="26">
+        <v>4</v>
+      </c>
+      <c r="K36" s="26">
+        <v>5</v>
+      </c>
+      <c r="L36" s="26">
+        <v>6</v>
+      </c>
+      <c r="M36" s="26">
+        <v>7</v>
+      </c>
+      <c r="N36" s="26">
+        <v>8</v>
+      </c>
+      <c r="O36" s="26">
+        <v>9</v>
+      </c>
+      <c r="P36" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>1</v>
+      </c>
+      <c r="R36" s="26">
+        <v>2</v>
+      </c>
+      <c r="S36" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="T36" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="U36" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" s="26">
+        <v>15</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="26">
+        <v>4001</v>
+      </c>
+      <c r="F37" s="26">
+        <v>6001</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="26">
+        <v>2</v>
+      </c>
+      <c r="I37" s="26">
+        <v>3</v>
+      </c>
+      <c r="J37" s="26">
+        <v>4</v>
+      </c>
+      <c r="K37" s="26">
+        <v>5</v>
+      </c>
+      <c r="L37" s="26">
+        <v>6</v>
+      </c>
+      <c r="M37" s="26">
+        <v>7</v>
+      </c>
+      <c r="N37" s="26">
+        <v>8</v>
+      </c>
+      <c r="O37" s="26">
+        <v>9</v>
+      </c>
+      <c r="P37" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>1</v>
+      </c>
+      <c r="R37" s="26">
+        <v>2</v>
+      </c>
+      <c r="S37" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="U37" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="V37" s="32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="C38" s="29">
+        <v>17</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="29">
+        <v>4001</v>
+      </c>
+      <c r="F38" s="29">
+        <v>6001</v>
+      </c>
+      <c r="G38" s="29">
+        <v>1</v>
+      </c>
+      <c r="H38" s="29">
+        <v>2</v>
+      </c>
+      <c r="I38" s="29">
+        <v>3</v>
+      </c>
+      <c r="J38" s="29">
+        <v>4</v>
+      </c>
+      <c r="K38" s="29">
+        <v>5</v>
+      </c>
+      <c r="L38" s="29">
+        <v>6</v>
+      </c>
+      <c r="M38" s="29">
+        <v>7</v>
+      </c>
+      <c r="N38" s="29">
+        <v>8</v>
+      </c>
+      <c r="O38" s="29">
+        <v>9</v>
+      </c>
+      <c r="P38" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="29">
+        <v>1</v>
+      </c>
+      <c r="R38" s="29">
+        <v>2</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="U38" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="V38" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C39" s="29">
+        <v>17</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="29">
+        <v>4001</v>
+      </c>
+      <c r="F39" s="29">
+        <v>6001</v>
+      </c>
+      <c r="G39" s="29">
+        <v>1</v>
+      </c>
+      <c r="H39" s="29">
+        <v>2</v>
+      </c>
+      <c r="I39" s="29">
+        <v>3</v>
+      </c>
+      <c r="J39" s="29">
+        <v>4</v>
+      </c>
+      <c r="K39" s="29">
+        <v>5</v>
+      </c>
+      <c r="L39" s="29">
+        <v>6</v>
+      </c>
+      <c r="M39" s="29">
+        <v>7</v>
+      </c>
+      <c r="N39" s="29">
+        <v>8</v>
+      </c>
+      <c r="O39" s="29">
+        <v>9</v>
+      </c>
+      <c r="P39" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="29">
+        <v>1</v>
+      </c>
+      <c r="R39" s="29">
+        <v>2</v>
+      </c>
+      <c r="S39" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="T39" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="U39" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="V39" s="33" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
+        <v>1038</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C40" s="29">
+        <v>15</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="29">
+        <v>4001</v>
+      </c>
+      <c r="F40" s="29">
+        <v>6001</v>
+      </c>
+      <c r="G40" s="29">
+        <v>1</v>
+      </c>
+      <c r="H40" s="29">
+        <v>2</v>
+      </c>
+      <c r="I40" s="29">
+        <v>3</v>
+      </c>
+      <c r="J40" s="29">
+        <v>4</v>
+      </c>
+      <c r="K40" s="29">
+        <v>5</v>
+      </c>
+      <c r="L40" s="29">
+        <v>6</v>
+      </c>
+      <c r="M40" s="29">
+        <v>7</v>
+      </c>
+      <c r="N40" s="29">
+        <v>8</v>
+      </c>
+      <c r="O40" s="29">
+        <v>9</v>
+      </c>
+      <c r="P40" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>1</v>
+      </c>
+      <c r="R40" s="29">
+        <v>2</v>
+      </c>
+      <c r="S40" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="T40" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="U40" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="V40" s="33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="27">
+        <v>1039</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="C41" s="27">
+        <v>17</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="27">
+        <v>4001</v>
+      </c>
+      <c r="F41" s="27">
+        <v>6001</v>
+      </c>
+      <c r="G41" s="27">
+        <v>1</v>
+      </c>
+      <c r="H41" s="27">
+        <v>2</v>
+      </c>
+      <c r="I41" s="27">
+        <v>3</v>
+      </c>
+      <c r="J41" s="27">
+        <v>4</v>
+      </c>
+      <c r="K41" s="27">
+        <v>5</v>
+      </c>
+      <c r="L41" s="27">
+        <v>6</v>
+      </c>
+      <c r="M41" s="27">
+        <v>7</v>
+      </c>
+      <c r="N41" s="27">
+        <v>8</v>
+      </c>
+      <c r="O41" s="27">
+        <v>9</v>
+      </c>
+      <c r="P41" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>1</v>
+      </c>
+      <c r="R41" s="27">
+        <v>2</v>
+      </c>
+      <c r="S41" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="U41" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="V41" s="34" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="27">
+        <v>1040</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="C42" s="27">
+        <v>15</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="27">
+        <v>4001</v>
+      </c>
+      <c r="F42" s="27">
+        <v>6001</v>
+      </c>
+      <c r="G42" s="27">
+        <v>1</v>
+      </c>
+      <c r="H42" s="27">
+        <v>2</v>
+      </c>
+      <c r="I42" s="27">
+        <v>3</v>
+      </c>
+      <c r="J42" s="27">
+        <v>4</v>
+      </c>
+      <c r="K42" s="27">
+        <v>5</v>
+      </c>
+      <c r="L42" s="27">
+        <v>6</v>
+      </c>
+      <c r="M42" s="27">
+        <v>7</v>
+      </c>
+      <c r="N42" s="27">
+        <v>8</v>
+      </c>
+      <c r="O42" s="27">
+        <v>9</v>
+      </c>
+      <c r="P42" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>1</v>
+      </c>
+      <c r="R42" s="27">
+        <v>2</v>
+      </c>
+      <c r="S42" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="T42" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="U42" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="V42" s="34" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
+        <v>1041</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="C43" s="27">
+        <v>16</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="27">
+        <v>4001</v>
+      </c>
+      <c r="F43" s="27">
+        <v>6001</v>
+      </c>
+      <c r="G43" s="27">
+        <v>1</v>
+      </c>
+      <c r="H43" s="27">
+        <v>2</v>
+      </c>
+      <c r="I43" s="27">
+        <v>3</v>
+      </c>
+      <c r="J43" s="27">
+        <v>4</v>
+      </c>
+      <c r="K43" s="27">
+        <v>5</v>
+      </c>
+      <c r="L43" s="27">
+        <v>6</v>
+      </c>
+      <c r="M43" s="27">
+        <v>7</v>
+      </c>
+      <c r="N43" s="27">
+        <v>8</v>
+      </c>
+      <c r="O43" s="27">
+        <v>9</v>
+      </c>
+      <c r="P43" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>1</v>
+      </c>
+      <c r="R43" s="27">
+        <v>2</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="27">
+        <v>1042</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" s="27">
+        <v>16</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="27">
+        <v>4001</v>
+      </c>
+      <c r="F44" s="27">
+        <v>6001</v>
+      </c>
+      <c r="G44" s="27">
+        <v>1</v>
+      </c>
+      <c r="H44" s="27">
+        <v>2</v>
+      </c>
+      <c r="I44" s="27">
+        <v>3</v>
+      </c>
+      <c r="J44" s="27">
+        <v>4</v>
+      </c>
+      <c r="K44" s="27">
+        <v>5</v>
+      </c>
+      <c r="L44" s="27">
+        <v>6</v>
+      </c>
+      <c r="M44" s="27">
+        <v>7</v>
+      </c>
+      <c r="N44" s="27">
+        <v>8</v>
+      </c>
+      <c r="O44" s="27">
+        <v>9</v>
+      </c>
+      <c r="P44" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="27">
+        <v>1</v>
+      </c>
+      <c r="R44" s="27">
+        <v>2</v>
+      </c>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>1043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>555</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="25">
+        <v>4001</v>
+      </c>
+      <c r="F45" s="25">
+        <v>6001</v>
+      </c>
+      <c r="G45" s="25">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25">
+        <v>2</v>
+      </c>
+      <c r="I45" s="25">
+        <v>3</v>
+      </c>
+      <c r="J45" s="25">
+        <v>4</v>
+      </c>
+      <c r="K45" s="25">
+        <v>5</v>
+      </c>
+      <c r="L45" s="25">
+        <v>6</v>
+      </c>
+      <c r="M45" s="25">
+        <v>7</v>
+      </c>
+      <c r="N45" s="25">
+        <v>8</v>
+      </c>
+      <c r="O45" s="25">
+        <v>9</v>
+      </c>
+      <c r="P45" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="25">
+        <v>1</v>
+      </c>
+      <c r="R45" s="25">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>609</v>
+      </c>
+      <c r="T45" t="s">
+        <v>610</v>
+      </c>
+      <c r="U45" t="s">
+        <v>611</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="W45" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>1044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="25">
+        <v>4001</v>
+      </c>
+      <c r="F46" s="25">
+        <v>6001</v>
+      </c>
+      <c r="G46" s="25">
+        <v>1</v>
+      </c>
+      <c r="H46" s="25">
+        <v>2</v>
+      </c>
+      <c r="I46" s="25">
+        <v>3</v>
+      </c>
+      <c r="J46" s="25">
+        <v>4</v>
+      </c>
+      <c r="K46" s="25">
+        <v>5</v>
+      </c>
+      <c r="L46" s="25">
+        <v>6</v>
+      </c>
+      <c r="M46" s="25">
+        <v>7</v>
+      </c>
+      <c r="N46" s="25">
+        <v>8</v>
+      </c>
+      <c r="O46" s="25">
+        <v>9</v>
+      </c>
+      <c r="P46" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="25">
+        <v>1</v>
+      </c>
+      <c r="R46" s="25">
+        <v>2</v>
+      </c>
+      <c r="S46" t="s">
+        <v>615</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="U46" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="W46" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>1045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>557</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="25">
+        <v>4001</v>
+      </c>
+      <c r="F47" s="25">
+        <v>6001</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
+        <v>2</v>
+      </c>
+      <c r="I47" s="25">
+        <v>3</v>
+      </c>
+      <c r="J47" s="25">
+        <v>4</v>
+      </c>
+      <c r="K47" s="25">
+        <v>5</v>
+      </c>
+      <c r="L47" s="25">
+        <v>6</v>
+      </c>
+      <c r="M47" s="25">
+        <v>7</v>
+      </c>
+      <c r="N47" s="25">
+        <v>8</v>
+      </c>
+      <c r="O47" s="25">
+        <v>9</v>
+      </c>
+      <c r="P47" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="25">
+        <v>1</v>
+      </c>
+      <c r="R47" s="25">
+        <v>2</v>
+      </c>
+      <c r="S47" t="s">
+        <v>619</v>
+      </c>
+      <c r="T47" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="U47" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="W47" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -4765,10 +6359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5D3E1-46E5-400A-8D16-38C682EDF0A3}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4880,6 +6474,61 @@
       </c>
       <c r="C10" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -4896,10 +6545,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A2FC76-0241-4A65-A3DB-AD7C89BDE480}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4993,10 +6642,38 @@
         <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>566</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
+      <c r="D8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9">
+        <v>2012</v>
+      </c>
+      <c r="D9" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -5266,7 +6943,7 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" t="s">
         <v>389</v>
@@ -5288,10 +6965,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" t="s">
         <v>462</v>
-      </c>
-      <c r="C25" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5299,10 +6976,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5310,10 +6987,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" t="s">
         <v>480</v>
-      </c>
-      <c r="C27" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5321,10 +6998,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" t="s">
         <v>489</v>
-      </c>
-      <c r="C28" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5332,10 +7009,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5343,10 +7020,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5354,10 +7031,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -5376,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6126,7 +7803,7 @@
         <v>202</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6137,7 +7814,7 @@
         <v>203</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6148,7 +7825,7 @@
         <v>204</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6159,7 +7836,7 @@
         <v>205</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -6456,7 +8133,7 @@
         <v>384</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -6467,7 +8144,7 @@
         <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -6478,7 +8155,7 @@
         <v>386</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -6489,7 +8166,7 @@
         <v>387</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -6500,7 +8177,7 @@
         <v>388</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -6616,56 +8293,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>464</v>
       </c>
-      <c r="B113" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B114" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>465</v>
       </c>
-      <c r="B114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B115" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>466</v>
       </c>
-      <c r="B115" t="s">
-        <v>48</v>
-      </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>467</v>
-      </c>
-      <c r="B116" t="s">
-        <v>48</v>
+      <c r="B116" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="C116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>468</v>
-      </c>
-      <c r="B117" t="s">
-        <v>48</v>
+        <v>467</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -6673,10 +8350,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -6684,10 +8361,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -6695,10 +8372,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -6706,21 +8383,21 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>473</v>
-      </c>
-      <c r="B122" t="s">
-        <v>48</v>
+        <v>472</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -6728,10 +8405,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B123" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -6739,10 +8416,10 @@
     </row>
     <row r="124" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -6750,10 +8427,10 @@
     </row>
     <row r="125" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -6761,10 +8438,10 @@
     </row>
     <row r="126" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -6772,10 +8449,10 @@
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -6783,10 +8460,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -6794,10 +8471,10 @@
     </row>
     <row r="129" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -6805,10 +8482,10 @@
     </row>
     <row r="130" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -6816,10 +8493,10 @@
     </row>
     <row r="131" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -6827,10 +8504,10 @@
     </row>
     <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -6838,10 +8515,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B133" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -6849,10 +8526,10 @@
     </row>
     <row r="134" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -6860,10 +8537,10 @@
     </row>
     <row r="135" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -6871,10 +8548,10 @@
     </row>
     <row r="136" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -6882,10 +8559,10 @@
     </row>
     <row r="137" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -6893,10 +8570,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -6904,10 +8581,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -6915,10 +8592,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -6926,10 +8603,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -6937,10 +8614,10 @@
     </row>
     <row r="142" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -6948,10 +8625,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B143" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -6959,10 +8636,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -6970,10 +8647,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B145" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -6981,10 +8658,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B146" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -6992,10 +8669,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B147" t="s">
         <v>515</v>
-      </c>
-      <c r="B147" t="s">
-        <v>516</v>
       </c>
       <c r="C147">
         <v>5</v>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C515EE-D922-4007-BCC5-8C66E112352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A8E05-8BF0-4C0B-8FB9-E79E18BA2F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="4065" windowWidth="34785" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="633">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2576,6 +2576,10 @@
   </si>
   <si>
     <t>-19, 26, -305, -479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontHalo : Boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2750,7 +2754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2778,7 +2782,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -2812,9 +2815,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:W47" totalsRowShown="0">
-  <autoFilter ref="A2:W47" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:X47" totalsRowShown="0">
+  <autoFilter ref="A2:X47" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer"/>
@@ -2837,6 +2840,7 @@
     <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array"/>
     <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array"/>
     <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array"/>
+    <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean"/>
     <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3169,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3185,15 +3189,16 @@
     <col min="6" max="18" width="10.625" customWidth="1"/>
     <col min="19" max="21" width="15.625" customWidth="1"/>
     <col min="22" max="22" width="20.625" customWidth="1"/>
-    <col min="23" max="23" width="37" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3261,10 +3266,13 @@
         <v>62</v>
       </c>
       <c r="W2" t="s">
+        <v>632</v>
+      </c>
+      <c r="X2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
@@ -3331,11 +3339,12 @@
       <c r="V3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4"/>
+      <c r="X3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
@@ -3402,11 +3411,12 @@
       <c r="V4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4"/>
+      <c r="X4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1003</v>
       </c>
@@ -3473,8 +3483,9 @@
       <c r="V5" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1004</v>
       </c>
@@ -3541,8 +3552,9 @@
       <c r="V6" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1005</v>
       </c>
@@ -3609,8 +3621,9 @@
       <c r="V7" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1006</v>
       </c>
@@ -3677,8 +3690,9 @@
       <c r="V8" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1007</v>
       </c>
@@ -3745,8 +3759,9 @@
       <c r="V9" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1008</v>
       </c>
@@ -3813,8 +3828,9 @@
       <c r="V10" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1009</v>
       </c>
@@ -3881,8 +3897,9 @@
       <c r="V11" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1010</v>
       </c>
@@ -3949,8 +3966,9 @@
       <c r="V12" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1011</v>
       </c>
@@ -4017,8 +4035,9 @@
       <c r="V13" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1012</v>
       </c>
@@ -4085,8 +4104,9 @@
       <c r="V14" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1013</v>
       </c>
@@ -4153,8 +4173,9 @@
       <c r="V15" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1014</v>
       </c>
@@ -4221,8 +4242,9 @@
       <c r="V16" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1015</v>
       </c>
@@ -4289,8 +4311,9 @@
       <c r="V17" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1016</v>
       </c>
@@ -4357,8 +4380,9 @@
       <c r="V18" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1017</v>
       </c>
@@ -4425,11 +4449,12 @@
       <c r="V19" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="W19" s="17" t="s">
+      <c r="W19" s="18"/>
+      <c r="X19" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>1018</v>
       </c>
@@ -4496,11 +4521,12 @@
       <c r="V20" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="W20" s="17" t="s">
+      <c r="W20" s="18"/>
+      <c r="X20" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>1019</v>
       </c>
@@ -4567,11 +4593,12 @@
       <c r="V21" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="W21" s="18"/>
+      <c r="X21" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>1020</v>
       </c>
@@ -4638,11 +4665,12 @@
       <c r="V22" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="W22" s="17" t="s">
+      <c r="W22" s="18"/>
+      <c r="X22" s="17" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -4709,8 +4737,9 @@
       <c r="V23" s="19" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>1022</v>
       </c>
@@ -4777,11 +4806,12 @@
       <c r="V24" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="22"/>
+      <c r="X24" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>1023</v>
       </c>
@@ -4848,11 +4878,12 @@
       <c r="V25" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="22"/>
+      <c r="X25" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>1024</v>
       </c>
@@ -4919,11 +4950,12 @@
       <c r="V26" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="22"/>
+      <c r="X26" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>1025</v>
       </c>
@@ -4990,8 +5022,11 @@
       <c r="V27" s="24" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W27" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>1026</v>
       </c>
@@ -5058,8 +5093,9 @@
       <c r="V28" s="24" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W28" s="24"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>1027</v>
       </c>
@@ -5126,8 +5162,9 @@
       <c r="V29" s="24" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W29" s="24"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>1028</v>
       </c>
@@ -5194,945 +5231,960 @@
       <c r="V30" s="24" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="W30" s="24"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
         <v>1029</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>17</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>4001</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>6001</v>
       </c>
-      <c r="G31" s="28">
-        <v>1</v>
-      </c>
-      <c r="H31" s="28">
+      <c r="G31" s="27">
+        <v>1</v>
+      </c>
+      <c r="H31" s="27">
         <v>2</v>
       </c>
-      <c r="I31" s="28">
-        <v>3</v>
-      </c>
-      <c r="J31" s="28">
+      <c r="I31" s="27">
+        <v>3</v>
+      </c>
+      <c r="J31" s="27">
         <v>4</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="27">
         <v>5</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="27">
         <v>6</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="27">
         <v>7</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="27">
         <v>8</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="27">
         <v>9</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="27">
         <v>10</v>
       </c>
-      <c r="Q31" s="28">
-        <v>1</v>
-      </c>
-      <c r="R31" s="28">
+      <c r="Q31" s="27">
+        <v>1</v>
+      </c>
+      <c r="R31" s="27">
         <v>2</v>
       </c>
-      <c r="S31" s="28" t="s">
+      <c r="S31" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="T31" s="28" t="s">
+      <c r="T31" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="U31" s="28" t="s">
+      <c r="U31" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="V31" s="30" t="s">
+      <c r="V31" s="29" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
         <v>1030</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>16</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>4001</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>6001</v>
       </c>
-      <c r="G32" s="28">
-        <v>1</v>
-      </c>
-      <c r="H32" s="28">
+      <c r="G32" s="27">
+        <v>1</v>
+      </c>
+      <c r="H32" s="27">
         <v>2</v>
       </c>
-      <c r="I32" s="28">
-        <v>3</v>
-      </c>
-      <c r="J32" s="28">
+      <c r="I32" s="27">
+        <v>3</v>
+      </c>
+      <c r="J32" s="27">
         <v>4</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>5</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="27">
         <v>6</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="27">
         <v>7</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="27">
         <v>8</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="27">
         <v>9</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="27">
         <v>10</v>
       </c>
-      <c r="Q32" s="28">
-        <v>1</v>
-      </c>
-      <c r="R32" s="28">
+      <c r="Q32" s="27">
+        <v>1</v>
+      </c>
+      <c r="R32" s="27">
         <v>2</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S32" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="T32" s="30" t="s">
+      <c r="T32" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="U32" s="30" t="s">
+      <c r="U32" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="V32" s="30" t="s">
+      <c r="V32" s="29" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
+      <c r="W32" s="29"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
         <v>1031</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>15</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>4001</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>6001</v>
       </c>
-      <c r="G33" s="28">
-        <v>1</v>
-      </c>
-      <c r="H33" s="28">
+      <c r="G33" s="27">
+        <v>1</v>
+      </c>
+      <c r="H33" s="27">
         <v>2</v>
       </c>
-      <c r="I33" s="28">
-        <v>3</v>
-      </c>
-      <c r="J33" s="28">
+      <c r="I33" s="27">
+        <v>3</v>
+      </c>
+      <c r="J33" s="27">
         <v>4</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>5</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="27">
         <v>6</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="27">
         <v>7</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="27">
         <v>8</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="27">
         <v>9</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="27">
         <v>10</v>
       </c>
-      <c r="Q33" s="28">
-        <v>1</v>
-      </c>
-      <c r="R33" s="28">
+      <c r="Q33" s="27">
+        <v>1</v>
+      </c>
+      <c r="R33" s="27">
         <v>2</v>
       </c>
-      <c r="S33" s="28" t="s">
+      <c r="S33" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="T33" s="28" t="s">
+      <c r="T33" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="U33" s="28" t="s">
+      <c r="U33" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="V33" s="30" t="s">
+      <c r="V33" s="29" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="W33" s="29"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
         <v>1032</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>16</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>4001</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="25">
         <v>6001</v>
       </c>
-      <c r="G34" s="26">
-        <v>1</v>
-      </c>
-      <c r="H34" s="26">
+      <c r="G34" s="25">
+        <v>1</v>
+      </c>
+      <c r="H34" s="25">
         <v>2</v>
       </c>
-      <c r="I34" s="26">
-        <v>3</v>
-      </c>
-      <c r="J34" s="26">
+      <c r="I34" s="25">
+        <v>3</v>
+      </c>
+      <c r="J34" s="25">
         <v>4</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="25">
         <v>5</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="25">
         <v>6</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="25">
         <v>7</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="25">
         <v>8</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="25">
         <v>9</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="25">
         <v>10</v>
       </c>
-      <c r="Q34" s="26">
-        <v>1</v>
-      </c>
-      <c r="R34" s="26">
+      <c r="Q34" s="25">
+        <v>1</v>
+      </c>
+      <c r="R34" s="25">
         <v>2</v>
       </c>
-      <c r="S34" s="31" t="s">
+      <c r="S34" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="T34" s="26" t="s">
+      <c r="T34" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="U34" s="26" t="s">
+      <c r="U34" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="V34" s="32" t="s">
+      <c r="V34" s="31" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="W34" s="31"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
         <v>1033</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>16</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>4001</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="25">
         <v>6001</v>
       </c>
-      <c r="G35" s="26">
-        <v>1</v>
-      </c>
-      <c r="H35" s="26">
+      <c r="G35" s="25">
+        <v>1</v>
+      </c>
+      <c r="H35" s="25">
         <v>2</v>
       </c>
-      <c r="I35" s="26">
-        <v>3</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="I35" s="25">
+        <v>3</v>
+      </c>
+      <c r="J35" s="25">
         <v>4</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="25">
         <v>5</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="25">
         <v>6</v>
       </c>
-      <c r="M35" s="26">
+      <c r="M35" s="25">
         <v>7</v>
       </c>
-      <c r="N35" s="26">
+      <c r="N35" s="25">
         <v>8</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="25">
         <v>9</v>
       </c>
-      <c r="P35" s="26">
+      <c r="P35" s="25">
         <v>10</v>
       </c>
-      <c r="Q35" s="26">
-        <v>1</v>
-      </c>
-      <c r="R35" s="26">
+      <c r="Q35" s="25">
+        <v>1</v>
+      </c>
+      <c r="R35" s="25">
         <v>2</v>
       </c>
-      <c r="S35" s="26" t="s">
+      <c r="S35" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="T35" s="32" t="s">
+      <c r="T35" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="U35" s="32" t="s">
+      <c r="U35" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="V35" s="32" t="s">
+      <c r="V35" s="31" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="W35" s="31"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
         <v>1034</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>16</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="25">
         <v>4001</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="25">
         <v>6001</v>
       </c>
-      <c r="G36" s="26">
-        <v>1</v>
-      </c>
-      <c r="H36" s="26">
+      <c r="G36" s="25">
+        <v>1</v>
+      </c>
+      <c r="H36" s="25">
         <v>2</v>
       </c>
-      <c r="I36" s="26">
-        <v>3</v>
-      </c>
-      <c r="J36" s="26">
+      <c r="I36" s="25">
+        <v>3</v>
+      </c>
+      <c r="J36" s="25">
         <v>4</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="25">
         <v>5</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="25">
         <v>6</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="25">
         <v>7</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="25">
         <v>8</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="25">
         <v>9</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="25">
         <v>10</v>
       </c>
-      <c r="Q36" s="26">
-        <v>1</v>
-      </c>
-      <c r="R36" s="26">
+      <c r="Q36" s="25">
+        <v>1</v>
+      </c>
+      <c r="R36" s="25">
         <v>2</v>
       </c>
-      <c r="S36" s="26" t="s">
+      <c r="S36" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="T36" s="26" t="s">
+      <c r="T36" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="U36" s="26" t="s">
+      <c r="U36" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="V36" s="32" t="s">
+      <c r="V36" s="31" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="W36" s="31"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
         <v>1035</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <v>15</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>4001</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="25">
         <v>6001</v>
       </c>
-      <c r="G37" s="26">
-        <v>1</v>
-      </c>
-      <c r="H37" s="26">
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25">
         <v>2</v>
       </c>
-      <c r="I37" s="26">
-        <v>3</v>
-      </c>
-      <c r="J37" s="26">
+      <c r="I37" s="25">
+        <v>3</v>
+      </c>
+      <c r="J37" s="25">
         <v>4</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="25">
         <v>5</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="25">
         <v>6</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="25">
         <v>7</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37" s="25">
         <v>8</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="25">
         <v>9</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="25">
         <v>10</v>
       </c>
-      <c r="Q37" s="26">
-        <v>1</v>
-      </c>
-      <c r="R37" s="26">
+      <c r="Q37" s="25">
+        <v>1</v>
+      </c>
+      <c r="R37" s="25">
         <v>2</v>
       </c>
-      <c r="S37" s="26" t="s">
+      <c r="S37" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="T37" s="26" t="s">
+      <c r="T37" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="U37" s="26" t="s">
+      <c r="U37" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="V37" s="32" t="s">
+      <c r="V37" s="31" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="28">
         <v>1036</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>17</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>4001</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>6001</v>
       </c>
-      <c r="G38" s="29">
-        <v>1</v>
-      </c>
-      <c r="H38" s="29">
+      <c r="G38" s="28">
+        <v>1</v>
+      </c>
+      <c r="H38" s="28">
         <v>2</v>
       </c>
-      <c r="I38" s="29">
-        <v>3</v>
-      </c>
-      <c r="J38" s="29">
+      <c r="I38" s="28">
+        <v>3</v>
+      </c>
+      <c r="J38" s="28">
         <v>4</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="28">
         <v>5</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="28">
         <v>6</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="28">
         <v>7</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="28">
         <v>8</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="28">
         <v>9</v>
       </c>
-      <c r="P38" s="29">
+      <c r="P38" s="28">
         <v>10</v>
       </c>
-      <c r="Q38" s="29">
-        <v>1</v>
-      </c>
-      <c r="R38" s="29">
+      <c r="Q38" s="28">
+        <v>1</v>
+      </c>
+      <c r="R38" s="28">
         <v>2</v>
       </c>
-      <c r="S38" s="29" t="s">
+      <c r="S38" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="T38" s="29" t="s">
+      <c r="T38" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="U38" s="29" t="s">
+      <c r="U38" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="V38" s="33" t="s">
+      <c r="V38" s="32" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
+      <c r="W38" s="32"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
         <v>1037</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>17</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <v>4001</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>6001</v>
       </c>
-      <c r="G39" s="29">
-        <v>1</v>
-      </c>
-      <c r="H39" s="29">
+      <c r="G39" s="28">
+        <v>1</v>
+      </c>
+      <c r="H39" s="28">
         <v>2</v>
       </c>
-      <c r="I39" s="29">
-        <v>3</v>
-      </c>
-      <c r="J39" s="29">
+      <c r="I39" s="28">
+        <v>3</v>
+      </c>
+      <c r="J39" s="28">
         <v>4</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="28">
         <v>5</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="28">
         <v>6</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <v>7</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="28">
         <v>8</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="28">
         <v>9</v>
       </c>
-      <c r="P39" s="29">
+      <c r="P39" s="28">
         <v>10</v>
       </c>
-      <c r="Q39" s="29">
-        <v>1</v>
-      </c>
-      <c r="R39" s="29">
+      <c r="Q39" s="28">
+        <v>1</v>
+      </c>
+      <c r="R39" s="28">
         <v>2</v>
       </c>
-      <c r="S39" s="29" t="s">
+      <c r="S39" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="T39" s="33" t="s">
+      <c r="T39" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="U39" s="33" t="s">
+      <c r="U39" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="V39" s="33" t="s">
+      <c r="V39" s="32" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="29">
+      <c r="W39" s="32"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="28">
         <v>1038</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <v>15</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="28">
         <v>4001</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="28">
         <v>6001</v>
       </c>
-      <c r="G40" s="29">
-        <v>1</v>
-      </c>
-      <c r="H40" s="29">
+      <c r="G40" s="28">
+        <v>1</v>
+      </c>
+      <c r="H40" s="28">
         <v>2</v>
       </c>
-      <c r="I40" s="29">
-        <v>3</v>
-      </c>
-      <c r="J40" s="29">
+      <c r="I40" s="28">
+        <v>3</v>
+      </c>
+      <c r="J40" s="28">
         <v>4</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="28">
         <v>5</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="28">
         <v>6</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="28">
         <v>7</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="28">
         <v>8</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="28">
         <v>9</v>
       </c>
-      <c r="P40" s="29">
+      <c r="P40" s="28">
         <v>10</v>
       </c>
-      <c r="Q40" s="29">
-        <v>1</v>
-      </c>
-      <c r="R40" s="29">
+      <c r="Q40" s="28">
+        <v>1</v>
+      </c>
+      <c r="R40" s="28">
         <v>2</v>
       </c>
-      <c r="S40" s="29" t="s">
+      <c r="S40" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="T40" s="29" t="s">
+      <c r="T40" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="U40" s="29" t="s">
+      <c r="U40" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="V40" s="33" t="s">
+      <c r="V40" s="32" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
         <v>1039</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="26">
         <v>17</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>4001</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="26">
         <v>6001</v>
       </c>
-      <c r="G41" s="27">
-        <v>1</v>
-      </c>
-      <c r="H41" s="27">
+      <c r="G41" s="26">
+        <v>1</v>
+      </c>
+      <c r="H41" s="26">
         <v>2</v>
       </c>
-      <c r="I41" s="27">
-        <v>3</v>
-      </c>
-      <c r="J41" s="27">
+      <c r="I41" s="26">
+        <v>3</v>
+      </c>
+      <c r="J41" s="26">
         <v>4</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K41" s="26">
         <v>5</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L41" s="26">
         <v>6</v>
       </c>
-      <c r="M41" s="27">
+      <c r="M41" s="26">
         <v>7</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="26">
         <v>8</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O41" s="26">
         <v>9</v>
       </c>
-      <c r="P41" s="27">
+      <c r="P41" s="26">
         <v>10</v>
       </c>
-      <c r="Q41" s="27">
-        <v>1</v>
-      </c>
-      <c r="R41" s="27">
+      <c r="Q41" s="26">
+        <v>1</v>
+      </c>
+      <c r="R41" s="26">
         <v>2</v>
       </c>
-      <c r="S41" s="27" t="s">
+      <c r="S41" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="T41" s="27" t="s">
+      <c r="T41" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="U41" s="27" t="s">
+      <c r="U41" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="V41" s="34" t="s">
+      <c r="V41" s="33" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
+      <c r="W41" s="33"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
         <v>1040</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="26">
         <v>15</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>4001</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="26">
         <v>6001</v>
       </c>
-      <c r="G42" s="27">
-        <v>1</v>
-      </c>
-      <c r="H42" s="27">
+      <c r="G42" s="26">
+        <v>1</v>
+      </c>
+      <c r="H42" s="26">
         <v>2</v>
       </c>
-      <c r="I42" s="27">
-        <v>3</v>
-      </c>
-      <c r="J42" s="27">
+      <c r="I42" s="26">
+        <v>3</v>
+      </c>
+      <c r="J42" s="26">
         <v>4</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="26">
         <v>5</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="26">
         <v>6</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="26">
         <v>7</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="26">
         <v>8</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O42" s="26">
         <v>9</v>
       </c>
-      <c r="P42" s="27">
+      <c r="P42" s="26">
         <v>10</v>
       </c>
-      <c r="Q42" s="27">
-        <v>1</v>
-      </c>
-      <c r="R42" s="27">
+      <c r="Q42" s="26">
+        <v>1</v>
+      </c>
+      <c r="R42" s="26">
         <v>2</v>
       </c>
-      <c r="S42" s="27" t="s">
+      <c r="S42" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="T42" s="27" t="s">
+      <c r="T42" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="U42" s="27" t="s">
+      <c r="U42" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="V42" s="34" t="s">
+      <c r="V42" s="33" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="W42" s="33"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
         <v>1041</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="26">
         <v>16</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="26">
         <v>4001</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="26">
         <v>6001</v>
       </c>
-      <c r="G43" s="27">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27">
+      <c r="G43" s="26">
+        <v>1</v>
+      </c>
+      <c r="H43" s="26">
         <v>2</v>
       </c>
-      <c r="I43" s="27">
-        <v>3</v>
-      </c>
-      <c r="J43" s="27">
+      <c r="I43" s="26">
+        <v>3</v>
+      </c>
+      <c r="J43" s="26">
         <v>4</v>
       </c>
-      <c r="K43" s="27">
+      <c r="K43" s="26">
         <v>5</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="26">
         <v>6</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="26">
         <v>7</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="26">
         <v>8</v>
       </c>
-      <c r="O43" s="27">
+      <c r="O43" s="26">
         <v>9</v>
       </c>
-      <c r="P43" s="27">
+      <c r="P43" s="26">
         <v>10</v>
       </c>
-      <c r="Q43" s="27">
-        <v>1</v>
-      </c>
-      <c r="R43" s="27">
+      <c r="Q43" s="26">
+        <v>1</v>
+      </c>
+      <c r="R43" s="26">
         <v>2</v>
       </c>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
         <v>1042</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <v>16</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="26">
         <v>4001</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="26">
         <v>6001</v>
       </c>
-      <c r="G44" s="27">
-        <v>1</v>
-      </c>
-      <c r="H44" s="27">
+      <c r="G44" s="26">
+        <v>1</v>
+      </c>
+      <c r="H44" s="26">
         <v>2</v>
       </c>
-      <c r="I44" s="27">
-        <v>3</v>
-      </c>
-      <c r="J44" s="27">
+      <c r="I44" s="26">
+        <v>3</v>
+      </c>
+      <c r="J44" s="26">
         <v>4</v>
       </c>
-      <c r="K44" s="27">
+      <c r="K44" s="26">
         <v>5</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L44" s="26">
         <v>6</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M44" s="26">
         <v>7</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="26">
         <v>8</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="26">
         <v>9</v>
       </c>
-      <c r="P44" s="27">
+      <c r="P44" s="26">
         <v>10</v>
       </c>
-      <c r="Q44" s="27">
-        <v>1</v>
-      </c>
-      <c r="R44" s="27">
+      <c r="Q44" s="26">
+        <v>1</v>
+      </c>
+      <c r="R44" s="26">
         <v>2</v>
       </c>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>1043</v>
       </c>
       <c r="B45" t="s">
@@ -6144,46 +6196,46 @@
       <c r="D45" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45">
         <v>4001</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45">
         <v>6001</v>
       </c>
-      <c r="G45" s="25">
-        <v>1</v>
-      </c>
-      <c r="H45" s="25">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>2</v>
       </c>
-      <c r="I45" s="25">
-        <v>3</v>
-      </c>
-      <c r="J45" s="25">
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
         <v>4</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45">
         <v>5</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45">
         <v>6</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45">
         <v>7</v>
       </c>
-      <c r="N45" s="25">
+      <c r="N45">
         <v>8</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45">
         <v>9</v>
       </c>
-      <c r="P45" s="25">
+      <c r="P45">
         <v>10</v>
       </c>
-      <c r="Q45" s="25">
-        <v>1</v>
-      </c>
-      <c r="R45" s="25">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
         <v>2</v>
       </c>
       <c r="S45" t="s">
@@ -6198,12 +6250,13 @@
       <c r="V45" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="19"/>
+      <c r="X45" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>1044</v>
       </c>
       <c r="B46" t="s">
@@ -6215,46 +6268,46 @@
       <c r="D46" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46">
         <v>4001</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46">
         <v>6001</v>
       </c>
-      <c r="G46" s="25">
-        <v>1</v>
-      </c>
-      <c r="H46" s="25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="I46" s="25">
-        <v>3</v>
-      </c>
-      <c r="J46" s="25">
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46">
         <v>5</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46">
         <v>6</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46">
         <v>7</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46">
         <v>8</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46">
         <v>9</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P46">
         <v>10</v>
       </c>
-      <c r="Q46" s="25">
-        <v>1</v>
-      </c>
-      <c r="R46" s="25">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
         <v>2</v>
       </c>
       <c r="S46" t="s">
@@ -6269,12 +6322,13 @@
       <c r="V46" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="19"/>
+      <c r="X46" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>1045</v>
       </c>
       <c r="B47" t="s">
@@ -6286,46 +6340,46 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47">
         <v>4001</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47">
         <v>6001</v>
       </c>
-      <c r="G47" s="25">
-        <v>1</v>
-      </c>
-      <c r="H47" s="25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>2</v>
       </c>
-      <c r="I47" s="25">
-        <v>3</v>
-      </c>
-      <c r="J47" s="25">
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
         <v>4</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47">
         <v>5</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47">
         <v>6</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47">
         <v>7</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47">
         <v>8</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47">
         <v>9</v>
       </c>
-      <c r="P47" s="25">
+      <c r="P47">
         <v>10</v>
       </c>
-      <c r="Q47" s="25">
-        <v>1</v>
-      </c>
-      <c r="R47" s="25">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
         <v>2</v>
       </c>
       <c r="S47" t="s">
@@ -6340,7 +6394,8 @@
       <c r="V47" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6692,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A8E05-8BF0-4C0B-8FB9-E79E18BA2F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944215F2-E377-4935-8004-1492B70B19A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="4065" windowWidth="34785" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="641">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2580,6 +2580,38 @@
   </si>
   <si>
     <t>FrontHalo : Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217, 169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-193, -100, 46, -678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172, 134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44, -42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-85, -296, -210, -742</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3175,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6116,10 +6148,18 @@
       <c r="R43" s="26">
         <v>2</v>
       </c>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
+      <c r="S43" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="T43" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="U43" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="V43" s="33" t="s">
+        <v>635</v>
+      </c>
       <c r="W43" s="26"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
@@ -6177,10 +6217,18 @@
       <c r="R44" s="26">
         <v>2</v>
       </c>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
+      <c r="S44" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="T44" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="U44" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="V44" s="33" t="s">
+        <v>640</v>
+      </c>
       <c r="W44" s="26"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944215F2-E377-4935-8004-1492B70B19A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55B504-FA01-4062-B549-0F8B1AF4F0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3075" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="4320" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="780">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1153,18 +1153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 3초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방패를 전개해 바라보는 방향에서 오는 모든 피해를 방어합니다. (대책위원회 시너지 : 근접전투 진행시 전투 대상을 5초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드론을 배치, 드론은 30초간 전장에 머물면서 주변 적들을 공격합니다.
 (대책위원회 시너지 : 드론 1기 추가 배치)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1893,10 +1881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/Background/BG_TrinityCampusPlaza</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Time On Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1957,15 +1941,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Consecratio (콘세크라시오)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyrie Eleison (키리에 엘레이손)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2475,18 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66, -80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66, -70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-435, 7, -279, -581</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>169, 127</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2612,6 +2576,537 @@
   </si>
   <si>
     <t>-85, -296, -210, -742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_TrinityHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_View_Trinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 사격 도중 받는 피해가 추가로 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 최대 사거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 연사속도가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다. 
+(+ 히나의 신비가 해방되어 공격이 강화됩니다. 적중한 대상의 의식을 10%씩 감소시키는 탄환을 사격합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료시간이에요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와줘요, 페로로 님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야..야한건 안돼! 사형이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4030, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4030, 2</t>
+  </si>
+  <si>
+    <t>4030, 3</t>
+  </si>
+  <si>
+    <t>4030, 4</t>
+  </si>
+  <si>
+    <t>4030, 5</t>
+  </si>
+  <si>
+    <t>4031, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4031, 2</t>
+  </si>
+  <si>
+    <t>4031, 3</t>
+  </si>
+  <si>
+    <t>4031, 4</t>
+  </si>
+  <si>
+    <t>4031, 5</t>
+  </si>
+  <si>
+    <t>4032, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4032, 2</t>
+  </si>
+  <si>
+    <t>4032, 3</t>
+  </si>
+  <si>
+    <t>4032, 4</t>
+  </si>
+  <si>
+    <t>4032, 5</t>
+  </si>
+  <si>
+    <t>4033, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4033, 2</t>
+  </si>
+  <si>
+    <t>4033, 3</t>
+  </si>
+  <si>
+    <t>4033, 4</t>
+  </si>
+  <si>
+    <t>4033, 5</t>
+  </si>
+  <si>
+    <t>4034, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4034, 2</t>
+  </si>
+  <si>
+    <t>4034, 3</t>
+  </si>
+  <si>
+    <t>4034, 4</t>
+  </si>
+  <si>
+    <t>4034, 5</t>
+  </si>
+  <si>
+    <t>4035, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035, 2</t>
+  </si>
+  <si>
+    <t>4035, 3</t>
+  </si>
+  <si>
+    <t>4035, 4</t>
+  </si>
+  <si>
+    <t>4035, 5</t>
+  </si>
+  <si>
+    <t>4036, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4036, 2</t>
+  </si>
+  <si>
+    <t>4036, 3</t>
+  </si>
+  <si>
+    <t>4036, 4</t>
+  </si>
+  <si>
+    <t>4036, 5</t>
+  </si>
+  <si>
+    <t>헛된 세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 나의 힘…...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지, 지금 지원할게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 신념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 선의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 순수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4037, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4037, 2</t>
+  </si>
+  <si>
+    <t>4037, 3</t>
+  </si>
+  <si>
+    <t>4037, 4</t>
+  </si>
+  <si>
+    <t>4037, 5</t>
+  </si>
+  <si>
+    <t>4038, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4038, 2</t>
+  </si>
+  <si>
+    <t>4038, 3</t>
+  </si>
+  <si>
+    <t>4038, 4</t>
+  </si>
+  <si>
+    <t>4038, 5</t>
+  </si>
+  <si>
+    <t>4039, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4039, 2</t>
+  </si>
+  <si>
+    <t>4039, 3</t>
+  </si>
+  <si>
+    <t>4039, 4</t>
+  </si>
+  <si>
+    <t>4039, 5</t>
+  </si>
+  <si>
+    <t>4040, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4040, 2</t>
+  </si>
+  <si>
+    <t>4040, 3</t>
+  </si>
+  <si>
+    <t>4040, 4</t>
+  </si>
+  <si>
+    <t>4040, 5</t>
+  </si>
+  <si>
+    <t>4041, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4041, 2</t>
+  </si>
+  <si>
+    <t>4041, 3</t>
+  </si>
+  <si>
+    <t>4041, 4</t>
+  </si>
+  <si>
+    <t>4041, 5</t>
+  </si>
+  <si>
+    <t>4042, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4042, 2</t>
+  </si>
+  <si>
+    <t>4042, 3</t>
+  </si>
+  <si>
+    <t>4042, 4</t>
+  </si>
+  <si>
+    <t>4042, 5</t>
+  </si>
+  <si>
+    <t>4043, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4043, 2</t>
+  </si>
+  <si>
+    <t>4043, 3</t>
+  </si>
+  <si>
+    <t>4043, 4</t>
+  </si>
+  <si>
+    <t>4043, 5</t>
+  </si>
+  <si>
+    <t>Et Omnia Vanitas!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consecratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrie Eleison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hihumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신념과 긍지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구호의 손길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 10%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 20%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 30%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 50%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 100%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나에 주변으로 회복 영역 생성, 출혈을 막고 자가회복력을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 600의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 700의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+  </si>
+  <si>
+    <t>미네가 1000의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 1500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직하게 드러내봐요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanako</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sicut Deus vult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakurako</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-80, 22, 61, -574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67, -53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울어라, 지옥참마굿즈!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hellblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠, 츠쿠요 인법첩..이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4044, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4044, 2</t>
+  </si>
+  <si>
+    <t>4044, 3</t>
+  </si>
+  <si>
+    <t>4044, 4</t>
+  </si>
+  <si>
+    <t>4044, 5</t>
+  </si>
+  <si>
+    <t>4045, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4045, 2</t>
+  </si>
+  <si>
+    <t>4045, 3</t>
+  </si>
+  <si>
+    <t>4045, 4</t>
+  </si>
+  <si>
+    <t>4045, 5</t>
+  </si>
+  <si>
+    <t>4046, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046, 2</t>
+  </si>
+  <si>
+    <t>4046, 3</t>
+  </si>
+  <si>
+    <t>4046, 4</t>
+  </si>
+  <si>
+    <t>4046, 5</t>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 쿨다운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 대상에게서 출혈이 발생합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 미치루가 시전 중 무적상태가 됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Izuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나류 오의: 앵화난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsukuyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 3초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 5초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2905,8 +3400,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C31" totalsRowShown="0">
-  <autoFilter ref="A2:C31" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C48" totalsRowShown="0">
+  <autoFilter ref="A2:C48" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -2917,8 +3412,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D147" totalsRowShown="0">
-  <autoFilter ref="A2:D147" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D232" totalsRowShown="0">
+  <autoFilter ref="A2:D232" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -3207,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3298,10 +3793,10 @@
         <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="X2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3445,7 +3940,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="X4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -4419,13 +4914,13 @@
         <v>1017</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C19" s="17">
         <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E19" s="17">
         <v>4018</v>
@@ -4470,20 +4965,20 @@
         <v>2</v>
       </c>
       <c r="S19" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="V19" s="18" t="s">
         <v>337</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="V19" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="W19" s="18"/>
       <c r="X19" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -4491,13 +4986,13 @@
         <v>1018</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C20" s="17">
         <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E20" s="17">
         <v>4019</v>
@@ -4545,17 +5040,17 @@
         <v>64</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W20" s="18"/>
       <c r="X20" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -4563,13 +5058,13 @@
         <v>1019</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C21" s="17">
         <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E21" s="17">
         <v>4020</v>
@@ -4614,20 +5109,20 @@
         <v>2</v>
       </c>
       <c r="S21" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="V21" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="V21" s="18" t="s">
-        <v>375</v>
       </c>
       <c r="W21" s="18"/>
       <c r="X21" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
@@ -4635,13 +5130,13 @@
         <v>1020</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C22" s="17">
         <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E22" s="17">
         <v>4021</v>
@@ -4686,20 +5181,20 @@
         <v>2</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="W22" s="18"/>
       <c r="X22" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -4707,7 +5202,7 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C23">
         <v>17</v>
@@ -4761,13 +5256,13 @@
         <v>89</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="W23" s="19"/>
     </row>
@@ -4776,7 +5271,7 @@
         <v>1022</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C24" s="21">
         <v>17</v>
@@ -4827,20 +5322,20 @@
         <v>2</v>
       </c>
       <c r="S24" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="V24" s="22" t="s">
         <v>426</v>
-      </c>
-      <c r="T24" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="U24" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="V24" s="22" t="s">
-        <v>429</v>
       </c>
       <c r="W24" s="22"/>
       <c r="X24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
@@ -4848,7 +5343,7 @@
         <v>1023</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C25" s="21">
         <v>17</v>
@@ -4899,20 +5394,20 @@
         <v>2</v>
       </c>
       <c r="S25" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="V25" s="22" t="s">
         <v>432</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="U25" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>435</v>
       </c>
       <c r="W25" s="22"/>
       <c r="X25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -4920,7 +5415,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C26" s="21">
         <v>17</v>
@@ -4971,20 +5466,20 @@
         <v>2</v>
       </c>
       <c r="S26" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="V26" s="22" t="s">
         <v>436</v>
-      </c>
-      <c r="T26" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="V26" s="22" t="s">
-        <v>439</v>
       </c>
       <c r="W26" s="22"/>
       <c r="X26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -4992,7 +5487,7 @@
         <v>1025</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C27" s="23">
         <v>17</v>
@@ -5043,16 +5538,16 @@
         <v>2</v>
       </c>
       <c r="S27" s="23" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T27" s="24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="W27" s="24" t="b">
         <v>1</v>
@@ -5063,7 +5558,7 @@
         <v>1026</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C28" s="23">
         <v>17</v>
@@ -5114,16 +5609,16 @@
         <v>2</v>
       </c>
       <c r="S28" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="V28" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="U28" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="V28" s="24" t="s">
-        <v>450</v>
       </c>
       <c r="W28" s="24"/>
     </row>
@@ -5132,7 +5627,7 @@
         <v>1027</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C29" s="23">
         <v>16</v>
@@ -5183,16 +5678,16 @@
         <v>2</v>
       </c>
       <c r="S29" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="V29" s="24" t="s">
         <v>451</v>
-      </c>
-      <c r="T29" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="U29" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>454</v>
       </c>
       <c r="W29" s="24"/>
     </row>
@@ -5201,7 +5696,7 @@
         <v>1028</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C30" s="23">
         <v>15</v>
@@ -5252,16 +5747,16 @@
         <v>2</v>
       </c>
       <c r="S30" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="V30" s="24" t="s">
         <v>455</v>
-      </c>
-      <c r="T30" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="U30" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="V30" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="W30" s="24"/>
     </row>
@@ -5270,7 +5765,7 @@
         <v>1029</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C31" s="27">
         <v>17</v>
@@ -5279,7 +5774,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="27">
-        <v>4001</v>
+        <v>4030</v>
       </c>
       <c r="F31" s="27">
         <v>6001</v>
@@ -5321,25 +5816,28 @@
         <v>2</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="V31" s="29" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="W31" s="29"/>
+      <c r="X31" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>1030</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C32" s="27">
         <v>16</v>
@@ -5348,7 +5846,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="27">
-        <v>4001</v>
+        <v>4031</v>
       </c>
       <c r="F32" s="27">
         <v>6001</v>
@@ -5390,25 +5888,28 @@
         <v>2</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="U32" s="29" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="V32" s="29" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="W32" s="29"/>
+      <c r="X32" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>1031</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C33" s="27">
         <v>15</v>
@@ -5417,7 +5918,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="27">
-        <v>4001</v>
+        <v>4032</v>
       </c>
       <c r="F33" s="27">
         <v>6001</v>
@@ -5459,25 +5960,28 @@
         <v>2</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="V33" s="29" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="W33" s="29"/>
+      <c r="X33" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>1032</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C34" s="25">
         <v>16</v>
@@ -5486,7 +5990,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="25">
-        <v>4001</v>
+        <v>4033</v>
       </c>
       <c r="F34" s="25">
         <v>6001</v>
@@ -5528,16 +6032,16 @@
         <v>2</v>
       </c>
       <c r="S34" s="30" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="T34" s="25" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="U34" s="25" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="V34" s="31" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="W34" s="31"/>
     </row>
@@ -5546,7 +6050,7 @@
         <v>1033</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C35" s="25">
         <v>16</v>
@@ -5555,7 +6059,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="25">
-        <v>4001</v>
+        <v>4034</v>
       </c>
       <c r="F35" s="25">
         <v>6001</v>
@@ -5597,16 +6101,16 @@
         <v>2</v>
       </c>
       <c r="S35" s="25" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="T35" s="31" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="U35" s="31" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="V35" s="31" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="W35" s="31"/>
     </row>
@@ -5615,7 +6119,7 @@
         <v>1034</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C36" s="25">
         <v>16</v>
@@ -5624,7 +6128,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="25">
-        <v>4001</v>
+        <v>4035</v>
       </c>
       <c r="F36" s="25">
         <v>6001</v>
@@ -5666,16 +6170,16 @@
         <v>2</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="T36" s="25" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="V36" s="31" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="W36" s="31"/>
     </row>
@@ -5684,7 +6188,7 @@
         <v>1035</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C37" s="25">
         <v>15</v>
@@ -5693,7 +6197,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="25">
-        <v>4001</v>
+        <v>4036</v>
       </c>
       <c r="F37" s="25">
         <v>6001</v>
@@ -5735,16 +6239,16 @@
         <v>2</v>
       </c>
       <c r="S37" s="25" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="T37" s="25" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="V37" s="31" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="W37" s="31"/>
     </row>
@@ -5753,7 +6257,7 @@
         <v>1036</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C38" s="28">
         <v>17</v>
@@ -5762,7 +6266,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="28">
-        <v>4001</v>
+        <v>4037</v>
       </c>
       <c r="F38" s="28">
         <v>6001</v>
@@ -5804,16 +6308,16 @@
         <v>2</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="T38" s="28" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="U38" s="28" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="V38" s="32" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="W38" s="32"/>
     </row>
@@ -5822,16 +6326,16 @@
         <v>1037</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C39" s="28">
         <v>17</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="28">
-        <v>4001</v>
+        <v>4038</v>
       </c>
       <c r="F39" s="28">
         <v>6001</v>
@@ -5873,16 +6377,16 @@
         <v>2</v>
       </c>
       <c r="S39" s="28" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="T39" s="32" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="V39" s="32" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="W39" s="32"/>
     </row>
@@ -5891,16 +6395,16 @@
         <v>1038</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C40" s="28">
         <v>15</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="28">
-        <v>4001</v>
+        <v>4039</v>
       </c>
       <c r="F40" s="28">
         <v>6001</v>
@@ -5942,16 +6446,16 @@
         <v>2</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>606</v>
+        <v>748</v>
       </c>
       <c r="U40" s="28" t="s">
-        <v>607</v>
+        <v>749</v>
       </c>
       <c r="V40" s="32" t="s">
-        <v>608</v>
+        <v>747</v>
       </c>
       <c r="W40" s="32"/>
     </row>
@@ -5960,7 +6464,7 @@
         <v>1039</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C41" s="26">
         <v>17</v>
@@ -5969,7 +6473,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="26">
-        <v>4001</v>
+        <v>4040</v>
       </c>
       <c r="F41" s="26">
         <v>6001</v>
@@ -6011,16 +6515,16 @@
         <v>2</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="V41" s="33" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="W41" s="33"/>
     </row>
@@ -6029,7 +6533,7 @@
         <v>1040</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C42" s="26">
         <v>15</v>
@@ -6038,7 +6542,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="26">
-        <v>4001</v>
+        <v>4041</v>
       </c>
       <c r="F42" s="26">
         <v>6001</v>
@@ -6080,16 +6584,16 @@
         <v>2</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="V42" s="33" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="W42" s="33"/>
     </row>
@@ -6098,7 +6602,7 @@
         <v>1041</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C43" s="26">
         <v>16</v>
@@ -6107,7 +6611,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="26">
-        <v>4001</v>
+        <v>4042</v>
       </c>
       <c r="F43" s="26">
         <v>6001</v>
@@ -6149,16 +6653,16 @@
         <v>2</v>
       </c>
       <c r="S43" s="26" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="T43" s="33" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="U43" s="33" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="V43" s="33" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="W43" s="26"/>
     </row>
@@ -6167,7 +6671,7 @@
         <v>1042</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C44" s="26">
         <v>16</v>
@@ -6176,7 +6680,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="26">
-        <v>4001</v>
+        <v>4043</v>
       </c>
       <c r="F44" s="26">
         <v>6001</v>
@@ -6218,233 +6722,233 @@
         <v>2</v>
       </c>
       <c r="S44" s="26" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="T44" s="26" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="U44" s="26" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="V44" s="33" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="W44" s="26"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="17">
         <v>1043</v>
       </c>
-      <c r="B45" t="s">
-        <v>555</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" s="17">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45">
-        <v>4001</v>
-      </c>
-      <c r="F45">
+      <c r="D45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="17">
+        <v>4044</v>
+      </c>
+      <c r="F45" s="17">
         <v>6001</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="17">
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="17">
         <v>2</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
+      <c r="I45" s="17">
+        <v>3</v>
+      </c>
+      <c r="J45" s="17">
         <v>4</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="17">
         <v>5</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="17">
         <v>6</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="17">
         <v>7</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="17">
         <v>8</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="17">
         <v>9</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="17">
         <v>10</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="17">
         <v>1</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="17">
         <v>2</v>
       </c>
-      <c r="S45" t="s">
-        <v>609</v>
-      </c>
-      <c r="T45" t="s">
-        <v>610</v>
-      </c>
-      <c r="U45" t="s">
-        <v>611</v>
-      </c>
-      <c r="V45" s="19" t="s">
-        <v>612</v>
+      <c r="S45" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="U45" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="V45" s="18" t="s">
+        <v>603</v>
       </c>
       <c r="W45" s="19"/>
       <c r="X45" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="17">
         <v>1044</v>
       </c>
-      <c r="B46" t="s">
-        <v>556</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C46" s="17">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E46">
-        <v>4001</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="17">
+        <v>4045</v>
+      </c>
+      <c r="F46" s="17">
         <v>6001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="17">
         <v>1</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="17">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
+      <c r="I46" s="17">
+        <v>3</v>
+      </c>
+      <c r="J46" s="17">
         <v>4</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="17">
         <v>5</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="17">
         <v>6</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="17">
         <v>7</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="17">
         <v>8</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="17">
         <v>9</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="17">
         <v>10</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="17">
         <v>1</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="17">
         <v>2</v>
       </c>
-      <c r="S46" t="s">
-        <v>615</v>
-      </c>
-      <c r="T46" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="U46" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="V46" s="19" t="s">
-        <v>618</v>
+      <c r="S46" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="T46" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="U46" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="V46" s="18" t="s">
+        <v>609</v>
       </c>
       <c r="W46" s="19"/>
       <c r="X46" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>1045</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C47" s="17">
+        <v>15</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="17">
+        <v>4046</v>
+      </c>
+      <c r="F47" s="17">
+        <v>6001</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>2</v>
+      </c>
+      <c r="I47" s="17">
+        <v>3</v>
+      </c>
+      <c r="J47" s="17">
+        <v>4</v>
+      </c>
+      <c r="K47" s="17">
+        <v>5</v>
+      </c>
+      <c r="L47" s="17">
+        <v>6</v>
+      </c>
+      <c r="M47" s="17">
+        <v>7</v>
+      </c>
+      <c r="N47" s="17">
+        <v>8</v>
+      </c>
+      <c r="O47" s="17">
+        <v>9</v>
+      </c>
+      <c r="P47" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>1</v>
+      </c>
+      <c r="R47" s="17">
+        <v>2</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="T47" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="V47" s="18" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1045</v>
-      </c>
-      <c r="B47" t="s">
-        <v>557</v>
-      </c>
-      <c r="C47">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47">
-        <v>4001</v>
-      </c>
-      <c r="F47">
-        <v>6001</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <v>6</v>
-      </c>
-      <c r="M47">
-        <v>7</v>
-      </c>
-      <c r="N47">
-        <v>8</v>
-      </c>
-      <c r="O47">
-        <v>9</v>
-      </c>
-      <c r="P47">
-        <v>10</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47" t="s">
-        <v>619</v>
-      </c>
-      <c r="T47" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="U47" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="V47" s="19" t="s">
-        <v>622</v>
       </c>
       <c r="W47" s="19"/>
       <c r="X47" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -6540,10 +7044,10 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6551,7 +7055,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C8">
         <v>1021</v>
@@ -6562,10 +7066,10 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6573,10 +7077,10 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6584,10 +7088,10 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6595,10 +7099,10 @@
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C12" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6606,10 +7110,10 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6617,10 +7121,10 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6628,10 +7132,10 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C15" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +7155,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6678,7 +7182,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6731,10 +7235,10 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6742,13 +7246,13 @@
         <v>3005</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6756,13 +7260,13 @@
         <v>3006</v>
       </c>
       <c r="B8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C8">
         <v>2013</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6770,13 +7274,13 @@
         <v>3007</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C9">
         <v>2012</v>
       </c>
       <c r="D9" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -6793,10 +7297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7013,10 +7517,10 @@
         <v>4018</v>
       </c>
       <c r="B20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" t="s">
         <v>379</v>
-      </c>
-      <c r="C20" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7024,7 +7528,7 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
@@ -7035,10 +7539,10 @@
         <v>4020</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7046,10 +7550,10 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7057,10 +7561,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7068,10 +7572,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7079,10 +7583,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>481</v>
+        <v>720</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7090,10 +7594,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>719</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7101,10 +7605,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C28" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7112,10 +7616,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C29" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7123,10 +7627,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -7134,10 +7638,197 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C31" t="s">
-        <v>531</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>723</v>
+      </c>
+      <c r="C32" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C33" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>640</v>
+      </c>
+      <c r="C35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C36" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>740</v>
+      </c>
+      <c r="C37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>641</v>
+      </c>
+      <c r="C38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>680</v>
+      </c>
+      <c r="C39" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>718</v>
+      </c>
+      <c r="C42" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>678</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C44" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>679</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>750</v>
+      </c>
+      <c r="C46" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4045</v>
+      </c>
+      <c r="B47" t="s">
+        <v>774</v>
+      </c>
+      <c r="C47" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>752</v>
+      </c>
+      <c r="C48" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -7154,10 +7845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7576,7 +8267,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>279</v>
+        <v>777</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -7587,7 +8278,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>279</v>
+        <v>777</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -7598,7 +8289,7 @@
         <v>140</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>279</v>
+        <v>777</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -7609,7 +8300,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>280</v>
+        <v>779</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -7620,7 +8311,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>281</v>
+        <v>778</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -7631,7 +8322,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -7642,7 +8333,7 @@
         <v>144</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -7653,7 +8344,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -7664,7 +8355,7 @@
         <v>146</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -7675,7 +8366,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -7686,7 +8377,7 @@
         <v>148</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -7697,7 +8388,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -7708,7 +8399,7 @@
         <v>150</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -7719,7 +8410,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -7730,7 +8421,7 @@
         <v>152</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -7741,7 +8432,7 @@
         <v>166</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -7752,7 +8443,7 @@
         <v>167</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -7763,7 +8454,7 @@
         <v>168</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -7774,7 +8465,7 @@
         <v>169</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -7785,7 +8476,7 @@
         <v>170</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -7796,7 +8487,7 @@
         <v>171</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -7807,7 +8498,7 @@
         <v>172</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -7818,7 +8509,7 @@
         <v>173</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -7829,7 +8520,7 @@
         <v>174</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -7840,7 +8531,7 @@
         <v>175</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -7851,7 +8542,7 @@
         <v>197</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -7862,7 +8553,7 @@
         <v>198</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -7873,7 +8564,7 @@
         <v>199</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -7884,7 +8575,7 @@
         <v>200</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -7895,7 +8586,7 @@
         <v>201</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -7906,7 +8597,7 @@
         <v>202</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -7917,7 +8608,7 @@
         <v>203</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7928,7 +8619,7 @@
         <v>204</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7939,7 +8630,7 @@
         <v>205</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -7950,7 +8641,7 @@
         <v>206</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -7961,7 +8652,7 @@
         <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7972,7 +8663,7 @@
         <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7983,7 +8674,7 @@
         <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7994,7 +8685,7 @@
         <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -8005,7 +8696,7 @@
         <v>211</v>
       </c>
       <c r="B77" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -8071,7 +8762,7 @@
         <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -8082,7 +8773,7 @@
         <v>234</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -8093,7 +8784,7 @@
         <v>235</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -8104,7 +8795,7 @@
         <v>236</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -8115,7 +8806,7 @@
         <v>237</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -8123,54 +8814,54 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" t="s">
+        <v>634</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>346</v>
       </c>
-      <c r="B88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>347</v>
-      </c>
-      <c r="B89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>349</v>
-      </c>
-      <c r="B91" t="s">
-        <v>48</v>
+      <c r="B91" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>350</v>
-      </c>
-      <c r="B92" t="s">
-        <v>48</v>
+        <v>347</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -8178,7 +8869,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -8189,7 +8880,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
@@ -8200,7 +8891,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -8211,7 +8902,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -8222,7 +8913,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -8233,10 +8924,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -8244,10 +8935,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B99" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -8255,10 +8946,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B100" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -8266,10 +8957,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -8277,10 +8968,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B102" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -8288,10 +8979,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -8299,10 +8990,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -8310,10 +9001,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>389</v>
+      </c>
+      <c r="B105" t="s">
         <v>392</v>
-      </c>
-      <c r="B105" t="s">
-        <v>395</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -8321,10 +9012,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -8332,10 +9023,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -8343,7 +9034,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -8354,7 +9045,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -8365,7 +9056,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -8376,7 +9067,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -8387,7 +9078,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -8398,10 +9089,10 @@
     </row>
     <row r="113" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -8409,10 +9100,10 @@
     </row>
     <row r="114" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -8420,10 +9111,10 @@
     </row>
     <row r="115" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -8431,10 +9122,10 @@
     </row>
     <row r="116" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -8442,10 +9133,10 @@
     </row>
     <row r="117" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -8453,10 +9144,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B118" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -8464,10 +9155,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B119" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -8475,10 +9166,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B120" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -8486,10 +9177,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B121" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -8497,10 +9188,10 @@
     </row>
     <row r="122" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -8508,10 +9199,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B123" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -8519,10 +9210,10 @@
     </row>
     <row r="124" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -8530,10 +9221,10 @@
     </row>
     <row r="125" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -8541,10 +9232,10 @@
     </row>
     <row r="126" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -8552,10 +9243,10 @@
     </row>
     <row r="127" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -8563,10 +9254,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -8574,10 +9265,10 @@
     </row>
     <row r="129" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -8585,10 +9276,10 @@
     </row>
     <row r="130" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -8596,10 +9287,10 @@
     </row>
     <row r="131" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -8607,10 +9298,10 @@
     </row>
     <row r="132" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -8618,10 +9309,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B133" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -8629,10 +9320,10 @@
     </row>
     <row r="134" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -8640,10 +9331,10 @@
     </row>
     <row r="135" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -8651,10 +9342,10 @@
     </row>
     <row r="136" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -8662,10 +9353,10 @@
     </row>
     <row r="137" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -8673,10 +9364,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B138" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -8684,10 +9375,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -8695,10 +9386,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -8706,10 +9397,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -8717,10 +9408,10 @@
     </row>
     <row r="142" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8728,10 +9419,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B143" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -8739,10 +9430,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B144" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -8750,10 +9441,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B145" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -8761,10 +9452,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B146" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -8772,12 +9463,947 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B147" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>642</v>
+      </c>
+      <c r="B148" t="s">
+        <v>735</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>643</v>
+      </c>
+      <c r="B149" t="s">
+        <v>736</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>644</v>
+      </c>
+      <c r="B150" t="s">
+        <v>737</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>645</v>
+      </c>
+      <c r="B151" t="s">
+        <v>738</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>646</v>
+      </c>
+      <c r="B152" t="s">
+        <v>739</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>647</v>
+      </c>
+      <c r="B153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>648</v>
+      </c>
+      <c r="B154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>649</v>
+      </c>
+      <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>650</v>
+      </c>
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>651</v>
+      </c>
+      <c r="B157" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>652</v>
+      </c>
+      <c r="B158" t="s">
+        <v>734</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>653</v>
+      </c>
+      <c r="B159" t="s">
+        <v>734</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>654</v>
+      </c>
+      <c r="B160" t="s">
+        <v>734</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>655</v>
+      </c>
+      <c r="B161" t="s">
+        <v>734</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>656</v>
+      </c>
+      <c r="B162" t="s">
+        <v>734</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>657</v>
+      </c>
+      <c r="B163" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>658</v>
+      </c>
+      <c r="B164" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>659</v>
+      </c>
+      <c r="B165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>660</v>
+      </c>
+      <c r="B166" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>661</v>
+      </c>
+      <c r="B167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>662</v>
+      </c>
+      <c r="B168" t="s">
+        <v>729</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>663</v>
+      </c>
+      <c r="B169" t="s">
+        <v>730</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>664</v>
+      </c>
+      <c r="B170" t="s">
+        <v>731</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>665</v>
+      </c>
+      <c r="B171" t="s">
+        <v>732</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>666</v>
+      </c>
+      <c r="B172" t="s">
+        <v>733</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>667</v>
+      </c>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>668</v>
+      </c>
+      <c r="B174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>669</v>
+      </c>
+      <c r="B175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>670</v>
+      </c>
+      <c r="B176" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>671</v>
+      </c>
+      <c r="B177" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>672</v>
+      </c>
+      <c r="B178" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>673</v>
+      </c>
+      <c r="B179" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>674</v>
+      </c>
+      <c r="B180" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>675</v>
+      </c>
+      <c r="B181" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>676</v>
+      </c>
+      <c r="B182" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>683</v>
+      </c>
+      <c r="B183" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>684</v>
+      </c>
+      <c r="B184" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>685</v>
+      </c>
+      <c r="B185" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>686</v>
+      </c>
+      <c r="B186" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>687</v>
+      </c>
+      <c r="B187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>688</v>
+      </c>
+      <c r="B188" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>689</v>
+      </c>
+      <c r="B189" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>690</v>
+      </c>
+      <c r="B190" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>691</v>
+      </c>
+      <c r="B191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>692</v>
+      </c>
+      <c r="B192" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>693</v>
+      </c>
+      <c r="B193" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>694</v>
+      </c>
+      <c r="B194" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>695</v>
+      </c>
+      <c r="B195" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>696</v>
+      </c>
+      <c r="B196" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>697</v>
+      </c>
+      <c r="B197" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>698</v>
+      </c>
+      <c r="B198" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>699</v>
+      </c>
+      <c r="B199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>700</v>
+      </c>
+      <c r="B200" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>701</v>
+      </c>
+      <c r="B201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>702</v>
+      </c>
+      <c r="B202" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>703</v>
+      </c>
+      <c r="B203" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>704</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>705</v>
+      </c>
+      <c r="B205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>706</v>
+      </c>
+      <c r="B206" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>707</v>
+      </c>
+      <c r="B207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>708</v>
+      </c>
+      <c r="B208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>709</v>
+      </c>
+      <c r="B209" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>710</v>
+      </c>
+      <c r="B210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>711</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>713</v>
+      </c>
+      <c r="B213" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>714</v>
+      </c>
+      <c r="B214" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>715</v>
+      </c>
+      <c r="B215" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>716</v>
+      </c>
+      <c r="B216" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>717</v>
+      </c>
+      <c r="B217" t="s">
+        <v>48</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>753</v>
+      </c>
+      <c r="B218" t="s">
+        <v>768</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>754</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>755</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>756</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>757</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>758</v>
+      </c>
+      <c r="B223" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>759</v>
+      </c>
+      <c r="B224" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>760</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>761</v>
+      </c>
+      <c r="B226" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>762</v>
+      </c>
+      <c r="B227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>763</v>
+      </c>
+      <c r="B228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>764</v>
+      </c>
+      <c r="B229" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>765</v>
+      </c>
+      <c r="B230" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>766</v>
+      </c>
+      <c r="B231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>767</v>
+      </c>
+      <c r="B232" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232">
         <v>5</v>
       </c>
     </row>
@@ -8833,13 +10459,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8847,13 +10473,13 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8861,13 +10487,13 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8875,7 +10501,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -8889,13 +10515,13 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8903,13 +10529,13 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8917,13 +10543,13 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -8931,13 +10557,13 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8945,7 +10571,7 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -8959,7 +10585,7 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -8973,13 +10599,13 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8987,13 +10613,13 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -9001,13 +10627,13 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -9015,13 +10641,13 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -9113,13 +10739,13 @@
         <v>6007</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -9127,13 +10753,13 @@
         <v>6008</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="16">
-        <v>3</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -9141,13 +10767,13 @@
         <v>6009</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -9155,13 +10781,13 @@
         <v>6010</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C26" s="16">
         <v>3</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -9169,13 +10795,13 @@
         <v>6011</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C27" s="14">
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -9183,13 +10809,13 @@
         <v>6012</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C28" s="16">
         <v>3</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -9197,13 +10823,13 @@
         <v>6013</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C29" s="14">
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -9211,13 +10837,13 @@
         <v>6014</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C30" s="16">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -9225,13 +10851,13 @@
         <v>6015</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C31" s="14">
         <v>3</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -9239,13 +10865,13 @@
         <v>6016</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C32" s="16">
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -9253,13 +10879,13 @@
         <v>6017</v>
       </c>
       <c r="B33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -9267,13 +10893,13 @@
         <v>6018</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -9281,13 +10907,13 @@
         <v>6019</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -9295,13 +10921,13 @@
         <v>6020</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -9309,7 +10935,7 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C37">
         <v>3</v>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55B504-FA01-4062-B549-0F8B1AF4F0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF55F1B-5A01-450D-87BC-89D2DA041CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="4320" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="786">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3063,11 +3063,6 @@
   </si>
   <si>
     <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 쿨다운 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
 (+ 범위가 10% 증가합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3107,6 +3102,39 @@
   </si>
   <si>
     <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hiyori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 사거리가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3703,7 +3731,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7299,8 +7327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7762,7 +7790,7 @@
         <v>718</v>
       </c>
       <c r="C42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -7795,7 +7823,7 @@
         <v>679</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -7814,10 +7842,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -7828,7 +7856,7 @@
         <v>752</v>
       </c>
       <c r="C48" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -7847,8 +7875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8267,7 +8295,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -8278,7 +8306,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -8289,7 +8317,7 @@
         <v>140</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -8300,7 +8328,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -8311,7 +8339,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -10192,51 +10220,51 @@
         <v>713</v>
       </c>
       <c r="B213" t="s">
-        <v>48</v>
+        <v>780</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>714</v>
       </c>
-      <c r="B214" t="s">
-        <v>48</v>
+      <c r="B214" s="10" t="s">
+        <v>781</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>715</v>
       </c>
-      <c r="B215" t="s">
-        <v>48</v>
+      <c r="B215" s="10" t="s">
+        <v>782</v>
       </c>
       <c r="C215">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>716</v>
       </c>
-      <c r="B216" t="s">
-        <v>48</v>
+      <c r="B216" s="10" t="s">
+        <v>783</v>
       </c>
       <c r="C216">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>717</v>
       </c>
-      <c r="B217" t="s">
-        <v>48</v>
+      <c r="B217" s="10" t="s">
+        <v>785</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -10258,7 +10286,7 @@
         <v>754</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -10269,7 +10297,7 @@
         <v>755</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -10280,7 +10308,7 @@
         <v>756</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -10291,7 +10319,7 @@
         <v>757</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C222">
         <v>5</v>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF55F1B-5A01-450D-87BC-89D2DA041CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD39439-E917-4F34-910C-614DB165CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="4320" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="4065" windowWidth="34785" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="788">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3135,6 +3135,14 @@
   <si>
     <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
 (+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSkillLevel : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046, 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3351,7 +3359,16 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3370,15 +3387,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:X47" totalsRowShown="0">
-  <autoFilter ref="A2:X47" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:Y47" totalsRowShown="0">
+  <autoFilter ref="A2:Y47" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer"/>
     <tableColumn id="4" xr3:uid="{5282C163-3525-4F9F-B35F-F80A01385114}" name="Attribute : String"/>
     <tableColumn id="5" xr3:uid="{0775B04D-D028-4799-8E6A-2D1487C9FDCC}" name="SkillId : Integer"/>
     <tableColumn id="6" xr3:uid="{049EF2DF-7279-4305-8A34-D15D5D8E51D2}" name="WeaponId : Integer"/>
+    <tableColumn id="25" xr3:uid="{A2962EBE-0B9D-4C92-9137-4F39D3ADDA5F}" name="MaxSkillLevel : Integer" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{9DB1C887-4D44-4B5E-8F77-1A5B4DF69B67}" name="DefaultShooting : Integer"/>
     <tableColumn id="8" xr3:uid="{D0581AD1-2C29-4C36-8CE4-7769D888CF1C}" name="DefaultMelee : Integer"/>
     <tableColumn id="9" xr3:uid="{C9D71FDC-3176-4243-B6D1-61884EACCAAE}" name="DefaultConstruction : Integer"/>
@@ -3440,8 +3458,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D232" totalsRowShown="0">
-  <autoFilter ref="A2:D232" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D233" totalsRowShown="0">
+  <autoFilter ref="A2:D233" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
@@ -3728,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3741,19 +3759,21 @@
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="21" width="15.625" customWidth="1"/>
-    <col min="22" max="22" width="20.625" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="37" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="19" width="10.625" customWidth="1"/>
+    <col min="20" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="20.625" customWidth="1"/>
+    <col min="24" max="24" width="13.25" customWidth="1"/>
+    <col min="25" max="25" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3773,61 +3793,64 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>62</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>623</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
@@ -3846,60 +3869,61 @@
       <c r="F3" s="4">
         <v>6001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
-        <v>3</v>
-      </c>
       <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
         <v>4</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>5</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>6</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>7</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>8</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>9</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>10</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>2</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
@@ -3918,60 +3942,61 @@
       <c r="F4" s="4">
         <v>6002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
       <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
         <v>4</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>7</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>8</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>9</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>10</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1003</v>
       </c>
@@ -3990,57 +4015,58 @@
       <c r="F5" s="5">
         <v>6003</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
-        <v>3</v>
-      </c>
       <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>6</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>7</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>8</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>9</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>10</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>2</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1004</v>
       </c>
@@ -4059,57 +4085,58 @@
       <c r="F6" s="5">
         <v>6004</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
       <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>6</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>7</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>8</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>9</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>10</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>1</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1005</v>
       </c>
@@ -4128,57 +4155,58 @@
       <c r="F7" s="5">
         <v>6005</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="5">
-        <v>3</v>
-      </c>
       <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>6</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>7</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>8</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>10</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>2</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1006</v>
       </c>
@@ -4197,57 +4225,58 @@
       <c r="F8" s="5">
         <v>6006</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
-        <v>3</v>
-      </c>
       <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>5</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>6</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>7</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>8</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>9</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>10</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>1</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>2</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1007</v>
       </c>
@@ -4266,57 +4295,58 @@
       <c r="F9" s="2">
         <v>6007</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
       <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>6</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>7</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>8</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>9</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>10</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>2</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1008</v>
       </c>
@@ -4335,57 +4365,58 @@
       <c r="F10" s="2">
         <v>6008</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
       <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>7</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>9</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>1</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>2</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1009</v>
       </c>
@@ -4404,57 +4435,58 @@
       <c r="F11" s="2">
         <v>6009</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
       <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
         <v>4</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>6</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>7</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>8</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>9</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>10</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>2</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1010</v>
       </c>
@@ -4473,57 +4505,58 @@
       <c r="F12" s="2">
         <v>6010</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
       <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
         <v>4</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>5</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>6</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>7</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>8</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>9</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>10</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>2</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1011</v>
       </c>
@@ -4542,57 +4575,58 @@
       <c r="F13" s="2">
         <v>6011</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <v>3</v>
-      </c>
       <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>6</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>7</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>8</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>9</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>10</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="2">
         <v>2</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1012</v>
       </c>
@@ -4611,57 +4645,58 @@
       <c r="F14" s="6">
         <v>6012</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="6">
-        <v>3</v>
-      </c>
       <c r="J14" s="6">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
         <v>4</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>5</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>6</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>7</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>8</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>9</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <v>2</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="V14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1013</v>
       </c>
@@ -4680,57 +4715,58 @@
       <c r="F15" s="6">
         <v>10005</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
-        <v>3</v>
-      </c>
       <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6">
         <v>4</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>5</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>6</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>7</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>8</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <v>9</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>1</v>
       </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <v>2</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="V15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="W15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1014</v>
       </c>
@@ -4749,57 +4785,58 @@
       <c r="F16" s="6">
         <v>6014</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
-        <v>3</v>
-      </c>
       <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6">
         <v>4</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>5</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>6</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>7</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>8</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <v>9</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <v>10</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="6">
         <v>1</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <v>2</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="V16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="V16" s="6" t="s">
+      <c r="W16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>1015</v>
       </c>
@@ -4818,57 +4855,58 @@
       <c r="F17" s="6">
         <v>6015</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
-        <v>3</v>
-      </c>
       <c r="J17" s="6">
+        <v>3</v>
+      </c>
+      <c r="K17" s="6">
         <v>4</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>5</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>6</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <v>7</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>8</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <v>9</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="6">
         <v>1</v>
       </c>
-      <c r="R17" s="6">
+      <c r="S17" s="6">
         <v>2</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="V17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="W17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>1016</v>
       </c>
@@ -4887,57 +4925,58 @@
       <c r="F18" s="6">
         <v>10001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>2</v>
       </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
       <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
         <v>4</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>5</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <v>6</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <v>7</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <v>8</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <v>9</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <v>10</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="6">
         <v>1</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="6">
         <v>2</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="V18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="W18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1017</v>
       </c>
@@ -4956,60 +4995,61 @@
       <c r="F19" s="17">
         <v>6017</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17">
         <v>1</v>
       </c>
-      <c r="H19" s="17">
+      <c r="I19" s="17">
         <v>2</v>
       </c>
-      <c r="I19" s="17">
-        <v>3</v>
-      </c>
       <c r="J19" s="17">
+        <v>3</v>
+      </c>
+      <c r="K19" s="17">
         <v>4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>5</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>6</v>
       </c>
-      <c r="M19" s="17">
+      <c r="N19" s="17">
         <v>7</v>
       </c>
-      <c r="N19" s="17">
+      <c r="O19" s="17">
         <v>8</v>
       </c>
-      <c r="O19" s="17">
+      <c r="P19" s="17">
         <v>9</v>
       </c>
-      <c r="P19" s="17">
+      <c r="Q19" s="17">
         <v>10</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="R19" s="17">
         <v>1</v>
       </c>
-      <c r="R19" s="17">
+      <c r="S19" s="17">
         <v>2</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="T19" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="T19" s="17" t="s">
+      <c r="U19" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="V19" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="V19" s="18" t="s">
+      <c r="W19" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="18"/>
+      <c r="Y19" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>1018</v>
       </c>
@@ -5028,60 +5068,61 @@
       <c r="F20" s="17">
         <v>6018</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
         <v>1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="I20" s="17">
         <v>2</v>
       </c>
-      <c r="I20" s="17">
-        <v>3</v>
-      </c>
       <c r="J20" s="17">
+        <v>3</v>
+      </c>
+      <c r="K20" s="17">
         <v>4</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>5</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>6</v>
       </c>
-      <c r="M20" s="17">
+      <c r="N20" s="17">
         <v>7</v>
       </c>
-      <c r="N20" s="17">
+      <c r="O20" s="17">
         <v>8</v>
       </c>
-      <c r="O20" s="17">
+      <c r="P20" s="17">
         <v>9</v>
       </c>
-      <c r="P20" s="17">
+      <c r="Q20" s="17">
         <v>10</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="R20" s="17">
         <v>1</v>
       </c>
-      <c r="R20" s="17">
+      <c r="S20" s="17">
         <v>2</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="T20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="U20" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="V20" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="V20" s="18" t="s">
+      <c r="W20" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="W20" s="18"/>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="18"/>
+      <c r="Y20" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>1019</v>
       </c>
@@ -5100,60 +5141,61 @@
       <c r="F21" s="17">
         <v>6019</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I21" s="17">
         <v>2</v>
       </c>
-      <c r="I21" s="17">
-        <v>3</v>
-      </c>
       <c r="J21" s="17">
+        <v>3</v>
+      </c>
+      <c r="K21" s="17">
         <v>4</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>5</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>6</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>7</v>
       </c>
-      <c r="N21" s="17">
+      <c r="O21" s="17">
         <v>8</v>
       </c>
-      <c r="O21" s="17">
+      <c r="P21" s="17">
         <v>9</v>
       </c>
-      <c r="P21" s="17">
+      <c r="Q21" s="17">
         <v>10</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="R21" s="17">
         <v>1</v>
       </c>
-      <c r="R21" s="17">
+      <c r="S21" s="17">
         <v>2</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="T21" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="U21" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="V21" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="W21" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="18"/>
+      <c r="Y21" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>1020</v>
       </c>
@@ -5172,60 +5214,61 @@
       <c r="F22" s="17">
         <v>6020</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
         <v>1</v>
       </c>
-      <c r="H22" s="17">
+      <c r="I22" s="17">
         <v>2</v>
       </c>
-      <c r="I22" s="17">
-        <v>3</v>
-      </c>
       <c r="J22" s="17">
+        <v>3</v>
+      </c>
+      <c r="K22" s="17">
         <v>4</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>5</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>6</v>
       </c>
-      <c r="M22" s="17">
+      <c r="N22" s="17">
         <v>7</v>
       </c>
-      <c r="N22" s="17">
+      <c r="O22" s="17">
         <v>8</v>
       </c>
-      <c r="O22" s="17">
+      <c r="P22" s="17">
         <v>9</v>
       </c>
-      <c r="P22" s="17">
+      <c r="Q22" s="17">
         <v>10</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="R22" s="17">
         <v>1</v>
       </c>
-      <c r="R22" s="17">
+      <c r="S22" s="17">
         <v>2</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="T22" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="T22" s="17" t="s">
+      <c r="U22" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="V22" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="W22" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="W22" s="18"/>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="18"/>
+      <c r="Y22" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -5244,57 +5287,57 @@
       <c r="F23">
         <v>6021</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
       <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>7</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>8</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>10</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="19" t="s">
+      <c r="U23" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="V23" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="V23" s="19" t="s">
+      <c r="W23" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="W23" s="19"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X23" s="19"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>1022</v>
       </c>
@@ -5313,60 +5356,61 @@
       <c r="F24" s="21">
         <v>6001</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="21"/>
+      <c r="H24" s="21">
         <v>1</v>
       </c>
-      <c r="H24" s="21">
+      <c r="I24" s="21">
         <v>2</v>
       </c>
-      <c r="I24" s="21">
-        <v>3</v>
-      </c>
       <c r="J24" s="21">
+        <v>3</v>
+      </c>
+      <c r="K24" s="21">
         <v>4</v>
       </c>
-      <c r="K24" s="21">
+      <c r="L24" s="21">
         <v>5</v>
       </c>
-      <c r="L24" s="21">
+      <c r="M24" s="21">
         <v>6</v>
       </c>
-      <c r="M24" s="21">
+      <c r="N24" s="21">
         <v>7</v>
       </c>
-      <c r="N24" s="21">
+      <c r="O24" s="21">
         <v>8</v>
       </c>
-      <c r="O24" s="21">
+      <c r="P24" s="21">
         <v>9</v>
       </c>
-      <c r="P24" s="21">
+      <c r="Q24" s="21">
         <v>10</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="R24" s="21">
         <v>1</v>
       </c>
-      <c r="R24" s="21">
+      <c r="S24" s="21">
         <v>2</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="T24" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="U24" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="U24" s="21" t="s">
+      <c r="V24" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="V24" s="22" t="s">
+      <c r="W24" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="W24" s="22"/>
-      <c r="X24" t="s">
+      <c r="X24" s="22"/>
+      <c r="Y24" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>1023</v>
       </c>
@@ -5385,60 +5429,61 @@
       <c r="F25" s="21">
         <v>6001</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21">
         <v>1</v>
       </c>
-      <c r="H25" s="21">
+      <c r="I25" s="21">
         <v>2</v>
       </c>
-      <c r="I25" s="21">
-        <v>3</v>
-      </c>
       <c r="J25" s="21">
+        <v>3</v>
+      </c>
+      <c r="K25" s="21">
         <v>4</v>
       </c>
-      <c r="K25" s="21">
+      <c r="L25" s="21">
         <v>5</v>
       </c>
-      <c r="L25" s="21">
+      <c r="M25" s="21">
         <v>6</v>
       </c>
-      <c r="M25" s="21">
+      <c r="N25" s="21">
         <v>7</v>
       </c>
-      <c r="N25" s="21">
+      <c r="O25" s="21">
         <v>8</v>
       </c>
-      <c r="O25" s="21">
+      <c r="P25" s="21">
         <v>9</v>
       </c>
-      <c r="P25" s="21">
+      <c r="Q25" s="21">
         <v>10</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="R25" s="21">
         <v>1</v>
       </c>
-      <c r="R25" s="21">
+      <c r="S25" s="21">
         <v>2</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="T25" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="T25" s="22" t="s">
+      <c r="U25" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="U25" s="22" t="s">
+      <c r="V25" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="W25" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="W25" s="22"/>
-      <c r="X25" t="s">
+      <c r="X25" s="22"/>
+      <c r="Y25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>1024</v>
       </c>
@@ -5457,60 +5502,61 @@
       <c r="F26" s="21">
         <v>6001</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
         <v>1</v>
       </c>
-      <c r="H26" s="21">
+      <c r="I26" s="21">
         <v>2</v>
       </c>
-      <c r="I26" s="21">
-        <v>3</v>
-      </c>
       <c r="J26" s="21">
+        <v>3</v>
+      </c>
+      <c r="K26" s="21">
         <v>4</v>
       </c>
-      <c r="K26" s="21">
+      <c r="L26" s="21">
         <v>5</v>
       </c>
-      <c r="L26" s="21">
+      <c r="M26" s="21">
         <v>6</v>
       </c>
-      <c r="M26" s="21">
+      <c r="N26" s="21">
         <v>7</v>
       </c>
-      <c r="N26" s="21">
+      <c r="O26" s="21">
         <v>8</v>
       </c>
-      <c r="O26" s="21">
+      <c r="P26" s="21">
         <v>9</v>
       </c>
-      <c r="P26" s="21">
+      <c r="Q26" s="21">
         <v>10</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="R26" s="21">
         <v>1</v>
       </c>
-      <c r="R26" s="21">
+      <c r="S26" s="21">
         <v>2</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="T26" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="V26" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="V26" s="22" t="s">
+      <c r="W26" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="W26" s="22"/>
-      <c r="X26" t="s">
+      <c r="X26" s="22"/>
+      <c r="Y26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>1025</v>
       </c>
@@ -5529,59 +5575,60 @@
       <c r="F27" s="23">
         <v>6001</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23">
         <v>1</v>
       </c>
-      <c r="H27" s="23">
+      <c r="I27" s="23">
         <v>2</v>
       </c>
-      <c r="I27" s="23">
-        <v>3</v>
-      </c>
       <c r="J27" s="23">
+        <v>3</v>
+      </c>
+      <c r="K27" s="23">
         <v>4</v>
       </c>
-      <c r="K27" s="23">
+      <c r="L27" s="23">
         <v>5</v>
       </c>
-      <c r="L27" s="23">
+      <c r="M27" s="23">
         <v>6</v>
       </c>
-      <c r="M27" s="23">
+      <c r="N27" s="23">
         <v>7</v>
       </c>
-      <c r="N27" s="23">
+      <c r="O27" s="23">
         <v>8</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>9</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="23">
         <v>10</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="R27" s="23">
         <v>1</v>
       </c>
-      <c r="R27" s="23">
+      <c r="S27" s="23">
         <v>2</v>
       </c>
-      <c r="S27" s="23" t="s">
+      <c r="T27" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="T27" s="24" t="s">
+      <c r="U27" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="U27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="W27" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="W27" s="24" t="b">
+      <c r="X27" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>1026</v>
       </c>
@@ -5600,57 +5647,58 @@
       <c r="F28" s="23">
         <v>6001</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="H28" s="23">
+      <c r="I28" s="23">
         <v>2</v>
       </c>
-      <c r="I28" s="23">
-        <v>3</v>
-      </c>
       <c r="J28" s="23">
+        <v>3</v>
+      </c>
+      <c r="K28" s="23">
         <v>4</v>
       </c>
-      <c r="K28" s="23">
+      <c r="L28" s="23">
         <v>5</v>
       </c>
-      <c r="L28" s="23">
+      <c r="M28" s="23">
         <v>6</v>
       </c>
-      <c r="M28" s="23">
+      <c r="N28" s="23">
         <v>7</v>
       </c>
-      <c r="N28" s="23">
+      <c r="O28" s="23">
         <v>8</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>9</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="23">
         <v>10</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="R28" s="23">
         <v>1</v>
       </c>
-      <c r="R28" s="23">
+      <c r="S28" s="23">
         <v>2</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="T28" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="U28" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="U28" s="23" t="s">
+      <c r="V28" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="V28" s="24" t="s">
+      <c r="W28" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X28" s="24"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>1027</v>
       </c>
@@ -5669,57 +5717,58 @@
       <c r="F29" s="23">
         <v>6001</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23">
         <v>1</v>
       </c>
-      <c r="H29" s="23">
+      <c r="I29" s="23">
         <v>2</v>
       </c>
-      <c r="I29" s="23">
-        <v>3</v>
-      </c>
       <c r="J29" s="23">
+        <v>3</v>
+      </c>
+      <c r="K29" s="23">
         <v>4</v>
       </c>
-      <c r="K29" s="23">
+      <c r="L29" s="23">
         <v>5</v>
       </c>
-      <c r="L29" s="23">
+      <c r="M29" s="23">
         <v>6</v>
       </c>
-      <c r="M29" s="23">
+      <c r="N29" s="23">
         <v>7</v>
       </c>
-      <c r="N29" s="23">
+      <c r="O29" s="23">
         <v>8</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <v>9</v>
       </c>
-      <c r="P29" s="23">
+      <c r="Q29" s="23">
         <v>10</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="R29" s="23">
         <v>1</v>
       </c>
-      <c r="R29" s="23">
+      <c r="S29" s="23">
         <v>2</v>
       </c>
-      <c r="S29" s="23" t="s">
+      <c r="T29" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="U29" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="U29" s="23" t="s">
+      <c r="V29" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="V29" s="24" t="s">
+      <c r="W29" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X29" s="24"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>1028</v>
       </c>
@@ -5738,57 +5787,58 @@
       <c r="F30" s="23">
         <v>6001</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23">
         <v>1</v>
       </c>
-      <c r="H30" s="23">
+      <c r="I30" s="23">
         <v>2</v>
       </c>
-      <c r="I30" s="23">
-        <v>3</v>
-      </c>
       <c r="J30" s="23">
+        <v>3</v>
+      </c>
+      <c r="K30" s="23">
         <v>4</v>
       </c>
-      <c r="K30" s="23">
+      <c r="L30" s="23">
         <v>5</v>
       </c>
-      <c r="L30" s="23">
+      <c r="M30" s="23">
         <v>6</v>
       </c>
-      <c r="M30" s="23">
+      <c r="N30" s="23">
         <v>7</v>
       </c>
-      <c r="N30" s="23">
+      <c r="O30" s="23">
         <v>8</v>
       </c>
-      <c r="O30" s="23">
+      <c r="P30" s="23">
         <v>9</v>
       </c>
-      <c r="P30" s="23">
+      <c r="Q30" s="23">
         <v>10</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="R30" s="23">
         <v>1</v>
       </c>
-      <c r="R30" s="23">
+      <c r="S30" s="23">
         <v>2</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="T30" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="U30" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="U30" s="23" t="s">
+      <c r="V30" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="V30" s="24" t="s">
+      <c r="W30" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="W30" s="24"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X30" s="24"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>1029</v>
       </c>
@@ -5807,60 +5857,61 @@
       <c r="F31" s="27">
         <v>6001</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="27"/>
+      <c r="H31" s="27">
         <v>1</v>
       </c>
-      <c r="H31" s="27">
+      <c r="I31" s="27">
         <v>2</v>
       </c>
-      <c r="I31" s="27">
-        <v>3</v>
-      </c>
       <c r="J31" s="27">
+        <v>3</v>
+      </c>
+      <c r="K31" s="27">
         <v>4</v>
       </c>
-      <c r="K31" s="27">
+      <c r="L31" s="27">
         <v>5</v>
       </c>
-      <c r="L31" s="27">
+      <c r="M31" s="27">
         <v>6</v>
       </c>
-      <c r="M31" s="27">
+      <c r="N31" s="27">
         <v>7</v>
       </c>
-      <c r="N31" s="27">
+      <c r="O31" s="27">
         <v>8</v>
       </c>
-      <c r="O31" s="27">
+      <c r="P31" s="27">
         <v>9</v>
       </c>
-      <c r="P31" s="27">
+      <c r="Q31" s="27">
         <v>10</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="R31" s="27">
         <v>1</v>
       </c>
-      <c r="R31" s="27">
+      <c r="S31" s="27">
         <v>2</v>
       </c>
-      <c r="S31" s="27" t="s">
+      <c r="T31" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="T31" s="27" t="s">
+      <c r="U31" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="U31" s="27" t="s">
+      <c r="V31" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="V31" s="29" t="s">
+      <c r="W31" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="W31" s="29"/>
-      <c r="X31" t="s">
+      <c r="X31" s="29"/>
+      <c r="Y31" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>1030</v>
       </c>
@@ -5879,60 +5930,61 @@
       <c r="F32" s="27">
         <v>6001</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27">
         <v>1</v>
       </c>
-      <c r="H32" s="27">
+      <c r="I32" s="27">
         <v>2</v>
       </c>
-      <c r="I32" s="27">
-        <v>3</v>
-      </c>
       <c r="J32" s="27">
+        <v>3</v>
+      </c>
+      <c r="K32" s="27">
         <v>4</v>
       </c>
-      <c r="K32" s="27">
+      <c r="L32" s="27">
         <v>5</v>
       </c>
-      <c r="L32" s="27">
+      <c r="M32" s="27">
         <v>6</v>
       </c>
-      <c r="M32" s="27">
+      <c r="N32" s="27">
         <v>7</v>
       </c>
-      <c r="N32" s="27">
+      <c r="O32" s="27">
         <v>8</v>
       </c>
-      <c r="O32" s="27">
+      <c r="P32" s="27">
         <v>9</v>
       </c>
-      <c r="P32" s="27">
+      <c r="Q32" s="27">
         <v>10</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="R32" s="27">
         <v>1</v>
       </c>
-      <c r="R32" s="27">
+      <c r="S32" s="27">
         <v>2</v>
       </c>
-      <c r="S32" s="27" t="s">
+      <c r="T32" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="T32" s="29" t="s">
+      <c r="U32" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="U32" s="29" t="s">
+      <c r="V32" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="V32" s="29" t="s">
+      <c r="W32" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="W32" s="29"/>
-      <c r="X32" t="s">
+      <c r="X32" s="29"/>
+      <c r="Y32" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>1031</v>
       </c>
@@ -5951,60 +6003,61 @@
       <c r="F33" s="27">
         <v>6001</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="27"/>
+      <c r="H33" s="27">
         <v>1</v>
       </c>
-      <c r="H33" s="27">
+      <c r="I33" s="27">
         <v>2</v>
       </c>
-      <c r="I33" s="27">
-        <v>3</v>
-      </c>
       <c r="J33" s="27">
+        <v>3</v>
+      </c>
+      <c r="K33" s="27">
         <v>4</v>
       </c>
-      <c r="K33" s="27">
+      <c r="L33" s="27">
         <v>5</v>
       </c>
-      <c r="L33" s="27">
+      <c r="M33" s="27">
         <v>6</v>
       </c>
-      <c r="M33" s="27">
+      <c r="N33" s="27">
         <v>7</v>
       </c>
-      <c r="N33" s="27">
+      <c r="O33" s="27">
         <v>8</v>
       </c>
-      <c r="O33" s="27">
+      <c r="P33" s="27">
         <v>9</v>
       </c>
-      <c r="P33" s="27">
+      <c r="Q33" s="27">
         <v>10</v>
       </c>
-      <c r="Q33" s="27">
+      <c r="R33" s="27">
         <v>1</v>
       </c>
-      <c r="R33" s="27">
+      <c r="S33" s="27">
         <v>2</v>
       </c>
-      <c r="S33" s="27" t="s">
+      <c r="T33" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="T33" s="27" t="s">
+      <c r="U33" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="U33" s="27" t="s">
+      <c r="V33" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="V33" s="29" t="s">
+      <c r="W33" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="W33" s="29"/>
-      <c r="X33" t="s">
+      <c r="X33" s="29"/>
+      <c r="Y33" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>1032</v>
       </c>
@@ -6023,57 +6076,58 @@
       <c r="F34" s="25">
         <v>6001</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25">
         <v>1</v>
       </c>
-      <c r="H34" s="25">
+      <c r="I34" s="25">
         <v>2</v>
       </c>
-      <c r="I34" s="25">
-        <v>3</v>
-      </c>
       <c r="J34" s="25">
+        <v>3</v>
+      </c>
+      <c r="K34" s="25">
         <v>4</v>
       </c>
-      <c r="K34" s="25">
+      <c r="L34" s="25">
         <v>5</v>
       </c>
-      <c r="L34" s="25">
+      <c r="M34" s="25">
         <v>6</v>
       </c>
-      <c r="M34" s="25">
+      <c r="N34" s="25">
         <v>7</v>
       </c>
-      <c r="N34" s="25">
+      <c r="O34" s="25">
         <v>8</v>
       </c>
-      <c r="O34" s="25">
+      <c r="P34" s="25">
         <v>9</v>
       </c>
-      <c r="P34" s="25">
+      <c r="Q34" s="25">
         <v>10</v>
       </c>
-      <c r="Q34" s="25">
+      <c r="R34" s="25">
         <v>1</v>
       </c>
-      <c r="R34" s="25">
+      <c r="S34" s="25">
         <v>2</v>
       </c>
-      <c r="S34" s="30" t="s">
+      <c r="T34" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="T34" s="25" t="s">
+      <c r="U34" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="U34" s="25" t="s">
+      <c r="V34" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="V34" s="31" t="s">
+      <c r="W34" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="W34" s="31"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X34" s="31"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>1033</v>
       </c>
@@ -6092,57 +6146,58 @@
       <c r="F35" s="25">
         <v>6001</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25">
         <v>1</v>
       </c>
-      <c r="H35" s="25">
+      <c r="I35" s="25">
         <v>2</v>
       </c>
-      <c r="I35" s="25">
-        <v>3</v>
-      </c>
       <c r="J35" s="25">
+        <v>3</v>
+      </c>
+      <c r="K35" s="25">
         <v>4</v>
       </c>
-      <c r="K35" s="25">
+      <c r="L35" s="25">
         <v>5</v>
       </c>
-      <c r="L35" s="25">
+      <c r="M35" s="25">
         <v>6</v>
       </c>
-      <c r="M35" s="25">
+      <c r="N35" s="25">
         <v>7</v>
       </c>
-      <c r="N35" s="25">
+      <c r="O35" s="25">
         <v>8</v>
       </c>
-      <c r="O35" s="25">
+      <c r="P35" s="25">
         <v>9</v>
       </c>
-      <c r="P35" s="25">
+      <c r="Q35" s="25">
         <v>10</v>
       </c>
-      <c r="Q35" s="25">
+      <c r="R35" s="25">
         <v>1</v>
       </c>
-      <c r="R35" s="25">
+      <c r="S35" s="25">
         <v>2</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="T35" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="T35" s="31" t="s">
+      <c r="U35" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="V35" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="V35" s="31" t="s">
+      <c r="W35" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="W35" s="31"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="31"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>1034</v>
       </c>
@@ -6161,57 +6216,58 @@
       <c r="F36" s="25">
         <v>6001</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25">
         <v>1</v>
       </c>
-      <c r="H36" s="25">
+      <c r="I36" s="25">
         <v>2</v>
       </c>
-      <c r="I36" s="25">
-        <v>3</v>
-      </c>
       <c r="J36" s="25">
+        <v>3</v>
+      </c>
+      <c r="K36" s="25">
         <v>4</v>
       </c>
-      <c r="K36" s="25">
+      <c r="L36" s="25">
         <v>5</v>
       </c>
-      <c r="L36" s="25">
+      <c r="M36" s="25">
         <v>6</v>
       </c>
-      <c r="M36" s="25">
+      <c r="N36" s="25">
         <v>7</v>
       </c>
-      <c r="N36" s="25">
+      <c r="O36" s="25">
         <v>8</v>
       </c>
-      <c r="O36" s="25">
+      <c r="P36" s="25">
         <v>9</v>
       </c>
-      <c r="P36" s="25">
+      <c r="Q36" s="25">
         <v>10</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="R36" s="25">
         <v>1</v>
       </c>
-      <c r="R36" s="25">
+      <c r="S36" s="25">
         <v>2</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="T36" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="U36" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="U36" s="25" t="s">
+      <c r="V36" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="V36" s="31" t="s">
+      <c r="W36" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="W36" s="31"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X36" s="31"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>1035</v>
       </c>
@@ -6230,57 +6286,58 @@
       <c r="F37" s="25">
         <v>6001</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25">
         <v>1</v>
       </c>
-      <c r="H37" s="25">
+      <c r="I37" s="25">
         <v>2</v>
       </c>
-      <c r="I37" s="25">
-        <v>3</v>
-      </c>
       <c r="J37" s="25">
+        <v>3</v>
+      </c>
+      <c r="K37" s="25">
         <v>4</v>
       </c>
-      <c r="K37" s="25">
+      <c r="L37" s="25">
         <v>5</v>
       </c>
-      <c r="L37" s="25">
+      <c r="M37" s="25">
         <v>6</v>
       </c>
-      <c r="M37" s="25">
+      <c r="N37" s="25">
         <v>7</v>
       </c>
-      <c r="N37" s="25">
+      <c r="O37" s="25">
         <v>8</v>
       </c>
-      <c r="O37" s="25">
+      <c r="P37" s="25">
         <v>9</v>
       </c>
-      <c r="P37" s="25">
+      <c r="Q37" s="25">
         <v>10</v>
       </c>
-      <c r="Q37" s="25">
+      <c r="R37" s="25">
         <v>1</v>
       </c>
-      <c r="R37" s="25">
+      <c r="S37" s="25">
         <v>2</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="T37" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="T37" s="25" t="s">
+      <c r="U37" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="U37" s="25" t="s">
+      <c r="V37" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="V37" s="31" t="s">
+      <c r="W37" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="W37" s="31"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X37" s="31"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>1036</v>
       </c>
@@ -6299,57 +6356,58 @@
       <c r="F38" s="28">
         <v>6001</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="28"/>
+      <c r="H38" s="28">
         <v>1</v>
       </c>
-      <c r="H38" s="28">
+      <c r="I38" s="28">
         <v>2</v>
       </c>
-      <c r="I38" s="28">
-        <v>3</v>
-      </c>
       <c r="J38" s="28">
+        <v>3</v>
+      </c>
+      <c r="K38" s="28">
         <v>4</v>
       </c>
-      <c r="K38" s="28">
+      <c r="L38" s="28">
         <v>5</v>
       </c>
-      <c r="L38" s="28">
+      <c r="M38" s="28">
         <v>6</v>
       </c>
-      <c r="M38" s="28">
+      <c r="N38" s="28">
         <v>7</v>
       </c>
-      <c r="N38" s="28">
+      <c r="O38" s="28">
         <v>8</v>
       </c>
-      <c r="O38" s="28">
+      <c r="P38" s="28">
         <v>9</v>
       </c>
-      <c r="P38" s="28">
+      <c r="Q38" s="28">
         <v>10</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="R38" s="28">
         <v>1</v>
       </c>
-      <c r="R38" s="28">
+      <c r="S38" s="28">
         <v>2</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="T38" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="T38" s="28" t="s">
+      <c r="U38" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="V38" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="V38" s="32" t="s">
+      <c r="W38" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="W38" s="32"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X38" s="32"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
         <v>1037</v>
       </c>
@@ -6368,57 +6426,58 @@
       <c r="F39" s="28">
         <v>6001</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="28"/>
+      <c r="H39" s="28">
         <v>1</v>
       </c>
-      <c r="H39" s="28">
+      <c r="I39" s="28">
         <v>2</v>
       </c>
-      <c r="I39" s="28">
-        <v>3</v>
-      </c>
       <c r="J39" s="28">
+        <v>3</v>
+      </c>
+      <c r="K39" s="28">
         <v>4</v>
       </c>
-      <c r="K39" s="28">
+      <c r="L39" s="28">
         <v>5</v>
       </c>
-      <c r="L39" s="28">
+      <c r="M39" s="28">
         <v>6</v>
       </c>
-      <c r="M39" s="28">
+      <c r="N39" s="28">
         <v>7</v>
       </c>
-      <c r="N39" s="28">
+      <c r="O39" s="28">
         <v>8</v>
       </c>
-      <c r="O39" s="28">
+      <c r="P39" s="28">
         <v>9</v>
       </c>
-      <c r="P39" s="28">
+      <c r="Q39" s="28">
         <v>10</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="R39" s="28">
         <v>1</v>
       </c>
-      <c r="R39" s="28">
+      <c r="S39" s="28">
         <v>2</v>
       </c>
-      <c r="S39" s="28" t="s">
+      <c r="T39" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="T39" s="32" t="s">
+      <c r="U39" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="U39" s="32" t="s">
+      <c r="V39" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="V39" s="32" t="s">
+      <c r="W39" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="W39" s="32"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X39" s="32"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
         <v>1038</v>
       </c>
@@ -6437,57 +6496,58 @@
       <c r="F40" s="28">
         <v>6001</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="28"/>
+      <c r="H40" s="28">
         <v>1</v>
       </c>
-      <c r="H40" s="28">
+      <c r="I40" s="28">
         <v>2</v>
       </c>
-      <c r="I40" s="28">
-        <v>3</v>
-      </c>
       <c r="J40" s="28">
+        <v>3</v>
+      </c>
+      <c r="K40" s="28">
         <v>4</v>
       </c>
-      <c r="K40" s="28">
+      <c r="L40" s="28">
         <v>5</v>
       </c>
-      <c r="L40" s="28">
+      <c r="M40" s="28">
         <v>6</v>
       </c>
-      <c r="M40" s="28">
+      <c r="N40" s="28">
         <v>7</v>
       </c>
-      <c r="N40" s="28">
+      <c r="O40" s="28">
         <v>8</v>
       </c>
-      <c r="O40" s="28">
+      <c r="P40" s="28">
         <v>9</v>
       </c>
-      <c r="P40" s="28">
+      <c r="Q40" s="28">
         <v>10</v>
       </c>
-      <c r="Q40" s="28">
+      <c r="R40" s="28">
         <v>1</v>
       </c>
-      <c r="R40" s="28">
+      <c r="S40" s="28">
         <v>2</v>
       </c>
-      <c r="S40" s="28" t="s">
+      <c r="T40" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="T40" s="28" t="s">
+      <c r="U40" s="28" t="s">
         <v>748</v>
       </c>
-      <c r="U40" s="28" t="s">
+      <c r="V40" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="V40" s="32" t="s">
+      <c r="W40" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="W40" s="32"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X40" s="32"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>1039</v>
       </c>
@@ -6506,57 +6566,58 @@
       <c r="F41" s="26">
         <v>6001</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="26"/>
+      <c r="H41" s="26">
         <v>1</v>
       </c>
-      <c r="H41" s="26">
+      <c r="I41" s="26">
         <v>2</v>
       </c>
-      <c r="I41" s="26">
-        <v>3</v>
-      </c>
       <c r="J41" s="26">
+        <v>3</v>
+      </c>
+      <c r="K41" s="26">
         <v>4</v>
       </c>
-      <c r="K41" s="26">
+      <c r="L41" s="26">
         <v>5</v>
       </c>
-      <c r="L41" s="26">
+      <c r="M41" s="26">
         <v>6</v>
       </c>
-      <c r="M41" s="26">
+      <c r="N41" s="26">
         <v>7</v>
       </c>
-      <c r="N41" s="26">
+      <c r="O41" s="26">
         <v>8</v>
       </c>
-      <c r="O41" s="26">
+      <c r="P41" s="26">
         <v>9</v>
       </c>
-      <c r="P41" s="26">
+      <c r="Q41" s="26">
         <v>10</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="R41" s="26">
         <v>1</v>
       </c>
-      <c r="R41" s="26">
+      <c r="S41" s="26">
         <v>2</v>
       </c>
-      <c r="S41" s="26" t="s">
+      <c r="T41" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="T41" s="26" t="s">
+      <c r="U41" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="U41" s="26" t="s">
+      <c r="V41" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="V41" s="33" t="s">
+      <c r="W41" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="W41" s="33"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X41" s="33"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>1040</v>
       </c>
@@ -6575,57 +6636,58 @@
       <c r="F42" s="26">
         <v>6001</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="26"/>
+      <c r="H42" s="26">
         <v>1</v>
       </c>
-      <c r="H42" s="26">
+      <c r="I42" s="26">
         <v>2</v>
       </c>
-      <c r="I42" s="26">
-        <v>3</v>
-      </c>
       <c r="J42" s="26">
+        <v>3</v>
+      </c>
+      <c r="K42" s="26">
         <v>4</v>
       </c>
-      <c r="K42" s="26">
+      <c r="L42" s="26">
         <v>5</v>
       </c>
-      <c r="L42" s="26">
+      <c r="M42" s="26">
         <v>6</v>
       </c>
-      <c r="M42" s="26">
+      <c r="N42" s="26">
         <v>7</v>
       </c>
-      <c r="N42" s="26">
+      <c r="O42" s="26">
         <v>8</v>
       </c>
-      <c r="O42" s="26">
+      <c r="P42" s="26">
         <v>9</v>
       </c>
-      <c r="P42" s="26">
+      <c r="Q42" s="26">
         <v>10</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="R42" s="26">
         <v>1</v>
       </c>
-      <c r="R42" s="26">
+      <c r="S42" s="26">
         <v>2</v>
       </c>
-      <c r="S42" s="26" t="s">
+      <c r="T42" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="T42" s="26" t="s">
+      <c r="U42" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="U42" s="26" t="s">
+      <c r="V42" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="V42" s="33" t="s">
+      <c r="W42" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="W42" s="33"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X42" s="33"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>1041</v>
       </c>
@@ -6644,57 +6706,58 @@
       <c r="F43" s="26">
         <v>6001</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="26"/>
+      <c r="H43" s="26">
         <v>1</v>
       </c>
-      <c r="H43" s="26">
+      <c r="I43" s="26">
         <v>2</v>
       </c>
-      <c r="I43" s="26">
-        <v>3</v>
-      </c>
       <c r="J43" s="26">
+        <v>3</v>
+      </c>
+      <c r="K43" s="26">
         <v>4</v>
       </c>
-      <c r="K43" s="26">
+      <c r="L43" s="26">
         <v>5</v>
       </c>
-      <c r="L43" s="26">
+      <c r="M43" s="26">
         <v>6</v>
       </c>
-      <c r="M43" s="26">
+      <c r="N43" s="26">
         <v>7</v>
       </c>
-      <c r="N43" s="26">
+      <c r="O43" s="26">
         <v>8</v>
       </c>
-      <c r="O43" s="26">
+      <c r="P43" s="26">
         <v>9</v>
       </c>
-      <c r="P43" s="26">
+      <c r="Q43" s="26">
         <v>10</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="R43" s="26">
         <v>1</v>
       </c>
-      <c r="R43" s="26">
+      <c r="S43" s="26">
         <v>2</v>
       </c>
-      <c r="S43" s="26" t="s">
+      <c r="T43" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="T43" s="33" t="s">
+      <c r="U43" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="U43" s="33" t="s">
+      <c r="V43" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="V43" s="33" t="s">
+      <c r="W43" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="W43" s="26"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X43" s="26"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>1042</v>
       </c>
@@ -6713,57 +6776,58 @@
       <c r="F44" s="26">
         <v>6001</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="26"/>
+      <c r="H44" s="26">
         <v>1</v>
       </c>
-      <c r="H44" s="26">
+      <c r="I44" s="26">
         <v>2</v>
       </c>
-      <c r="I44" s="26">
-        <v>3</v>
-      </c>
       <c r="J44" s="26">
+        <v>3</v>
+      </c>
+      <c r="K44" s="26">
         <v>4</v>
       </c>
-      <c r="K44" s="26">
+      <c r="L44" s="26">
         <v>5</v>
       </c>
-      <c r="L44" s="26">
+      <c r="M44" s="26">
         <v>6</v>
       </c>
-      <c r="M44" s="26">
+      <c r="N44" s="26">
         <v>7</v>
       </c>
-      <c r="N44" s="26">
+      <c r="O44" s="26">
         <v>8</v>
       </c>
-      <c r="O44" s="26">
+      <c r="P44" s="26">
         <v>9</v>
       </c>
-      <c r="P44" s="26">
+      <c r="Q44" s="26">
         <v>10</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="R44" s="26">
         <v>1</v>
       </c>
-      <c r="R44" s="26">
+      <c r="S44" s="26">
         <v>2</v>
       </c>
-      <c r="S44" s="26" t="s">
+      <c r="T44" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="T44" s="26" t="s">
+      <c r="U44" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="U44" s="26" t="s">
+      <c r="V44" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="V44" s="33" t="s">
+      <c r="W44" s="33" t="s">
         <v>631</v>
       </c>
-      <c r="W44" s="26"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>1043</v>
       </c>
@@ -6782,60 +6846,61 @@
       <c r="F45" s="17">
         <v>6001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="17"/>
+      <c r="H45" s="17">
         <v>1</v>
       </c>
-      <c r="H45" s="17">
+      <c r="I45" s="17">
         <v>2</v>
       </c>
-      <c r="I45" s="17">
-        <v>3</v>
-      </c>
       <c r="J45" s="17">
+        <v>3</v>
+      </c>
+      <c r="K45" s="17">
         <v>4</v>
       </c>
-      <c r="K45" s="17">
+      <c r="L45" s="17">
         <v>5</v>
       </c>
-      <c r="L45" s="17">
+      <c r="M45" s="17">
         <v>6</v>
       </c>
-      <c r="M45" s="17">
+      <c r="N45" s="17">
         <v>7</v>
       </c>
-      <c r="N45" s="17">
+      <c r="O45" s="17">
         <v>8</v>
       </c>
-      <c r="O45" s="17">
+      <c r="P45" s="17">
         <v>9</v>
       </c>
-      <c r="P45" s="17">
+      <c r="Q45" s="17">
         <v>10</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="R45" s="17">
         <v>1</v>
       </c>
-      <c r="R45" s="17">
+      <c r="S45" s="17">
         <v>2</v>
       </c>
-      <c r="S45" s="17" t="s">
+      <c r="T45" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="T45" s="17" t="s">
+      <c r="U45" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="U45" s="17" t="s">
+      <c r="V45" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="V45" s="18" t="s">
+      <c r="W45" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="W45" s="19"/>
-      <c r="X45" t="s">
+      <c r="X45" s="19"/>
+      <c r="Y45" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>1044</v>
       </c>
@@ -6854,60 +6919,61 @@
       <c r="F46" s="17">
         <v>6001</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="17"/>
+      <c r="H46" s="17">
         <v>1</v>
       </c>
-      <c r="H46" s="17">
+      <c r="I46" s="17">
         <v>2</v>
       </c>
-      <c r="I46" s="17">
-        <v>3</v>
-      </c>
       <c r="J46" s="17">
+        <v>3</v>
+      </c>
+      <c r="K46" s="17">
         <v>4</v>
       </c>
-      <c r="K46" s="17">
+      <c r="L46" s="17">
         <v>5</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="17">
         <v>6</v>
       </c>
-      <c r="M46" s="17">
+      <c r="N46" s="17">
         <v>7</v>
       </c>
-      <c r="N46" s="17">
+      <c r="O46" s="17">
         <v>8</v>
       </c>
-      <c r="O46" s="17">
+      <c r="P46" s="17">
         <v>9</v>
       </c>
-      <c r="P46" s="17">
+      <c r="Q46" s="17">
         <v>10</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="R46" s="17">
         <v>1</v>
       </c>
-      <c r="R46" s="17">
+      <c r="S46" s="17">
         <v>2</v>
       </c>
-      <c r="S46" s="17" t="s">
+      <c r="T46" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="T46" s="18" t="s">
+      <c r="U46" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="U46" s="18" t="s">
+      <c r="V46" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="V46" s="18" t="s">
+      <c r="W46" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="W46" s="19"/>
-      <c r="X46" t="s">
+      <c r="X46" s="19"/>
+      <c r="Y46" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>1045</v>
       </c>
@@ -6927,55 +6993,58 @@
         <v>6001</v>
       </c>
       <c r="G47" s="17">
+        <v>6</v>
+      </c>
+      <c r="H47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="17">
+      <c r="I47" s="17">
         <v>2</v>
       </c>
-      <c r="I47" s="17">
-        <v>3</v>
-      </c>
       <c r="J47" s="17">
+        <v>3</v>
+      </c>
+      <c r="K47" s="17">
         <v>4</v>
       </c>
-      <c r="K47" s="17">
+      <c r="L47" s="17">
         <v>5</v>
       </c>
-      <c r="L47" s="17">
+      <c r="M47" s="17">
         <v>6</v>
       </c>
-      <c r="M47" s="17">
+      <c r="N47" s="17">
         <v>7</v>
       </c>
-      <c r="N47" s="17">
+      <c r="O47" s="17">
         <v>8</v>
       </c>
-      <c r="O47" s="17">
+      <c r="P47" s="17">
         <v>9</v>
       </c>
-      <c r="P47" s="17">
+      <c r="Q47" s="17">
         <v>10</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="R47" s="17">
         <v>1</v>
       </c>
-      <c r="R47" s="17">
+      <c r="S47" s="17">
         <v>2</v>
       </c>
-      <c r="S47" s="17" t="s">
+      <c r="T47" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="T47" s="18" t="s">
+      <c r="U47" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="U47" s="18" t="s">
+      <c r="V47" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="V47" s="18" t="s">
+      <c r="W47" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" t="s">
+      <c r="X47" s="19"/>
+      <c r="Y47" t="s">
         <v>604</v>
       </c>
     </row>
@@ -7182,7 +7251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A2FC76-0241-4A65-A3DB-AD7C89BDE480}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7873,10 +7942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10432,6 +10501,17 @@
         <v>48</v>
       </c>
       <c r="C232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>787</v>
+      </c>
+      <c r="B233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233">
         <v>5</v>
       </c>
     </row>
@@ -10452,7 +10532,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455215A3-1928-4B42-9B58-F3281FC8B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192BDDA-5D08-4298-A287-4FF83E64D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2775" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-435" yWindow="3690" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Skill" sheetId="4" r:id="rId4"/>
     <sheet name="SkillLevel" sheetId="5" r:id="rId5"/>
     <sheet name="Weapon" sheetId="6" r:id="rId6"/>
+    <sheet name="StudentAttribute" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="827">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3268,6 +3269,36 @@
   </si>
   <si>
     <t>-206, 0, -302, -581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러는 단일 또는 광역피해를 가하는 데 특화된 역활군입니다.
+피해 증가 + 10%
+추가 무기 사거리 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_StudentAttribute.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3461,7 +3492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3501,7 +3532,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3833,6 +3863,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{09FA3156-DEB3-46C1-A267-3C931C4BE42D}" name="표1_78" displayName="표1_78" ref="A2:C37" totalsRowShown="0">
+  <autoFilter ref="A2:C37" xr:uid="{09FA3156-DEB3-46C1-A267-3C931C4BE42D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{55A0BEFB-870B-4F98-BB1D-44533C1BDF63}" name="Id : String"/>
+    <tableColumn id="2" xr3:uid="{8C61700C-301B-4D4B-B7E8-D3E39C6DD6D9}" name="Name : String"/>
+    <tableColumn id="3" xr3:uid="{1126C191-C250-4055-B06B-C4C8D5E53E05}" name="Description : String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4098,7 +4140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+    <sheetView topLeftCell="E42" workbookViewId="0">
       <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
@@ -5046,7 +5088,7 @@
       <c r="W18" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="Y18" s="37" t="s">
+      <c r="Y18" t="s">
         <v>800</v>
       </c>
     </row>
@@ -5121,7 +5163,7 @@
         <v>222</v>
       </c>
       <c r="X19" s="11"/>
-      <c r="Y19" s="37" t="s">
+      <c r="Y19" t="s">
         <v>800</v>
       </c>
     </row>
@@ -5195,7 +5237,7 @@
       <c r="W20" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="Y20" s="37" t="s">
+      <c r="Y20" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5270,7 +5312,7 @@
         <v>229</v>
       </c>
       <c r="X21" s="11"/>
-      <c r="Y21" s="37" t="s">
+      <c r="Y21" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5343,7 +5385,6 @@
         <v>85</v>
       </c>
       <c r="X22" s="11"/>
-      <c r="Y22" s="37"/>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="16">
@@ -5414,7 +5455,6 @@
         <v>88</v>
       </c>
       <c r="X23" s="11"/>
-      <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="16">
@@ -5485,7 +5525,6 @@
         <v>93</v>
       </c>
       <c r="X24" s="11"/>
-      <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="16">
@@ -5556,7 +5595,6 @@
         <v>92</v>
       </c>
       <c r="X25" s="11"/>
-      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="16">
@@ -5627,7 +5665,6 @@
         <v>97</v>
       </c>
       <c r="X26" s="11"/>
-      <c r="Y26" s="37"/>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="18">
@@ -11823,8 +11860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12354,4 +12391,177 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D630DE4B-F716-4C1D-9F5D-1714F337F205}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="55.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="74.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="../@UnityProject\Assets\@MyProject\Resources\Data/SchoolTable.json" xr:uid="{22D210DA-ACB6-48D8-AF1B-E84CDABED774}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192BDDA-5D08-4298-A287-4FF83E64D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880214E-4AAF-4435-B341-9EC6EF925841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-435" yWindow="3690" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="2775" windowWidth="32040" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="887">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1563,10 +1563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2004, 2005, 2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1717,14 +1713,6 @@
   </si>
   <si>
     <t>240, 182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2066,1239 +2054,1481 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>특수탄환을 장전, 직선으로 관통하는 3발의 사격을 합니다. 탄환 하나 당 100의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구호기사단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보충수업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스터후드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리우스 분교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인법연구부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히후미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아즈사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코하루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히나타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아츠코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029, 1030, 1031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1032, 1033, 1034, 1035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036, 1037, 1038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1039, 1040, 1041, 1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007, 2008, 2009, 2010, 2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백귀야행 연합학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1043, 1044, 1045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214, 167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-435, 8, -317, -569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195, 152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21, -83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21, -73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-137, 94, -243, -337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173, 135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75, -115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75, -105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-153, 54, -238, -304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215, 167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58, -71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58, -61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-231, 73, -309, -475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175, 135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8, -53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-281, 86, -189, -427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, -58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199, 154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-229, 62, -232, -400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174, 134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53, -76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-179, 89, -179, -347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>285, 214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61, -62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-383, 34, -399, -671 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267, 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-52, -57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-52, -47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-334, 48, -281, -535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189, 142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>169, 127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57, -69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57, -59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-99, 76, -85, -374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_HyakkayouranGarden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_Market_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164, 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-43, -74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-108, 58, -108, -392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>213, 187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47, -38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47, -28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-199, 38, -247, -627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_AriusBasilica_FineDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289, 253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56, -33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19, 26, -305, -479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontHalo : Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217, 169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-193, -100, 46, -678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172, 134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44, -52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44, -42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-85, -296, -210, -742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_TrinityHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_View_Trinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 사격 도중 받는 피해가 추가로 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 최대 사거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
+(+ 연사속도가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다. 
+(+ 히나의 신비가 해방되어 공격이 강화됩니다. 적중한 대상의 의식을 10%씩 감소시키는 탄환을 사격합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료시간이에요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와줘요, 페로로 님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야..야한건 안돼! 사형이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4030, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4030, 2</t>
+  </si>
+  <si>
+    <t>4030, 3</t>
+  </si>
+  <si>
+    <t>4030, 4</t>
+  </si>
+  <si>
+    <t>4030, 5</t>
+  </si>
+  <si>
+    <t>4031, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4031, 2</t>
+  </si>
+  <si>
+    <t>4031, 3</t>
+  </si>
+  <si>
+    <t>4031, 4</t>
+  </si>
+  <si>
+    <t>4031, 5</t>
+  </si>
+  <si>
+    <t>4032, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4032, 2</t>
+  </si>
+  <si>
+    <t>4032, 3</t>
+  </si>
+  <si>
+    <t>4032, 4</t>
+  </si>
+  <si>
+    <t>4032, 5</t>
+  </si>
+  <si>
+    <t>4033, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4033, 2</t>
+  </si>
+  <si>
+    <t>4033, 3</t>
+  </si>
+  <si>
+    <t>4033, 4</t>
+  </si>
+  <si>
+    <t>4033, 5</t>
+  </si>
+  <si>
+    <t>4034, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4034, 2</t>
+  </si>
+  <si>
+    <t>4034, 3</t>
+  </si>
+  <si>
+    <t>4034, 4</t>
+  </si>
+  <si>
+    <t>4034, 5</t>
+  </si>
+  <si>
+    <t>4035, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035, 2</t>
+  </si>
+  <si>
+    <t>4035, 3</t>
+  </si>
+  <si>
+    <t>4035, 4</t>
+  </si>
+  <si>
+    <t>4035, 5</t>
+  </si>
+  <si>
+    <t>4036, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4036, 2</t>
+  </si>
+  <si>
+    <t>4036, 3</t>
+  </si>
+  <si>
+    <t>4036, 4</t>
+  </si>
+  <si>
+    <t>4036, 5</t>
+  </si>
+  <si>
+    <t>헛된 세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 나의 힘…...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지, 지금 지원할게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 신념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 선의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대신비탄: 순수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4037, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4037, 2</t>
+  </si>
+  <si>
+    <t>4037, 3</t>
+  </si>
+  <si>
+    <t>4037, 4</t>
+  </si>
+  <si>
+    <t>4037, 5</t>
+  </si>
+  <si>
+    <t>4038, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4038, 2</t>
+  </si>
+  <si>
+    <t>4038, 3</t>
+  </si>
+  <si>
+    <t>4038, 4</t>
+  </si>
+  <si>
+    <t>4038, 5</t>
+  </si>
+  <si>
+    <t>4039, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4039, 2</t>
+  </si>
+  <si>
+    <t>4039, 3</t>
+  </si>
+  <si>
+    <t>4039, 4</t>
+  </si>
+  <si>
+    <t>4039, 5</t>
+  </si>
+  <si>
+    <t>4040, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4040, 2</t>
+  </si>
+  <si>
+    <t>4040, 3</t>
+  </si>
+  <si>
+    <t>4040, 4</t>
+  </si>
+  <si>
+    <t>4040, 5</t>
+  </si>
+  <si>
+    <t>4041, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4041, 2</t>
+  </si>
+  <si>
+    <t>4041, 3</t>
+  </si>
+  <si>
+    <t>4041, 4</t>
+  </si>
+  <si>
+    <t>4041, 5</t>
+  </si>
+  <si>
+    <t>4042, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4042, 2</t>
+  </si>
+  <si>
+    <t>4042, 3</t>
+  </si>
+  <si>
+    <t>4042, 4</t>
+  </si>
+  <si>
+    <t>4042, 5</t>
+  </si>
+  <si>
+    <t>4043, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4043, 2</t>
+  </si>
+  <si>
+    <t>4043, 3</t>
+  </si>
+  <si>
+    <t>4043, 4</t>
+  </si>
+  <si>
+    <t>4043, 5</t>
+  </si>
+  <si>
+    <t>Et Omnia Vanitas!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consecratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrie Eleison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hihumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신념과 긍지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구호의 손길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 10%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 20%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 30%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 50%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 100%를 축적하며 5초 후 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나에 주변으로 회복 영역 생성, 출혈을 막고 자가회복력을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 600의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 700의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+  </si>
+  <si>
+    <t>미네가 1000의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네가 1500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직하게 드러내봐요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanako</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sicut Deus vult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakurako</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-80, 22, 61, -574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67, -53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67, -43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울어라, 지옥참마굿즈!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hellblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠, 츠쿠요 인법첩..이에요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4044, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4044, 2</t>
+  </si>
+  <si>
+    <t>4044, 3</t>
+  </si>
+  <si>
+    <t>4044, 4</t>
+  </si>
+  <si>
+    <t>4044, 5</t>
+  </si>
+  <si>
+    <t>4045, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4045, 2</t>
+  </si>
+  <si>
+    <t>4045, 3</t>
+  </si>
+  <si>
+    <t>4045, 4</t>
+  </si>
+  <si>
+    <t>4045, 5</t>
+  </si>
+  <si>
+    <t>4046, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046, 2</t>
+  </si>
+  <si>
+    <t>4046, 3</t>
+  </si>
+  <si>
+    <t>4046, 4</t>
+  </si>
+  <si>
+    <t>4046, 5</t>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 대상에게서 출혈이 발생합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 미치루가 시전 중 무적상태가 됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Izuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나류 오의: 앵화난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsukuyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 3초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 5초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hiyori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 사거리가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
+(+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSkillLevel : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4004, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 주변 아군에게도 보호막을 부여합니다. 유즈는 2000의 보호막을 주변 아군은 1000의 보호막을 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4005, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006, 6</t>
+  </si>
+  <si>
+    <t>4007, 6</t>
+  </si>
+  <si>
+    <t>아리스가 레일건의 리미트를 해제해 강력한 광선으로 공격합니다. 초당 2000의 피해를 주는 광선은 5초동안 지속되며 커서 방향으로 유도할 수 있습니다. 사격 후 아리스의 의식이 70% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 궁극의 치유 주문을 시전해 아군 전체를 회복시키고 각종 질병 또한 치료합니다. 미도리는 주문을 시전한 후 거부할 수 없는 잠에 빠집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 800의 피해를 방어합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 800의 피해를 방어합니다.
+(+ 보호막이 유지되는 동안 이동속도가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 900의 피해를 방어합니다.
+(+ 보호막 내구도가 100 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈가 개인 보호막을 둘러 총 1000의 피해를 방어합니다.
+(+ 보호막 내구도가 100 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사의 힘: 빛의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사제의 축복: 퓨어 힐링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BraveAris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealMidori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도리가 최대 3개의 치유 주문을 기억해 사용할 수 있습니다. 치유 주문 하나당 아군의 심각한 상처 하나를 치료해줍니다.</t>
+  </si>
+  <si>
+    <t>미도리가 최대 3개의 치유 주문을 기억해 사용할 수 있습니다. 치유 주문 하나당 아군의 심각한 상처 하나를 치료해줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExMomoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 재앙의 마법진을 그려 거대한 운석을 소환, 원형범위 내의 적들에게는 동일한 효과를 넓은 범위의 적들에게는 500의 피해를줍니다.</t>
+  </si>
+  <si>
+    <t>마법사의 주문: 파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankYuzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저, 전사의 결의: 방어태세!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모이가 화염구를 소환해 원형범위 내의 적들에게 피해를 주고 느려지게 합니다.</t>
+  </si>
+  <si>
+    <t>모모이가 화염구를 소환해 원형범위 내의 적들에게 피해를 주고 느려지게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카요코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무츠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와카모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카 테러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠수인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임 패러독스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999, 1998, 1997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1992, 1991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무소속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2999, 2998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IbukiTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GehennaClubRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀레니엄 사이언스 스쿨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_GameDevRoom</t>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_MilleniumCorridor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atsuko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
+(+ 쿨다운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
+(+ 여우불의 크기가 커집니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분 30초간 지속됩니다.
+(+ 지속시간이 증가하고 추적범위가 넓어집니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 6개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 3분간 지속됩니다.
+(+ 지속시간이 증가하고 여우불이 3개 추가로 생성됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 축복 대상의 받는 피해가 20% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 치유량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 파동의 범위가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 다음 파동까지의 시간이 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
+(+ 영혼나무로 착각한 나무지기들이 대량 소환됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
+(+ 쿨다운 10% 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
+(+ 받는 피해 감소가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_StudentAttribute.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로얄 블렌드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quis ut Deus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블러드 앤 건 파우더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임페일먼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 드래곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의의 현현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구호의 증명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍티컬 테라피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피 스마일 건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 네세시티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Et Omnia Vanitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오네스트 위시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스티스 블랙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정화의 손길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리우스제 돌격소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세인트 프레데터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이덴티티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스콜피우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인레드 어드마이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트릭 오어 트릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데몬스 로어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로우 어웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루류 오버플로우 샷건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나류 슈퍼 닌자 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요류(?) 기관단총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>지정한 지역에 원형 범위로 포격 호출, 포탄 하나당 50의 피해를 가합니다.
 총 투사 포탄 : 13발
-(+ 범위내의 적 소실 확인까지 지속적으로 포격을 진행합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수탄환을 장전, 직선으로 관통하는 3발의 사격을 합니다. 탄환 하나 당 100의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구호기사단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보충수업부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스터후드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리우스 분교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인법연구부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세리나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히후미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아즈사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코하루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사쿠라코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히나타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사오리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아츠코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히요리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1029, 1030, 1031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1032, 1033, 1034, 1035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1036, 1037, 1038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1039, 1040, 1041, 1042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007, 2008, 2009, 2010, 2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백귀야행 연합학원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1043, 1044, 1045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>214, 167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-435, 8, -317, -569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>195, 152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-21, -83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-21, -73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-137, 94, -243, -337</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>173, 135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75, -115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75, -105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-153, 54, -238, -304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215, 167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58, -71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58, -61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-231, 73, -309, -475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175, 135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8, -53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8, -43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-281, 86, -189, -427</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>199, 154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-229, 62, -232, -400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>174, 134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-179, 89, -179, -347</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285, 214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61, -62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-383, 34, -399, -671 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>267, 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-52, -57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-52, -47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-334, 48, -281, -535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189, 142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169, 127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57, -69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57, -59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-99, 76, -85, -374</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_HyakkayouranGarden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_Market_Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164, 123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-108, 58, -108, -392</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>213, 187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47, -38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47, -28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-199, 38, -247, -627</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_AriusBasilica_FineDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>289, 253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56, -43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56, -33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-19, 26, -305, -479</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrontHalo : Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>217, 169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-193, -100, 46, -678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172, 134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44, -42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-85, -296, -210, -742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_TrinityHospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_View_Trinity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
-(+ 사격 도중 받는 피해가 추가로 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
-(+ 최대 사거리가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다.
-(+ 연사속도가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리에서 기관총을 난사해 부채꼴 범위내의 모든 대상에게 피해를 줍니다. 사격은 7초간 지속됩니다. 
-(+ 히나의 신비가 해방되어 공격이 강화됩니다. 적중한 대상의 의식을 10%씩 감소시키는 탄환을 사격합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치료시간이에요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도와줘요, 페로로 님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야..야한건 안돼! 사형이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4030, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4030, 2</t>
-  </si>
-  <si>
-    <t>4030, 3</t>
-  </si>
-  <si>
-    <t>4030, 4</t>
-  </si>
-  <si>
-    <t>4030, 5</t>
-  </si>
-  <si>
-    <t>4031, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4031, 2</t>
-  </si>
-  <si>
-    <t>4031, 3</t>
-  </si>
-  <si>
-    <t>4031, 4</t>
-  </si>
-  <si>
-    <t>4031, 5</t>
-  </si>
-  <si>
-    <t>4032, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4032, 2</t>
-  </si>
-  <si>
-    <t>4032, 3</t>
-  </si>
-  <si>
-    <t>4032, 4</t>
-  </si>
-  <si>
-    <t>4032, 5</t>
-  </si>
-  <si>
-    <t>4033, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4033, 2</t>
-  </si>
-  <si>
-    <t>4033, 3</t>
-  </si>
-  <si>
-    <t>4033, 4</t>
-  </si>
-  <si>
-    <t>4033, 5</t>
-  </si>
-  <si>
-    <t>4034, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4034, 2</t>
-  </si>
-  <si>
-    <t>4034, 3</t>
-  </si>
-  <si>
-    <t>4034, 4</t>
-  </si>
-  <si>
-    <t>4034, 5</t>
-  </si>
-  <si>
-    <t>4035, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4035, 2</t>
-  </si>
-  <si>
-    <t>4035, 3</t>
-  </si>
-  <si>
-    <t>4035, 4</t>
-  </si>
-  <si>
-    <t>4035, 5</t>
-  </si>
-  <si>
-    <t>4036, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4036, 2</t>
-  </si>
-  <si>
-    <t>4036, 3</t>
-  </si>
-  <si>
-    <t>4036, 4</t>
-  </si>
-  <si>
-    <t>4036, 5</t>
-  </si>
-  <si>
-    <t>헛된 세계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이것도 나의 힘…...?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지, 지금 지원할게요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신비탄: 신념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신비탄: 선의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대신비탄: 순수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4037, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4037, 2</t>
-  </si>
-  <si>
-    <t>4037, 3</t>
-  </si>
-  <si>
-    <t>4037, 4</t>
-  </si>
-  <si>
-    <t>4037, 5</t>
-  </si>
-  <si>
-    <t>4038, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4038, 2</t>
-  </si>
-  <si>
-    <t>4038, 3</t>
-  </si>
-  <si>
-    <t>4038, 4</t>
-  </si>
-  <si>
-    <t>4038, 5</t>
-  </si>
-  <si>
-    <t>4039, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4039, 2</t>
-  </si>
-  <si>
-    <t>4039, 3</t>
-  </si>
-  <si>
-    <t>4039, 4</t>
-  </si>
-  <si>
-    <t>4039, 5</t>
-  </si>
-  <si>
-    <t>4040, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4040, 2</t>
-  </si>
-  <si>
-    <t>4040, 3</t>
-  </si>
-  <si>
-    <t>4040, 4</t>
-  </si>
-  <si>
-    <t>4040, 5</t>
-  </si>
-  <si>
-    <t>4041, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4041, 2</t>
-  </si>
-  <si>
-    <t>4041, 3</t>
-  </si>
-  <si>
-    <t>4041, 4</t>
-  </si>
-  <si>
-    <t>4041, 5</t>
-  </si>
-  <si>
-    <t>4042, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4042, 2</t>
-  </si>
-  <si>
-    <t>4042, 3</t>
-  </si>
-  <si>
-    <t>4042, 4</t>
-  </si>
-  <si>
-    <t>4042, 5</t>
-  </si>
-  <si>
-    <t>4043, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4043, 2</t>
-  </si>
-  <si>
-    <t>4043, 3</t>
-  </si>
-  <si>
-    <t>4043, 4</t>
-  </si>
-  <si>
-    <t>4043, 5</t>
-  </si>
-  <si>
-    <t>Et Omnia Vanitas!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consecratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyrie Eleison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hihumi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신념과 긍지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구호의 손길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 10%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 20%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 30%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 50%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 100%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나에 주변으로 회복 영역 생성, 출혈을 막고 자가회복력을 증가시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미네가 500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미네가 600의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미네가 700의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
-  </si>
-  <si>
-    <t>미네가 1000의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미네가 1500의 보호막을 획득한 뒤, 주변 적들을 도발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔직하게 드러내봐요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koharu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hanako</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sicut Deus vult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sakurako</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hinata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mari</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-80, 22, 61, -574</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67, -53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67, -43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울어라, 지옥참마굿즈!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hellblade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠, 츠쿠요 인법첩..이에요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4044, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4044, 2</t>
-  </si>
-  <si>
-    <t>4044, 3</t>
-  </si>
-  <si>
-    <t>4044, 4</t>
-  </si>
-  <si>
-    <t>4044, 5</t>
-  </si>
-  <si>
-    <t>4045, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4045, 2</t>
-  </si>
-  <si>
-    <t>4045, 3</t>
-  </si>
-  <si>
-    <t>4045, 4</t>
-  </si>
-  <si>
-    <t>4045, 5</t>
-  </si>
-  <si>
-    <t>4046, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4046, 2</t>
-  </si>
-  <si>
-    <t>4046, 3</t>
-  </si>
-  <si>
-    <t>4046, 4</t>
-  </si>
-  <si>
-    <t>4046, 5</t>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 범위가 10% 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 대상에게서 출혈이 발생합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 미치루가 시전 중 무적상태가 됩니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Izuna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나류 오의: 앵화난무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsukuyo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vanitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 3초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 5초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호시노가 방패를 전개해 저지불가 상태가 되며 바라보는 방향에서 오는 모든 피해를 방어합니다.(대책위원회 시너지 : 근접전투 진행시 전투 대상을 4초간 기절시킵니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hiyori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소
-(+ 피해량이 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 사거리가 50% 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxSkillLevel : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4004, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유즈가 주변 아군에게도 보호막을 부여합니다. 유즈는 2000의 보호막을 주변 아군은 1000의 보호막을 얻습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4005, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4006, 6</t>
-  </si>
-  <si>
-    <t>4007, 6</t>
-  </si>
-  <si>
-    <t>아리스가 레일건의 리미트를 해제해 강력한 광선으로 공격합니다. 초당 2000의 피해를 주는 광선은 5초동안 지속되며 커서 방향으로 유도할 수 있습니다. 사격 후 아리스의 의식이 70% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미도리가 궁극의 치유 주문을 시전해 아군 전체를 회복시키고 각종 질병 또한 치료합니다. 미도리는 주문을 시전한 후 거부할 수 없는 잠에 빠집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유즈가 개인 보호막을 둘러 총 800의 피해를 방어합니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유즈가 개인 보호막을 둘러 총 800의 피해를 방어합니다.
-(+ 보호막이 유지되는 동안 이동속도가 10% 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유즈가 개인 보호막을 둘러 총 900의 피해를 방어합니다.
-(+ 보호막 내구도가 100 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유즈가 개인 보호막을 둘러 총 1000의 피해를 방어합니다.
-(+ 보호막 내구도가 100 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용사의 힘: 빛의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사제의 축복: 퓨어 힐링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BraveAris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealMidori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미도리가 최대 3개의 치유 주문을 기억해 사용할 수 있습니다. 치유 주문 하나당 아군의 심각한 상처 하나를 치료해줍니다.</t>
-  </si>
-  <si>
-    <t>미도리가 최대 3개의 치유 주문을 기억해 사용할 수 있습니다. 치유 주문 하나당 아군의 심각한 상처 하나를 치료해줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExMomoi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모모이가 재앙의 마법진을 그려 거대한 운석을 소환, 원형범위 내의 적들에게는 동일한 효과를 넓은 범위의 적들에게는 500의 피해를줍니다.</t>
-  </si>
-  <si>
-    <t>마법사의 주문: 파이어 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TankYuzu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저, 전사의 결의: 방어태세!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모모이가 화염구를 소환해 원형범위 내의 적들에게 피해를 주고 느려지게 합니다.</t>
-  </si>
-  <si>
-    <t>모모이가 화염구를 소환해 원형범위 내의 적들에게 피해를 주고 느려지게 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카요코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무츠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와카모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아키라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유메</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미카 테러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠수인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임 패러독스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999, 1998, 1997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1992, 1991</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무소속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2999, 2998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IbukiTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_GehennaClubRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀레니엄 사이언스 스쿨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_GameDevRoom</t>
-  </si>
-  <si>
-    <t>Sprite/Background/BG_MilleniumCorridor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atsuko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
-(+ 쿨다운 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
-(+ 여우불의 크기가 커집니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분 30초간 지속됩니다.
-(+ 지속시간이 증가하고 추적범위가 넓어집니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 6개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 3분간 지속됩니다.
-(+ 지속시간이 증가하고 여우불이 3개 추가로 생성됩니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 축복 대상의 받는 피해가 20% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 치유량이 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 파동의 범위가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 다음 파동까지의 시간이 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
-(+ 영혼나무로 착각한 나무지기들이 대량 소환됩니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
-(+ 쿨다운 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
-(+ 받는 피해 감소가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300, 263</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-206, 0, -302, -581</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜러는 단일 또는 광역피해를 가하는 데 특화된 역활군입니다.
-피해 증가 + 10%
-추가 무기 사거리 + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_StudentAttribute.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서포터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러</t>
+(+ 범위 내의 적 소실 확인까지 지속적으로 포격을 진행합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4047, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4047, 2</t>
+  </si>
+  <si>
+    <t>4047, 3</t>
+  </si>
+  <si>
+    <t>4047, 4</t>
+  </si>
+  <si>
+    <t>4047, 5</t>
+  </si>
+  <si>
+    <t>4048, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4048, 2</t>
+  </si>
+  <si>
+    <t>4048, 3</t>
+  </si>
+  <si>
+    <t>4048, 4</t>
+  </si>
+  <si>
+    <t>4048, 5</t>
+  </si>
+  <si>
+    <t>4049, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4049, 2</t>
+  </si>
+  <si>
+    <t>4049, 3</t>
+  </si>
+  <si>
+    <t>4049, 4</t>
+  </si>
+  <si>
+    <t>4049, 5</t>
+  </si>
+  <si>
+    <t>4050, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4050, 2</t>
+  </si>
+  <si>
+    <t>4050, 3</t>
+  </si>
+  <si>
+    <t>4050, 4</t>
+  </si>
+  <si>
+    <t>4050, 5</t>
+  </si>
+  <si>
+    <t>2004, 2005, 2006, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥신소 68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1046, 1047, 1048, 1049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79, -110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292, 249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, -30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, -20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-173, 28, -255, -551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드보일드 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardboiled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유의 세레나데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패닉 브링어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아루님! 제가 갑니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haruka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러는 단일 또는 광역피해를 가하는 데 특화된 역할군입니다.
+피해 증가 +10%
+추가 무기 사거리 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커는 전선을 유지하거나 주도하는 역할을 담당합니다. 
+피해 저항 +10%
+적대 대상 관심도 +10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터는 아군을 지원하거나 적을 제어하는데에 특화된 역할군입니다. 
+쿨타운 감소 +5%
+이동속도 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러는 상처입은 아군을 치유하는데에 특화된 역활군입니다. 
+자연치유력 +10%
+수술성공률 +10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3442,7 +3672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3487,12 +3717,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3532,12 +3773,14 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3545,6 +3788,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3767,34 +4013,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:Y64" totalsRowShown="0" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:Y64" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A2:Y64" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5282C163-3525-4F9F-B35F-F80A01385114}" name="Attribute : String" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{0775B04D-D028-4799-8E6A-2D1487C9FDCC}" name="SkillId : Integer" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{049EF2DF-7279-4305-8A34-D15D5D8E51D2}" name="WeaponId : Integer" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{A2962EBE-0B9D-4C92-9137-4F39D3ADDA5F}" name="MaxSkillLevel : Integer" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{9DB1C887-4D44-4B5E-8F77-1A5B4DF69B67}" name="DefaultShooting : Integer" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{D0581AD1-2C29-4C36-8CE4-7769D888CF1C}" name="DefaultMelee : Integer" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C9D71FDC-3176-4243-B6D1-61884EACCAAE}" name="DefaultConstruction : Integer" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{57ABC202-BDD3-4AAA-B244-7773639FF0CA}" name="DefaultMining : Integer" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{0FB6251E-DA48-4005-876D-8BC293707E65}" name="DefaultCooking : Integer" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{7C3CDBA5-1381-4754-9736-F0F814CAD782}" name="DefaultPlants : Integer" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{EDF0B681-698A-4050-8839-155781C3095A}" name="DefaultAnimals : Integer" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{4591E247-BBA2-4E0F-BF06-6E8FBBF90D4D}" name="DefaultCrafting : Integer" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{0C7C172F-D3D0-4361-8BED-6568627162FA}" name="DefaultArtistic : Integer" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{5D9C39AB-CB7B-415E-A0C2-2C091E1AB9A4}" name="DefaultMedical : Integer" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{093443DC-3FEE-486A-B90D-5C804A45B5A9}" name="DefaultSocial : Integer" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{961320EC-8809-467C-B33B-E9A61EFEECCA}" name="DefaultIntellectual : Integer" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{81011E15-9976-4167-AB59-7D51672B7A06}" name="FullshotHaloSize : Array" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{5282C163-3525-4F9F-B35F-F80A01385114}" name="Attribute : String" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0775B04D-D028-4799-8E6A-2D1487C9FDCC}" name="SkillId : Integer" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{049EF2DF-7279-4305-8A34-D15D5D8E51D2}" name="WeaponId : Integer" dataDxfId="21"/>
+    <tableColumn id="25" xr3:uid="{A2962EBE-0B9D-4C92-9137-4F39D3ADDA5F}" name="MaxSkillLevel : Integer" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{9DB1C887-4D44-4B5E-8F77-1A5B4DF69B67}" name="DefaultShooting : Integer" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{D0581AD1-2C29-4C36-8CE4-7769D888CF1C}" name="DefaultMelee : Integer" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{C9D71FDC-3176-4243-B6D1-61884EACCAAE}" name="DefaultConstruction : Integer" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{57ABC202-BDD3-4AAA-B244-7773639FF0CA}" name="DefaultMining : Integer" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{0FB6251E-DA48-4005-876D-8BC293707E65}" name="DefaultCooking : Integer" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7C3CDBA5-1381-4754-9736-F0F814CAD782}" name="DefaultPlants : Integer" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{EDF0B681-698A-4050-8839-155781C3095A}" name="DefaultAnimals : Integer" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{4591E247-BBA2-4E0F-BF06-6E8FBBF90D4D}" name="DefaultCrafting : Integer" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{0C7C172F-D3D0-4361-8BED-6568627162FA}" name="DefaultArtistic : Integer" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{5D9C39AB-CB7B-415E-A0C2-2C091E1AB9A4}" name="DefaultMedical : Integer" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{093443DC-3FEE-486A-B90D-5C804A45B5A9}" name="DefaultSocial : Integer" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{961320EC-8809-467C-B33B-E9A61EFEECCA}" name="DefaultIntellectual : Integer" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{81011E15-9976-4167-AB59-7D51672B7A06}" name="FullshotHaloSize : Array" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3826,8 +4072,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C48" totalsRowShown="0">
-  <autoFilter ref="A2:C48" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C52" totalsRowShown="0">
+  <autoFilter ref="A2:C52" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -3838,11 +4084,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D236" totalsRowShown="0">
-  <autoFilter ref="A2:D236" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D256" totalsRowShown="0">
+  <autoFilter ref="A2:D256" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
-    <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String"/>
+    <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C5D11431-81F5-4719-AE2E-F66F913E2E3F}" name="Star : Integer"/>
     <tableColumn id="4" xr3:uid="{4354907A-D516-490F-BD5D-85A7CE5E3EDE}" name="ActionSequence : String"/>
   </tableColumns>
@@ -3851,8 +4097,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D37" totalsRowShown="0">
-  <autoFilter ref="A2:D37" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D67" totalsRowShown="0">
+  <autoFilter ref="A2:D67" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{277B4CB1-D202-4172-AC16-313400944C66}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{C0EBD593-997F-4FA4-B38B-502603D6C057}" name="Name : String"/>
@@ -4140,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4185,7 +4431,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -4236,7 +4482,7 @@
         <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Y2" t="s">
         <v>269</v>
@@ -4247,7 +4493,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -4303,7 +4549,7 @@
         <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4359,7 +4605,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -4703,7 +4949,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4747,7 +4993,7 @@
         <v>1989</v>
       </c>
       <c r="B13" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -5089,7 +5335,7 @@
         <v>218</v>
       </c>
       <c r="Y18" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -5164,7 +5410,7 @@
       </c>
       <c r="X19" s="11"/>
       <c r="Y19" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -5736,7 +5982,7 @@
       </c>
       <c r="X27" s="11"/>
       <c r="Y27" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -5809,7 +6055,7 @@
       </c>
       <c r="X28" s="11"/>
       <c r="Y28" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -5881,7 +6127,7 @@
         <v>69</v>
       </c>
       <c r="Y29" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -5954,7 +6200,7 @@
       </c>
       <c r="X30" s="11"/>
       <c r="Y30" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -6027,7 +6273,7 @@
       </c>
       <c r="X31" s="11"/>
       <c r="Y31" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -6327,7 +6573,7 @@
         <v>1021</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="24">
         <v>17</v>
@@ -6382,13 +6628,13 @@
         <v>89</v>
       </c>
       <c r="U36" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="V36" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="V36" s="25" t="s">
+      <c r="W36" s="25" t="s">
         <v>389</v>
-      </c>
-      <c r="W36" s="25" t="s">
-        <v>390</v>
       </c>
       <c r="X36" s="11"/>
     </row>
@@ -6397,7 +6643,7 @@
         <v>1022</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" s="22">
         <v>17</v>
@@ -6409,7 +6655,7 @@
         <v>4023</v>
       </c>
       <c r="F37" s="22">
-        <v>6001</v>
+        <v>6022</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22">
@@ -6449,20 +6695,20 @@
         <v>2</v>
       </c>
       <c r="T37" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="U37" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="U37" s="22" t="s">
+      <c r="V37" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="V37" s="22" t="s">
+      <c r="W37" s="23" t="s">
         <v>405</v>
-      </c>
-      <c r="W37" s="23" t="s">
-        <v>406</v>
       </c>
       <c r="X37" s="11"/>
       <c r="Y37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -6470,7 +6716,7 @@
         <v>1023</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C38" s="22">
         <v>17</v>
@@ -6482,7 +6728,7 @@
         <v>4024</v>
       </c>
       <c r="F38" s="22">
-        <v>6001</v>
+        <v>6023</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22">
@@ -6522,20 +6768,20 @@
         <v>2</v>
       </c>
       <c r="T38" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="U38" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="U38" s="23" t="s">
+      <c r="V38" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="V38" s="23" t="s">
+      <c r="W38" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="W38" s="23" t="s">
-        <v>412</v>
       </c>
       <c r="X38" s="11"/>
       <c r="Y38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -6543,7 +6789,7 @@
         <v>1024</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C39" s="22">
         <v>17</v>
@@ -6555,7 +6801,7 @@
         <v>4025</v>
       </c>
       <c r="F39" s="22">
-        <v>6001</v>
+        <v>10005</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="22">
@@ -6595,20 +6841,20 @@
         <v>2</v>
       </c>
       <c r="T39" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="U39" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="U39" s="22" t="s">
+      <c r="V39" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="V39" s="22" t="s">
+      <c r="W39" s="23" t="s">
         <v>415</v>
-      </c>
-      <c r="W39" s="23" t="s">
-        <v>416</v>
       </c>
       <c r="X39" s="11"/>
       <c r="Y39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -6616,7 +6862,7 @@
         <v>1025</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C40" s="26">
         <v>17</v>
@@ -6628,7 +6874,7 @@
         <v>4026</v>
       </c>
       <c r="F40" s="26">
-        <v>6001</v>
+        <v>6025</v>
       </c>
       <c r="G40" s="26"/>
       <c r="H40" s="26">
@@ -6668,16 +6914,16 @@
         <v>2</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>419</v>
+        <v>870</v>
       </c>
       <c r="V40" s="27" t="s">
-        <v>420</v>
+        <v>871</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X40" s="11" t="b">
         <v>1</v>
@@ -6688,7 +6934,7 @@
         <v>1026</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41" s="26">
         <v>17</v>
@@ -6700,7 +6946,7 @@
         <v>4027</v>
       </c>
       <c r="F41" s="26">
-        <v>6001</v>
+        <v>6026</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26">
@@ -6740,16 +6986,16 @@
         <v>2</v>
       </c>
       <c r="T41" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="U41" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="V41" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="W41" s="27" t="s">
         <v>424</v>
-      </c>
-      <c r="U41" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="V41" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="W41" s="27" t="s">
-        <v>427</v>
       </c>
       <c r="X41" s="11"/>
     </row>
@@ -6758,7 +7004,7 @@
         <v>1027</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" s="26">
         <v>16</v>
@@ -6770,7 +7016,7 @@
         <v>4028</v>
       </c>
       <c r="F42" s="26">
-        <v>6001</v>
+        <v>6027</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="26">
@@ -6810,16 +7056,16 @@
         <v>2</v>
       </c>
       <c r="T42" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="U42" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="V42" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="W42" s="27" t="s">
         <v>428</v>
-      </c>
-      <c r="U42" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="V42" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="W42" s="27" t="s">
-        <v>431</v>
       </c>
       <c r="X42" s="11"/>
     </row>
@@ -6828,7 +7074,7 @@
         <v>1028</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C43" s="26">
         <v>15</v>
@@ -6840,7 +7086,7 @@
         <v>4029</v>
       </c>
       <c r="F43" s="26">
-        <v>6001</v>
+        <v>6028</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26">
@@ -6880,16 +7126,16 @@
         <v>2</v>
       </c>
       <c r="T43" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="U43" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="V43" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="W43" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="U43" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="V43" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="W43" s="27" t="s">
-        <v>435</v>
       </c>
       <c r="X43" s="11"/>
     </row>
@@ -6898,7 +7144,7 @@
         <v>1029</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C44" s="28">
         <v>17</v>
@@ -6910,7 +7156,7 @@
         <v>4030</v>
       </c>
       <c r="F44" s="28">
-        <v>6001</v>
+        <v>6029</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28">
@@ -6950,20 +7196,20 @@
         <v>2</v>
       </c>
       <c r="T44" s="28" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="U44" s="28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="V44" s="28" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="W44" s="29" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="X44" s="11"/>
       <c r="Y44" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -6971,7 +7217,7 @@
         <v>1030</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C45" s="28">
         <v>16</v>
@@ -6983,7 +7229,7 @@
         <v>4031</v>
       </c>
       <c r="F45" s="28">
-        <v>6001</v>
+        <v>6030</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28">
@@ -7023,20 +7269,20 @@
         <v>2</v>
       </c>
       <c r="T45" s="28" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V45" s="29" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="W45" s="29" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="X45" s="11"/>
       <c r="Y45" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -7044,7 +7290,7 @@
         <v>1031</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C46" s="28">
         <v>15</v>
@@ -7056,7 +7302,7 @@
         <v>4032</v>
       </c>
       <c r="F46" s="28">
-        <v>6001</v>
+        <v>6031</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28">
@@ -7096,20 +7342,20 @@
         <v>2</v>
       </c>
       <c r="T46" s="28" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="U46" s="28" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="V46" s="28" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="W46" s="29" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="X46" s="11"/>
       <c r="Y46" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -7117,7 +7363,7 @@
         <v>1032</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C47" s="30">
         <v>16</v>
@@ -7129,7 +7375,7 @@
         <v>4033</v>
       </c>
       <c r="F47" s="30">
-        <v>6001</v>
+        <v>6032</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="30">
@@ -7169,16 +7415,16 @@
         <v>2</v>
       </c>
       <c r="T47" s="31" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="V47" s="30" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="W47" s="32" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="X47" s="11"/>
     </row>
@@ -7187,7 +7433,7 @@
         <v>1033</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C48" s="30">
         <v>16</v>
@@ -7199,7 +7445,7 @@
         <v>4034</v>
       </c>
       <c r="F48" s="30">
-        <v>6001</v>
+        <v>6033</v>
       </c>
       <c r="G48" s="30"/>
       <c r="H48" s="30">
@@ -7239,16 +7485,16 @@
         <v>2</v>
       </c>
       <c r="T48" s="30" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="V48" s="32" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="W48" s="32" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="X48" s="11"/>
     </row>
@@ -7257,7 +7503,7 @@
         <v>1034</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C49" s="30">
         <v>16</v>
@@ -7269,7 +7515,7 @@
         <v>4035</v>
       </c>
       <c r="F49" s="30">
-        <v>6001</v>
+        <v>6034</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="30">
@@ -7309,16 +7555,16 @@
         <v>2</v>
       </c>
       <c r="T49" s="30" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="U49" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="V49" s="30" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="W49" s="32" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="X49" s="11"/>
     </row>
@@ -7327,7 +7573,7 @@
         <v>1035</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C50" s="30">
         <v>15</v>
@@ -7339,7 +7585,7 @@
         <v>4036</v>
       </c>
       <c r="F50" s="30">
-        <v>6001</v>
+        <v>6035</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="30">
@@ -7379,16 +7625,16 @@
         <v>2</v>
       </c>
       <c r="T50" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="U50" s="30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="V50" s="30" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="W50" s="32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="X50" s="11"/>
     </row>
@@ -7397,7 +7643,7 @@
         <v>1036</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C51" s="18">
         <v>17</v>
@@ -7409,7 +7655,7 @@
         <v>4037</v>
       </c>
       <c r="F51" s="18">
-        <v>6001</v>
+        <v>6036</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18">
@@ -7449,16 +7695,16 @@
         <v>2</v>
       </c>
       <c r="T51" s="18" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="V51" s="18" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="W51" s="19" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="X51" s="11"/>
     </row>
@@ -7467,7 +7713,7 @@
         <v>1037</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C52" s="18">
         <v>17</v>
@@ -7479,7 +7725,7 @@
         <v>4038</v>
       </c>
       <c r="F52" s="18">
-        <v>6001</v>
+        <v>6037</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18">
@@ -7519,16 +7765,16 @@
         <v>2</v>
       </c>
       <c r="T52" s="18" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="U52" s="19" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V52" s="19" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="X52" s="11"/>
     </row>
@@ -7537,7 +7783,7 @@
         <v>1038</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C53" s="18">
         <v>15</v>
@@ -7549,7 +7795,7 @@
         <v>4039</v>
       </c>
       <c r="F53" s="18">
-        <v>6001</v>
+        <v>6038</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18">
@@ -7589,16 +7835,16 @@
         <v>2</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="X53" s="11"/>
     </row>
@@ -7607,7 +7853,7 @@
         <v>1039</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C54" s="33">
         <v>17</v>
@@ -7619,7 +7865,7 @@
         <v>4040</v>
       </c>
       <c r="F54" s="33">
-        <v>6001</v>
+        <v>6039</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="33">
@@ -7659,16 +7905,16 @@
         <v>2</v>
       </c>
       <c r="T54" s="33" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="U54" s="33" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="V54" s="33" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="W54" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="X54" s="11"/>
     </row>
@@ -7677,7 +7923,7 @@
         <v>1040</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C55" s="33">
         <v>15</v>
@@ -7689,7 +7935,7 @@
         <v>4041</v>
       </c>
       <c r="F55" s="33">
-        <v>6001</v>
+        <v>6040</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="33">
@@ -7729,16 +7975,16 @@
         <v>2</v>
       </c>
       <c r="T55" s="33" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="U55" s="33" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="V55" s="33" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="W55" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="X55" s="11"/>
     </row>
@@ -7747,7 +7993,7 @@
         <v>1041</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C56" s="33">
         <v>16</v>
@@ -7759,7 +8005,7 @@
         <v>4042</v>
       </c>
       <c r="F56" s="33">
-        <v>6001</v>
+        <v>6041</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="33">
@@ -7799,16 +8045,16 @@
         <v>2</v>
       </c>
       <c r="T56" s="33" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="U56" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="V56" s="34" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="W56" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -7816,7 +8062,7 @@
         <v>1042</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C57" s="33">
         <v>16</v>
@@ -7828,7 +8074,7 @@
         <v>4043</v>
       </c>
       <c r="F57" s="33">
-        <v>6001</v>
+        <v>6042</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="33">
@@ -7868,16 +8114,16 @@
         <v>2</v>
       </c>
       <c r="T57" s="33" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="U57" s="33" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="V57" s="33" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="W57" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -7885,7 +8131,7 @@
         <v>1043</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C58" s="35">
         <v>17</v>
@@ -7897,7 +8143,7 @@
         <v>4044</v>
       </c>
       <c r="F58" s="35">
-        <v>6001</v>
+        <v>6047</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35">
@@ -7937,20 +8183,20 @@
         <v>2</v>
       </c>
       <c r="T58" s="35" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="U58" s="35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="V58" s="35" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="W58" s="36" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="X58" s="11"/>
       <c r="Y58" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -7958,7 +8204,7 @@
         <v>1044</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C59" s="35">
         <v>15</v>
@@ -7970,7 +8216,7 @@
         <v>4045</v>
       </c>
       <c r="F59" s="35">
-        <v>6001</v>
+        <v>6048</v>
       </c>
       <c r="G59" s="35"/>
       <c r="H59" s="35">
@@ -8010,20 +8256,20 @@
         <v>2</v>
       </c>
       <c r="T59" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="U59" s="36" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="V59" s="36" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="W59" s="36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="X59" s="11"/>
       <c r="Y59" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -8031,7 +8277,7 @@
         <v>1045</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C60" s="35">
         <v>15</v>
@@ -8043,7 +8289,7 @@
         <v>4046</v>
       </c>
       <c r="F60" s="35">
-        <v>6001</v>
+        <v>6049</v>
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="35">
@@ -8083,20 +8329,20 @@
         <v>2</v>
       </c>
       <c r="T60" s="35" t="s">
-        <v>817</v>
+        <v>872</v>
       </c>
       <c r="U60" s="36" t="s">
-        <v>818</v>
+        <v>873</v>
       </c>
       <c r="V60" s="36" t="s">
-        <v>818</v>
+        <v>874</v>
       </c>
       <c r="W60" s="36" t="s">
-        <v>819</v>
+        <v>875</v>
       </c>
       <c r="X60" s="11"/>
       <c r="Y60" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -8104,16 +8350,19 @@
         <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C61">
         <v>16</v>
       </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
       <c r="E61">
-        <v>4001</v>
+        <v>4047</v>
       </c>
       <c r="F61">
-        <v>6001</v>
+        <v>6043</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -8157,16 +8406,19 @@
         <v>1047</v>
       </c>
       <c r="B62" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
       <c r="E62">
-        <v>4001</v>
+        <v>4048</v>
       </c>
       <c r="F62">
-        <v>6001</v>
+        <v>6044</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -8210,16 +8462,19 @@
         <v>1048</v>
       </c>
       <c r="B63" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
       <c r="E63">
-        <v>4001</v>
+        <v>4049</v>
       </c>
       <c r="F63">
-        <v>6001</v>
+        <v>6045</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -8263,16 +8518,19 @@
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C64">
         <v>15</v>
       </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
       <c r="E64">
-        <v>4001</v>
+        <v>4050</v>
       </c>
       <c r="F64">
-        <v>6001</v>
+        <v>6046</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -8326,10 +8584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5D3E1-46E5-400A-8D16-38C682EDF0A3}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8360,10 +8618,10 @@
         <v>2999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8371,10 +8629,10 @@
         <v>2998</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8448,10 +8706,10 @@
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8459,10 +8717,10 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8470,10 +8728,10 @@
         <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8481,10 +8739,10 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8492,10 +8750,10 @@
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8503,10 +8761,10 @@
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8514,10 +8772,21 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C17" t="s">
-        <v>537</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>868</v>
+      </c>
+      <c r="C18" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -8537,7 +8806,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D5" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8572,10 +8841,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -8597,13 +8866,13 @@
         <v>3002</v>
       </c>
       <c r="B5" t="s">
-        <v>799</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>801</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8611,41 +8880,41 @@
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>2003</v>
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>867</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>3004</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
+      <c r="B7" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>531</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>3005</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" t="s">
-        <v>535</v>
+      <c r="B8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C8">
+        <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8653,13 +8922,13 @@
         <v>3006</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8667,13 +8936,13 @@
         <v>3007</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C10">
         <v>2012</v>
       </c>
       <c r="D10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8756,10 +9025,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8767,10 +9036,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8778,10 +9047,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8789,10 +9058,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C9" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8891,7 +9160,7 @@
         <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8943,7 +9212,7 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
         <v>366</v>
@@ -8954,10 +9223,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="s">
         <v>381</v>
-      </c>
-      <c r="C24" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8965,10 +9234,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8976,10 +9245,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8987,10 +9256,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8998,10 +9267,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9009,10 +9278,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9020,10 +9289,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9031,10 +9300,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9042,10 +9311,10 @@
         <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C32" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9053,10 +9322,10 @@
         <v>4031</v>
       </c>
       <c r="B33" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C33" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9064,10 +9333,10 @@
         <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C34" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9075,10 +9344,10 @@
         <v>4033</v>
       </c>
       <c r="B35" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C35" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9086,10 +9355,10 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C36" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9097,10 +9366,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C37" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9108,10 +9377,10 @@
         <v>4036</v>
       </c>
       <c r="B38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C38" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9119,10 +9388,10 @@
         <v>4037</v>
       </c>
       <c r="B39" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C39" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9130,10 +9399,10 @@
         <v>4038</v>
       </c>
       <c r="B40" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C40" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9141,10 +9410,10 @@
         <v>4039</v>
       </c>
       <c r="B41" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C41" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9152,10 +9421,10 @@
         <v>4040</v>
       </c>
       <c r="B42" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C42" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9163,10 +9432,10 @@
         <v>4041</v>
       </c>
       <c r="B43" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C43" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9174,10 +9443,10 @@
         <v>4042</v>
       </c>
       <c r="B44" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C44" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9185,10 +9454,10 @@
         <v>4043</v>
       </c>
       <c r="B45" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C45" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9196,10 +9465,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C46" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9207,10 +9476,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C47" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9218,10 +9487,54 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C48" t="s">
-        <v>745</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>4047</v>
+      </c>
+      <c r="B49" t="s">
+        <v>876</v>
+      </c>
+      <c r="C49" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>4048</v>
+      </c>
+      <c r="B50" t="s">
+        <v>878</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>4049</v>
+      </c>
+      <c r="B51" t="s">
+        <v>879</v>
+      </c>
+      <c r="C51" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>4050</v>
+      </c>
+      <c r="B52" t="s">
+        <v>881</v>
+      </c>
+      <c r="C52" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -9238,10 +9551,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9451,7 +9764,7 @@
         <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9462,7 +9775,7 @@
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9473,7 +9786,7 @@
         <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9484,7 +9797,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -9492,10 +9805,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B23" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -9506,7 +9819,7 @@
         <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -9517,7 +9830,7 @@
         <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -9528,7 +9841,7 @@
         <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9539,7 +9852,7 @@
         <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9550,7 +9863,7 @@
         <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9558,10 +9871,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B29" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -9572,7 +9885,7 @@
         <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -9583,7 +9896,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -9594,7 +9907,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -9605,7 +9918,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -9616,7 +9929,7 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -9624,10 +9937,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -9690,10 +10003,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -9704,7 +10017,7 @@
         <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -9715,7 +10028,7 @@
         <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -9726,7 +10039,7 @@
         <v>140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -9737,7 +10050,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -9748,7 +10061,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -10034,7 +10347,7 @@
         <v>199</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -10045,7 +10358,7 @@
         <v>200</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -10056,7 +10369,7 @@
         <v>201</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -10067,7 +10380,7 @@
         <v>202</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10254,7 +10567,7 @@
         <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -10265,7 +10578,7 @@
         <v>324</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -10276,7 +10589,7 @@
         <v>325</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -10287,7 +10600,7 @@
         <v>326</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -10298,7 +10611,7 @@
         <v>327</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -10364,7 +10677,7 @@
         <v>361</v>
       </c>
       <c r="B102" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -10375,7 +10688,7 @@
         <v>362</v>
       </c>
       <c r="B103" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -10386,7 +10699,7 @@
         <v>363</v>
       </c>
       <c r="B104" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -10397,7 +10710,7 @@
         <v>364</v>
       </c>
       <c r="B105" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -10408,7 +10721,7 @@
         <v>365</v>
       </c>
       <c r="B106" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10471,7 +10784,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -10482,7 +10795,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -10493,7 +10806,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
@@ -10504,7 +10817,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -10515,7 +10828,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -10526,10 +10839,10 @@
     </row>
     <row r="117" spans="1:3" ht="49.5">
       <c r="A117" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -10537,10 +10850,10 @@
     </row>
     <row r="118" spans="1:3" ht="66">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -10548,10 +10861,10 @@
     </row>
     <row r="119" spans="1:3" ht="66">
       <c r="A119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -10559,10 +10872,10 @@
     </row>
     <row r="120" spans="1:3" ht="66">
       <c r="A120" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -10570,10 +10883,10 @@
     </row>
     <row r="121" spans="1:3" ht="66">
       <c r="A121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>507</v>
+        <v>846</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -10581,10 +10894,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -10592,10 +10905,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -10603,10 +10916,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B124" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -10614,10 +10927,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -10625,10 +10938,10 @@
     </row>
     <row r="126" spans="1:3" ht="82.5">
       <c r="A126" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -10636,10 +10949,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B127" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -10647,10 +10960,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5">
       <c r="A128" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -10658,10 +10971,10 @@
     </row>
     <row r="129" spans="1:3" ht="49.5">
       <c r="A129" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -10669,10 +10982,10 @@
     </row>
     <row r="130" spans="1:3" ht="49.5">
       <c r="A130" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -10680,10 +10993,10 @@
     </row>
     <row r="131" spans="1:3" ht="49.5">
       <c r="A131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -10691,10 +11004,10 @@
     </row>
     <row r="132" spans="1:3" ht="49.5">
       <c r="A132" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -10702,10 +11015,10 @@
     </row>
     <row r="133" spans="1:3" ht="66">
       <c r="A133" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -10713,10 +11026,10 @@
     </row>
     <row r="134" spans="1:3" ht="66">
       <c r="A134" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -10724,10 +11037,10 @@
     </row>
     <row r="135" spans="1:3" ht="66">
       <c r="A135" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -10735,10 +11048,10 @@
     </row>
     <row r="136" spans="1:3" ht="66">
       <c r="A136" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -10746,10 +11059,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B137" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -10757,10 +11070,10 @@
     </row>
     <row r="138" spans="1:3" ht="49.5">
       <c r="A138" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -10768,10 +11081,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5">
       <c r="A139" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -10779,10 +11092,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5">
       <c r="A140" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -10790,10 +11103,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5">
       <c r="A141" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -10801,10 +11114,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B142" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -10812,10 +11125,10 @@
     </row>
     <row r="143" spans="1:3" ht="49.5">
       <c r="A143" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -10823,10 +11136,10 @@
     </row>
     <row r="144" spans="1:3" ht="49.5">
       <c r="A144" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -10834,10 +11147,10 @@
     </row>
     <row r="145" spans="1:3" ht="49.5">
       <c r="A145" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -10845,10 +11158,10 @@
     </row>
     <row r="146" spans="1:3" ht="49.5">
       <c r="A146" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -10856,10 +11169,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B147" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -10867,10 +11180,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B148" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C148">
         <v>3</v>
@@ -10878,10 +11191,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>478</v>
+      </c>
+      <c r="B149" t="s">
         <v>481</v>
-      </c>
-      <c r="B149" t="s">
-        <v>484</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -10889,10 +11202,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -10900,10 +11213,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B151" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -10911,10 +11224,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B152" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -10922,10 +11235,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B153" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -10933,10 +11246,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B154" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -10944,10 +11257,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B155" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -10955,10 +11268,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B156" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -10966,7 +11279,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B157" t="s">
         <v>48</v>
@@ -10977,7 +11290,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B158" t="s">
         <v>48</v>
@@ -10988,7 +11301,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
@@ -10999,7 +11312,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B160" t="s">
         <v>48</v>
@@ -11010,7 +11323,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B161" t="s">
         <v>48</v>
@@ -11021,10 +11334,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B162" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -11032,10 +11345,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B163" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -11043,10 +11356,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B164" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -11054,10 +11367,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B165" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -11065,10 +11378,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -11076,7 +11389,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B167" t="s">
         <v>48</v>
@@ -11087,7 +11400,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B168" t="s">
         <v>48</v>
@@ -11098,7 +11411,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B169" t="s">
         <v>48</v>
@@ -11109,7 +11422,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B170" t="s">
         <v>48</v>
@@ -11120,7 +11433,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B171" t="s">
         <v>48</v>
@@ -11131,10 +11444,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B172" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -11142,10 +11455,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B173" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -11153,10 +11466,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B174" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -11164,10 +11477,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B175" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -11175,10 +11488,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B176" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -11186,7 +11499,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B177" t="s">
         <v>48</v>
@@ -11197,7 +11510,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B178" t="s">
         <v>48</v>
@@ -11208,7 +11521,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B179" t="s">
         <v>48</v>
@@ -11219,7 +11532,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B180" t="s">
         <v>48</v>
@@ -11230,7 +11543,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B181" t="s">
         <v>48</v>
@@ -11241,7 +11554,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B182" t="s">
         <v>48</v>
@@ -11252,7 +11565,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B183" t="s">
         <v>48</v>
@@ -11263,7 +11576,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B184" t="s">
         <v>48</v>
@@ -11274,7 +11587,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B185" t="s">
         <v>48</v>
@@ -11285,7 +11598,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B186" t="s">
         <v>48</v>
@@ -11296,7 +11609,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B187" t="s">
         <v>48</v>
@@ -11307,7 +11620,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B188" t="s">
         <v>48</v>
@@ -11318,7 +11631,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B189" t="s">
         <v>48</v>
@@ -11329,7 +11642,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B190" t="s">
         <v>48</v>
@@ -11340,7 +11653,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B191" t="s">
         <v>48</v>
@@ -11351,7 +11664,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B192" t="s">
         <v>48</v>
@@ -11362,7 +11675,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B193" t="s">
         <v>48</v>
@@ -11373,7 +11686,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B194" t="s">
         <v>48</v>
@@ -11384,7 +11697,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B195" t="s">
         <v>48</v>
@@ -11395,7 +11708,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B196" t="s">
         <v>48</v>
@@ -11406,7 +11719,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B197" t="s">
         <v>48</v>
@@ -11417,7 +11730,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B198" t="s">
         <v>48</v>
@@ -11428,7 +11741,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B199" t="s">
         <v>48</v>
@@ -11439,7 +11752,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B200" t="s">
         <v>48</v>
@@ -11450,7 +11763,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B201" t="s">
         <v>48</v>
@@ -11461,7 +11774,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B202" t="s">
         <v>48</v>
@@ -11472,7 +11785,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B203" t="s">
         <v>48</v>
@@ -11483,7 +11796,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B204" t="s">
         <v>48</v>
@@ -11494,7 +11807,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B205" t="s">
         <v>48</v>
@@ -11505,7 +11818,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B206" t="s">
         <v>48</v>
@@ -11516,7 +11829,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B207" t="s">
         <v>48</v>
@@ -11527,7 +11840,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B208" t="s">
         <v>48</v>
@@ -11538,7 +11851,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B209" t="s">
         <v>48</v>
@@ -11549,7 +11862,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B210" t="s">
         <v>48</v>
@@ -11560,7 +11873,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B211" t="s">
         <v>48</v>
@@ -11571,7 +11884,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B212" t="s">
         <v>48</v>
@@ -11582,7 +11895,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B213" t="s">
         <v>48</v>
@@ -11593,7 +11906,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B214" t="s">
         <v>48</v>
@@ -11604,7 +11917,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B215" t="s">
         <v>48</v>
@@ -11615,7 +11928,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B216" t="s">
         <v>48</v>
@@ -11626,10 +11939,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B217" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -11637,10 +11950,10 @@
     </row>
     <row r="218" spans="1:3" ht="33">
       <c r="A218" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -11648,10 +11961,10 @@
     </row>
     <row r="219" spans="1:3" ht="49.5">
       <c r="A219" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -11659,10 +11972,10 @@
     </row>
     <row r="220" spans="1:3" ht="49.5">
       <c r="A220" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -11670,10 +11983,10 @@
     </row>
     <row r="221" spans="1:3" ht="49.5">
       <c r="A221" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -11681,10 +11994,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B222" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -11692,10 +12005,10 @@
     </row>
     <row r="223" spans="1:3" ht="66">
       <c r="A223" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -11703,10 +12016,10 @@
     </row>
     <row r="224" spans="1:3" ht="66">
       <c r="A224" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -11714,10 +12027,10 @@
     </row>
     <row r="225" spans="1:3" ht="66">
       <c r="A225" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -11725,10 +12038,10 @@
     </row>
     <row r="226" spans="1:3" ht="66">
       <c r="A226" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -11736,10 +12049,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B227" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -11747,10 +12060,10 @@
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -11758,10 +12071,10 @@
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -11769,10 +12082,10 @@
     </row>
     <row r="230" spans="1:3" ht="49.5">
       <c r="A230" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -11780,10 +12093,10 @@
     </row>
     <row r="231" spans="1:3" ht="49.5">
       <c r="A231" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -11791,10 +12104,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B232" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -11802,10 +12115,10 @@
     </row>
     <row r="233" spans="1:3" ht="49.5">
       <c r="A233" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -11813,10 +12126,10 @@
     </row>
     <row r="234" spans="1:3" ht="49.5">
       <c r="A234" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -11824,10 +12137,10 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -11835,12 +12148,232 @@
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>847</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>848</v>
+      </c>
+      <c r="B238" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>849</v>
+      </c>
+      <c r="B239" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>850</v>
+      </c>
+      <c r="B240" t="s">
+        <v>48</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>851</v>
+      </c>
+      <c r="B241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>852</v>
+      </c>
+      <c r="B242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>853</v>
+      </c>
+      <c r="B243" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>854</v>
+      </c>
+      <c r="B244" t="s">
+        <v>48</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>855</v>
+      </c>
+      <c r="B245" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>856</v>
+      </c>
+      <c r="B246" t="s">
+        <v>48</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>857</v>
+      </c>
+      <c r="B247" t="s">
+        <v>48</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>858</v>
+      </c>
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>859</v>
+      </c>
+      <c r="B249" t="s">
+        <v>48</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>860</v>
+      </c>
+      <c r="B250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>861</v>
+      </c>
+      <c r="B251" t="s">
+        <v>48</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>862</v>
+      </c>
+      <c r="B252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>863</v>
+      </c>
+      <c r="B253" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>864</v>
+      </c>
+      <c r="B254" t="s">
+        <v>48</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>865</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>866</v>
+      </c>
+      <c r="B256" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256">
         <v>5</v>
       </c>
     </row>
@@ -11858,10 +12391,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12372,13 +12905,405 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>6022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <v>6023</v>
+      </c>
+      <c r="B39" t="s">
+        <v>820</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <v>6024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <v>6025</v>
+      </c>
+      <c r="B41" t="s">
+        <v>821</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <v>6026</v>
+      </c>
+      <c r="B42" t="s">
+        <v>822</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7">
+        <v>6027</v>
+      </c>
+      <c r="B43" t="s">
+        <v>823</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7">
+        <v>6028</v>
+      </c>
+      <c r="B44" t="s">
+        <v>824</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7">
+        <v>6029</v>
+      </c>
+      <c r="B45" t="s">
+        <v>825</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7">
+        <v>6030</v>
+      </c>
+      <c r="B46" t="s">
+        <v>826</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7">
+        <v>6031</v>
+      </c>
+      <c r="B47" t="s">
+        <v>827</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7">
+        <v>6032</v>
+      </c>
+      <c r="B48" t="s">
+        <v>828</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <v>6033</v>
+      </c>
+      <c r="B49" t="s">
+        <v>829</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <v>6034</v>
+      </c>
+      <c r="B50" t="s">
+        <v>830</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>6035</v>
+      </c>
+      <c r="B51" t="s">
+        <v>831</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <v>6036</v>
+      </c>
+      <c r="B52" t="s">
+        <v>832</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <v>6037</v>
+      </c>
+      <c r="B53" t="s">
+        <v>833</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7">
+        <v>6038</v>
+      </c>
+      <c r="B54" t="s">
+        <v>834</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7">
+        <v>6039</v>
+      </c>
+      <c r="B55" t="s">
+        <v>835</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7">
+        <v>6040</v>
+      </c>
+      <c r="B56" t="s">
+        <v>838</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="37">
+        <v>6041</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="C57" s="38">
+        <v>3</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="37">
+        <v>6042</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="C58" s="38">
+        <v>3</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7">
+        <v>6043</v>
+      </c>
+      <c r="B59" t="s">
+        <v>839</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7">
+        <v>6044</v>
+      </c>
+      <c r="B60" t="s">
+        <v>840</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7">
+        <v>6045</v>
+      </c>
+      <c r="B61" t="s">
+        <v>841</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7">
+        <v>6046</v>
+      </c>
+      <c r="B62" t="s">
+        <v>842</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7">
+        <v>6047</v>
+      </c>
+      <c r="B63" t="s">
+        <v>843</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7">
+        <v>6048</v>
+      </c>
+      <c r="B64" t="s">
+        <v>844</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="37">
+        <v>6049</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="C65" s="38">
+        <v>3</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -12398,7 +13323,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12410,12 +13335,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -12429,34 +13354,43 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="66">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>816</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="82.5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>817</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="66">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>826</v>
+        <v>818</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011509E0-3D88-488C-BBA9-2D6573C2398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CCA739-34AB-4684-846A-CB07C0BD87E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="495" windowWidth="31245" windowHeight="20220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1830" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="909">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,16 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1000의 보호막을 획득합니다.
-(+ 쿨타임 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1500의 보호막을 획득합니다.
-(+ 500의 추가 보호막)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 2000의 보호막을 획득합니다.
 (+ 저각 보호막을 추가로 생성합니다. 내구도는 2000입니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,11 +1045,6 @@
   <si>
     <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
 (+ 적중한 대상은 불탐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
-(+ 쿨타임 10% 감소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,14 +1092,6 @@
   </si>
   <si>
     <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
-~3명 : 50 * 8
-~5명 : 50 * 13
-7명 이상 : 50 * 23
-(+ 쿨타임 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
 ~3명 : 75 * 8 + 마무리 공격 1000
 ~5명 : 75 * 13 + 마무리 공격 1500
 7명 이상 : 75 * 23 + 마무리 공격 2000
@@ -1413,11 +1390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 무아지경에 빠져 모든 공격을 회피합니다.
-(+ 무아지경 버프를 부여)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이로하가 토라마루에 탑승하여 전투에 등장, 토라마루는 탑승물 취급이며 55초 뒤 귀환합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,26 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
-(+ 범위 50%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
-(+ 쿨타임 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 5초간 정지상태로 만듭니다.
-(+ 지속시간 2초 증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 7초간 정지상태로 만듭니다.
-(+ 적 대상 한정으로 10초간 표적상태 부여, 지속시간 2초 증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>280, 280</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,10 +1430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정찰의 결과입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일망타진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,16 +1662,6 @@
   </si>
   <si>
     <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
-(+ 쿨다운 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
-(+ 사거리 증가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1890,11 +1828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
-(+ 적 타격시 쿨다운 2% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4027, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1984,11 +1917,6 @@
   </si>
   <si>
     <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)
-(+ 쿨타운 10% 감소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3177,11 +3105,6 @@
   </si>
   <si>
     <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
-(+ 쿨다운 10% 감소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
 (+ 여우불의 크기가 커집니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3226,11 +3149,6 @@
   <si>
     <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
 (+ 영혼나무로 착각한 나무지기들이 대량 소환됩니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
-(+ 쿨다운 10% 감소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3523,12 +3441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힐러는 상처입은 아군을 치유하는데에 특화된 역활군입니다. 
-자연치유력 +10%
-수술성공률 +10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IconName : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3541,32 +3453,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더미 패시브 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 패시브 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 패시브 3</t>
-  </si>
-  <si>
-    <t>더미 패시브 4</t>
-  </si>
-  <si>
     <t>PassiveSkillId : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arona1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Dummy</t>
+    <t>긴급 코드 활성화 : 케이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">긴급 코드 활성화 : 케이 
+아리스의 의식이 10%이하로 감소하면 케이가 주도권을 잡습니다. 의식이 100%로 3일 동안 고정됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강자 히나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강자 미카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강자 츠루기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스의 최강자 (히나)
+명실상부한 최강자로서 받는 피해 80% 감소를 얻습니다. 위압으로 인해 주변 적들의 명중률이 10% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강자 호시노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스의 최강자 (미카)
+명실상부한 최강자로서 받는 피해 80% 감소를 얻습니다. 근접전 진행 시 적 대상을 3초간 기절시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스의 최강자 (츠루기)
+명실상부한 최강자로서 받는 피해 80% 감소를 얻습니다. 소집 중일때 이동속도가 상승합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러는 상처입은 아군을 치유하는데에 특화된 역할군입니다. 
+쿨타운 감소 +5%
+이동속도 +5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보토스의 최강자 (호시노)
+명실상부한 최강자로서 받는 피해 80% 감소를 얻습니다. 대상의 방어력을 일부 무시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위 내의 자신을 제외한 아군을 강화, 아군의 공격력이 1.5배 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원형 범위내의 자신을 제외한 아군을 강화, 아군의 공격력이 2배 증가합니다.
+추가로 아군의 무드회복력 또한 크게 상승합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠쿠요가 변신 인술을 사용해 거목으로 변합니다. 받는 피해가 크게 감소하고 자가회복력이 증가합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브 지원군 소환, 지원군은 전장에 30초간 머물며 적을 공격합니다. (2명)
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1000의 보호막을 획득합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1500의 보호막을 획득합니다.
+(+ 500의 추가 보호막을 얻습니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마전 소속의 폰 수에 따라 위력이 강해지는 포격을 호출합니다.
+~3명 : 50 * 8
+~5명 : 50 * 13
+7명 이상 : 50 * 23
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
+(+ 사거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 무아지경에 빠져 모든 공격을 회피합니다.
+(+ 무아지경 버프를 부여합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위 내의 자신을 제외한 아군을 강화, 아군의 공격력이 1.5배 증가합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위 내의 자신을 제외한 아군을 강화, 아군의 공격력이 1.5배 증가합니다.
+(+ 같은 수치로 방어력이 상승합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형 범위 내의 자신을 제외한 아군을 강화, 아군의 공격력이 1.5배 증가합니다.
+(+ 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
+(+ 범위가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 3초간 정지상태로 만듭니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 5초간 정지상태로 만듭니다.
+(+ 지속시간이 2초 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아키가 최고의 장면을 포착해 원형 범위내의 모든 대상을 7초간 정지상태로 만듭니다.
+(+ 적 대상 한정으로 10초간 표적상태 부여, 지속시간이 2초 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적 대상 하나를 표적으로 삼아 아군의 공격이 더 잘 맞게 유도합니다. 표적의 대상은 당황해 명중률이 감소합니다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 대상 하나를 표적으로 삼아 아군의 공격이 더 잘 맞게 유도합니다. 표적의 대상은 당황해 명중률이 감소합니다.</t>
+  </si>
+  <si>
+    <t>원형 범위 내의 적대 대상 모두를 표적으로 지정, 상기한 효과를 모두 적용받으며 아군이 타격이 소량의 체력을 회복합니다.</t>
+  </si>
+  <si>
+    <t>문제아 발견, 집중공격개시!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
+(+ 츠루기의 신비가 해방되어 적 타격시 쿨다운 2% 감소 효과를 얻습니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4151,8 +4209,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D6" totalsRowShown="0">
-  <autoFilter ref="A2:D6" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D7" totalsRowShown="0">
+  <autoFilter ref="A2:D7" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7F8E7035-D64E-46C0-ABF2-61FF8FFAEB5C}" name="Id : Integer"/>
     <tableColumn id="4" xr3:uid="{3439CBEE-EFF0-42BB-8927-E1191E295509}" name="Name : String"/>
@@ -4440,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4483,13 +4541,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -4540,10 +4598,10 @@
         <v>61</v>
       </c>
       <c r="Y2" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="Z2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
@@ -4551,7 +4609,7 @@
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -4607,7 +4665,7 @@
         <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -4663,7 +4721,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -5007,7 +5065,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5051,7 +5109,7 @@
         <v>1989</v>
       </c>
       <c r="B13" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5194,9 +5252,7 @@
       <c r="E16" s="12">
         <v>4002</v>
       </c>
-      <c r="F16" s="12">
-        <v>7001</v>
-      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="12">
         <v>6001</v>
       </c>
@@ -5269,9 +5325,7 @@
       <c r="E17" s="12">
         <v>4003</v>
       </c>
-      <c r="F17" s="12">
-        <v>7002</v>
-      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="12">
         <v>6002</v>
       </c>
@@ -5325,7 +5379,7 @@
         <v>181</v>
       </c>
       <c r="Z17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5400,7 +5454,7 @@
         <v>217</v>
       </c>
       <c r="Z18" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5476,7 +5530,7 @@
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5570,7 +5624,9 @@
       <c r="E21" s="14">
         <v>4007</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14">
+        <v>7001</v>
+      </c>
       <c r="G21" s="14">
         <v>6006</v>
       </c>
@@ -5646,7 +5702,9 @@
       <c r="E22" s="16">
         <v>4008</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="16">
+        <v>7005</v>
+      </c>
       <c r="G22" s="16">
         <v>6007</v>
       </c>
@@ -6056,7 +6114,7 @@
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -6130,7 +6188,7 @@
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -6203,7 +6261,7 @@
         <v>68</v>
       </c>
       <c r="Z29" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -6277,7 +6335,7 @@
       </c>
       <c r="Y30" s="11"/>
       <c r="Z30" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -6351,7 +6409,7 @@
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -6359,18 +6417,20 @@
         <v>1017</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" s="20">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E32" s="20">
         <v>4018</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="20">
+        <v>7002</v>
+      </c>
       <c r="G32" s="20">
         <v>6017</v>
       </c>
@@ -6412,20 +6472,20 @@
         <v>2</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V32" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="W32" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -6433,13 +6493,13 @@
         <v>1018</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C33" s="20">
         <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E33" s="20">
         <v>4019</v>
@@ -6489,17 +6549,17 @@
         <v>63</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="X33" s="21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -6507,13 +6567,13 @@
         <v>1019</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E34" s="20">
         <v>4020</v>
@@ -6560,20 +6620,20 @@
         <v>2</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="V34" s="20" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="W34" s="20" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -6581,13 +6641,13 @@
         <v>1020</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C35" s="20">
         <v>15</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E35" s="20">
         <v>4021</v>
@@ -6634,20 +6694,20 @@
         <v>2</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Y35" s="11"/>
       <c r="Z35" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -6655,7 +6715,7 @@
         <v>1021</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C36" s="24">
         <v>17</v>
@@ -6711,13 +6771,13 @@
         <v>88</v>
       </c>
       <c r="V36" s="25" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="W36" s="25" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="X36" s="25" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="Y36" s="11"/>
     </row>
@@ -6726,7 +6786,7 @@
         <v>1022</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C37" s="22">
         <v>17</v>
@@ -6779,20 +6839,20 @@
         <v>2</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="X37" s="23" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="Y37" s="11"/>
       <c r="Z37" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -6800,7 +6860,7 @@
         <v>1023</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C38" s="22">
         <v>17</v>
@@ -6811,7 +6871,9 @@
       <c r="E38" s="22">
         <v>4024</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="22">
+        <v>7003</v>
+      </c>
       <c r="G38" s="22">
         <v>6023</v>
       </c>
@@ -6853,20 +6915,20 @@
         <v>2</v>
       </c>
       <c r="U38" s="22" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="V38" s="23" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="X38" s="23" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Y38" s="11"/>
       <c r="Z38" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -6874,7 +6936,7 @@
         <v>1024</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C39" s="22">
         <v>17</v>
@@ -6927,20 +6989,20 @@
         <v>2</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="X39" s="23" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Y39" s="11"/>
       <c r="Z39" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -6948,7 +7010,7 @@
         <v>1025</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C40" s="26">
         <v>17</v>
@@ -6959,7 +7021,9 @@
       <c r="E40" s="26">
         <v>4026</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="26">
+        <v>7004</v>
+      </c>
       <c r="G40" s="26">
         <v>6025</v>
       </c>
@@ -7001,16 +7065,16 @@
         <v>2</v>
       </c>
       <c r="U40" s="26" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="V40" s="27" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="X40" s="27" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Y40" s="11" t="b">
         <v>1</v>
@@ -7021,7 +7085,7 @@
         <v>1026</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C41" s="26">
         <v>17</v>
@@ -7074,16 +7138,16 @@
         <v>2</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="W41" s="26" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="X41" s="27" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="Y41" s="11"/>
     </row>
@@ -7092,7 +7156,7 @@
         <v>1027</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C42" s="26">
         <v>16</v>
@@ -7145,16 +7209,16 @@
         <v>2</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="V42" s="26" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="W42" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="X42" s="27" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Y42" s="11"/>
     </row>
@@ -7163,7 +7227,7 @@
         <v>1028</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C43" s="26">
         <v>15</v>
@@ -7216,16 +7280,16 @@
         <v>2</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="V43" s="26" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="W43" s="26" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="X43" s="27" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Y43" s="11"/>
     </row>
@@ -7234,7 +7298,7 @@
         <v>1029</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C44" s="28">
         <v>17</v>
@@ -7287,20 +7351,20 @@
         <v>2</v>
       </c>
       <c r="U44" s="28" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="V44" s="28" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="W44" s="28" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="X44" s="29" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="Y44" s="11"/>
       <c r="Z44" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -7308,7 +7372,7 @@
         <v>1030</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="C45" s="28">
         <v>16</v>
@@ -7361,20 +7425,20 @@
         <v>2</v>
       </c>
       <c r="U45" s="28" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="V45" s="29" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="W45" s="29" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="X45" s="29" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="Y45" s="11"/>
       <c r="Z45" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -7382,7 +7446,7 @@
         <v>1031</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C46" s="28">
         <v>15</v>
@@ -7435,20 +7499,20 @@
         <v>2</v>
       </c>
       <c r="U46" s="28" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="V46" s="28" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="W46" s="28" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="X46" s="29" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="Y46" s="11"/>
       <c r="Z46" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -7456,7 +7520,7 @@
         <v>1032</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C47" s="30">
         <v>16</v>
@@ -7509,16 +7573,16 @@
         <v>2</v>
       </c>
       <c r="U47" s="31" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="V47" s="30" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="W47" s="30" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="X47" s="32" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="Y47" s="11"/>
     </row>
@@ -7527,7 +7591,7 @@
         <v>1033</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="C48" s="30">
         <v>16</v>
@@ -7580,16 +7644,16 @@
         <v>2</v>
       </c>
       <c r="U48" s="30" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="V48" s="32" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="W48" s="32" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="X48" s="32" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="Y48" s="11"/>
     </row>
@@ -7598,7 +7662,7 @@
         <v>1034</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C49" s="30">
         <v>16</v>
@@ -7651,16 +7715,16 @@
         <v>2</v>
       </c>
       <c r="U49" s="30" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="V49" s="30" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="W49" s="30" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="X49" s="32" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="Y49" s="11"/>
     </row>
@@ -7669,7 +7733,7 @@
         <v>1035</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C50" s="30">
         <v>15</v>
@@ -7722,16 +7786,16 @@
         <v>2</v>
       </c>
       <c r="U50" s="30" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="V50" s="30" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="W50" s="30" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="X50" s="32" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="Y50" s="11"/>
     </row>
@@ -7740,7 +7804,7 @@
         <v>1036</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C51" s="18">
         <v>17</v>
@@ -7793,16 +7857,16 @@
         <v>2</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="V51" s="18" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="X51" s="19" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Y51" s="11"/>
     </row>
@@ -7811,7 +7875,7 @@
         <v>1037</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="C52" s="18">
         <v>17</v>
@@ -7864,16 +7928,16 @@
         <v>2</v>
       </c>
       <c r="U52" s="18" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="V52" s="19" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="X52" s="19" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="Y52" s="11"/>
     </row>
@@ -7882,7 +7946,7 @@
         <v>1038</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C53" s="18">
         <v>15</v>
@@ -7935,16 +7999,16 @@
         <v>2</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="V53" s="18" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="X53" s="19" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
@@ -7953,7 +8017,7 @@
         <v>1039</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C54" s="33">
         <v>17</v>
@@ -8006,16 +8070,16 @@
         <v>2</v>
       </c>
       <c r="U54" s="33" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="V54" s="33" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="X54" s="34" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
@@ -8024,7 +8088,7 @@
         <v>1040</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C55" s="33">
         <v>15</v>
@@ -8077,16 +8141,16 @@
         <v>2</v>
       </c>
       <c r="U55" s="33" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="V55" s="33" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="X55" s="34" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="Y55" s="11"/>
     </row>
@@ -8095,7 +8159,7 @@
         <v>1041</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C56" s="33">
         <v>16</v>
@@ -8148,16 +8212,16 @@
         <v>2</v>
       </c>
       <c r="U56" s="33" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="V56" s="34" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="W56" s="34" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -8165,7 +8229,7 @@
         <v>1042</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C57" s="33">
         <v>16</v>
@@ -8218,16 +8282,16 @@
         <v>2</v>
       </c>
       <c r="U57" s="33" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="V57" s="33" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="W57" s="33" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="X57" s="34" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -8235,7 +8299,7 @@
         <v>1043</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="C58" s="35">
         <v>17</v>
@@ -8288,20 +8352,20 @@
         <v>2</v>
       </c>
       <c r="U58" s="35" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="V58" s="35" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="W58" s="35" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="X58" s="36" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="Y58" s="11"/>
       <c r="Z58" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -8309,7 +8373,7 @@
         <v>1044</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C59" s="35">
         <v>15</v>
@@ -8362,20 +8426,20 @@
         <v>2</v>
       </c>
       <c r="U59" s="35" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="V59" s="36" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="W59" s="36" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="X59" s="36" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Y59" s="11"/>
       <c r="Z59" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -8383,7 +8447,7 @@
         <v>1045</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C60" s="35">
         <v>15</v>
@@ -8436,20 +8500,20 @@
         <v>2</v>
       </c>
       <c r="U60" s="35" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="V60" s="36" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="W60" s="36" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="X60" s="36" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="Y60" s="11"/>
       <c r="Z60" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -8457,7 +8521,7 @@
         <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -8513,7 +8577,7 @@
         <v>1047</v>
       </c>
       <c r="B62" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C62">
         <v>16</v>
@@ -8569,7 +8633,7 @@
         <v>1048</v>
       </c>
       <c r="B63" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C63">
         <v>18</v>
@@ -8625,7 +8689,7 @@
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -8694,7 +8758,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8725,10 +8789,10 @@
         <v>2999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8736,10 +8800,10 @@
         <v>2998</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8791,10 +8855,10 @@
         <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8802,7 +8866,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C10">
         <v>1021</v>
@@ -8813,10 +8877,10 @@
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8824,10 +8888,10 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8835,10 +8899,10 @@
         <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8846,10 +8910,10 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8857,10 +8921,10 @@
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8868,10 +8932,10 @@
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C16" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8879,10 +8943,10 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8890,10 +8954,10 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="C18" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -8940,7 +9004,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -8948,10 +9012,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="C3" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -8990,10 +9054,10 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9001,13 +9065,13 @@
         <v>3004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9015,13 +9079,13 @@
         <v>3005</v>
       </c>
       <c r="B8" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9029,13 +9093,13 @@
         <v>3006</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9043,13 +9107,13 @@
         <v>3007</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C10">
         <v>2012</v>
       </c>
       <c r="D10" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -9068,7 +9132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9089,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9100,7 +9166,7 @@
         <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9119,7 +9185,7 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>248</v>
@@ -9130,10 +9196,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9141,10 +9207,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="C7" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9152,10 +9218,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="C8" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9163,10 +9229,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="C9" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9232,7 +9298,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9265,7 +9331,7 @@
         <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9284,10 +9350,10 @@
         <v>4018</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9295,7 +9361,7 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>907</v>
       </c>
       <c r="C21" t="s">
         <v>125</v>
@@ -9306,10 +9372,10 @@
         <v>4020</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9317,10 +9383,10 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C23" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9328,10 +9394,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9339,10 +9405,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9350,10 +9416,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9361,10 +9427,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="C27" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9372,10 +9438,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9383,10 +9449,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C29" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9394,10 +9460,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C30" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9405,10 +9471,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9416,10 +9482,10 @@
         <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C32" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9427,10 +9493,10 @@
         <v>4031</v>
       </c>
       <c r="B33" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="C33" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9438,10 +9504,10 @@
         <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="C34" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9449,10 +9515,10 @@
         <v>4033</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C35" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9460,10 +9526,10 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="C36" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9471,10 +9537,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C37" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9482,10 +9548,10 @@
         <v>4036</v>
       </c>
       <c r="B38" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="C38" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9493,10 +9559,10 @@
         <v>4037</v>
       </c>
       <c r="B39" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C39" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9504,10 +9570,10 @@
         <v>4038</v>
       </c>
       <c r="B40" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C40" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9515,10 +9581,10 @@
         <v>4039</v>
       </c>
       <c r="B41" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="C41" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9526,10 +9592,10 @@
         <v>4040</v>
       </c>
       <c r="B42" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9537,10 +9603,10 @@
         <v>4041</v>
       </c>
       <c r="B43" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="C43" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9548,10 +9614,10 @@
         <v>4042</v>
       </c>
       <c r="B44" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C44" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9559,10 +9625,10 @@
         <v>4043</v>
       </c>
       <c r="B45" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="C45" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9570,10 +9636,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C46" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9581,10 +9647,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C47" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9592,10 +9658,10 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C48" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9603,10 +9669,10 @@
         <v>4047</v>
       </c>
       <c r="B49" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="C49" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9614,7 +9680,7 @@
         <v>4048</v>
       </c>
       <c r="B50" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="C50" t="s">
         <v>44</v>
@@ -9625,10 +9691,10 @@
         <v>4049</v>
       </c>
       <c r="B51" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="C51" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9636,10 +9702,10 @@
         <v>4050</v>
       </c>
       <c r="B52" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="C52" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -9658,7 +9724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -9812,7 +9880,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>250</v>
+        <v>890</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -9823,7 +9891,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>890</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -9834,7 +9902,7 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>891</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -9845,7 +9913,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -9856,7 +9924,7 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -9867,7 +9935,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9878,7 +9946,7 @@
         <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9889,7 +9957,7 @@
         <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9900,7 +9968,7 @@
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -9908,10 +9976,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="B23" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -9922,7 +9990,7 @@
         <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -9933,7 +10001,7 @@
         <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -9944,7 +10012,7 @@
         <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9955,7 +10023,7 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9966,7 +10034,7 @@
         <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9974,10 +10042,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="B29" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -9988,7 +10056,7 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -9999,7 +10067,7 @@
         <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -10010,7 +10078,7 @@
         <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -10021,7 +10089,7 @@
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -10032,7 +10100,7 @@
         <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -10040,10 +10108,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -10054,7 +10122,7 @@
         <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -10065,7 +10133,7 @@
         <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>257</v>
+        <v>892</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -10076,7 +10144,7 @@
         <v>134</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>892</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10087,7 +10155,7 @@
         <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>892</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -10098,7 +10166,7 @@
         <v>136</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -10106,10 +10174,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -10120,7 +10188,7 @@
         <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -10131,7 +10199,7 @@
         <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -10142,7 +10210,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -10153,7 +10221,7 @@
         <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -10164,7 +10232,7 @@
         <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -10175,7 +10243,7 @@
         <v>142</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -10186,7 +10254,7 @@
         <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -10197,7 +10265,7 @@
         <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -10208,7 +10276,7 @@
         <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -10219,7 +10287,7 @@
         <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -10230,7 +10298,7 @@
         <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -10241,7 +10309,7 @@
         <v>148</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -10252,7 +10320,7 @@
         <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -10263,7 +10331,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -10274,7 +10342,7 @@
         <v>151</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -10285,7 +10353,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -10296,7 +10364,7 @@
         <v>166</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -10307,7 +10375,7 @@
         <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10318,7 +10386,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -10329,7 +10397,7 @@
         <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -10340,7 +10408,7 @@
         <v>170</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -10351,7 +10419,7 @@
         <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -10362,7 +10430,7 @@
         <v>172</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -10373,7 +10441,7 @@
         <v>173</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -10384,7 +10452,7 @@
         <v>174</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -10395,7 +10463,7 @@
         <v>193</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -10406,7 +10474,7 @@
         <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -10417,7 +10485,7 @@
         <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -10428,7 +10496,7 @@
         <v>196</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>265</v>
+        <v>893</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -10439,7 +10507,7 @@
         <v>197</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -10450,7 +10518,7 @@
         <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -10461,7 +10529,7 @@
         <v>199</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>418</v>
+        <v>894</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -10472,7 +10540,7 @@
         <v>200</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>418</v>
+        <v>894</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -10483,7 +10551,7 @@
         <v>201</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>419</v>
+        <v>895</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10494,7 +10562,7 @@
         <v>202</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>341</v>
+        <v>896</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -10505,7 +10573,7 @@
         <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -10516,7 +10584,7 @@
         <v>204</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -10527,7 +10595,7 @@
         <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -10538,7 +10606,7 @@
         <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -10549,7 +10617,7 @@
         <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -10560,51 +10628,51 @@
         <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>885</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="49.5">
       <c r="A83" t="s">
         <v>209</v>
       </c>
-      <c r="B83" t="s">
-        <v>47</v>
+      <c r="B83" s="2" t="s">
+        <v>897</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="49.5">
       <c r="A84" t="s">
         <v>210</v>
       </c>
-      <c r="B84" t="s">
-        <v>47</v>
+      <c r="B84" s="2" t="s">
+        <v>898</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="49.5">
       <c r="A85" t="s">
         <v>211</v>
       </c>
-      <c r="B85" t="s">
-        <v>47</v>
+      <c r="B85" s="2" t="s">
+        <v>899</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="49.5">
       <c r="A86" t="s">
         <v>212</v>
       </c>
-      <c r="B86" t="s">
-        <v>47</v>
+      <c r="B86" s="2" t="s">
+        <v>886</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -10615,7 +10683,7 @@
         <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -10626,7 +10694,7 @@
         <v>230</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>344</v>
+        <v>900</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -10637,7 +10705,7 @@
         <v>231</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>345</v>
+        <v>901</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -10648,18 +10716,18 @@
         <v>232</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>346</v>
+        <v>902</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="49.5">
+    <row r="91" spans="1:3" ht="66">
       <c r="A91" t="s">
         <v>233</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>347</v>
+        <v>903</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -10667,10 +10735,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -10678,10 +10746,10 @@
     </row>
     <row r="93" spans="1:3" ht="49.5">
       <c r="A93" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -10689,10 +10757,10 @@
     </row>
     <row r="94" spans="1:3" ht="49.5">
       <c r="A94" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -10700,10 +10768,10 @@
     </row>
     <row r="95" spans="1:3" ht="49.5">
       <c r="A95" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -10711,10 +10779,10 @@
     </row>
     <row r="96" spans="1:3" ht="66">
       <c r="A96" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -10722,10 +10790,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>904</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -10733,10 +10801,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>905</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -10744,10 +10812,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>905</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -10755,10 +10823,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>905</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -10766,10 +10834,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>906</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -10777,10 +10845,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -10788,10 +10856,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B103" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -10799,10 +10867,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B104" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -10810,10 +10878,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -10821,10 +10889,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B106" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10832,10 +10900,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -10843,10 +10911,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -10854,10 +10922,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B109" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -10865,10 +10933,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B110" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -10876,10 +10944,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -10887,7 +10955,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B112" t="s">
         <v>47</v>
@@ -10898,7 +10966,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B113" t="s">
         <v>47</v>
@@ -10909,7 +10977,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s">
         <v>47</v>
@@ -10920,7 +10988,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B115" t="s">
         <v>47</v>
@@ -10931,7 +10999,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B116" t="s">
         <v>47</v>
@@ -10942,10 +11010,10 @@
     </row>
     <row r="117" spans="1:3" ht="49.5">
       <c r="A117" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -10953,10 +11021,10 @@
     </row>
     <row r="118" spans="1:3" ht="66">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -10964,10 +11032,10 @@
     </row>
     <row r="119" spans="1:3" ht="66">
       <c r="A119" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -10975,10 +11043,10 @@
     </row>
     <row r="120" spans="1:3" ht="66">
       <c r="A120" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -10986,10 +11054,10 @@
     </row>
     <row r="121" spans="1:3" ht="66">
       <c r="A121" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -10997,10 +11065,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B122" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -11008,10 +11076,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B123" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -11019,10 +11087,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -11030,10 +11098,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -11041,10 +11109,10 @@
     </row>
     <row r="126" spans="1:3" ht="82.5">
       <c r="A126" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -11052,10 +11120,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B127" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -11063,10 +11131,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5">
       <c r="A128" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -11074,10 +11142,10 @@
     </row>
     <row r="129" spans="1:3" ht="49.5">
       <c r="A129" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -11085,10 +11153,10 @@
     </row>
     <row r="130" spans="1:3" ht="49.5">
       <c r="A130" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -11096,10 +11164,10 @@
     </row>
     <row r="131" spans="1:3" ht="49.5">
       <c r="A131" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11107,10 +11175,10 @@
     </row>
     <row r="132" spans="1:3" ht="49.5">
       <c r="A132" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -11118,10 +11186,10 @@
     </row>
     <row r="133" spans="1:3" ht="66">
       <c r="A133" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -11129,10 +11197,10 @@
     </row>
     <row r="134" spans="1:3" ht="66">
       <c r="A134" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -11140,21 +11208,21 @@
     </row>
     <row r="135" spans="1:3" ht="66">
       <c r="A135" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C135">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="66">
+    <row r="136" spans="1:3" ht="82.5">
       <c r="A136" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>464</v>
+        <v>908</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -11162,10 +11230,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B137" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -11173,10 +11241,10 @@
     </row>
     <row r="138" spans="1:3" ht="49.5">
       <c r="A138" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -11184,10 +11252,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5">
       <c r="A139" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -11195,10 +11263,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5">
       <c r="A140" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -11206,10 +11274,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5">
       <c r="A141" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -11217,10 +11285,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B142" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -11228,10 +11296,10 @@
     </row>
     <row r="143" spans="1:3" ht="49.5">
       <c r="A143" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>490</v>
+        <v>889</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -11239,10 +11307,10 @@
     </row>
     <row r="144" spans="1:3" ht="49.5">
       <c r="A144" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -11250,10 +11318,10 @@
     </row>
     <row r="145" spans="1:3" ht="49.5">
       <c r="A145" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -11261,10 +11329,10 @@
     </row>
     <row r="146" spans="1:3" ht="49.5">
       <c r="A146" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -11272,10 +11340,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B147" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -11283,10 +11351,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B148" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C148">
         <v>3</v>
@@ -11294,10 +11362,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B149" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -11305,10 +11373,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -11316,10 +11384,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B151" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -11327,10 +11395,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B152" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -11338,10 +11406,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -11349,10 +11417,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B154" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -11360,10 +11428,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B155" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -11371,10 +11439,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B156" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -11382,7 +11450,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B157" t="s">
         <v>47</v>
@@ -11393,7 +11461,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B158" t="s">
         <v>47</v>
@@ -11404,7 +11472,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B159" t="s">
         <v>47</v>
@@ -11415,7 +11483,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B160" t="s">
         <v>47</v>
@@ -11426,7 +11494,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B161" t="s">
         <v>47</v>
@@ -11437,10 +11505,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B162" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -11448,10 +11516,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B163" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -11459,10 +11527,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B164" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -11470,10 +11538,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B165" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -11481,10 +11549,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B166" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -11492,7 +11560,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B167" t="s">
         <v>47</v>
@@ -11503,7 +11571,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B168" t="s">
         <v>47</v>
@@ -11514,7 +11582,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B169" t="s">
         <v>47</v>
@@ -11525,7 +11593,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B170" t="s">
         <v>47</v>
@@ -11536,7 +11604,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B171" t="s">
         <v>47</v>
@@ -11547,10 +11615,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B172" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -11558,10 +11626,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B173" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -11569,10 +11637,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B174" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -11580,10 +11648,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B175" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -11591,10 +11659,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B176" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -11602,7 +11670,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B177" t="s">
         <v>47</v>
@@ -11613,7 +11681,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B178" t="s">
         <v>47</v>
@@ -11624,7 +11692,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B179" t="s">
         <v>47</v>
@@ -11635,7 +11703,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B180" t="s">
         <v>47</v>
@@ -11646,7 +11714,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B181" t="s">
         <v>47</v>
@@ -11657,7 +11725,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B182" t="s">
         <v>47</v>
@@ -11668,7 +11736,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B183" t="s">
         <v>47</v>
@@ -11679,7 +11747,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="B184" t="s">
         <v>47</v>
@@ -11690,7 +11758,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B185" t="s">
         <v>47</v>
@@ -11701,7 +11769,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="B186" t="s">
         <v>47</v>
@@ -11712,7 +11780,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B187" t="s">
         <v>47</v>
@@ -11723,7 +11791,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="B188" t="s">
         <v>47</v>
@@ -11734,7 +11802,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B189" t="s">
         <v>47</v>
@@ -11745,7 +11813,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="B190" t="s">
         <v>47</v>
@@ -11756,7 +11824,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B191" t="s">
         <v>47</v>
@@ -11767,7 +11835,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="B192" t="s">
         <v>47</v>
@@ -11778,7 +11846,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="B193" t="s">
         <v>47</v>
@@ -11789,7 +11857,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="B194" t="s">
         <v>47</v>
@@ -11800,7 +11868,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B195" t="s">
         <v>47</v>
@@ -11811,7 +11879,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="B196" t="s">
         <v>47</v>
@@ -11822,7 +11890,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B197" t="s">
         <v>47</v>
@@ -11833,7 +11901,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B198" t="s">
         <v>47</v>
@@ -11844,7 +11912,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B199" t="s">
         <v>47</v>
@@ -11855,7 +11923,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B200" t="s">
         <v>47</v>
@@ -11866,7 +11934,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B201" t="s">
         <v>47</v>
@@ -11877,7 +11945,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B202" t="s">
         <v>47</v>
@@ -11888,7 +11956,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B203" t="s">
         <v>47</v>
@@ -11899,7 +11967,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B204" t="s">
         <v>47</v>
@@ -11910,7 +11978,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B205" t="s">
         <v>47</v>
@@ -11921,7 +11989,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B206" t="s">
         <v>47</v>
@@ -11932,7 +12000,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B207" t="s">
         <v>47</v>
@@ -11943,7 +12011,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B208" t="s">
         <v>47</v>
@@ -11954,7 +12022,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B209" t="s">
         <v>47</v>
@@ -11965,7 +12033,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="B210" t="s">
         <v>47</v>
@@ -11976,7 +12044,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B211" t="s">
         <v>47</v>
@@ -11987,7 +12055,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B212" t="s">
         <v>47</v>
@@ -11998,7 +12066,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B213" t="s">
         <v>47</v>
@@ -12009,7 +12077,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B214" t="s">
         <v>47</v>
@@ -12020,7 +12088,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="B215" t="s">
         <v>47</v>
@@ -12031,7 +12099,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B216" t="s">
         <v>47</v>
@@ -12042,10 +12110,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B217" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -12053,10 +12121,10 @@
     </row>
     <row r="218" spans="1:3" ht="33">
       <c r="A218" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -12064,10 +12132,10 @@
     </row>
     <row r="219" spans="1:3" ht="49.5">
       <c r="A219" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -12075,10 +12143,10 @@
     </row>
     <row r="220" spans="1:3" ht="49.5">
       <c r="A220" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -12086,10 +12154,10 @@
     </row>
     <row r="221" spans="1:3" ht="49.5">
       <c r="A221" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -12097,10 +12165,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="B222" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -12108,10 +12176,10 @@
     </row>
     <row r="223" spans="1:3" ht="66">
       <c r="A223" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -12119,10 +12187,10 @@
     </row>
     <row r="224" spans="1:3" ht="66">
       <c r="A224" t="s">
+        <v>707</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -12130,10 +12198,10 @@
     </row>
     <row r="225" spans="1:3" ht="66">
       <c r="A225" t="s">
+        <v>708</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -12141,10 +12209,10 @@
     </row>
     <row r="226" spans="1:3" ht="66">
       <c r="A226" t="s">
+        <v>709</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -12152,10 +12220,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B227" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -12163,10 +12231,10 @@
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>799</v>
+        <v>887</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -12174,10 +12242,10 @@
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -12185,10 +12253,10 @@
     </row>
     <row r="230" spans="1:3" ht="49.5">
       <c r="A230" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -12196,10 +12264,10 @@
     </row>
     <row r="231" spans="1:3" ht="49.5">
       <c r="A231" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -12207,10 +12275,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="B232" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -12218,10 +12286,10 @@
     </row>
     <row r="233" spans="1:3" ht="49.5">
       <c r="A233" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>810</v>
+        <v>888</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -12229,10 +12297,10 @@
     </row>
     <row r="234" spans="1:3" ht="49.5">
       <c r="A234" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>810</v>
+        <v>888</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -12240,10 +12308,10 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -12251,10 +12319,10 @@
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -12262,7 +12330,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B237" t="s">
         <v>47</v>
@@ -12273,7 +12341,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="B238" t="s">
         <v>47</v>
@@ -12284,7 +12352,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B239" t="s">
         <v>47</v>
@@ -12295,7 +12363,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="B240" t="s">
         <v>47</v>
@@ -12306,7 +12374,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B241" t="s">
         <v>47</v>
@@ -12317,7 +12385,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B242" t="s">
         <v>47</v>
@@ -12328,7 +12396,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B243" t="s">
         <v>47</v>
@@ -12339,7 +12407,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="B244" t="s">
         <v>47</v>
@@ -12350,7 +12418,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="B245" t="s">
         <v>47</v>
@@ -12361,7 +12429,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="B246" t="s">
         <v>47</v>
@@ -12372,7 +12440,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B247" t="s">
         <v>47</v>
@@ -12383,7 +12451,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B248" t="s">
         <v>47</v>
@@ -12394,7 +12462,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="B249" t="s">
         <v>47</v>
@@ -12405,7 +12473,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="B250" t="s">
         <v>47</v>
@@ -12416,7 +12484,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="B251" t="s">
         <v>47</v>
@@ -12427,7 +12495,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="B252" t="s">
         <v>47</v>
@@ -12438,7 +12506,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="B253" t="s">
         <v>47</v>
@@ -12449,7 +12517,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="B254" t="s">
         <v>47</v>
@@ -12460,7 +12528,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B255" t="s">
         <v>47</v>
@@ -12471,7 +12539,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B256" t="s">
         <v>47</v>
@@ -12496,7 +12564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69EC8E7-D997-4F65-B024-E93B9D4F3F30}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -12532,13 +12600,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -12546,13 +12614,13 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12560,13 +12628,13 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12574,7 +12642,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -12588,13 +12656,13 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12602,13 +12670,13 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12616,13 +12684,13 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12630,13 +12698,13 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12644,7 +12712,7 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -12658,7 +12726,7 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -12672,13 +12740,13 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12686,13 +12754,13 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12700,13 +12768,13 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12714,13 +12782,13 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12812,13 +12880,13 @@
         <v>6007</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12826,13 +12894,13 @@
         <v>6008</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12840,13 +12908,13 @@
         <v>6009</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12854,13 +12922,13 @@
         <v>6010</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12868,13 +12936,13 @@
         <v>6011</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12882,13 +12950,13 @@
         <v>6012</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12896,13 +12964,13 @@
         <v>6013</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -12910,13 +12978,13 @@
         <v>6014</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C30" s="8">
         <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12924,13 +12992,13 @@
         <v>6015</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -12938,13 +13006,13 @@
         <v>6016</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12952,13 +13020,13 @@
         <v>6017</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12966,13 +13034,13 @@
         <v>6018</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12980,13 +13048,13 @@
         <v>6019</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -12994,13 +13062,13 @@
         <v>6020</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13008,7 +13076,7 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -13022,13 +13090,13 @@
         <v>6022</v>
       </c>
       <c r="B38" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13036,13 +13104,13 @@
         <v>6023</v>
       </c>
       <c r="B39" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13056,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13064,13 +13132,13 @@
         <v>6025</v>
       </c>
       <c r="B41" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13078,7 +13146,7 @@
         <v>6026</v>
       </c>
       <c r="B42" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -13092,13 +13160,13 @@
         <v>6027</v>
       </c>
       <c r="B43" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13106,13 +13174,13 @@
         <v>6028</v>
       </c>
       <c r="B44" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13120,13 +13188,13 @@
         <v>6029</v>
       </c>
       <c r="B45" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13134,13 +13202,13 @@
         <v>6030</v>
       </c>
       <c r="B46" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13148,13 +13216,13 @@
         <v>6031</v>
       </c>
       <c r="B47" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13162,13 +13230,13 @@
         <v>6032</v>
       </c>
       <c r="B48" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13176,13 +13244,13 @@
         <v>6033</v>
       </c>
       <c r="B49" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13190,13 +13258,13 @@
         <v>6034</v>
       </c>
       <c r="B50" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13204,7 +13272,7 @@
         <v>6035</v>
       </c>
       <c r="B51" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -13218,13 +13286,13 @@
         <v>6036</v>
       </c>
       <c r="B52" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13232,13 +13300,13 @@
         <v>6037</v>
       </c>
       <c r="B53" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13246,13 +13314,13 @@
         <v>6038</v>
       </c>
       <c r="B54" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13260,13 +13328,13 @@
         <v>6039</v>
       </c>
       <c r="B55" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13274,13 +13342,13 @@
         <v>6040</v>
       </c>
       <c r="B56" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13288,13 +13356,13 @@
         <v>6041</v>
       </c>
       <c r="B57" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13302,13 +13370,13 @@
         <v>6042</v>
       </c>
       <c r="B58" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13316,13 +13384,13 @@
         <v>6043</v>
       </c>
       <c r="B59" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13330,13 +13398,13 @@
         <v>6044</v>
       </c>
       <c r="B60" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13344,13 +13412,13 @@
         <v>6045</v>
       </c>
       <c r="B61" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13358,13 +13426,13 @@
         <v>6046</v>
       </c>
       <c r="B62" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13372,13 +13440,13 @@
         <v>6047</v>
       </c>
       <c r="B63" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13386,13 +13454,13 @@
         <v>6048</v>
       </c>
       <c r="B64" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -13400,13 +13468,13 @@
         <v>6049</v>
       </c>
       <c r="B65" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -13423,10 +13491,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316F9DCA-A9D9-441F-9971-740440723A8A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13438,7 +13506,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13453,63 +13521,77 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="66">
       <c r="A3">
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
+        <v>873</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>874</v>
       </c>
       <c r="D3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="66">
       <c r="A4">
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
+        <v>875</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>878</v>
       </c>
       <c r="D4" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="66">
       <c r="A5">
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>891</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
+        <v>876</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="D5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="66">
       <c r="A6">
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+        <v>877</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="D6" t="s">
-        <v>895</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66">
+      <c r="A7">
+        <v>7005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>879</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -13529,7 +13611,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13541,12 +13623,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -13560,10 +13642,10 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="66">
@@ -13571,10 +13653,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5">
@@ -13582,10 +13664,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66">
@@ -13593,10 +13675,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CCA739-34AB-4684-846A-CB07C0BD87E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE477AB8-40AE-4397-A0AE-D745272EC6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1830" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1920" windowWidth="31245" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="741">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FullshotHaloSize : Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>..\@UnityProject\Assets\@MyProject\Resources\Data\DataTable_1000_Student.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,157 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FullshotRectOffset : Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220, 220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>190, 190</t>
-  </si>
-  <si>
-    <t>190, 190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65, -48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21, 66, 21, -400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-301, -11, -301, -588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, -26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, -16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33, -69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33, -59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-75, 61, -75, -209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11, -10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11, -20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-311, -20, -345, -634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>260, 260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-241, -14, -241, -468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14, -73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-14, -63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, -71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, -61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-111, 69, -111, -296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32, -67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32, -57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-217, 5, -190, -415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230, 230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-38, -64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-38, -54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-181, 45, -196, -416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-90, 59, -278, -416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30, -105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30, -95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>153, 153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-143, 77, -161, -384</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52, -68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52, -58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NK울트라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,34 +540,6 @@
     <t>4012, 5</t>
   </si>
   <si>
-    <t>80, 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43, -104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43, -94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90, 54, 90, -255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55, -100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55, -90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83, 39, 83, -275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,66 +652,6 @@
   </si>
   <si>
     <t>Sprite/Background/BG_GameDevRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160, 160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, -73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, -63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26, 36, 108, -328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180, 180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64, -121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64, -111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-199, 38, 37, -375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-89, -133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-89, -123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63, 97, -98, -315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125, 125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-107, 28, -94, -426</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1275,34 +1032,6 @@
     <t>Heal</t>
   </si>
   <si>
-    <t>545, 545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8, -23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8, -13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-494, 16, -578, -481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-75, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-75, -42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-244, 81, -269, -434</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선도부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,34 +1127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>280, 280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108, -34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108, -24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-257, 10, -378, -461</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96, -97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96, -87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-355, 83, -252, -474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종막: 이스보셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1537,18 +1238,6 @@
     <t>4022, 5</t>
   </si>
   <si>
-    <t>-49, -50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-49, -40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-319, 36, -344, -474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>휴대용 응급돌파 키트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1597,22 +1286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>215, 215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>144, -34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>144, -24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-278, 56, -296, -434</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1022, 1023, 1024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,95 +1294,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>305, 305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-49, -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-49, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-371, 65, -272, -501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162, 162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46, -124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46, -114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-232, 19, -328, -372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-356, 72, -310, -510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240, 182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>282, 213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133, 23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133, 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-703, -169, -643, -825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230, 173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37, -64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37, -54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-294, 56, -377, -548</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-394, -210, -277, -281</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2099,170 +1684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>214, 167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-435, 8, -317, -569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>195, 152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-21, -83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-21, -73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-137, 94, -243, -337</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>173, 135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75, -115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75, -105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-153, 54, -238, -304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215, 167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58, -71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58, -61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-231, 73, -309, -475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175, 135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8, -53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8, -43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-281, 86, -189, -427</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70, -58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>199, 154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-229, 62, -232, -400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>174, 134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53, -76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-179, 89, -179, -347</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285, 214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61, -62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-383, 34, -399, -671 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>267, 200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-52, -57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-52, -47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-334, 48, -281, -535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189, 142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>169, 127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57, -69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57, -59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-99, 76, -85, -374</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Background/BG_HyakkayouranGarden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2271,91 +1692,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>164, 123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-43, -74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-108, 58, -108, -392</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>213, 187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47, -38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47, -28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-199, 38, -247, -627</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/Background/BG_AriusBasilica_FineDay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>289, 253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56, -43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56, -33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-19, 26, -305, -479</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FrontHalo : Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>217, 169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-193, -100, 46, -678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172, 134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44, -52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44, -42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-85, -296, -210, -742</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2763,18 +2104,6 @@
   </si>
   <si>
     <t>Mari</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-80, 22, 61, -574</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67, -53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67, -43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3368,30 +2697,6 @@
   </si>
   <si>
     <t>1046, 1047, 1048, 1049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-79, -110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>292, 249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, -30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, -20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-173, 28, -255, -551</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3625,6 +2930,29 @@
   <si>
     <t>10초간 자신을 강화, 재장전 속도가 감소하며 일부 피해를 흡혈합니다. 지속시간동안, 적을 처치할 경우 주변 적들에게 짧은 공포를 적용합니다. 
 (+ 츠루기의 신비가 해방되어 적 타격시 쿨다운 2% 감소 효과를 얻습니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullshotPos : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullshotBgPos : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CamOrthoSize : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, -2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25, 3.88</t>
+  </si>
+  <si>
+    <t>1.25, 4.98</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3829,7 +3157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3863,7 +3191,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -3875,44 +3202,12 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4111,33 +3406,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:Z64" totalsRowShown="0" dataDxfId="27">
-  <autoFilter ref="A2:Z64" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{5282C163-3525-4F9F-B35F-F80A01385114}" name="Attribute : String" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{0775B04D-D028-4799-8E6A-2D1487C9FDCC}" name="SkillId : Integer" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:AA64" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A2:AA64" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{5282C163-3525-4F9F-B35F-F80A01385114}" name="Attribute : String" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{0775B04D-D028-4799-8E6A-2D1487C9FDCC}" name="SkillId : Integer" dataDxfId="18"/>
     <tableColumn id="26" xr3:uid="{674F8983-DD1D-4D7C-BEC9-1B5C2C2FEE72}" name="PassiveSkillId : Integer"/>
-    <tableColumn id="6" xr3:uid="{049EF2DF-7279-4305-8A34-D15D5D8E51D2}" name="WeaponId : Integer" dataDxfId="21"/>
-    <tableColumn id="25" xr3:uid="{A2962EBE-0B9D-4C92-9137-4F39D3ADDA5F}" name="MaxSkillLevel : Integer" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{9DB1C887-4D44-4B5E-8F77-1A5B4DF69B67}" name="DefaultShooting : Integer" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{D0581AD1-2C29-4C36-8CE4-7769D888CF1C}" name="DefaultMelee : Integer" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{C9D71FDC-3176-4243-B6D1-61884EACCAAE}" name="DefaultConstruction : Integer" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{57ABC202-BDD3-4AAA-B244-7773639FF0CA}" name="DefaultMining : Integer" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{0FB6251E-DA48-4005-876D-8BC293707E65}" name="DefaultCooking : Integer" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{7C3CDBA5-1381-4754-9736-F0F814CAD782}" name="DefaultPlants : Integer" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{EDF0B681-698A-4050-8839-155781C3095A}" name="DefaultAnimals : Integer" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{4591E247-BBA2-4E0F-BF06-6E8FBBF90D4D}" name="DefaultCrafting : Integer" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{0C7C172F-D3D0-4361-8BED-6568627162FA}" name="DefaultArtistic : Integer" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{5D9C39AB-CB7B-415E-A0C2-2C091E1AB9A4}" name="DefaultMedical : Integer" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{093443DC-3FEE-486A-B90D-5C804A45B5A9}" name="DefaultSocial : Integer" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{961320EC-8809-467C-B33B-E9A61EFEECCA}" name="DefaultIntellectual : Integer" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{81011E15-9976-4167-AB59-7D51672B7A06}" name="FullshotHaloSize : Array" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{24C5BB00-4FC8-4D36-9796-367B13C43D61}" name="FullshotHaloStartPos : Array" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{229EC467-E7F0-49F5-A1CD-AE48B7F62575}" name="FullshotHaloEndPos : Array" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{E7390F23-CE29-4C09-8DDD-2EB1435534F9}" name="FullshotRectOffset : Array" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{049EF2DF-7279-4305-8A34-D15D5D8E51D2}" name="WeaponId : Integer" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{A2962EBE-0B9D-4C92-9137-4F39D3ADDA5F}" name="MaxSkillLevel : Integer" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9DB1C887-4D44-4B5E-8F77-1A5B4DF69B67}" name="DefaultShooting : Integer" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{D0581AD1-2C29-4C36-8CE4-7769D888CF1C}" name="DefaultMelee : Integer" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C9D71FDC-3176-4243-B6D1-61884EACCAAE}" name="DefaultConstruction : Integer" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{57ABC202-BDD3-4AAA-B244-7773639FF0CA}" name="DefaultMining : Integer" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{0FB6251E-DA48-4005-876D-8BC293707E65}" name="DefaultCooking : Integer" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{7C3CDBA5-1381-4754-9736-F0F814CAD782}" name="DefaultPlants : Integer" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{EDF0B681-698A-4050-8839-155781C3095A}" name="DefaultAnimals : Integer" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{4591E247-BBA2-4E0F-BF06-6E8FBBF90D4D}" name="DefaultCrafting : Integer" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{0C7C172F-D3D0-4361-8BED-6568627162FA}" name="DefaultArtistic : Integer" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{5D9C39AB-CB7B-415E-A0C2-2C091E1AB9A4}" name="DefaultMedical : Integer" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{093443DC-3FEE-486A-B90D-5C804A45B5A9}" name="DefaultSocial : Integer" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{961320EC-8809-467C-B33B-E9A61EFEECCA}" name="DefaultIntellectual : Integer" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{94EA13D4-AD21-485E-AF86-715E42B0A16B}" name="FullshotPos : Array"/>
+    <tableColumn id="21" xr3:uid="{CF15A081-F47F-4A0A-AF58-20FDF8FD52E8}" name="FullshotHaloStartPos : Array"/>
+    <tableColumn id="22" xr3:uid="{4C0EA7C7-0E02-49EE-AECF-2B677BFF56F8}" name="FullshotHaloEndPos : Array"/>
+    <tableColumn id="27" xr3:uid="{B69B4E83-C2A2-4ABF-B5E9-F9ADE5F3539D}" name="FullshotBgPos : Array"/>
+    <tableColumn id="28" xr3:uid="{E2C05E2D-C5AC-4270-A17B-DC11EC327F3F}" name="CamOrthoSize : Integer"/>
     <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String" dataDxfId="2"/>
   </tableColumns>
@@ -4496,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4513,18 +3809,21 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="20" width="10.625" customWidth="1"/>
-    <col min="21" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="20.625" customWidth="1"/>
-    <col min="25" max="25" width="13.25" customWidth="1"/>
-    <col min="26" max="26" width="37" customWidth="1"/>
+    <col min="21" max="21" width="13.75" customWidth="1"/>
+    <col min="22" max="22" width="22.125" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+    <col min="24" max="24" width="15.75" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="26" width="13.25" customWidth="1"/>
+    <col min="27" max="27" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
+    <row r="1" spans="1:27" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4541,13 +3840,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>872</v>
+        <v>698</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>738</v>
+        <v>570</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -4586,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>735</v>
       </c>
       <c r="V2" t="s">
         <v>20</v>
@@ -4595,27 +3894,30 @@
         <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>61</v>
+        <v>736</v>
       </c>
       <c r="Y2" t="s">
-        <v>575</v>
+        <v>737</v>
       </c>
       <c r="Z2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="16.5" customHeight="1">
+        <v>418</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16.5" customHeight="1">
       <c r="A3">
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>599</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>4001</v>
@@ -4659,19 +3961,22 @@
       <c r="T3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="16.5" customHeight="1">
+      <c r="Y3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1">
       <c r="A4">
         <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>768</v>
+        <v>600</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>4001</v>
@@ -4715,19 +4020,22 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Y4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1997</v>
       </c>
       <c r="B5" t="s">
-        <v>769</v>
+        <v>601</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>4001</v>
@@ -4771,13 +4079,16 @@
       <c r="T5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="Y5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1996</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4815,13 +4126,16 @@
       <c r="T6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1995</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4859,13 +4173,16 @@
       <c r="T7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1994</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4903,13 +4220,16 @@
       <c r="T8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1993</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4947,19 +4267,22 @@
       <c r="T9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1992</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>4001</v>
@@ -5003,19 +4326,22 @@
       <c r="T10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>4001</v>
@@ -5059,13 +4385,16 @@
       <c r="T11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>770</v>
+        <v>602</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5103,13 +4432,16 @@
       <c r="T12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1989</v>
       </c>
       <c r="B13" t="s">
-        <v>771</v>
+        <v>603</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5147,13 +4479,16 @@
       <c r="T13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>1988</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5191,13 +4526,16 @@
       <c r="T14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>1987</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5235,19 +4573,22 @@
       <c r="T15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="12">
         <v>1001</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C16" s="13">
         <v>-1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12">
         <v>4002</v>
@@ -5293,34 +4634,29 @@
       <c r="T16" s="12">
         <v>2</v>
       </c>
-      <c r="U16" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="12">
         <v>1002</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C17" s="13">
         <v>-1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="12">
         <v>4003</v>
@@ -5366,28 +4702,23 @@
       <c r="T17" s="12">
         <v>2</v>
       </c>
-      <c r="U17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="14">
         <v>1003</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C18" s="14">
         <v>16</v>
@@ -5441,34 +4772,29 @@
       <c r="T18" s="14">
         <v>2</v>
       </c>
-      <c r="U18" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="14">
         <v>1004</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C19" s="14">
         <v>15</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="14">
         <v>4005</v>
@@ -5516,35 +4842,30 @@
       <c r="T19" s="14">
         <v>2</v>
       </c>
-      <c r="U19" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y19" s="11"/>
-      <c r="Z19" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="U19" s="15"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="11"/>
+      <c r="AA19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="14">
         <v>1005</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C20" s="14">
         <v>15</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="14">
         <v>4006</v>
@@ -5592,34 +4913,29 @@
       <c r="T20" s="14">
         <v>2</v>
       </c>
-      <c r="U20" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="U20" s="14"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="14">
         <v>1006</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C21" s="15">
         <v>-1</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="14">
         <v>4007</v>
@@ -5669,29 +4985,24 @@
       <c r="T21" s="14">
         <v>2</v>
       </c>
-      <c r="U21" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="V21" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="W21" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="X21" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y21" s="11"/>
-      <c r="Z21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="16">
         <v>1007</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="16">
         <v>17</v>
@@ -5745,32 +5056,27 @@
       <c r="T22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="16">
         <v>1008</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16">
         <v>16</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="16">
         <v>4009</v>
@@ -5816,32 +5122,27 @@
       <c r="T23" s="16">
         <v>2</v>
       </c>
-      <c r="U23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="U23" s="17"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="16">
         <v>1009</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="16">
         <v>16</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16">
         <v>4010</v>
@@ -5887,32 +5188,27 @@
       <c r="T24" s="16">
         <v>2</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y24" s="11"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="U24" s="17"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="16">
         <v>1010</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="16">
         <v>16</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16">
         <v>4011</v>
@@ -5958,32 +5254,27 @@
       <c r="T25" s="16">
         <v>2</v>
       </c>
-      <c r="U25" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="X25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="16">
         <v>1011</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="16">
         <v>16</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16">
         <v>4012</v>
@@ -6029,21 +5320,16 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y26" s="11"/>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="U26" s="17"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="18">
         <v>1012</v>
       </c>
@@ -6054,7 +5340,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="18">
         <v>4013</v>
@@ -6100,35 +5386,30 @@
       <c r="T27" s="18">
         <v>2</v>
       </c>
-      <c r="U27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="X27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y27" s="11"/>
-      <c r="Z27" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="U27" s="19"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="18">
         <v>1013</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="18">
         <v>18</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="18">
         <v>4014</v>
@@ -6174,35 +5455,30 @@
       <c r="T28" s="18">
         <v>2</v>
       </c>
-      <c r="U28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="V28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="W28" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="X28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y28" s="11"/>
-      <c r="Z28" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="U28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="18">
         <v>1014</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="18">
         <v>16</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="18">
         <v>4015</v>
@@ -6248,34 +5524,29 @@
       <c r="T29" s="18">
         <v>2</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="X29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="18">
         <v>1015</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="18">
         <v>11</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="18">
         <v>4016</v>
@@ -6321,35 +5592,30 @@
       <c r="T30" s="18">
         <v>2</v>
       </c>
-      <c r="U30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="V30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="X30" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y30" s="11"/>
-      <c r="Z30" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="U30" s="19"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="18">
         <v>1016</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="18">
         <v>17</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="18">
         <v>4017</v>
@@ -6395,35 +5661,30 @@
       <c r="T31" s="18">
         <v>2</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V31" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="W31" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="X31" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y31" s="11"/>
-      <c r="Z31" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="11"/>
+      <c r="AA31" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="20">
         <v>1017</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="C32" s="20">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="E32" s="20">
         <v>4018</v>
@@ -6471,35 +5732,30 @@
       <c r="T32" s="20">
         <v>2</v>
       </c>
-      <c r="U32" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="W32" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="X32" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y32" s="11"/>
-      <c r="Z32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="U32" s="21"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="20">
         <v>1018</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="C33" s="20">
         <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E33" s="20">
         <v>4019</v>
@@ -6545,35 +5801,30 @@
       <c r="T33" s="20">
         <v>2</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="W33" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="X33" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y33" s="11"/>
-      <c r="Z33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="11"/>
+      <c r="AA33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="20">
         <v>1019</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="E34" s="20">
         <v>4020</v>
@@ -6619,35 +5870,30 @@
       <c r="T34" s="20">
         <v>2</v>
       </c>
-      <c r="U34" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="V34" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="W34" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="X34" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y34" s="11"/>
-      <c r="Z34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="U34" s="21"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="20">
         <v>1020</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="C35" s="20">
         <v>15</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="E35" s="20">
         <v>4021</v>
@@ -6693,35 +5939,30 @@
       <c r="T35" s="20">
         <v>2</v>
       </c>
-      <c r="U35" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="V35" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="W35" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="X35" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y35" s="11"/>
-      <c r="Z35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="U35" s="21"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="24">
         <v>1021</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="C36" s="24">
         <v>17</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="24">
         <v>4022</v>
@@ -6767,32 +6008,27 @@
       <c r="T36" s="24">
         <v>2</v>
       </c>
-      <c r="U36" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="V36" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="W36" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="X36" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y36" s="11"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="22">
         <v>1022</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="C37" s="22">
         <v>17</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="22">
         <v>4023</v>
@@ -6838,35 +6074,38 @@
       <c r="T37" s="22">
         <v>2</v>
       </c>
-      <c r="U37" s="22" t="s">
-        <v>391</v>
+      <c r="U37" s="23" t="s">
+        <v>738</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>392</v>
+        <v>739</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>393</v>
+        <v>740</v>
       </c>
       <c r="X37" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y37" s="11"/>
-      <c r="Z37" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>738</v>
+      </c>
+      <c r="Y37" s="23">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="22">
         <v>1023</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="C38" s="22">
         <v>17</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="22">
         <v>4024</v>
@@ -6914,35 +6153,30 @@
       <c r="T38" s="22">
         <v>2</v>
       </c>
-      <c r="U38" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="V38" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="W38" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="X38" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y38" s="11"/>
-      <c r="Z38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="11"/>
+      <c r="AA38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="22">
         <v>1024</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="C39" s="22">
         <v>17</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="22">
         <v>4025</v>
@@ -6988,29 +6222,24 @@
       <c r="T39" s="22">
         <v>2</v>
       </c>
-      <c r="U39" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="V39" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="W39" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="X39" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y39" s="11"/>
-      <c r="Z39" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="U39" s="23"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="11"/>
+      <c r="AA39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="26">
         <v>1025</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="C40" s="26">
         <v>17</v>
@@ -7064,34 +6293,29 @@
       <c r="T40" s="26">
         <v>2</v>
       </c>
-      <c r="U40" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="V40" s="27" t="s">
-        <v>853</v>
-      </c>
-      <c r="W40" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="X40" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y40" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="26">
         <v>1026</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="C41" s="26">
         <v>17</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="26">
         <v>4027</v>
@@ -7137,32 +6361,27 @@
       <c r="T41" s="26">
         <v>2</v>
       </c>
-      <c r="U41" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="V41" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="W41" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="X41" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y41" s="11"/>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="U41" s="27"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="26">
         <v>1027</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="C42" s="26">
         <v>16</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="26">
         <v>4028</v>
@@ -7208,32 +6427,27 @@
       <c r="T42" s="26">
         <v>2</v>
       </c>
-      <c r="U42" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="V42" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="W42" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="X42" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y42" s="11"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="U42" s="27"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="26">
         <v>1028</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="C43" s="26">
         <v>15</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="26">
         <v>4029</v>
@@ -7279,26 +6493,21 @@
       <c r="T43" s="26">
         <v>2</v>
       </c>
-      <c r="U43" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="V43" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="W43" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="X43" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="U43" s="27"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="11"/>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="28">
         <v>1029</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
       <c r="C44" s="28">
         <v>17</v>
@@ -7350,35 +6559,30 @@
       <c r="T44" s="28">
         <v>2</v>
       </c>
-      <c r="U44" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="V44" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="W44" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="X44" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y44" s="11"/>
-      <c r="Z44" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="U44" s="29"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="11"/>
+      <c r="AA44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="28">
         <v>1030</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="C45" s="28">
         <v>16</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="28">
         <v>4031</v>
@@ -7424,35 +6628,30 @@
       <c r="T45" s="28">
         <v>2</v>
       </c>
-      <c r="U45" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="V45" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="W45" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="X45" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y45" s="11"/>
-      <c r="Z45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="11"/>
+      <c r="AA45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="28">
         <v>1031</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="C46" s="28">
         <v>15</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="28">
         <v>4032</v>
@@ -7498,35 +6697,30 @@
       <c r="T46" s="28">
         <v>2</v>
       </c>
-      <c r="U46" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="V46" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="W46" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="X46" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y46" s="11"/>
-      <c r="Z46" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="U46" s="29"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="30">
         <v>1032</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>498</v>
+        <v>394</v>
       </c>
       <c r="C47" s="30">
         <v>16</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="30">
         <v>4033</v>
@@ -7572,32 +6766,27 @@
       <c r="T47" s="30">
         <v>2</v>
       </c>
-      <c r="U47" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="V47" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="W47" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="X47" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="Y47" s="11"/>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="U47" s="31"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="11"/>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="30">
         <v>1033</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>499</v>
+        <v>395</v>
       </c>
       <c r="C48" s="30">
         <v>16</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="30">
         <v>4034</v>
@@ -7643,32 +6832,27 @@
       <c r="T48" s="30">
         <v>2</v>
       </c>
-      <c r="U48" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="V48" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="W48" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="X48" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y48" s="11"/>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="11"/>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="30">
         <v>1034</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="C49" s="30">
         <v>16</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="30">
         <v>4035</v>
@@ -7714,32 +6898,27 @@
       <c r="T49" s="30">
         <v>2</v>
       </c>
-      <c r="U49" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="V49" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="W49" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="X49" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y49" s="11"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="U49" s="31"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="11"/>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="30">
         <v>1035</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="C50" s="30">
         <v>15</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="30">
         <v>4036</v>
@@ -7785,32 +6964,27 @@
       <c r="T50" s="30">
         <v>2</v>
       </c>
-      <c r="U50" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="V50" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="W50" s="30" t="s">
-        <v>545</v>
-      </c>
-      <c r="X50" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y50" s="11"/>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="U50" s="31"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="18">
         <v>1036</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="C51" s="18">
         <v>17</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="18">
         <v>4037</v>
@@ -7856,32 +7030,27 @@
       <c r="T51" s="18">
         <v>2</v>
       </c>
-      <c r="U51" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="V51" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="W51" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="X51" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y51" s="11"/>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="U51" s="19"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="11"/>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="18">
         <v>1037</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
       <c r="C52" s="18">
         <v>17</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="18">
         <v>4038</v>
@@ -7927,32 +7096,27 @@
       <c r="T52" s="18">
         <v>2</v>
       </c>
-      <c r="U52" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="V52" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="W52" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="X52" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y52" s="11"/>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="11"/>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="18">
         <v>1038</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="C53" s="18">
         <v>15</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="18">
         <v>4039</v>
@@ -7998,536 +7162,496 @@
       <c r="T53" s="18">
         <v>2</v>
       </c>
-      <c r="U53" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="V53" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="W53" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="X53" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="Y53" s="11"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="33">
+      <c r="U53" s="19"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="11"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="32">
         <v>1039</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="33">
+      <c r="B54" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="32">
         <v>17</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="33">
+      <c r="D54" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="32">
         <v>4040</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33">
+      <c r="F54" s="32"/>
+      <c r="G54" s="32">
         <v>6039</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33">
-        <v>1</v>
-      </c>
-      <c r="J54" s="33">
+      <c r="H54" s="32"/>
+      <c r="I54" s="32">
+        <v>1</v>
+      </c>
+      <c r="J54" s="32">
         <v>2</v>
       </c>
-      <c r="K54" s="33">
-        <v>3</v>
-      </c>
-      <c r="L54" s="33">
+      <c r="K54" s="32">
+        <v>3</v>
+      </c>
+      <c r="L54" s="32">
         <v>4</v>
       </c>
-      <c r="M54" s="33">
-        <v>5</v>
-      </c>
-      <c r="N54" s="33">
+      <c r="M54" s="32">
+        <v>5</v>
+      </c>
+      <c r="N54" s="32">
         <v>6</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="32">
         <v>7</v>
       </c>
-      <c r="P54" s="33">
+      <c r="P54" s="32">
         <v>8</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="32">
         <v>9</v>
       </c>
-      <c r="R54" s="33">
+      <c r="R54" s="32">
         <v>10</v>
       </c>
-      <c r="S54" s="33">
-        <v>1</v>
-      </c>
-      <c r="T54" s="33">
+      <c r="S54" s="32">
+        <v>1</v>
+      </c>
+      <c r="T54" s="32">
         <v>2</v>
       </c>
-      <c r="U54" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="V54" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="W54" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="X54" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="Y54" s="11"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="33">
+      <c r="U54" s="33"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="11"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="32">
         <v>1040</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="C55" s="33">
+      <c r="B55" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" s="32">
         <v>15</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="33">
+      <c r="D55" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="32">
         <v>4041</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33">
+      <c r="F55" s="32"/>
+      <c r="G55" s="32">
         <v>6040</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33">
-        <v>1</v>
-      </c>
-      <c r="J55" s="33">
+      <c r="H55" s="32"/>
+      <c r="I55" s="32">
+        <v>1</v>
+      </c>
+      <c r="J55" s="32">
         <v>2</v>
       </c>
-      <c r="K55" s="33">
-        <v>3</v>
-      </c>
-      <c r="L55" s="33">
+      <c r="K55" s="32">
+        <v>3</v>
+      </c>
+      <c r="L55" s="32">
         <v>4</v>
       </c>
-      <c r="M55" s="33">
-        <v>5</v>
-      </c>
-      <c r="N55" s="33">
+      <c r="M55" s="32">
+        <v>5</v>
+      </c>
+      <c r="N55" s="32">
         <v>6</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="32">
         <v>7</v>
       </c>
-      <c r="P55" s="33">
+      <c r="P55" s="32">
         <v>8</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="32">
         <v>9</v>
       </c>
-      <c r="R55" s="33">
+      <c r="R55" s="32">
         <v>10</v>
       </c>
-      <c r="S55" s="33">
-        <v>1</v>
-      </c>
-      <c r="T55" s="33">
+      <c r="S55" s="32">
+        <v>1</v>
+      </c>
+      <c r="T55" s="32">
         <v>2</v>
       </c>
-      <c r="U55" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="V55" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="W55" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="X55" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y55" s="11"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="33">
+      <c r="U55" s="33"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33">
+        <v>5</v>
+      </c>
+      <c r="Z55" s="11"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="32">
         <v>1041</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="C56" s="33">
+      <c r="B56" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="32">
         <v>16</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="33">
+      <c r="D56" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="32">
         <v>4042</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33">
+      <c r="F56" s="32"/>
+      <c r="G56" s="32">
         <v>6041</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33">
-        <v>1</v>
-      </c>
-      <c r="J56" s="33">
+      <c r="H56" s="32"/>
+      <c r="I56" s="32">
+        <v>1</v>
+      </c>
+      <c r="J56" s="32">
         <v>2</v>
       </c>
-      <c r="K56" s="33">
-        <v>3</v>
-      </c>
-      <c r="L56" s="33">
+      <c r="K56" s="32">
+        <v>3</v>
+      </c>
+      <c r="L56" s="32">
         <v>4</v>
       </c>
-      <c r="M56" s="33">
-        <v>5</v>
-      </c>
-      <c r="N56" s="33">
+      <c r="M56" s="32">
+        <v>5</v>
+      </c>
+      <c r="N56" s="32">
         <v>6</v>
       </c>
-      <c r="O56" s="33">
+      <c r="O56" s="32">
         <v>7</v>
       </c>
-      <c r="P56" s="33">
+      <c r="P56" s="32">
         <v>8</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="32">
         <v>9</v>
       </c>
-      <c r="R56" s="33">
+      <c r="R56" s="32">
         <v>10</v>
       </c>
-      <c r="S56" s="33">
-        <v>1</v>
-      </c>
-      <c r="T56" s="33">
+      <c r="S56" s="32">
+        <v>1</v>
+      </c>
+      <c r="T56" s="32">
         <v>2</v>
       </c>
-      <c r="U56" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="V56" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="W56" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="X56" s="34" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="33">
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="32">
         <v>1042</v>
       </c>
-      <c r="B57" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="C57" s="33">
+      <c r="B57" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" s="32">
         <v>16</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="33">
+      <c r="D57" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="32">
         <v>4043</v>
       </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33">
+      <c r="F57" s="32"/>
+      <c r="G57" s="32">
         <v>6042</v>
       </c>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33">
-        <v>1</v>
-      </c>
-      <c r="J57" s="33">
+      <c r="H57" s="32"/>
+      <c r="I57" s="32">
+        <v>1</v>
+      </c>
+      <c r="J57" s="32">
         <v>2</v>
       </c>
-      <c r="K57" s="33">
-        <v>3</v>
-      </c>
-      <c r="L57" s="33">
+      <c r="K57" s="32">
+        <v>3</v>
+      </c>
+      <c r="L57" s="32">
         <v>4</v>
       </c>
-      <c r="M57" s="33">
-        <v>5</v>
-      </c>
-      <c r="N57" s="33">
+      <c r="M57" s="32">
+        <v>5</v>
+      </c>
+      <c r="N57" s="32">
         <v>6</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="32">
         <v>7</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="32">
         <v>8</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="32">
         <v>9</v>
       </c>
-      <c r="R57" s="33">
+      <c r="R57" s="32">
         <v>10</v>
       </c>
-      <c r="S57" s="33">
-        <v>1</v>
-      </c>
-      <c r="T57" s="33">
+      <c r="S57" s="32">
+        <v>1</v>
+      </c>
+      <c r="T57" s="32">
         <v>2</v>
       </c>
-      <c r="U57" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="V57" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="W57" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="X57" s="34" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="35">
+      <c r="U57" s="33"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="34">
         <v>1043</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="C58" s="35">
+      <c r="B58" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C58" s="34">
         <v>17</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="35">
+      <c r="D58" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="34">
         <v>4044</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35">
+      <c r="F58" s="34"/>
+      <c r="G58" s="34">
         <v>6047</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35">
-        <v>1</v>
-      </c>
-      <c r="J58" s="35">
+      <c r="H58" s="34"/>
+      <c r="I58" s="34">
+        <v>1</v>
+      </c>
+      <c r="J58" s="34">
         <v>2</v>
       </c>
-      <c r="K58" s="35">
-        <v>3</v>
-      </c>
-      <c r="L58" s="35">
+      <c r="K58" s="34">
+        <v>3</v>
+      </c>
+      <c r="L58" s="34">
         <v>4</v>
       </c>
-      <c r="M58" s="35">
-        <v>5</v>
-      </c>
-      <c r="N58" s="35">
+      <c r="M58" s="34">
+        <v>5</v>
+      </c>
+      <c r="N58" s="34">
         <v>6</v>
       </c>
-      <c r="O58" s="35">
+      <c r="O58" s="34">
         <v>7</v>
       </c>
-      <c r="P58" s="35">
+      <c r="P58" s="34">
         <v>8</v>
       </c>
-      <c r="Q58" s="35">
+      <c r="Q58" s="34">
         <v>9</v>
       </c>
-      <c r="R58" s="35">
+      <c r="R58" s="34">
         <v>10</v>
       </c>
-      <c r="S58" s="35">
-        <v>1</v>
-      </c>
-      <c r="T58" s="35">
+      <c r="S58" s="34">
+        <v>1</v>
+      </c>
+      <c r="T58" s="34">
         <v>2</v>
       </c>
-      <c r="U58" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="V58" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="W58" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="X58" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="Y58" s="11"/>
-      <c r="Z58" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="35">
+      <c r="U58" s="35"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="11"/>
+      <c r="AA58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="34">
         <v>1044</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C59" s="35">
+      <c r="B59" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C59" s="34">
         <v>15</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="35">
+      <c r="D59" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="34">
         <v>4045</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35">
+      <c r="F59" s="34"/>
+      <c r="G59" s="34">
         <v>6048</v>
       </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35">
-        <v>1</v>
-      </c>
-      <c r="J59" s="35">
+      <c r="H59" s="34"/>
+      <c r="I59" s="34">
+        <v>1</v>
+      </c>
+      <c r="J59" s="34">
         <v>2</v>
       </c>
-      <c r="K59" s="35">
-        <v>3</v>
-      </c>
-      <c r="L59" s="35">
+      <c r="K59" s="34">
+        <v>3</v>
+      </c>
+      <c r="L59" s="34">
         <v>4</v>
       </c>
-      <c r="M59" s="35">
-        <v>5</v>
-      </c>
-      <c r="N59" s="35">
+      <c r="M59" s="34">
+        <v>5</v>
+      </c>
+      <c r="N59" s="34">
         <v>6</v>
       </c>
-      <c r="O59" s="35">
+      <c r="O59" s="34">
         <v>7</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="34">
         <v>8</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="34">
         <v>9</v>
       </c>
-      <c r="R59" s="35">
+      <c r="R59" s="34">
         <v>10</v>
       </c>
-      <c r="S59" s="35">
-        <v>1</v>
-      </c>
-      <c r="T59" s="35">
+      <c r="S59" s="34">
+        <v>1</v>
+      </c>
+      <c r="T59" s="34">
         <v>2</v>
       </c>
-      <c r="U59" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="V59" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="W59" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="X59" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y59" s="11"/>
-      <c r="Z59" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="35">
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="11"/>
+      <c r="AA59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="34">
         <v>1045</v>
       </c>
-      <c r="B60" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="35">
+      <c r="B60" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C60" s="34">
         <v>15</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="34">
         <v>4046</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35">
+      <c r="F60" s="34"/>
+      <c r="G60" s="34">
         <v>6049</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35">
-        <v>1</v>
-      </c>
-      <c r="J60" s="35">
+      <c r="H60" s="34"/>
+      <c r="I60" s="34">
+        <v>1</v>
+      </c>
+      <c r="J60" s="34">
         <v>2</v>
       </c>
-      <c r="K60" s="35">
-        <v>3</v>
-      </c>
-      <c r="L60" s="35">
+      <c r="K60" s="34">
+        <v>3</v>
+      </c>
+      <c r="L60" s="34">
         <v>4</v>
       </c>
-      <c r="M60" s="35">
-        <v>5</v>
-      </c>
-      <c r="N60" s="35">
+      <c r="M60" s="34">
+        <v>5</v>
+      </c>
+      <c r="N60" s="34">
         <v>6</v>
       </c>
-      <c r="O60" s="35">
+      <c r="O60" s="34">
         <v>7</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="34">
         <v>8</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="Q60" s="34">
         <v>9</v>
       </c>
-      <c r="R60" s="35">
+      <c r="R60" s="34">
         <v>10</v>
       </c>
-      <c r="S60" s="35">
-        <v>1</v>
-      </c>
-      <c r="T60" s="35">
+      <c r="S60" s="34">
+        <v>1</v>
+      </c>
+      <c r="T60" s="34">
         <v>2</v>
       </c>
-      <c r="U60" s="35" t="s">
-        <v>855</v>
-      </c>
-      <c r="V60" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="W60" s="36" t="s">
-        <v>857</v>
-      </c>
-      <c r="X60" s="36" t="s">
-        <v>858</v>
-      </c>
-      <c r="Y60" s="11"/>
-      <c r="Z60" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="11"/>
+      <c r="AA60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>763</v>
+        <v>595</v>
       </c>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <v>4047</v>
@@ -8571,19 +7695,22 @@
       <c r="T61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="Y61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>1047</v>
       </c>
       <c r="B62" t="s">
-        <v>765</v>
+        <v>597</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>4048</v>
@@ -8627,19 +7754,22 @@
       <c r="T62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="Y62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>1048</v>
       </c>
       <c r="B63" t="s">
-        <v>764</v>
+        <v>596</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>4049</v>
@@ -8683,13 +7813,16 @@
       <c r="T63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="Y63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>766</v>
+        <v>598</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -8738,6 +7871,9 @@
       </c>
       <c r="T64">
         <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8770,7 +7906,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8781,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8789,10 +7925,10 @@
         <v>2999</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>772</v>
+        <v>604</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>774</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8800,10 +7936,10 @@
         <v>2998</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>773</v>
+        <v>605</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>775</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8811,10 +7947,10 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8822,10 +7958,10 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8833,10 +7969,10 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8844,10 +7980,10 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8855,10 +7991,10 @@
         <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8866,7 +8002,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="C10">
         <v>1021</v>
@@ -8877,10 +8013,10 @@
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8888,10 +8024,10 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8899,10 +8035,10 @@
         <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8910,10 +8046,10 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8921,10 +8057,10 @@
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>514</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8932,10 +8068,10 @@
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8943,10 +8079,10 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>494</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8954,10 +8090,10 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>851</v>
+        <v>683</v>
       </c>
       <c r="C18" t="s">
-        <v>852</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8990,7 +8126,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9001,10 +8137,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -9012,10 +8148,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>608</v>
       </c>
       <c r="C3" t="s">
-        <v>777</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -9023,13 +8159,13 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>2001</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9037,13 +8173,13 @@
         <v>3002</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9051,13 +8187,13 @@
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>850</v>
+        <v>682</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9065,13 +8201,13 @@
         <v>3004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>516</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>585</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9079,13 +8215,13 @@
         <v>3005</v>
       </c>
       <c r="B8" t="s">
-        <v>780</v>
+        <v>612</v>
       </c>
       <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>782</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9093,13 +8229,13 @@
         <v>3006</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>413</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9107,13 +8243,13 @@
         <v>3007</v>
       </c>
       <c r="B10" t="s">
-        <v>493</v>
+        <v>389</v>
       </c>
       <c r="C10">
         <v>2012</v>
       </c>
       <c r="D10" t="s">
-        <v>570</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9144,7 +8280,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9155,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>869</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9163,10 +8299,10 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>870</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9174,10 +8310,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9185,10 +8321,10 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9196,10 +8332,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>760</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>759</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9207,10 +8343,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>758</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>756</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9218,10 +8354,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>751</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>753</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9229,10 +8365,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>750</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>752</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9240,10 +8376,10 @@
         <v>4008</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9251,10 +8387,10 @@
         <v>4009</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9262,10 +8398,10 @@
         <v>4010</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9273,10 +8409,10 @@
         <v>4011</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9284,10 +8420,10 @@
         <v>4012</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9295,10 +8431,10 @@
         <v>4013</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>870</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9306,10 +8442,10 @@
         <v>4014</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9317,10 +8453,10 @@
         <v>4015</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9328,10 +8464,10 @@
         <v>4016</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>778</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9339,10 +8475,10 @@
         <v>4017</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9350,10 +8486,10 @@
         <v>4018</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9361,10 +8497,10 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>907</v>
+        <v>733</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9372,10 +8508,10 @@
         <v>4020</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9383,10 +8519,10 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9394,10 +8530,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9405,10 +8541,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9416,10 +8552,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
+        <v>507</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9427,10 +8563,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>506</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9438,10 +8574,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9449,10 +8585,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>474</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9460,10 +8596,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9471,10 +8607,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9482,10 +8618,10 @@
         <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>675</v>
+        <v>510</v>
       </c>
       <c r="C32" t="s">
-        <v>676</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9493,10 +8629,10 @@
         <v>4031</v>
       </c>
       <c r="B33" t="s">
-        <v>677</v>
+        <v>512</v>
       </c>
       <c r="C33" t="s">
-        <v>678</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9504,10 +8640,10 @@
         <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s">
-        <v>679</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9515,10 +8651,10 @@
         <v>4033</v>
       </c>
       <c r="B35" t="s">
-        <v>592</v>
+        <v>427</v>
       </c>
       <c r="C35" t="s">
-        <v>673</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9526,10 +8662,10 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>695</v>
+        <v>530</v>
       </c>
       <c r="C36" t="s">
-        <v>680</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9537,10 +8673,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
-        <v>692</v>
+        <v>527</v>
       </c>
       <c r="C37" t="s">
-        <v>694</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9548,10 +8684,10 @@
         <v>4036</v>
       </c>
       <c r="B38" t="s">
-        <v>593</v>
+        <v>428</v>
       </c>
       <c r="C38" t="s">
-        <v>693</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9559,10 +8695,10 @@
         <v>4037</v>
       </c>
       <c r="B39" t="s">
-        <v>632</v>
+        <v>467</v>
       </c>
       <c r="C39" t="s">
-        <v>696</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9570,10 +8706,10 @@
         <v>4038</v>
       </c>
       <c r="B40" t="s">
-        <v>633</v>
+        <v>468</v>
       </c>
       <c r="C40" t="s">
-        <v>697</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9581,10 +8717,10 @@
         <v>4039</v>
       </c>
       <c r="B41" t="s">
-        <v>634</v>
+        <v>469</v>
       </c>
       <c r="C41" t="s">
-        <v>698</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9592,10 +8728,10 @@
         <v>4040</v>
       </c>
       <c r="B42" t="s">
-        <v>670</v>
+        <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>727</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9603,10 +8739,10 @@
         <v>4041</v>
       </c>
       <c r="B43" t="s">
-        <v>630</v>
+        <v>465</v>
       </c>
       <c r="C43" t="s">
-        <v>783</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9614,10 +8750,10 @@
         <v>4042</v>
       </c>
       <c r="B44" t="s">
-        <v>629</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
-        <v>674</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9625,10 +8761,10 @@
         <v>4043</v>
       </c>
       <c r="B45" t="s">
-        <v>631</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>731</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9636,10 +8772,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>702</v>
+        <v>534</v>
       </c>
       <c r="C46" t="s">
-        <v>703</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9647,10 +8783,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>725</v>
+        <v>557</v>
       </c>
       <c r="C47" t="s">
-        <v>724</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9658,10 +8794,10 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>704</v>
+        <v>536</v>
       </c>
       <c r="C48" t="s">
-        <v>726</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9669,10 +8805,10 @@
         <v>4047</v>
       </c>
       <c r="B49" t="s">
-        <v>859</v>
+        <v>685</v>
       </c>
       <c r="C49" t="s">
-        <v>860</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9680,10 +8816,10 @@
         <v>4048</v>
       </c>
       <c r="B50" t="s">
-        <v>861</v>
+        <v>687</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9691,10 +8827,10 @@
         <v>4049</v>
       </c>
       <c r="B51" t="s">
-        <v>862</v>
+        <v>688</v>
       </c>
       <c r="C51" t="s">
-        <v>863</v>
+        <v>689</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9702,10 +8838,10 @@
         <v>4050</v>
       </c>
       <c r="B52" t="s">
-        <v>864</v>
+        <v>690</v>
       </c>
       <c r="C52" t="s">
-        <v>865</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -9724,7 +8860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -9737,29 +8873,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9767,10 +8903,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9778,10 +8914,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9789,10 +8925,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9800,10 +8936,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9811,10 +8947,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -9822,10 +8958,10 @@
     </row>
     <row r="9" spans="1:4" ht="33">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -9833,10 +8969,10 @@
     </row>
     <row r="10" spans="1:4" ht="33">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -9844,10 +8980,10 @@
     </row>
     <row r="11" spans="1:4" ht="33">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -9855,10 +8991,10 @@
     </row>
     <row r="12" spans="1:4" ht="33">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -9866,10 +9002,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -9877,10 +9013,10 @@
     </row>
     <row r="14" spans="1:4" ht="49.5">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -9888,10 +9024,10 @@
     </row>
     <row r="15" spans="1:4" ht="49.5">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -9899,10 +9035,10 @@
     </row>
     <row r="16" spans="1:4" ht="49.5">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>891</v>
+        <v>717</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -9910,10 +9046,10 @@
     </row>
     <row r="17" spans="1:3" ht="49.5">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -9921,10 +9057,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -9932,10 +9068,10 @@
     </row>
     <row r="19" spans="1:3" ht="33">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>746</v>
+        <v>578</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9943,10 +9079,10 @@
     </row>
     <row r="20" spans="1:3" ht="33">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>747</v>
+        <v>579</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9954,10 +9090,10 @@
     </row>
     <row r="21" spans="1:3" ht="33">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>748</v>
+        <v>580</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9965,10 +9101,10 @@
     </row>
     <row r="22" spans="1:3" ht="33">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>749</v>
+        <v>581</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -9976,10 +9112,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>739</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>572</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -9987,10 +9123,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>762</v>
+        <v>594</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -9998,10 +9134,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>762</v>
+        <v>594</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -10009,10 +9145,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>761</v>
+        <v>593</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -10020,10 +9156,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>761</v>
+        <v>593</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -10031,10 +9167,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>761</v>
+        <v>593</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -10042,10 +9178,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>741</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
-        <v>757</v>
+        <v>589</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -10053,10 +9189,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>755</v>
+        <v>587</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -10064,10 +9200,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>755</v>
+        <v>587</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -10075,10 +9211,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>754</v>
+        <v>586</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -10086,10 +9222,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>754</v>
+        <v>586</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -10097,10 +9233,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>754</v>
+        <v>586</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -10108,10 +9244,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>574</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>745</v>
+        <v>577</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -10119,10 +9255,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -10130,10 +9266,10 @@
     </row>
     <row r="37" spans="1:3" ht="49.5">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>892</v>
+        <v>718</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -10141,10 +9277,10 @@
     </row>
     <row r="38" spans="1:3" ht="49.5">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>892</v>
+        <v>718</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10152,10 +9288,10 @@
     </row>
     <row r="39" spans="1:3" ht="49.5">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>892</v>
+        <v>718</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -10163,10 +9299,10 @@
     </row>
     <row r="40" spans="1:3" ht="49.5">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -10174,10 +9310,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>743</v>
+        <v>575</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>744</v>
+        <v>576</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -10185,10 +9321,10 @@
     </row>
     <row r="42" spans="1:3" ht="49.5">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>728</v>
+        <v>560</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -10196,10 +9332,10 @@
     </row>
     <row r="43" spans="1:3" ht="49.5">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>728</v>
+        <v>560</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -10207,10 +9343,10 @@
     </row>
     <row r="44" spans="1:3" ht="49.5">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>728</v>
+        <v>560</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -10218,10 +9354,10 @@
     </row>
     <row r="45" spans="1:3" ht="49.5">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>730</v>
+        <v>562</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -10229,10 +9365,10 @@
     </row>
     <row r="46" spans="1:3" ht="49.5">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>729</v>
+        <v>561</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -10240,10 +9376,10 @@
     </row>
     <row r="47" spans="1:3" ht="49.5">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -10251,10 +9387,10 @@
     </row>
     <row r="48" spans="1:3" ht="49.5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -10262,10 +9398,10 @@
     </row>
     <row r="49" spans="1:3" ht="49.5">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -10273,10 +9409,10 @@
     </row>
     <row r="50" spans="1:3" ht="49.5">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -10284,10 +9420,10 @@
     </row>
     <row r="51" spans="1:3" ht="49.5">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -10295,10 +9431,10 @@
     </row>
     <row r="52" spans="1:3" ht="66">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -10306,10 +9442,10 @@
     </row>
     <row r="53" spans="1:3" ht="66">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -10317,10 +9453,10 @@
     </row>
     <row r="54" spans="1:3" ht="66">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -10328,10 +9464,10 @@
     </row>
     <row r="55" spans="1:3" ht="66">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -10339,10 +9475,10 @@
     </row>
     <row r="56" spans="1:3" ht="66">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -10350,10 +9486,10 @@
     </row>
     <row r="57" spans="1:3" ht="66">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -10361,10 +9497,10 @@
     </row>
     <row r="58" spans="1:3" ht="66">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -10372,10 +9508,10 @@
     </row>
     <row r="59" spans="1:3" ht="66">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10383,10 +9519,10 @@
     </row>
     <row r="60" spans="1:3" ht="66">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -10394,10 +9530,10 @@
     </row>
     <row r="61" spans="1:3" ht="66">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -10405,10 +9541,10 @@
     </row>
     <row r="62" spans="1:3" ht="66">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -10416,10 +9552,10 @@
     </row>
     <row r="63" spans="1:3" ht="66">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -10427,10 +9563,10 @@
     </row>
     <row r="64" spans="1:3" ht="66">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -10438,10 +9574,10 @@
     </row>
     <row r="65" spans="1:3" ht="66">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -10449,10 +9585,10 @@
     </row>
     <row r="66" spans="1:3" ht="66">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -10460,10 +9596,10 @@
     </row>
     <row r="67" spans="1:3" ht="66">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -10471,10 +9607,10 @@
     </row>
     <row r="68" spans="1:3" ht="82.5">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -10482,10 +9618,10 @@
     </row>
     <row r="69" spans="1:3" ht="82.5">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -10493,10 +9629,10 @@
     </row>
     <row r="70" spans="1:3" ht="82.5">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>893</v>
+        <v>719</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -10504,10 +9640,10 @@
     </row>
     <row r="71" spans="1:3" ht="82.5">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -10515,10 +9651,10 @@
     </row>
     <row r="72" spans="1:3" ht="33">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -10526,10 +9662,10 @@
     </row>
     <row r="73" spans="1:3" ht="49.5">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>894</v>
+        <v>720</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -10537,10 +9673,10 @@
     </row>
     <row r="74" spans="1:3" ht="49.5">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>894</v>
+        <v>720</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -10548,10 +9684,10 @@
     </row>
     <row r="75" spans="1:3" ht="49.5">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>895</v>
+        <v>721</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10559,10 +9695,10 @@
     </row>
     <row r="76" spans="1:3" ht="49.5">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>896</v>
+        <v>722</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -10570,10 +9706,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -10581,10 +9717,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -10592,10 +9728,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -10603,10 +9739,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -10614,10 +9750,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -10625,10 +9761,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>885</v>
+        <v>711</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -10636,10 +9772,10 @@
     </row>
     <row r="83" spans="1:3" ht="49.5">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>897</v>
+        <v>723</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -10647,10 +9783,10 @@
     </row>
     <row r="84" spans="1:3" ht="49.5">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>898</v>
+        <v>724</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -10658,10 +9794,10 @@
     </row>
     <row r="85" spans="1:3" ht="49.5">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>899</v>
+        <v>725</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -10669,10 +9805,10 @@
     </row>
     <row r="86" spans="1:3" ht="49.5">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>886</v>
+        <v>712</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -10680,10 +9816,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -10691,10 +9827,10 @@
     </row>
     <row r="88" spans="1:3" ht="49.5">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>900</v>
+        <v>726</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -10702,10 +9838,10 @@
     </row>
     <row r="89" spans="1:3" ht="49.5">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>901</v>
+        <v>727</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -10713,10 +9849,10 @@
     </row>
     <row r="90" spans="1:3" ht="49.5">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>902</v>
+        <v>728</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -10724,10 +9860,10 @@
     </row>
     <row r="91" spans="1:3" ht="66">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>903</v>
+        <v>729</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -10735,10 +9871,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>586</v>
+        <v>421</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -10746,10 +9882,10 @@
     </row>
     <row r="93" spans="1:3" ht="49.5">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>587</v>
+        <v>422</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -10757,10 +9893,10 @@
     </row>
     <row r="94" spans="1:3" ht="49.5">
       <c r="A94" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>588</v>
+        <v>423</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -10768,10 +9904,10 @@
     </row>
     <row r="95" spans="1:3" ht="49.5">
       <c r="A95" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>589</v>
+        <v>424</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -10779,10 +9915,10 @@
     </row>
     <row r="96" spans="1:3" ht="66">
       <c r="A96" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>590</v>
+        <v>425</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -10790,10 +9926,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>904</v>
+        <v>730</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -10801,10 +9937,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s">
-        <v>905</v>
+        <v>731</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -10812,10 +9948,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>905</v>
+        <v>731</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -10823,10 +9959,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="B100" t="s">
-        <v>905</v>
+        <v>731</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -10834,10 +9970,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
-        <v>906</v>
+        <v>732</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -10845,10 +9981,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -10856,10 +9992,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -10867,10 +10003,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -10878,10 +10014,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -10889,10 +10025,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10900,10 +10036,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -10911,10 +10047,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -10922,10 +10058,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -10933,10 +10069,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -10944,10 +10080,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -10955,10 +10091,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -10966,10 +10102,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -10977,10 +10113,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -10988,10 +10124,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -10999,10 +10135,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -11010,10 +10146,10 @@
     </row>
     <row r="117" spans="1:3" ht="49.5">
       <c r="A117" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>485</v>
+        <v>381</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -11021,10 +10157,10 @@
     </row>
     <row r="118" spans="1:3" ht="66">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -11032,10 +10168,10 @@
     </row>
     <row r="119" spans="1:3" ht="66">
       <c r="A119" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -11043,10 +10179,10 @@
     </row>
     <row r="120" spans="1:3" ht="66">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>322</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -11054,10 +10190,10 @@
     </row>
     <row r="121" spans="1:3" ht="66">
       <c r="A121" t="s">
-        <v>427</v>
+        <v>323</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>829</v>
+        <v>661</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -11065,10 +10201,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -11076,10 +10212,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="B123" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -11087,10 +10223,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="B124" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -11098,10 +10234,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -11109,10 +10245,10 @@
     </row>
     <row r="126" spans="1:3" ht="82.5">
       <c r="A126" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -11120,10 +10256,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>788</v>
+        <v>620</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -11131,10 +10267,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5">
       <c r="A128" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>789</v>
+        <v>621</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -11142,10 +10278,10 @@
     </row>
     <row r="129" spans="1:3" ht="49.5">
       <c r="A129" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>790</v>
+        <v>622</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -11153,10 +10289,10 @@
     </row>
     <row r="130" spans="1:3" ht="49.5">
       <c r="A130" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>791</v>
+        <v>623</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -11164,10 +10300,10 @@
     </row>
     <row r="131" spans="1:3" ht="49.5">
       <c r="A131" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>792</v>
+        <v>624</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11175,10 +10311,10 @@
     </row>
     <row r="132" spans="1:3" ht="49.5">
       <c r="A132" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>448</v>
+        <v>344</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -11186,10 +10322,10 @@
     </row>
     <row r="133" spans="1:3" ht="66">
       <c r="A133" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>449</v>
+        <v>345</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -11197,10 +10333,10 @@
     </row>
     <row r="134" spans="1:3" ht="66">
       <c r="A134" t="s">
-        <v>445</v>
+        <v>341</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>450</v>
+        <v>346</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -11208,10 +10344,10 @@
     </row>
     <row r="135" spans="1:3" ht="66">
       <c r="A135" t="s">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>451</v>
+        <v>347</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -11219,10 +10355,10 @@
     </row>
     <row r="136" spans="1:3" ht="82.5">
       <c r="A136" t="s">
-        <v>447</v>
+        <v>343</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>908</v>
+        <v>734</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -11230,10 +10366,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
       <c r="B137" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -11241,10 +10377,10 @@
     </row>
     <row r="138" spans="1:3" ht="49.5">
       <c r="A138" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -11252,10 +10388,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5">
       <c r="A139" t="s">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -11263,10 +10399,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5">
       <c r="A140" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -11274,10 +10410,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5">
       <c r="A141" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -11285,10 +10421,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>457</v>
+        <v>353</v>
       </c>
       <c r="B142" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -11296,10 +10432,10 @@
     </row>
     <row r="143" spans="1:3" ht="49.5">
       <c r="A143" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>889</v>
+        <v>715</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -11307,10 +10443,10 @@
     </row>
     <row r="144" spans="1:3" ht="49.5">
       <c r="A144" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -11318,10 +10454,10 @@
     </row>
     <row r="145" spans="1:3" ht="49.5">
       <c r="A145" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -11329,10 +10465,10 @@
     </row>
     <row r="146" spans="1:3" ht="49.5">
       <c r="A146" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -11340,10 +10476,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
       <c r="B147" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -11351,10 +10487,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="B148" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C148">
         <v>3</v>
@@ -11362,10 +10498,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="B149" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -11373,10 +10509,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="B150" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -11384,10 +10520,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="B151" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -11395,10 +10531,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>594</v>
+        <v>429</v>
       </c>
       <c r="B152" t="s">
-        <v>687</v>
+        <v>522</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -11406,10 +10542,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>595</v>
+        <v>430</v>
       </c>
       <c r="B153" t="s">
-        <v>688</v>
+        <v>523</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -11417,10 +10553,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>596</v>
+        <v>431</v>
       </c>
       <c r="B154" t="s">
-        <v>689</v>
+        <v>524</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -11428,10 +10564,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>597</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s">
-        <v>690</v>
+        <v>525</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -11439,10 +10575,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>598</v>
+        <v>433</v>
       </c>
       <c r="B156" t="s">
-        <v>691</v>
+        <v>526</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -11450,10 +10586,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>599</v>
+        <v>434</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -11461,10 +10597,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>600</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -11472,10 +10608,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>601</v>
+        <v>436</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -11483,10 +10619,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>602</v>
+        <v>437</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -11494,10 +10630,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>603</v>
+        <v>438</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -11505,10 +10641,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>604</v>
+        <v>439</v>
       </c>
       <c r="B162" t="s">
-        <v>686</v>
+        <v>521</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -11516,10 +10652,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>605</v>
+        <v>440</v>
       </c>
       <c r="B163" t="s">
-        <v>686</v>
+        <v>521</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -11527,10 +10663,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>606</v>
+        <v>441</v>
       </c>
       <c r="B164" t="s">
-        <v>686</v>
+        <v>521</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -11538,10 +10674,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>607</v>
+        <v>442</v>
       </c>
       <c r="B165" t="s">
-        <v>686</v>
+        <v>521</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -11549,10 +10685,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>608</v>
+        <v>443</v>
       </c>
       <c r="B166" t="s">
-        <v>686</v>
+        <v>521</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -11560,10 +10696,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>609</v>
+        <v>444</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -11571,10 +10707,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>610</v>
+        <v>445</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -11582,10 +10718,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>611</v>
+        <v>446</v>
       </c>
       <c r="B169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C169">
         <v>3</v>
@@ -11593,10 +10729,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>612</v>
+        <v>447</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C170">
         <v>4</v>
@@ -11604,10 +10740,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>613</v>
+        <v>448</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C171">
         <v>5</v>
@@ -11615,10 +10751,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>614</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
-        <v>681</v>
+        <v>516</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -11626,10 +10762,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>615</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s">
-        <v>682</v>
+        <v>517</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -11637,10 +10773,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>616</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s">
-        <v>683</v>
+        <v>518</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -11648,10 +10784,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>617</v>
+        <v>452</v>
       </c>
       <c r="B175" t="s">
-        <v>684</v>
+        <v>519</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -11659,10 +10795,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>618</v>
+        <v>453</v>
       </c>
       <c r="B176" t="s">
-        <v>685</v>
+        <v>520</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -11670,10 +10806,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>619</v>
+        <v>454</v>
       </c>
       <c r="B177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C177">
         <v>3</v>
@@ -11681,10 +10817,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>620</v>
+        <v>455</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -11692,10 +10828,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>621</v>
+        <v>456</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -11703,10 +10839,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>622</v>
+        <v>457</v>
       </c>
       <c r="B180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -11714,10 +10850,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>623</v>
+        <v>458</v>
       </c>
       <c r="B181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -11725,10 +10861,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>624</v>
+        <v>459</v>
       </c>
       <c r="B182" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -11736,10 +10872,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>625</v>
+        <v>460</v>
       </c>
       <c r="B183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -11747,10 +10883,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>626</v>
+        <v>461</v>
       </c>
       <c r="B184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C184">
         <v>3</v>
@@ -11758,10 +10894,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>627</v>
+        <v>462</v>
       </c>
       <c r="B185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -11769,10 +10905,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>628</v>
+        <v>463</v>
       </c>
       <c r="B186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -11780,10 +10916,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>635</v>
+        <v>470</v>
       </c>
       <c r="B187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -11791,10 +10927,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>636</v>
+        <v>471</v>
       </c>
       <c r="B188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -11802,10 +10938,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>637</v>
+        <v>472</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -11813,10 +10949,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>638</v>
+        <v>473</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -11824,10 +10960,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>639</v>
+        <v>474</v>
       </c>
       <c r="B191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -11835,10 +10971,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>640</v>
+        <v>475</v>
       </c>
       <c r="B192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -11846,10 +10982,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>641</v>
+        <v>476</v>
       </c>
       <c r="B193" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -11857,10 +10993,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>642</v>
+        <v>477</v>
       </c>
       <c r="B194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -11868,10 +11004,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>643</v>
+        <v>478</v>
       </c>
       <c r="B195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -11879,10 +11015,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>644</v>
+        <v>479</v>
       </c>
       <c r="B196" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -11890,10 +11026,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>645</v>
+        <v>480</v>
       </c>
       <c r="B197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -11901,10 +11037,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>646</v>
+        <v>481</v>
       </c>
       <c r="B198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -11912,10 +11048,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>647</v>
+        <v>482</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -11923,10 +11059,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>648</v>
+        <v>483</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -11934,10 +11070,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>649</v>
+        <v>484</v>
       </c>
       <c r="B201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C201">
         <v>5</v>
@@ -11945,10 +11081,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>650</v>
+        <v>485</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -11956,10 +11092,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>651</v>
+        <v>486</v>
       </c>
       <c r="B203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -11967,10 +11103,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>652</v>
+        <v>487</v>
       </c>
       <c r="B204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -11978,10 +11114,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>653</v>
+        <v>488</v>
       </c>
       <c r="B205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C205">
         <v>4</v>
@@ -11989,10 +11125,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>654</v>
+        <v>489</v>
       </c>
       <c r="B206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -12000,10 +11136,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>655</v>
+        <v>490</v>
       </c>
       <c r="B207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -12011,10 +11147,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>656</v>
+        <v>491</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C208">
         <v>3</v>
@@ -12022,10 +11158,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>657</v>
+        <v>492</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -12033,10 +11169,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>658</v>
+        <v>493</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C210">
         <v>4</v>
@@ -12044,10 +11180,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>659</v>
+        <v>494</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -12055,10 +11191,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>660</v>
+        <v>495</v>
       </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -12066,10 +11202,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>661</v>
+        <v>496</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -12077,10 +11213,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>662</v>
+        <v>497</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -12088,10 +11224,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>663</v>
+        <v>498</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -12099,10 +11235,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>664</v>
+        <v>499</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -12110,10 +11246,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>665</v>
+        <v>500</v>
       </c>
       <c r="B217" t="s">
-        <v>732</v>
+        <v>564</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -12121,10 +11257,10 @@
     </row>
     <row r="218" spans="1:3" ht="33">
       <c r="A218" t="s">
-        <v>666</v>
+        <v>501</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>733</v>
+        <v>565</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -12132,10 +11268,10 @@
     </row>
     <row r="219" spans="1:3" ht="49.5">
       <c r="A219" t="s">
-        <v>667</v>
+        <v>502</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>734</v>
+        <v>566</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -12143,10 +11279,10 @@
     </row>
     <row r="220" spans="1:3" ht="49.5">
       <c r="A220" t="s">
-        <v>668</v>
+        <v>503</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>735</v>
+        <v>567</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -12154,10 +11290,10 @@
     </row>
     <row r="221" spans="1:3" ht="49.5">
       <c r="A221" t="s">
-        <v>669</v>
+        <v>504</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>737</v>
+        <v>569</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -12165,10 +11301,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>705</v>
+        <v>537</v>
       </c>
       <c r="B222" t="s">
-        <v>720</v>
+        <v>552</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -12176,10 +11312,10 @@
     </row>
     <row r="223" spans="1:3" ht="66">
       <c r="A223" t="s">
-        <v>706</v>
+        <v>538</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>736</v>
+        <v>568</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -12187,10 +11323,10 @@
     </row>
     <row r="224" spans="1:3" ht="66">
       <c r="A224" t="s">
-        <v>707</v>
+        <v>539</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>721</v>
+        <v>553</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -12198,10 +11334,10 @@
     </row>
     <row r="225" spans="1:3" ht="66">
       <c r="A225" t="s">
-        <v>708</v>
+        <v>540</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>722</v>
+        <v>554</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -12209,10 +11345,10 @@
     </row>
     <row r="226" spans="1:3" ht="66">
       <c r="A226" t="s">
-        <v>709</v>
+        <v>541</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>723</v>
+        <v>555</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -12220,10 +11356,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>710</v>
+        <v>542</v>
       </c>
       <c r="B227" t="s">
-        <v>784</v>
+        <v>616</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -12231,10 +11367,10 @@
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>711</v>
+        <v>543</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>887</v>
+        <v>713</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -12242,10 +11378,10 @@
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>712</v>
+        <v>544</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>785</v>
+        <v>617</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -12253,10 +11389,10 @@
     </row>
     <row r="230" spans="1:3" ht="49.5">
       <c r="A230" t="s">
-        <v>713</v>
+        <v>545</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>786</v>
+        <v>618</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -12264,10 +11400,10 @@
     </row>
     <row r="231" spans="1:3" ht="49.5">
       <c r="A231" t="s">
-        <v>714</v>
+        <v>546</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>787</v>
+        <v>619</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -12275,10 +11411,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>715</v>
+        <v>547</v>
       </c>
       <c r="B232" t="s">
-        <v>793</v>
+        <v>625</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -12286,10 +11422,10 @@
     </row>
     <row r="233" spans="1:3" ht="49.5">
       <c r="A233" t="s">
-        <v>716</v>
+        <v>548</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>888</v>
+        <v>714</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -12297,10 +11433,10 @@
     </row>
     <row r="234" spans="1:3" ht="49.5">
       <c r="A234" t="s">
-        <v>717</v>
+        <v>549</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>888</v>
+        <v>714</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -12308,10 +11444,10 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>718</v>
+        <v>550</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>795</v>
+        <v>627</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -12319,10 +11455,10 @@
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>794</v>
+        <v>626</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -12330,10 +11466,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>830</v>
+        <v>662</v>
       </c>
       <c r="B237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -12341,10 +11477,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>831</v>
+        <v>663</v>
       </c>
       <c r="B238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -12352,10 +11488,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>832</v>
+        <v>664</v>
       </c>
       <c r="B239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -12363,10 +11499,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>833</v>
+        <v>665</v>
       </c>
       <c r="B240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -12374,10 +11510,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>834</v>
+        <v>666</v>
       </c>
       <c r="B241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -12385,10 +11521,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>835</v>
+        <v>667</v>
       </c>
       <c r="B242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -12396,10 +11532,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>836</v>
+        <v>668</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -12407,10 +11543,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>837</v>
+        <v>669</v>
       </c>
       <c r="B244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C244">
         <v>3</v>
@@ -12418,10 +11554,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>838</v>
+        <v>670</v>
       </c>
       <c r="B245" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -12429,10 +11565,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>839</v>
+        <v>671</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -12440,10 +11576,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>840</v>
+        <v>672</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -12451,10 +11587,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>841</v>
+        <v>673</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -12462,10 +11598,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>842</v>
+        <v>674</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C249">
         <v>3</v>
@@ -12473,10 +11609,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>843</v>
+        <v>675</v>
       </c>
       <c r="B250" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -12484,10 +11620,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>844</v>
+        <v>676</v>
       </c>
       <c r="B251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -12495,10 +11631,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>845</v>
+        <v>677</v>
       </c>
       <c r="B252" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -12506,10 +11642,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>846</v>
+        <v>678</v>
       </c>
       <c r="B253" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -12517,10 +11653,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>847</v>
+        <v>679</v>
       </c>
       <c r="B254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -12528,10 +11664,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>848</v>
+        <v>680</v>
       </c>
       <c r="B255" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -12539,10 +11675,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>849</v>
+        <v>681</v>
       </c>
       <c r="B256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -12578,7 +11714,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12589,10 +11725,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -12600,13 +11736,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -12614,13 +11750,13 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12628,13 +11764,13 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12642,13 +11778,13 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12656,13 +11792,13 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12670,13 +11806,13 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12684,13 +11820,13 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12698,13 +11834,13 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12712,13 +11848,13 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12726,13 +11862,13 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12740,13 +11876,13 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12754,13 +11890,13 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12768,13 +11904,13 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -12782,13 +11918,13 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12796,13 +11932,13 @@
         <v>6001</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12810,13 +11946,13 @@
         <v>6002</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -12824,13 +11960,13 @@
         <v>6003</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
@@ -12838,13 +11974,13 @@
         <v>6004</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="C20" s="6">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -12852,13 +11988,13 @@
         <v>6005</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12866,13 +12002,13 @@
         <v>6006</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C22" s="8">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12880,13 +12016,13 @@
         <v>6007</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12894,13 +12030,13 @@
         <v>6008</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12908,13 +12044,13 @@
         <v>6009</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12922,13 +12058,13 @@
         <v>6010</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12936,13 +12072,13 @@
         <v>6011</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12950,13 +12086,13 @@
         <v>6012</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12964,13 +12100,13 @@
         <v>6013</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -12978,13 +12114,13 @@
         <v>6014</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="C30" s="8">
         <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12992,13 +12128,13 @@
         <v>6015</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13006,13 +12142,13 @@
         <v>6016</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -13020,13 +12156,13 @@
         <v>6017</v>
       </c>
       <c r="B33" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13034,13 +12170,13 @@
         <v>6018</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13048,13 +12184,13 @@
         <v>6019</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13062,13 +12198,13 @@
         <v>6020</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13076,13 +12212,13 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -13090,13 +12226,13 @@
         <v>6022</v>
       </c>
       <c r="B38" t="s">
-        <v>802</v>
+        <v>634</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13104,13 +12240,13 @@
         <v>6023</v>
       </c>
       <c r="B39" t="s">
-        <v>803</v>
+        <v>635</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13118,13 +12254,13 @@
         <v>6024</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13132,13 +12268,13 @@
         <v>6025</v>
       </c>
       <c r="B41" t="s">
-        <v>804</v>
+        <v>636</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13146,13 +12282,13 @@
         <v>6026</v>
       </c>
       <c r="B42" t="s">
-        <v>805</v>
+        <v>637</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -13160,13 +12296,13 @@
         <v>6027</v>
       </c>
       <c r="B43" t="s">
-        <v>806</v>
+        <v>638</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13174,13 +12310,13 @@
         <v>6028</v>
       </c>
       <c r="B44" t="s">
-        <v>807</v>
+        <v>639</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13188,13 +12324,13 @@
         <v>6029</v>
       </c>
       <c r="B45" t="s">
-        <v>808</v>
+        <v>640</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -13202,13 +12338,13 @@
         <v>6030</v>
       </c>
       <c r="B46" t="s">
-        <v>809</v>
+        <v>641</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -13216,13 +12352,13 @@
         <v>6031</v>
       </c>
       <c r="B47" t="s">
-        <v>810</v>
+        <v>642</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13230,13 +12366,13 @@
         <v>6032</v>
       </c>
       <c r="B48" t="s">
-        <v>811</v>
+        <v>643</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13244,13 +12380,13 @@
         <v>6033</v>
       </c>
       <c r="B49" t="s">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13258,13 +12394,13 @@
         <v>6034</v>
       </c>
       <c r="B50" t="s">
-        <v>813</v>
+        <v>645</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13272,13 +12408,13 @@
         <v>6035</v>
       </c>
       <c r="B51" t="s">
-        <v>814</v>
+        <v>646</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13286,13 +12422,13 @@
         <v>6036</v>
       </c>
       <c r="B52" t="s">
-        <v>815</v>
+        <v>647</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13300,13 +12436,13 @@
         <v>6037</v>
       </c>
       <c r="B53" t="s">
-        <v>816</v>
+        <v>648</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13314,13 +12450,13 @@
         <v>6038</v>
       </c>
       <c r="B54" t="s">
-        <v>817</v>
+        <v>649</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13328,13 +12464,13 @@
         <v>6039</v>
       </c>
       <c r="B55" t="s">
-        <v>818</v>
+        <v>650</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13342,41 +12478,41 @@
         <v>6040</v>
       </c>
       <c r="B56" t="s">
-        <v>821</v>
+        <v>653</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="37">
+      <c r="A57" s="36">
         <v>6041</v>
       </c>
       <c r="B57" t="s">
-        <v>819</v>
+        <v>651</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="37">
+      <c r="A58" s="36">
         <v>6042</v>
       </c>
       <c r="B58" t="s">
-        <v>820</v>
+        <v>652</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13384,13 +12520,13 @@
         <v>6043</v>
       </c>
       <c r="B59" t="s">
-        <v>822</v>
+        <v>654</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -13398,13 +12534,13 @@
         <v>6044</v>
       </c>
       <c r="B60" t="s">
-        <v>823</v>
+        <v>655</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -13412,13 +12548,13 @@
         <v>6045</v>
       </c>
       <c r="B61" t="s">
-        <v>824</v>
+        <v>656</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -13426,13 +12562,13 @@
         <v>6046</v>
       </c>
       <c r="B62" t="s">
-        <v>825</v>
+        <v>657</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -13440,13 +12576,13 @@
         <v>6047</v>
       </c>
       <c r="B63" t="s">
-        <v>826</v>
+        <v>658</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -13454,27 +12590,27 @@
         <v>6048</v>
       </c>
       <c r="B64" t="s">
-        <v>827</v>
+        <v>659</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="37">
+      <c r="A65" s="36">
         <v>6049</v>
       </c>
       <c r="B65" t="s">
-        <v>828</v>
+        <v>660</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -13506,7 +12642,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>871</v>
+        <v>697</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13518,10 +12654,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>869</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="66">
@@ -13529,13 +12665,13 @@
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>873</v>
+        <v>699</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>874</v>
+        <v>700</v>
       </c>
       <c r="D3" t="s">
-        <v>883</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66">
@@ -13543,13 +12679,13 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>875</v>
+        <v>701</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>878</v>
+        <v>704</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66">
@@ -13557,13 +12693,13 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>876</v>
+        <v>702</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>880</v>
+        <v>706</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -13571,13 +12707,13 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>877</v>
+        <v>703</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>881</v>
+        <v>707</v>
       </c>
       <c r="D6" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66">
@@ -13585,13 +12721,13 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>879</v>
+        <v>705</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>884</v>
+        <v>710</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -13623,29 +12759,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>798</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>628</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="74.25" customHeight="1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>797</v>
+        <v>629</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>866</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="66">
@@ -13653,32 +12789,32 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>799</v>
+        <v>631</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>867</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>800</v>
+        <v>632</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>868</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>801</v>
+        <v>633</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>882</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE477AB8-40AE-4397-A0AE-D745272EC6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4F8BD-A830-44D1-89C8-6E1A888866F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1920" windowWidth="31245" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="660" windowWidth="31245" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="740">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +117,6 @@
   </si>
   <si>
     <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullshotHaloStartPos : Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullshotHaloEndPos : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2933,10 +2925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FullshotPos : Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FullshotBgPos : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2945,14 +2933,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0, -2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25, 3.88</t>
-  </si>
-  <si>
-    <t>1.25, 4.98</t>
+    <t>CamPos : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25, 6.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullshotHaloPos : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.35, 3.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3406,9 +3403,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:AA64" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A2:AA64" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23E87464-C147-41DD-BADD-D5808659CD2A}" name="표1" displayName="표1" ref="A2:Z64" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="A2:Z64" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{6225A6BE-8A53-44E3-BCCD-6AF41DD100E0}" name="Age : Integer" dataDxfId="20"/>
@@ -3429,10 +3426,9 @@
     <tableColumn id="16" xr3:uid="{5D9C39AB-CB7B-415E-A0C2-2C091E1AB9A4}" name="DefaultMedical : Integer" dataDxfId="6"/>
     <tableColumn id="17" xr3:uid="{093443DC-3FEE-486A-B90D-5C804A45B5A9}" name="DefaultSocial : Integer" dataDxfId="5"/>
     <tableColumn id="18" xr3:uid="{961320EC-8809-467C-B33B-E9A61EFEECCA}" name="DefaultIntellectual : Integer" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{94EA13D4-AD21-485E-AF86-715E42B0A16B}" name="FullshotPos : Array"/>
-    <tableColumn id="21" xr3:uid="{CF15A081-F47F-4A0A-AF58-20FDF8FD52E8}" name="FullshotHaloStartPos : Array"/>
-    <tableColumn id="22" xr3:uid="{4C0EA7C7-0E02-49EE-AECF-2B677BFF56F8}" name="FullshotHaloEndPos : Array"/>
+    <tableColumn id="21" xr3:uid="{CF15A081-F47F-4A0A-AF58-20FDF8FD52E8}" name="FullshotHaloPos : Array"/>
     <tableColumn id="27" xr3:uid="{B69B4E83-C2A2-4ABF-B5E9-F9ADE5F3539D}" name="FullshotBgPos : Array"/>
+    <tableColumn id="19" xr3:uid="{EB81A483-76FC-48AF-8D5C-B15028D0DE2F}" name="CamPos : Array"/>
     <tableColumn id="28" xr3:uid="{E2C05E2D-C5AC-4270-A17B-DC11EC327F3F}" name="CamOrthoSize : Integer"/>
     <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String" dataDxfId="2"/>
@@ -3792,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10:V11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3809,21 +3805,21 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="20" width="10.625" customWidth="1"/>
-    <col min="21" max="21" width="13.75" customWidth="1"/>
-    <col min="22" max="22" width="22.125" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="15.75" customWidth="1"/>
+    <col min="24" max="24" width="15.125" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
     <col min="26" max="26" width="13.25" customWidth="1"/>
     <col min="27" max="27" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" customHeight="1">
+    <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3840,13 +3836,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -3885,39 +3881,36 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
+        <v>737</v>
+      </c>
+      <c r="V2" t="s">
+        <v>733</v>
+      </c>
+      <c r="W2" t="s">
         <v>735</v>
       </c>
-      <c r="V2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
       <c r="X2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Y2" t="s">
-        <v>737</v>
+        <v>416</v>
       </c>
       <c r="Z2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3">
         <v>1999</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>4001</v>
@@ -3961,22 +3954,22 @@
       <c r="T3">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1">
+      <c r="X3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4">
         <v>1998</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>4001</v>
@@ -4020,22 +4013,22 @@
       <c r="T4">
         <v>2</v>
       </c>
-      <c r="Y4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="X4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>1997</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>4001</v>
@@ -4079,16 +4072,16 @@
       <c r="T5">
         <v>2</v>
       </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="X5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>1996</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4126,16 +4119,16 @@
       <c r="T6">
         <v>2</v>
       </c>
-      <c r="Y6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="X6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>1995</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4173,16 +4166,16 @@
       <c r="T7">
         <v>2</v>
       </c>
-      <c r="Y7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="X7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>1994</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4220,16 +4213,16 @@
       <c r="T8">
         <v>2</v>
       </c>
-      <c r="Y8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="X8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>1993</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4267,22 +4260,22 @@
       <c r="T9">
         <v>2</v>
       </c>
-      <c r="Y9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="X9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>1992</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>4001</v>
@@ -4326,22 +4319,22 @@
       <c r="T10">
         <v>2</v>
       </c>
-      <c r="Y10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>4001</v>
@@ -4385,16 +4378,16 @@
       <c r="T11">
         <v>2</v>
       </c>
-      <c r="Y11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="X11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>1990</v>
       </c>
       <c r="B12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4432,16 +4425,16 @@
       <c r="T12">
         <v>2</v>
       </c>
-      <c r="Y12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>1989</v>
       </c>
       <c r="B13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4479,16 +4472,16 @@
       <c r="T13">
         <v>2</v>
       </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>1988</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4526,16 +4519,16 @@
       <c r="T14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="X14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>1987</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4573,22 +4566,22 @@
       <c r="T15">
         <v>2</v>
       </c>
-      <c r="Y15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="X15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="12">
         <v>1001</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="13">
         <v>-1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="12">
         <v>4002</v>
@@ -4637,26 +4630,25 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="X16" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="12">
         <v>1002</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="13">
         <v>-1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="12">
         <v>4003</v>
@@ -4705,20 +4697,19 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12">
-        <v>5</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="X17" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="14">
         <v>1003</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="14">
         <v>16</v>
@@ -4775,26 +4766,25 @@
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="X18" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="14">
         <v>1004</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="14">
         <v>15</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="14">
         <v>4005</v>
@@ -4842,30 +4832,29 @@
       <c r="T19" s="14">
         <v>2</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="11"/>
-      <c r="AA19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="U19" s="14"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="14">
         <v>1005</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="14">
         <v>15</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="14">
         <v>4006</v>
@@ -4913,29 +4902,28 @@
       <c r="T20" s="14">
         <v>2</v>
       </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="U20" s="15"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="14">
         <v>1006</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="15">
         <v>-1</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="14">
         <v>4007</v>
@@ -4988,21 +4976,20 @@
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="X21" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="16">
         <v>1007</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16">
         <v>17</v>
@@ -5056,27 +5043,26 @@
       <c r="T22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="U22" s="16"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="16">
         <v>1008</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="16">
         <v>16</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16">
         <v>4009</v>
@@ -5122,27 +5108,26 @@
       <c r="T23" s="16">
         <v>2</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="U23" s="16"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="16">
         <v>1009</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16">
         <v>16</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16">
         <v>4010</v>
@@ -5188,27 +5173,26 @@
       <c r="T24" s="16">
         <v>2</v>
       </c>
-      <c r="U24" s="17"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="U24" s="16"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="16">
         <v>1010</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16">
         <v>16</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16">
         <v>4011</v>
@@ -5257,24 +5241,23 @@
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="X25" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="16">
         <v>1011</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="16">
         <v>16</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16">
         <v>4012</v>
@@ -5320,16 +5303,15 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="11"/>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="U26" s="16"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="18">
         <v>1012</v>
       </c>
@@ -5340,7 +5322,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="18">
         <v>4013</v>
@@ -5386,30 +5368,29 @@
       <c r="T27" s="18">
         <v>2</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="11"/>
-      <c r="AA27" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="18">
         <v>1013</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="18">
         <v>18</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="18">
         <v>4014</v>
@@ -5455,30 +5436,29 @@
       <c r="T28" s="18">
         <v>2</v>
       </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="11"/>
-      <c r="AA28" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="18">
         <v>1014</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="18">
         <v>16</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="18">
         <v>4015</v>
@@ -5527,26 +5507,25 @@
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18">
-        <v>5</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="X29" s="18">
+        <v>5</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="18">
         <v>1015</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="18">
         <v>11</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="18">
         <v>4016</v>
@@ -5592,30 +5571,29 @@
       <c r="T30" s="18">
         <v>2</v>
       </c>
-      <c r="U30" s="19"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="11"/>
-      <c r="AA30" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="18">
         <v>1016</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="18">
         <v>17</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="18">
         <v>4017</v>
@@ -5664,27 +5642,26 @@
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="11"/>
-      <c r="AA31" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="X31" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="11"/>
+      <c r="Z31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="20">
         <v>1017</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C32" s="20">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32" s="20">
         <v>4018</v>
@@ -5732,30 +5709,29 @@
       <c r="T32" s="20">
         <v>2</v>
       </c>
-      <c r="U32" s="21"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="11"/>
-      <c r="AA32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="U32" s="20"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="11"/>
+      <c r="Z32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="20">
         <v>1018</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C33" s="20">
         <v>17</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E33" s="20">
         <v>4019</v>
@@ -5804,27 +5780,26 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="11"/>
-      <c r="AA33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="X33" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="11"/>
+      <c r="Z33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="20">
         <v>1019</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C34" s="20">
         <v>16</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E34" s="20">
         <v>4020</v>
@@ -5870,30 +5845,29 @@
       <c r="T34" s="20">
         <v>2</v>
       </c>
-      <c r="U34" s="21"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21">
-        <v>5</v>
-      </c>
-      <c r="Z34" s="11"/>
-      <c r="AA34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="U34" s="20"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="11"/>
+      <c r="Z34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="20">
         <v>1020</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C35" s="20">
         <v>15</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E35" s="20">
         <v>4021</v>
@@ -5939,30 +5913,29 @@
       <c r="T35" s="20">
         <v>2</v>
       </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="11"/>
-      <c r="AA35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="U35" s="20"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="11"/>
+      <c r="Z35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="24">
         <v>1021</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C36" s="24">
         <v>17</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="24">
         <v>4022</v>
@@ -6011,24 +5984,23 @@
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="11"/>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="X36" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="22">
         <v>1022</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C37" s="22">
         <v>17</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37" s="22">
         <v>4023</v>
@@ -6074,38 +6046,35 @@
       <c r="T37" s="22">
         <v>2</v>
       </c>
-      <c r="U37" s="23" t="s">
+      <c r="U37" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="V37" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="V37" s="22" t="s">
+      <c r="W37" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="W37" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="X37" s="23" t="s">
-        <v>738</v>
-      </c>
-      <c r="Y37" s="23">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="11"/>
-      <c r="AA37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="X37" s="23">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="11"/>
+      <c r="Z37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="22">
         <v>1023</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C38" s="22">
         <v>17</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="22">
         <v>4024</v>
@@ -6156,27 +6125,26 @@
       <c r="U38" s="23"/>
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="11"/>
-      <c r="AA38" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="X38" s="23">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="11"/>
+      <c r="Z38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" s="22">
         <v>1024</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C39" s="22">
         <v>17</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E39" s="22">
         <v>4025</v>
@@ -6222,24 +6190,23 @@
       <c r="T39" s="22">
         <v>2</v>
       </c>
-      <c r="U39" s="23"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="11"/>
-      <c r="AA39" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="11"/>
+      <c r="Z39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="26">
         <v>1025</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="26">
         <v>17</v>
@@ -6296,26 +6263,25 @@
       <c r="U40" s="27"/>
       <c r="V40" s="27"/>
       <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="X40" s="27">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="26">
         <v>1026</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C41" s="26">
         <v>17</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E41" s="26">
         <v>4027</v>
@@ -6361,27 +6327,26 @@
       <c r="T41" s="26">
         <v>2</v>
       </c>
-      <c r="U41" s="27"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="11"/>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="U41" s="26"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="11"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="26">
         <v>1027</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C42" s="26">
         <v>16</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="26">
         <v>4028</v>
@@ -6427,27 +6392,26 @@
       <c r="T42" s="26">
         <v>2</v>
       </c>
-      <c r="U42" s="27"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="11"/>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="11"/>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="26">
         <v>1028</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C43" s="26">
         <v>15</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43" s="26">
         <v>4029</v>
@@ -6493,21 +6457,20 @@
       <c r="T43" s="26">
         <v>2</v>
       </c>
-      <c r="U43" s="27"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="11"/>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="U43" s="26"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="11"/>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="28">
         <v>1029</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C44" s="28">
         <v>17</v>
@@ -6559,30 +6522,29 @@
       <c r="T44" s="28">
         <v>2</v>
       </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="11"/>
-      <c r="AA44" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="U44" s="28"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="11"/>
+      <c r="Z44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="28">
         <v>1030</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C45" s="28">
         <v>16</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" s="28">
         <v>4031</v>
@@ -6631,27 +6593,26 @@
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="11"/>
-      <c r="AA45" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="X45" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="11"/>
+      <c r="Z45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="28">
         <v>1031</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C46" s="28">
         <v>15</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46" s="28">
         <v>4032</v>
@@ -6697,30 +6658,29 @@
       <c r="T46" s="28">
         <v>2</v>
       </c>
-      <c r="U46" s="29"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="11"/>
-      <c r="AA46" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="U46" s="28"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="11"/>
+      <c r="Z46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="30">
         <v>1032</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C47" s="30">
         <v>16</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E47" s="30">
         <v>4033</v>
@@ -6766,27 +6726,26 @@
       <c r="T47" s="30">
         <v>2</v>
       </c>
-      <c r="U47" s="31"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="11"/>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="U47" s="30"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="11"/>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="30">
         <v>1033</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C48" s="30">
         <v>16</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48" s="30">
         <v>4034</v>
@@ -6835,24 +6794,23 @@
       <c r="U48" s="31"/>
       <c r="V48" s="31"/>
       <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="11"/>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="X48" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="11"/>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="30">
         <v>1034</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C49" s="30">
         <v>16</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E49" s="30">
         <v>4035</v>
@@ -6898,27 +6856,26 @@
       <c r="T49" s="30">
         <v>2</v>
       </c>
-      <c r="U49" s="31"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="11"/>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="U49" s="30"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="11"/>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="30">
         <v>1035</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C50" s="30">
         <v>15</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50" s="30">
         <v>4036</v>
@@ -6964,27 +6921,26 @@
       <c r="T50" s="30">
         <v>2</v>
       </c>
-      <c r="U50" s="31"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31">
-        <v>5</v>
-      </c>
-      <c r="Z50" s="11"/>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="U50" s="30"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="11"/>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="18">
         <v>1036</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C51" s="18">
         <v>17</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51" s="18">
         <v>4037</v>
@@ -7030,27 +6986,26 @@
       <c r="T51" s="18">
         <v>2</v>
       </c>
-      <c r="U51" s="19"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="11"/>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="U51" s="18"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="11"/>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="18">
         <v>1037</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C52" s="18">
         <v>17</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="18">
         <v>4038</v>
@@ -7099,24 +7054,23 @@
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="11"/>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="X52" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="11"/>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="18">
         <v>1038</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C53" s="18">
         <v>15</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" s="18">
         <v>4039</v>
@@ -7162,27 +7116,26 @@
       <c r="T53" s="18">
         <v>2</v>
       </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19">
-        <v>5</v>
-      </c>
-      <c r="Z53" s="11"/>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="U53" s="18"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19">
+        <v>5</v>
+      </c>
+      <c r="Y53" s="11"/>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="32">
         <v>1039</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C54" s="32">
         <v>17</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E54" s="32">
         <v>4040</v>
@@ -7228,27 +7181,26 @@
       <c r="T54" s="32">
         <v>2</v>
       </c>
-      <c r="U54" s="33"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="11"/>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="U54" s="32"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="11"/>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="32">
         <v>1040</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" s="32">
         <v>15</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" s="32">
         <v>4041</v>
@@ -7294,27 +7246,26 @@
       <c r="T55" s="32">
         <v>2</v>
       </c>
-      <c r="U55" s="33"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33">
-        <v>5</v>
-      </c>
-      <c r="Z55" s="11"/>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="U55" s="32"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33">
+        <v>5</v>
+      </c>
+      <c r="Y55" s="11"/>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="32">
         <v>1041</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C56" s="32">
         <v>16</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E56" s="32">
         <v>4042</v>
@@ -7363,23 +7314,22 @@
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
       <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="X56" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="32">
         <v>1042</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C57" s="32">
         <v>16</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E57" s="32">
         <v>4043</v>
@@ -7425,26 +7375,25 @@
       <c r="T57" s="32">
         <v>2</v>
       </c>
-      <c r="U57" s="33"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="U57" s="32"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="34">
         <v>1043</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C58" s="34">
         <v>17</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E58" s="34">
         <v>4044</v>
@@ -7490,30 +7439,29 @@
       <c r="T58" s="34">
         <v>2</v>
       </c>
-      <c r="U58" s="35"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="11"/>
-      <c r="AA58" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="U58" s="34"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="11"/>
+      <c r="Z58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="34">
         <v>1044</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C59" s="34">
         <v>15</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E59" s="34">
         <v>4045</v>
@@ -7562,21 +7510,20 @@
       <c r="U59" s="35"/>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="11"/>
-      <c r="AA59" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="X59" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="11"/>
+      <c r="Z59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="34">
         <v>1045</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C60" s="34">
         <v>15</v>
@@ -7631,27 +7578,26 @@
       <c r="U60" s="35"/>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="11"/>
-      <c r="AA60" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="X60" s="35">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="11"/>
+      <c r="Z60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C61">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <v>4047</v>
@@ -7695,22 +7641,22 @@
       <c r="T61">
         <v>2</v>
       </c>
-      <c r="Y61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="X61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>1047</v>
       </c>
       <c r="B62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <v>4048</v>
@@ -7754,22 +7700,22 @@
       <c r="T62">
         <v>2</v>
       </c>
-      <c r="Y62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="X62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>1048</v>
       </c>
       <c r="B63" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63">
         <v>4049</v>
@@ -7813,16 +7759,16 @@
       <c r="T63">
         <v>2</v>
       </c>
-      <c r="Y63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="X63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>1049</v>
       </c>
       <c r="B64" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C64">
         <v>15</v>
@@ -7872,7 +7818,7 @@
       <c r="T64">
         <v>2</v>
       </c>
-      <c r="Y64">
+      <c r="X64">
         <v>5</v>
       </c>
     </row>
@@ -7906,7 +7852,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7917,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7925,10 +7871,10 @@
         <v>2999</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7936,10 +7882,10 @@
         <v>2998</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7947,10 +7893,10 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7958,10 +7904,10 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7969,10 +7915,10 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7980,10 +7926,10 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7991,10 +7937,10 @@
         <v>2005</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8002,7 +7948,7 @@
         <v>2006</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10">
         <v>1021</v>
@@ -8013,10 +7959,10 @@
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8024,10 +7970,10 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8035,10 +7981,10 @@
         <v>2009</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8046,10 +7992,10 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8057,10 +8003,10 @@
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8068,10 +8014,10 @@
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8079,10 +8025,10 @@
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8090,10 +8036,10 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -8126,7 +8072,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8137,10 +8083,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -8148,10 +8094,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -8159,13 +8105,13 @@
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>2001</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8173,13 +8119,13 @@
         <v>3002</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8187,13 +8133,13 @@
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8201,13 +8147,13 @@
         <v>3004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8215,13 +8161,13 @@
         <v>3005</v>
       </c>
       <c r="B8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8229,13 +8175,13 @@
         <v>3006</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8243,13 +8189,13 @@
         <v>3007</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C10">
         <v>2012</v>
       </c>
       <c r="D10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -8280,7 +8226,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8291,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8299,10 +8245,10 @@
         <v>4001</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8310,10 +8256,10 @@
         <v>4002</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8321,10 +8267,10 @@
         <v>4003</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8332,10 +8278,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8343,10 +8289,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8354,10 +8300,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C8" t="s">
         <v>583</v>
-      </c>
-      <c r="C8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8365,10 +8311,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" t="s">
         <v>582</v>
-      </c>
-      <c r="C9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8376,10 +8322,10 @@
         <v>4008</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8387,10 +8333,10 @@
         <v>4009</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8398,10 +8344,10 @@
         <v>4010</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8409,10 +8355,10 @@
         <v>4011</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8420,10 +8366,10 @@
         <v>4012</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8431,10 +8377,10 @@
         <v>4013</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8442,10 +8388,10 @@
         <v>4014</v>
       </c>
       <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8453,10 +8399,10 @@
         <v>4015</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8464,10 +8410,10 @@
         <v>4016</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8475,10 +8421,10 @@
         <v>4017</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8486,10 +8432,10 @@
         <v>4018</v>
       </c>
       <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" t="s">
         <v>271</v>
-      </c>
-      <c r="C20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8497,10 +8443,10 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8508,10 +8454,10 @@
         <v>4020</v>
       </c>
       <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
         <v>272</v>
-      </c>
-      <c r="C22" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8519,10 +8465,10 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8530,10 +8476,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8541,10 +8487,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8552,10 +8498,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8563,10 +8509,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8574,10 +8520,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8585,10 +8531,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8596,10 +8542,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8607,10 +8553,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8618,10 +8564,10 @@
         <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8629,10 +8575,10 @@
         <v>4031</v>
       </c>
       <c r="B33" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C33" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8640,10 +8586,10 @@
         <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C34" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8651,10 +8597,10 @@
         <v>4033</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8662,10 +8608,10 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8673,10 +8619,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C37" t="s">
         <v>527</v>
-      </c>
-      <c r="C37" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8684,10 +8630,10 @@
         <v>4036</v>
       </c>
       <c r="B38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8695,10 +8641,10 @@
         <v>4037</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8706,10 +8652,10 @@
         <v>4038</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8717,10 +8663,10 @@
         <v>4039</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8728,10 +8674,10 @@
         <v>4040</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8739,10 +8685,10 @@
         <v>4041</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8750,10 +8696,10 @@
         <v>4042</v>
       </c>
       <c r="B44" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8761,10 +8707,10 @@
         <v>4043</v>
       </c>
       <c r="B45" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8772,10 +8718,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C46" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8783,10 +8729,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8794,10 +8740,10 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C48" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8805,10 +8751,10 @@
         <v>4047</v>
       </c>
       <c r="B49" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8816,10 +8762,10 @@
         <v>4048</v>
       </c>
       <c r="B50" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8827,10 +8773,10 @@
         <v>4049</v>
       </c>
       <c r="B51" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C51" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8838,10 +8784,10 @@
         <v>4050</v>
       </c>
       <c r="B52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C52" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -8873,29 +8819,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -8903,10 +8849,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8914,10 +8860,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -8925,10 +8871,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8936,10 +8882,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8947,10 +8893,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -8958,10 +8904,10 @@
     </row>
     <row r="9" spans="1:4" ht="33">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -8969,10 +8915,10 @@
     </row>
     <row r="10" spans="1:4" ht="33">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -8980,10 +8926,10 @@
     </row>
     <row r="11" spans="1:4" ht="33">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -8991,10 +8937,10 @@
     </row>
     <row r="12" spans="1:4" ht="33">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -9002,10 +8948,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -9013,10 +8959,10 @@
     </row>
     <row r="14" spans="1:4" ht="49.5">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -9024,10 +8970,10 @@
     </row>
     <row r="15" spans="1:4" ht="49.5">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -9035,10 +8981,10 @@
     </row>
     <row r="16" spans="1:4" ht="49.5">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -9046,10 +8992,10 @@
     </row>
     <row r="17" spans="1:3" ht="49.5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -9057,10 +9003,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -9068,10 +9014,10 @@
     </row>
     <row r="19" spans="1:3" ht="33">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9079,10 +9025,10 @@
     </row>
     <row r="20" spans="1:3" ht="33">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9090,10 +9036,10 @@
     </row>
     <row r="21" spans="1:3" ht="33">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9101,10 +9047,10 @@
     </row>
     <row r="22" spans="1:3" ht="33">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -9112,10 +9058,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -9123,10 +9069,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -9134,10 +9080,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -9145,10 +9091,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9156,10 +9102,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9167,10 +9113,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9178,10 +9124,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -9189,10 +9135,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -9200,10 +9146,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -9211,10 +9157,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -9222,10 +9168,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -9233,10 +9179,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -9244,10 +9190,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -9255,10 +9201,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -9266,10 +9212,10 @@
     </row>
     <row r="37" spans="1:3" ht="49.5">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -9277,10 +9223,10 @@
     </row>
     <row r="38" spans="1:3" ht="49.5">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -9288,10 +9234,10 @@
     </row>
     <row r="39" spans="1:3" ht="49.5">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -9299,10 +9245,10 @@
     </row>
     <row r="40" spans="1:3" ht="49.5">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -9310,10 +9256,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -9321,10 +9267,10 @@
     </row>
     <row r="42" spans="1:3" ht="49.5">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -9332,10 +9278,10 @@
     </row>
     <row r="43" spans="1:3" ht="49.5">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -9343,10 +9289,10 @@
     </row>
     <row r="44" spans="1:3" ht="49.5">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -9354,10 +9300,10 @@
     </row>
     <row r="45" spans="1:3" ht="49.5">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -9365,10 +9311,10 @@
     </row>
     <row r="46" spans="1:3" ht="49.5">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -9376,10 +9322,10 @@
     </row>
     <row r="47" spans="1:3" ht="49.5">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -9387,10 +9333,10 @@
     </row>
     <row r="48" spans="1:3" ht="49.5">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -9398,10 +9344,10 @@
     </row>
     <row r="49" spans="1:3" ht="49.5">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -9409,10 +9355,10 @@
     </row>
     <row r="50" spans="1:3" ht="49.5">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -9420,10 +9366,10 @@
     </row>
     <row r="51" spans="1:3" ht="49.5">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -9431,10 +9377,10 @@
     </row>
     <row r="52" spans="1:3" ht="66">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -9442,10 +9388,10 @@
     </row>
     <row r="53" spans="1:3" ht="66">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -9453,10 +9399,10 @@
     </row>
     <row r="54" spans="1:3" ht="66">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -9464,10 +9410,10 @@
     </row>
     <row r="55" spans="1:3" ht="66">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -9475,10 +9421,10 @@
     </row>
     <row r="56" spans="1:3" ht="66">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -9486,10 +9432,10 @@
     </row>
     <row r="57" spans="1:3" ht="66">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -9497,10 +9443,10 @@
     </row>
     <row r="58" spans="1:3" ht="66">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -9508,10 +9454,10 @@
     </row>
     <row r="59" spans="1:3" ht="66">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -9519,10 +9465,10 @@
     </row>
     <row r="60" spans="1:3" ht="66">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -9530,10 +9476,10 @@
     </row>
     <row r="61" spans="1:3" ht="66">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -9541,10 +9487,10 @@
     </row>
     <row r="62" spans="1:3" ht="66">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -9552,10 +9498,10 @@
     </row>
     <row r="63" spans="1:3" ht="66">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -9563,10 +9509,10 @@
     </row>
     <row r="64" spans="1:3" ht="66">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -9574,10 +9520,10 @@
     </row>
     <row r="65" spans="1:3" ht="66">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -9585,10 +9531,10 @@
     </row>
     <row r="66" spans="1:3" ht="66">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -9596,10 +9542,10 @@
     </row>
     <row r="67" spans="1:3" ht="66">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -9607,10 +9553,10 @@
     </row>
     <row r="68" spans="1:3" ht="82.5">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -9618,10 +9564,10 @@
     </row>
     <row r="69" spans="1:3" ht="82.5">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -9629,10 +9575,10 @@
     </row>
     <row r="70" spans="1:3" ht="82.5">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -9640,10 +9586,10 @@
     </row>
     <row r="71" spans="1:3" ht="82.5">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -9651,10 +9597,10 @@
     </row>
     <row r="72" spans="1:3" ht="33">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -9662,10 +9608,10 @@
     </row>
     <row r="73" spans="1:3" ht="49.5">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -9673,10 +9619,10 @@
     </row>
     <row r="74" spans="1:3" ht="49.5">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -9684,10 +9630,10 @@
     </row>
     <row r="75" spans="1:3" ht="49.5">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -9695,10 +9641,10 @@
     </row>
     <row r="76" spans="1:3" ht="49.5">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -9706,10 +9652,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -9717,10 +9663,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -9728,10 +9674,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -9739,10 +9685,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -9750,10 +9696,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -9761,10 +9707,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -9772,10 +9718,10 @@
     </row>
     <row r="83" spans="1:3" ht="49.5">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -9783,10 +9729,10 @@
     </row>
     <row r="84" spans="1:3" ht="49.5">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -9794,10 +9740,10 @@
     </row>
     <row r="85" spans="1:3" ht="49.5">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -9805,10 +9751,10 @@
     </row>
     <row r="86" spans="1:3" ht="49.5">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -9816,10 +9762,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -9827,10 +9773,10 @@
     </row>
     <row r="88" spans="1:3" ht="49.5">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -9838,10 +9784,10 @@
     </row>
     <row r="89" spans="1:3" ht="49.5">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -9849,10 +9795,10 @@
     </row>
     <row r="90" spans="1:3" ht="49.5">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -9860,10 +9806,10 @@
     </row>
     <row r="91" spans="1:3" ht="66">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -9871,10 +9817,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -9882,10 +9828,10 @@
     </row>
     <row r="93" spans="1:3" ht="49.5">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -9893,10 +9839,10 @@
     </row>
     <row r="94" spans="1:3" ht="49.5">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -9904,10 +9850,10 @@
     </row>
     <row r="95" spans="1:3" ht="49.5">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -9915,10 +9861,10 @@
     </row>
     <row r="96" spans="1:3" ht="66">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -9926,10 +9872,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -9937,10 +9883,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -9948,10 +9894,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -9959,10 +9905,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -9970,10 +9916,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -9981,10 +9927,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -9992,10 +9938,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -10003,10 +9949,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -10014,10 +9960,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -10025,10 +9971,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B106" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10036,10 +9982,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B107" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -10047,10 +9993,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -10058,10 +10004,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -10069,10 +10015,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" t="s">
         <v>284</v>
-      </c>
-      <c r="B110" t="s">
-        <v>286</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -10080,10 +10026,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" t="s">
         <v>285</v>
-      </c>
-      <c r="B111" t="s">
-        <v>287</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -10091,10 +10037,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -10102,10 +10048,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -10113,10 +10059,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -10124,10 +10070,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -10135,10 +10081,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -10146,10 +10092,10 @@
     </row>
     <row r="117" spans="1:3" ht="49.5">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -10157,10 +10103,10 @@
     </row>
     <row r="118" spans="1:3" ht="66">
       <c r="A118" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -10168,10 +10114,10 @@
     </row>
     <row r="119" spans="1:3" ht="66">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -10179,10 +10125,10 @@
     </row>
     <row r="120" spans="1:3" ht="66">
       <c r="A120" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -10190,10 +10136,10 @@
     </row>
     <row r="121" spans="1:3" ht="66">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -10201,10 +10147,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -10212,10 +10158,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -10223,10 +10169,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -10234,10 +10180,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -10245,10 +10191,10 @@
     </row>
     <row r="126" spans="1:3" ht="82.5">
       <c r="A126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -10256,10 +10202,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -10267,10 +10213,10 @@
     </row>
     <row r="128" spans="1:3" ht="49.5">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -10278,10 +10224,10 @@
     </row>
     <row r="129" spans="1:3" ht="49.5">
       <c r="A129" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -10289,10 +10235,10 @@
     </row>
     <row r="130" spans="1:3" ht="49.5">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -10300,10 +10246,10 @@
     </row>
     <row r="131" spans="1:3" ht="49.5">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -10311,10 +10257,10 @@
     </row>
     <row r="132" spans="1:3" ht="49.5">
       <c r="A132" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -10322,10 +10268,10 @@
     </row>
     <row r="133" spans="1:3" ht="66">
       <c r="A133" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -10333,10 +10279,10 @@
     </row>
     <row r="134" spans="1:3" ht="66">
       <c r="A134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -10344,10 +10290,10 @@
     </row>
     <row r="135" spans="1:3" ht="66">
       <c r="A135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -10355,10 +10301,10 @@
     </row>
     <row r="136" spans="1:3" ht="82.5">
       <c r="A136" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -10366,10 +10312,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B137" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -10377,10 +10323,10 @@
     </row>
     <row r="138" spans="1:3" ht="49.5">
       <c r="A138" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -10388,10 +10334,10 @@
     </row>
     <row r="139" spans="1:3" ht="49.5">
       <c r="A139" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -10399,10 +10345,10 @@
     </row>
     <row r="140" spans="1:3" ht="49.5">
       <c r="A140" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -10410,10 +10356,10 @@
     </row>
     <row r="141" spans="1:3" ht="49.5">
       <c r="A141" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -10421,10 +10367,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B142" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -10432,10 +10378,10 @@
     </row>
     <row r="143" spans="1:3" ht="49.5">
       <c r="A143" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -10443,10 +10389,10 @@
     </row>
     <row r="144" spans="1:3" ht="49.5">
       <c r="A144" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -10454,10 +10400,10 @@
     </row>
     <row r="145" spans="1:3" ht="49.5">
       <c r="A145" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -10465,10 +10411,10 @@
     </row>
     <row r="146" spans="1:3" ht="49.5">
       <c r="A146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -10476,10 +10422,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B147" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -10487,10 +10433,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B148" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C148">
         <v>3</v>
@@ -10498,10 +10444,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -10509,10 +10455,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" t="s">
         <v>361</v>
-      </c>
-      <c r="B150" t="s">
-        <v>363</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -10520,10 +10466,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -10531,10 +10477,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B152" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -10542,10 +10488,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B153" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -10553,10 +10499,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -10564,10 +10510,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B155" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -10575,10 +10521,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B156" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -10586,10 +10532,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -10597,10 +10543,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -10608,10 +10554,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -10619,10 +10565,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -10630,10 +10576,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -10641,10 +10587,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B162" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -10652,10 +10598,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B163" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -10663,10 +10609,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B164" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -10674,10 +10620,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B165" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -10685,10 +10631,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B166" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -10696,10 +10642,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -10707,10 +10653,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B168" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -10718,10 +10664,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C169">
         <v>3</v>
@@ -10729,10 +10675,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C170">
         <v>4</v>
@@ -10740,10 +10686,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C171">
         <v>5</v>
@@ -10751,10 +10697,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B172" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -10762,10 +10708,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B173" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -10773,10 +10719,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B174" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -10784,10 +10730,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B175" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -10795,10 +10741,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B176" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -10806,10 +10752,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C177">
         <v>3</v>
@@ -10817,10 +10763,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -10828,10 +10774,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -10839,10 +10785,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -10850,10 +10796,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -10861,10 +10807,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -10872,10 +10818,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -10883,10 +10829,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C184">
         <v>3</v>
@@ -10894,10 +10840,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -10905,10 +10851,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -10916,10 +10862,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -10927,10 +10873,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -10938,10 +10884,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -10949,10 +10895,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -10960,10 +10906,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -10971,10 +10917,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -10982,10 +10928,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -10993,10 +10939,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -11004,10 +10950,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -11015,10 +10961,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -11026,10 +10972,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -11037,10 +10983,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -11048,10 +10994,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -11059,10 +11005,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -11070,10 +11016,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C201">
         <v>5</v>
@@ -11081,10 +11027,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -11092,10 +11038,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -11103,10 +11049,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -11114,10 +11060,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C205">
         <v>4</v>
@@ -11125,10 +11071,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -11136,10 +11082,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -11147,10 +11093,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C208">
         <v>3</v>
@@ -11158,10 +11104,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -11169,10 +11115,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C210">
         <v>4</v>
@@ -11180,10 +11126,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -11191,10 +11137,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -11202,10 +11148,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -11213,10 +11159,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -11224,10 +11170,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -11235,10 +11181,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -11246,10 +11192,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B217" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -11257,10 +11203,10 @@
     </row>
     <row r="218" spans="1:3" ht="33">
       <c r="A218" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -11268,10 +11214,10 @@
     </row>
     <row r="219" spans="1:3" ht="49.5">
       <c r="A219" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -11279,10 +11225,10 @@
     </row>
     <row r="220" spans="1:3" ht="49.5">
       <c r="A220" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -11290,10 +11236,10 @@
     </row>
     <row r="221" spans="1:3" ht="49.5">
       <c r="A221" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -11301,10 +11247,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B222" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -11312,10 +11258,10 @@
     </row>
     <row r="223" spans="1:3" ht="66">
       <c r="A223" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -11323,10 +11269,10 @@
     </row>
     <row r="224" spans="1:3" ht="66">
       <c r="A224" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -11334,10 +11280,10 @@
     </row>
     <row r="225" spans="1:3" ht="66">
       <c r="A225" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -11345,10 +11291,10 @@
     </row>
     <row r="226" spans="1:3" ht="66">
       <c r="A226" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -11356,10 +11302,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B227" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -11367,10 +11313,10 @@
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -11378,10 +11324,10 @@
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -11389,10 +11335,10 @@
     </row>
     <row r="230" spans="1:3" ht="49.5">
       <c r="A230" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -11400,10 +11346,10 @@
     </row>
     <row r="231" spans="1:3" ht="49.5">
       <c r="A231" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -11411,10 +11357,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B232" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -11422,10 +11368,10 @@
     </row>
     <row r="233" spans="1:3" ht="49.5">
       <c r="A233" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -11433,10 +11379,10 @@
     </row>
     <row r="234" spans="1:3" ht="49.5">
       <c r="A234" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -11444,10 +11390,10 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -11455,10 +11401,10 @@
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -11466,10 +11412,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -11477,10 +11423,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -11488,10 +11434,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B239" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -11499,10 +11445,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -11510,10 +11456,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B241" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -11521,10 +11467,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B242" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -11532,10 +11478,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B243" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -11543,10 +11489,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B244" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C244">
         <v>3</v>
@@ -11554,10 +11500,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -11565,10 +11511,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B246" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -11576,10 +11522,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B247" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -11587,10 +11533,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B248" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -11598,10 +11544,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C249">
         <v>3</v>
@@ -11609,10 +11555,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B250" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -11620,10 +11566,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B251" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -11631,10 +11577,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B252" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -11642,10 +11588,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B253" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -11653,10 +11599,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -11664,10 +11610,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B255" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -11675,10 +11621,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B256" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C256">
         <v>5</v>
@@ -11714,7 +11660,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11725,10 +11671,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -11736,13 +11682,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -11750,13 +11696,13 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11764,13 +11710,13 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11778,13 +11724,13 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11792,13 +11738,13 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11806,13 +11752,13 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11820,13 +11766,13 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11834,13 +11780,13 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11848,13 +11794,13 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11862,13 +11808,13 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11876,13 +11822,13 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11890,13 +11836,13 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11904,13 +11850,13 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11918,13 +11864,13 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11932,13 +11878,13 @@
         <v>6001</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11946,13 +11892,13 @@
         <v>6002</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11960,13 +11906,13 @@
         <v>6003</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
@@ -11974,13 +11920,13 @@
         <v>6004</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="6">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -11988,13 +11934,13 @@
         <v>6005</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12002,13 +11948,13 @@
         <v>6006</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12016,13 +11962,13 @@
         <v>6007</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12030,13 +11976,13 @@
         <v>6008</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="8">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12044,13 +11990,13 @@
         <v>6009</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12058,13 +12004,13 @@
         <v>6010</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12072,13 +12018,13 @@
         <v>6011</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12086,13 +12032,13 @@
         <v>6012</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -12100,13 +12046,13 @@
         <v>6013</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -12114,13 +12060,13 @@
         <v>6014</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="8">
         <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -12128,13 +12074,13 @@
         <v>6015</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -12142,13 +12088,13 @@
         <v>6016</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12156,13 +12102,13 @@
         <v>6017</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -12170,13 +12116,13 @@
         <v>6018</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12184,13 +12130,13 @@
         <v>6019</v>
       </c>
       <c r="B35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -12198,13 +12144,13 @@
         <v>6020</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -12212,13 +12158,13 @@
         <v>6021</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -12226,13 +12172,13 @@
         <v>6022</v>
       </c>
       <c r="B38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12240,13 +12186,13 @@
         <v>6023</v>
       </c>
       <c r="B39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -12254,13 +12200,13 @@
         <v>6024</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12268,13 +12214,13 @@
         <v>6025</v>
       </c>
       <c r="B41" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12282,13 +12228,13 @@
         <v>6026</v>
       </c>
       <c r="B42" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -12296,13 +12242,13 @@
         <v>6027</v>
       </c>
       <c r="B43" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -12310,13 +12256,13 @@
         <v>6028</v>
       </c>
       <c r="B44" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -12324,13 +12270,13 @@
         <v>6029</v>
       </c>
       <c r="B45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12338,13 +12284,13 @@
         <v>6030</v>
       </c>
       <c r="B46" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12352,13 +12298,13 @@
         <v>6031</v>
       </c>
       <c r="B47" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12366,13 +12312,13 @@
         <v>6032</v>
       </c>
       <c r="B48" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12380,13 +12326,13 @@
         <v>6033</v>
       </c>
       <c r="B49" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12394,13 +12340,13 @@
         <v>6034</v>
       </c>
       <c r="B50" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12408,13 +12354,13 @@
         <v>6035</v>
       </c>
       <c r="B51" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -12422,13 +12368,13 @@
         <v>6036</v>
       </c>
       <c r="B52" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12436,13 +12382,13 @@
         <v>6037</v>
       </c>
       <c r="B53" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12450,13 +12396,13 @@
         <v>6038</v>
       </c>
       <c r="B54" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12464,13 +12410,13 @@
         <v>6039</v>
       </c>
       <c r="B55" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12478,13 +12424,13 @@
         <v>6040</v>
       </c>
       <c r="B56" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -12492,13 +12438,13 @@
         <v>6041</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12506,13 +12452,13 @@
         <v>6042</v>
       </c>
       <c r="B58" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12520,13 +12466,13 @@
         <v>6043</v>
       </c>
       <c r="B59" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12534,13 +12480,13 @@
         <v>6044</v>
       </c>
       <c r="B60" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12548,13 +12494,13 @@
         <v>6045</v>
       </c>
       <c r="B61" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -12562,13 +12508,13 @@
         <v>6046</v>
       </c>
       <c r="B62" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12576,13 +12522,13 @@
         <v>6047</v>
       </c>
       <c r="B63" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12590,13 +12536,13 @@
         <v>6048</v>
       </c>
       <c r="B64" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12604,13 +12550,13 @@
         <v>6049</v>
       </c>
       <c r="B65" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -12642,7 +12588,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -12654,10 +12600,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="66">
@@ -12665,13 +12611,13 @@
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66">
@@ -12679,13 +12625,13 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66">
@@ -12693,13 +12639,13 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66">
@@ -12707,13 +12653,13 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66">
@@ -12721,13 +12667,13 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -12759,29 +12705,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="74.25" customHeight="1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="66">
@@ -12789,32 +12735,32 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC4F8BD-A830-44D1-89C8-6E1A888866F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7670E7B-BE50-4E2E-ABB5-478420752050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="660" windowWidth="31245" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="2925" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="753">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2929,10 +2929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CamOrthoSize : Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CamPos : Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2950,6 +2946,61 @@
   </si>
   <si>
     <t>4.35, 3.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CamOrthoSize : Float </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.83, 4.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.05, 8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.71, 2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 5.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.95, 2.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.6, 4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25, 2.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.35, 3.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.06, 5.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.78, 1.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.59, 3.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3429,7 +3480,7 @@
     <tableColumn id="21" xr3:uid="{CF15A081-F47F-4A0A-AF58-20FDF8FD52E8}" name="FullshotHaloPos : Array"/>
     <tableColumn id="27" xr3:uid="{B69B4E83-C2A2-4ABF-B5E9-F9ADE5F3539D}" name="FullshotBgPos : Array"/>
     <tableColumn id="19" xr3:uid="{EB81A483-76FC-48AF-8D5C-B15028D0DE2F}" name="CamPos : Array"/>
-    <tableColumn id="28" xr3:uid="{E2C05E2D-C5AC-4270-A17B-DC11EC327F3F}" name="CamOrthoSize : Integer"/>
+    <tableColumn id="28" xr3:uid="{E2C05E2D-C5AC-4270-A17B-DC11EC327F3F}" name="CamOrthoSize : Float "/>
     <tableColumn id="24" xr3:uid="{BC0B3F9E-EECB-4347-A865-A7B8C47B3C27}" name="FrontHalo : Boolean" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{9C326B71-8ED1-4566-886E-F154EBB312FF}" name="OverrideBgPath : String" dataDxfId="2"/>
   </tableColumns>
@@ -3790,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3881,16 +3932,16 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="V2" t="s">
         <v>733</v>
       </c>
       <c r="W2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="X2" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="Y2" t="s">
         <v>416</v>
@@ -6047,13 +6098,13 @@
         <v>2</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V37" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="W37" s="23" t="s">
         <v>738</v>
-      </c>
-      <c r="W37" s="23" t="s">
-        <v>739</v>
       </c>
       <c r="X37" s="23">
         <v>5</v>
@@ -6122,11 +6173,17 @@
       <c r="T38" s="22">
         <v>2</v>
       </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
+      <c r="U38" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="V38" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="W38" s="23" t="s">
+        <v>741</v>
+      </c>
       <c r="X38" s="23">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Y38" s="11"/>
       <c r="Z38" t="s">
@@ -6190,9 +6247,15 @@
       <c r="T39" s="22">
         <v>2</v>
       </c>
-      <c r="U39" s="22"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
+      <c r="U39" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>743</v>
+      </c>
       <c r="X39" s="23">
         <v>5</v>
       </c>
@@ -6260,11 +6323,17 @@
       <c r="T40" s="26">
         <v>2</v>
       </c>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
+      <c r="U40" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="V40" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="W40" s="27" t="s">
+        <v>745</v>
+      </c>
       <c r="X40" s="27">
-        <v>5</v>
+        <v>3.57</v>
       </c>
       <c r="Y40" s="11" t="b">
         <v>1</v>
@@ -6327,11 +6396,17 @@
       <c r="T41" s="26">
         <v>2</v>
       </c>
-      <c r="U41" s="26"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
+      <c r="U41" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="V41" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="W41" s="27" t="s">
+        <v>747</v>
+      </c>
       <c r="X41" s="27">
-        <v>5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Y41" s="11"/>
     </row>
@@ -6392,11 +6467,17 @@
       <c r="T42" s="26">
         <v>2</v>
       </c>
-      <c r="U42" s="26"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
+      <c r="U42" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="V42" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>749</v>
+      </c>
       <c r="X42" s="27">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="Y42" s="11"/>
     </row>
@@ -6457,11 +6538,17 @@
       <c r="T43" s="26">
         <v>2</v>
       </c>
-      <c r="U43" s="26"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
+      <c r="U43" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="V43" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="W43" s="27" t="s">
+        <v>751</v>
+      </c>
       <c r="X43" s="27">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Y43" s="11"/>
     </row>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7670E7B-BE50-4E2E-ABB5-478420752050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D23AA-C3DB-4C02-A538-E4EA584913A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="2925" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2280" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="792">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2758,11 +2758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">긴급 코드 활성화 : 케이 
-아리스의 의식이 10%이하로 감소하면 케이가 주도권을 잡습니다. 의식이 100%로 3일 동안 고정됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최강자 히나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3001,6 +2996,168 @@
   </si>
   <si>
     <t>1.59, 3.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3, 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58, 5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2, 3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3, 8.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9, 2.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5, 2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9, 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.8, 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5, 2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6, 2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.4, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급 코드 활성화 : 케이 
+아리스의 의식이 10%이하로 감소하면 케이가 주도권을 잡습니다. 의식이 100%로 3일 동안 고정됩니다. 
+(케이가 다시 활성화 되기까지 3개월이 소요됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17, 5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9, 3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.58, 5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.93, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.67, 4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.47, 4.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13, 8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6, 4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9, 2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3, 2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8, 3.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.14, 5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.6, 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.15, 6.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3, 4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3, 2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.46, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3841,8 +3998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3932,16 +4089,16 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V2" t="s">
+        <v>732</v>
+      </c>
+      <c r="W2" t="s">
         <v>733</v>
       </c>
-      <c r="W2" t="s">
-        <v>734</v>
-      </c>
       <c r="X2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Y2" t="s">
         <v>416</v>
@@ -4678,11 +4835,20 @@
       <c r="T16" s="12">
         <v>2</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
+      <c r="U16" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>752</v>
+      </c>
       <c r="X16" s="12">
         <v>5</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
       </c>
       <c r="Z16" t="s">
         <v>123</v>
@@ -4745,11 +4911,17 @@
       <c r="T17" s="12">
         <v>2</v>
       </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="U17" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>754</v>
+      </c>
       <c r="X17" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="s">
         <v>202</v>
@@ -4814,11 +4986,17 @@
       <c r="T18" s="14">
         <v>2</v>
       </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="U18" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>757</v>
+      </c>
       <c r="X18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="s">
         <v>611</v>
@@ -4883,11 +5061,17 @@
       <c r="T19" s="14">
         <v>2</v>
       </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
+      <c r="U19" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>758</v>
+      </c>
       <c r="X19" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" t="s">
@@ -4953,11 +5137,17 @@
       <c r="T20" s="14">
         <v>2</v>
       </c>
-      <c r="U20" s="15"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="U20" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>761</v>
+      </c>
       <c r="X20" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="s">
         <v>165</v>
@@ -5024,11 +5214,17 @@
       <c r="T21" s="14">
         <v>2</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
+      <c r="U21" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>762</v>
+      </c>
       <c r="X21" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" t="s">
@@ -5094,11 +5290,17 @@
       <c r="T22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="U22" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>765</v>
+      </c>
       <c r="X22" s="17">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Y22" s="11"/>
     </row>
@@ -5159,11 +5361,17 @@
       <c r="T23" s="16">
         <v>2</v>
       </c>
-      <c r="U23" s="16"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="U23" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="W23" s="17" t="s">
+        <v>767</v>
+      </c>
       <c r="X23" s="17">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y23" s="11"/>
     </row>
@@ -5224,11 +5432,17 @@
       <c r="T24" s="16">
         <v>2</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+      <c r="U24" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>769</v>
+      </c>
       <c r="X24" s="17">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Y24" s="11"/>
     </row>
@@ -5289,11 +5503,17 @@
       <c r="T25" s="16">
         <v>2</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
+      <c r="U25" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="W25" s="17" t="s">
+        <v>771</v>
+      </c>
       <c r="X25" s="17">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Y25" s="11"/>
     </row>
@@ -5354,11 +5574,17 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="U26" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>771</v>
+      </c>
       <c r="X26" s="17">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Y26" s="11"/>
     </row>
@@ -5419,11 +5645,17 @@
       <c r="T27" s="18">
         <v>2</v>
       </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
+      <c r="U27" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>777</v>
+      </c>
       <c r="X27" s="19">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" t="s">
@@ -5487,11 +5719,17 @@
       <c r="T28" s="18">
         <v>2</v>
       </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="U28" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W28" s="19" t="s">
+        <v>775</v>
+      </c>
       <c r="X28" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" t="s">
@@ -5555,11 +5793,17 @@
       <c r="T29" s="18">
         <v>2</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
+      <c r="U29" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>778</v>
+      </c>
       <c r="X29" s="18">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Z29" t="s">
         <v>609</v>
@@ -5622,11 +5866,17 @@
       <c r="T30" s="18">
         <v>2</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
+      <c r="U30" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W30" s="19" t="s">
+        <v>780</v>
+      </c>
       <c r="X30" s="19">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Y30" s="11"/>
       <c r="Z30" t="s">
@@ -5690,11 +5940,17 @@
       <c r="T31" s="18">
         <v>2</v>
       </c>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
+      <c r="U31" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>782</v>
+      </c>
       <c r="X31" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" t="s">
@@ -5760,11 +6016,17 @@
       <c r="T32" s="20">
         <v>2</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="U32" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="V32" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>787</v>
+      </c>
       <c r="X32" s="21">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" t="s">
@@ -5828,9 +6090,15 @@
       <c r="T33" s="20">
         <v>2</v>
       </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="U33" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>785</v>
+      </c>
       <c r="X33" s="21">
         <v>5</v>
       </c>
@@ -5896,11 +6164,17 @@
       <c r="T34" s="20">
         <v>2</v>
       </c>
-      <c r="U34" s="20"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
+      <c r="U34" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="V34" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>788</v>
+      </c>
       <c r="X34" s="21">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" t="s">
@@ -5964,11 +6238,17 @@
       <c r="T35" s="20">
         <v>2</v>
       </c>
-      <c r="U35" s="20"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
+      <c r="U35" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="V35" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="W35" s="21" t="s">
+        <v>791</v>
+      </c>
       <c r="X35" s="21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Y35" s="11"/>
       <c r="Z35" t="s">
@@ -6098,13 +6378,13 @@
         <v>2</v>
       </c>
       <c r="U37" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V37" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="W37" s="23" t="s">
         <v>737</v>
-      </c>
-      <c r="W37" s="23" t="s">
-        <v>738</v>
       </c>
       <c r="X37" s="23">
         <v>5</v>
@@ -6174,13 +6454,13 @@
         <v>2</v>
       </c>
       <c r="U38" s="23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V38" s="23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X38" s="23">
         <v>5.3</v>
@@ -6248,13 +6528,13 @@
         <v>2</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V39" s="23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="X39" s="23">
         <v>5</v>
@@ -6324,13 +6604,13 @@
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V40" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="X40" s="27">
         <v>3.57</v>
@@ -6397,13 +6677,13 @@
         <v>2</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V41" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="X41" s="27">
         <v>2.5499999999999998</v>
@@ -6468,13 +6748,13 @@
         <v>2</v>
       </c>
       <c r="U42" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V42" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X42" s="27">
         <v>3.55</v>
@@ -6539,13 +6819,13 @@
         <v>2</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V43" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="W43" s="27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="X43" s="27">
         <v>4.7</v>
@@ -8530,7 +8810,7 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -8893,8 +9173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9049,7 +9329,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -9060,7 +9340,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -9071,7 +9351,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -9151,7 +9431,7 @@
         <v>570</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9217,7 +9497,7 @@
         <v>587</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9283,7 +9563,7 @@
         <v>575</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9302,7 +9582,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -9313,7 +9593,7 @@
         <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -9324,7 +9604,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -9349,7 +9629,7 @@
         <v>574</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="49.5">
@@ -9665,7 +9945,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -9698,7 +9978,7 @@
         <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -9709,7 +9989,7 @@
         <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -9720,7 +10000,7 @@
         <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -9731,7 +10011,7 @@
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -9797,7 +10077,7 @@
         <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -9808,7 +10088,7 @@
         <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -9819,7 +10099,7 @@
         <v>162</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -9830,7 +10110,7 @@
         <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -9841,7 +10121,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -9863,7 +10143,7 @@
         <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -9874,7 +10154,7 @@
         <v>168</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -9885,7 +10165,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -9896,7 +10176,7 @@
         <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -9962,7 +10242,7 @@
         <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -9973,7 +10253,7 @@
         <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -9984,7 +10264,7 @@
         <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -9995,7 +10275,7 @@
         <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -10006,7 +10286,7 @@
         <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -10391,7 +10671,7 @@
         <v>341</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -10468,7 +10748,7 @@
         <v>352</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -11403,7 +11683,7 @@
         <v>541</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -11458,7 +11738,7 @@
         <v>546</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -11469,7 +11749,7 @@
         <v>547</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -12663,7 +12943,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12693,7 +12973,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66">
+    <row r="3" spans="1:4" ht="82.5">
       <c r="A3">
         <v>7001</v>
       </c>
@@ -12701,10 +12981,10 @@
         <v>697</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>698</v>
+        <v>764</v>
       </c>
       <c r="D3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66">
@@ -12712,10 +12992,10 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
@@ -12726,10 +13006,10 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D5" t="s">
         <v>332</v>
@@ -12740,10 +13020,10 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D6" t="s">
         <v>336</v>
@@ -12754,10 +13034,10 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -12847,7 +13127,7 @@
         <v>631</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D23AA-C3DB-4C02-A538-E4EA584913A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AD698-199D-4045-9D73-ACE002F4512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="2280" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="836">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2959,10 +2959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.71, 2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 5.41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3158,6 +3154,186 @@
   </si>
   <si>
     <t>3.4, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.71, 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7, 3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.6, 5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4, 4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.5, 9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5, 2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2, 3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3, 6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45, 6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8, 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.45, 3.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.85, 6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5, 2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9, 4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.55, 6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5, 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2, 5.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7, 3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.9, 5.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5, 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.2, 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5, 2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3, 2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4, 2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.15, 3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7, 1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2, 4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2, 7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2, 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2, 2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.46, 4.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3998,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4162,8 +4338,20 @@
       <c r="T3">
         <v>2</v>
       </c>
+      <c r="U3" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="V3" t="s">
+        <v>736</v>
+      </c>
+      <c r="W3" t="s">
+        <v>834</v>
+      </c>
       <c r="X3">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
@@ -4836,13 +5024,13 @@
         <v>2</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>736</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X16" s="12">
         <v>5</v>
@@ -4912,13 +5100,13 @@
         <v>2</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V17" s="12" t="s">
         <v>736</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="X17" s="12">
         <v>8</v>
@@ -4987,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V18" s="14" t="s">
         <v>736</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="X18" s="14">
         <v>4</v>
@@ -5062,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V19" s="14" t="s">
         <v>736</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X19" s="15">
         <v>4</v>
@@ -5138,13 +5326,13 @@
         <v>2</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V20" s="14" t="s">
         <v>736</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="X20" s="14">
         <v>4</v>
@@ -5215,13 +5403,13 @@
         <v>2</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V21" s="15" t="s">
         <v>736</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="X21" s="15">
         <v>4</v>
@@ -5291,13 +5479,13 @@
         <v>2</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V22" s="17" t="s">
         <v>736</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="X22" s="17">
         <v>3.8</v>
@@ -5362,13 +5550,13 @@
         <v>2</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V23" s="17" t="s">
         <v>736</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="X23" s="17">
         <v>4.4000000000000004</v>
@@ -5433,13 +5621,13 @@
         <v>2</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V24" s="17" t="s">
         <v>736</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="X24" s="17">
         <v>3.4</v>
@@ -5504,13 +5692,13 @@
         <v>2</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>736</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X25" s="17">
         <v>3.4</v>
@@ -5575,13 +5763,13 @@
         <v>2</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V26" s="17" t="s">
         <v>736</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X26" s="17">
         <v>3.6</v>
@@ -5646,13 +5834,13 @@
         <v>2</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="V27" s="19" t="s">
         <v>736</v>
       </c>
       <c r="W27" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X27" s="19">
         <v>5.2</v>
@@ -5720,13 +5908,13 @@
         <v>2</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V28" s="19" t="s">
         <v>736</v>
       </c>
       <c r="W28" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X28" s="19">
         <v>4</v>
@@ -5794,13 +5982,13 @@
         <v>2</v>
       </c>
       <c r="U29" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V29" s="18" t="s">
         <v>736</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="X29" s="18">
         <v>3.6</v>
@@ -5867,13 +6055,13 @@
         <v>2</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V30" s="19" t="s">
         <v>736</v>
       </c>
       <c r="W30" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X30" s="19">
         <v>4.2</v>
@@ -5941,13 +6129,13 @@
         <v>2</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V31" s="19" t="s">
         <v>736</v>
       </c>
       <c r="W31" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="X31" s="19">
         <v>4</v>
@@ -6017,13 +6205,13 @@
         <v>2</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V32" s="21" t="s">
         <v>736</v>
       </c>
       <c r="W32" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X32" s="21">
         <v>6.2</v>
@@ -6091,13 +6279,13 @@
         <v>2</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V33" s="21" t="s">
         <v>736</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="X33" s="21">
         <v>5</v>
@@ -6165,13 +6353,13 @@
         <v>2</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V34" s="21" t="s">
         <v>736</v>
       </c>
       <c r="W34" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="X34" s="21">
         <v>3.45</v>
@@ -6239,13 +6427,13 @@
         <v>2</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V35" s="21" t="s">
         <v>736</v>
       </c>
       <c r="W35" s="21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="X35" s="21">
         <v>3.5</v>
@@ -6312,11 +6500,17 @@
       <c r="T36" s="24">
         <v>2</v>
       </c>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
+      <c r="U36" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="V36" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="W36" s="25" t="s">
+        <v>792</v>
+      </c>
       <c r="X36" s="25">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Y36" s="11"/>
     </row>
@@ -6528,13 +6722,13 @@
         <v>2</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V39" s="23" t="s">
         <v>736</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="X39" s="23">
         <v>5</v>
@@ -6604,13 +6798,13 @@
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V40" s="27" t="s">
         <v>736</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="X40" s="27">
         <v>3.57</v>
@@ -6677,13 +6871,13 @@
         <v>2</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V41" s="27" t="s">
         <v>736</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X41" s="27">
         <v>2.5499999999999998</v>
@@ -6748,13 +6942,13 @@
         <v>2</v>
       </c>
       <c r="U42" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V42" s="27" t="s">
         <v>738</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="X42" s="27">
         <v>3.55</v>
@@ -6819,13 +7013,13 @@
         <v>2</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V43" s="27" t="s">
         <v>738</v>
       </c>
       <c r="W43" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X43" s="27">
         <v>4.7</v>
@@ -6889,11 +7083,17 @@
       <c r="T44" s="28">
         <v>2</v>
       </c>
-      <c r="U44" s="28"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
+      <c r="U44" s="28" t="s">
+        <v>795</v>
+      </c>
+      <c r="V44" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="W44" s="29" t="s">
+        <v>794</v>
+      </c>
       <c r="X44" s="29">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="Y44" s="11"/>
       <c r="Z44" t="s">
@@ -6957,11 +7157,17 @@
       <c r="T45" s="28">
         <v>2</v>
       </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
+      <c r="U45" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="V45" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="W45" s="29" t="s">
+        <v>796</v>
+      </c>
       <c r="X45" s="29">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" s="11"/>
       <c r="Z45" t="s">
@@ -7025,11 +7231,17 @@
       <c r="T46" s="28">
         <v>2</v>
       </c>
-      <c r="U46" s="28"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
+      <c r="U46" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="V46" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="W46" s="29" t="s">
+        <v>798</v>
+      </c>
       <c r="X46" s="29">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Y46" s="11"/>
       <c r="Z46" t="s">
@@ -7093,11 +7305,17 @@
       <c r="T47" s="30">
         <v>2</v>
       </c>
-      <c r="U47" s="30"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
+      <c r="U47" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="V47" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="W47" s="31" t="s">
+        <v>800</v>
+      </c>
       <c r="X47" s="31">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y47" s="11"/>
     </row>
@@ -7158,11 +7376,17 @@
       <c r="T48" s="30">
         <v>2</v>
       </c>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
+      <c r="U48" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="V48" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="W48" s="31" t="s">
+        <v>803</v>
+      </c>
       <c r="X48" s="31">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Y48" s="11"/>
     </row>
@@ -7223,11 +7447,17 @@
       <c r="T49" s="30">
         <v>2</v>
       </c>
-      <c r="U49" s="30"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
+      <c r="U49" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="V49" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="W49" s="31" t="s">
+        <v>804</v>
+      </c>
       <c r="X49" s="31">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y49" s="11"/>
     </row>
@@ -7288,11 +7518,17 @@
       <c r="T50" s="30">
         <v>2</v>
       </c>
-      <c r="U50" s="30"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
+      <c r="U50" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="V50" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="W50" s="31" t="s">
+        <v>806</v>
+      </c>
       <c r="X50" s="31">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Y50" s="11"/>
     </row>
@@ -7353,11 +7589,17 @@
       <c r="T51" s="18">
         <v>2</v>
       </c>
-      <c r="U51" s="18"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
+      <c r="U51" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="V51" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W51" s="19" t="s">
+        <v>808</v>
+      </c>
       <c r="X51" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y51" s="11"/>
     </row>
@@ -7418,11 +7660,17 @@
       <c r="T52" s="18">
         <v>2</v>
       </c>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
+      <c r="U52" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="V52" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W52" s="19" t="s">
+        <v>810</v>
+      </c>
       <c r="X52" s="19">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Y52" s="11"/>
     </row>
@@ -7483,11 +7731,17 @@
       <c r="T53" s="18">
         <v>2</v>
       </c>
-      <c r="U53" s="18"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
+      <c r="U53" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="V53" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="W53" s="19" t="s">
+        <v>812</v>
+      </c>
       <c r="X53" s="19">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Y53" s="11"/>
     </row>
@@ -7548,11 +7802,17 @@
       <c r="T54" s="32">
         <v>2</v>
       </c>
-      <c r="U54" s="32"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
+      <c r="U54" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="V54" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="W54" s="33" t="s">
+        <v>814</v>
+      </c>
       <c r="X54" s="33">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Y54" s="11"/>
     </row>
@@ -7613,11 +7873,17 @@
       <c r="T55" s="32">
         <v>2</v>
       </c>
-      <c r="U55" s="32"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
+      <c r="U55" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="V55" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="W55" s="33" t="s">
+        <v>816</v>
+      </c>
       <c r="X55" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y55" s="11"/>
     </row>
@@ -7678,11 +7944,17 @@
       <c r="T56" s="32">
         <v>2</v>
       </c>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
+      <c r="U56" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="W56" s="33" t="s">
+        <v>818</v>
+      </c>
       <c r="X56" s="33">
-        <v>5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -7742,11 +8014,17 @@
       <c r="T57" s="32">
         <v>2</v>
       </c>
-      <c r="U57" s="32"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
+      <c r="U57" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="V57" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="W57" s="33" t="s">
+        <v>820</v>
+      </c>
       <c r="X57" s="33">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -7806,11 +8084,17 @@
       <c r="T58" s="34">
         <v>2</v>
       </c>
-      <c r="U58" s="34"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
+      <c r="U58" s="34" t="s">
+        <v>807</v>
+      </c>
+      <c r="V58" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="W58" s="35" t="s">
+        <v>822</v>
+      </c>
       <c r="X58" s="35">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Y58" s="11"/>
       <c r="Z58" t="s">
@@ -7874,11 +8158,17 @@
       <c r="T59" s="34">
         <v>2</v>
       </c>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
+      <c r="U59" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="V59" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="W59" s="35" t="s">
+        <v>823</v>
+      </c>
       <c r="X59" s="35">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Y59" s="11"/>
       <c r="Z59" t="s">
@@ -7942,11 +8232,17 @@
       <c r="T60" s="34">
         <v>2</v>
       </c>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
+      <c r="U60" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="V60" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="W60" s="35" t="s">
+        <v>825</v>
+      </c>
       <c r="X60" s="35">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y60" s="11"/>
       <c r="Z60" t="s">
@@ -8008,8 +8304,17 @@
       <c r="T61">
         <v>2</v>
       </c>
+      <c r="U61" t="s">
+        <v>827</v>
+      </c>
+      <c r="V61" t="s">
+        <v>736</v>
+      </c>
+      <c r="W61" t="s">
+        <v>826</v>
+      </c>
       <c r="X61">
-        <v>5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -8067,8 +8372,17 @@
       <c r="T62">
         <v>2</v>
       </c>
+      <c r="U62" t="s">
+        <v>829</v>
+      </c>
+      <c r="V62" t="s">
+        <v>736</v>
+      </c>
+      <c r="W62" t="s">
+        <v>828</v>
+      </c>
       <c r="X62">
-        <v>5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -8126,8 +8440,17 @@
       <c r="T63">
         <v>2</v>
       </c>
+      <c r="U63" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="V63" t="s">
+        <v>736</v>
+      </c>
+      <c r="W63" t="s">
+        <v>830</v>
+      </c>
       <c r="X63">
-        <v>5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -8185,8 +8508,17 @@
       <c r="T64">
         <v>2</v>
       </c>
+      <c r="U64" t="s">
+        <v>833</v>
+      </c>
+      <c r="V64" t="s">
+        <v>736</v>
+      </c>
+      <c r="W64" t="s">
+        <v>832</v>
+      </c>
       <c r="X64">
-        <v>5</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -12981,7 +13313,7 @@
         <v>697</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D3" t="s">
         <v>706</v>

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AD698-199D-4045-9D73-ACE002F4512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FC1B8-4B5F-48CB-BF79-27356AFBF232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2280" windowWidth="32040" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2280" windowWidth="32040" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="848">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2700,10 +2700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치유의 세레나데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패닉 브링어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2856,11 +2852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
-(+ 사거리가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 무아지경에 빠져 모든 공격을 회피합니다.
 (+ 무아지경 버프를 부여합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3334,6 +3325,61 @@
   </si>
   <si>
     <t>-0.46, 4.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작열의 세레나데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 최면을 걸어 광란상태로 만듭니다. 대상이 아군이라면 지속시간동안 저지불가 상태가 되며 고통을 무시합니다.
+(+ 사거리가 크게 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4999, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4999, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4999, 3</t>
+  </si>
+  <si>
+    <t>4999, 4</t>
+  </si>
+  <si>
+    <t>4999, 5</t>
+  </si>
+  <si>
+    <t>4998, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4998, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집착과 연모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집착과 연모
+와카모가 치명상을 입으면 잠시동안 받는 피해를 크게 감소시키고 고통수치를 회복합니다. 한번 발동하면 30일의 쿨타임을 적용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시로코 테러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3847,8 +3893,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C52" totalsRowShown="0">
-  <autoFilter ref="A2:C52" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87635F72-1018-4B51-9011-5FCB982BAC7D}" name="표1_5" displayName="표1_5" ref="A2:C57" totalsRowShown="0">
+  <autoFilter ref="A2:C57" xr:uid="{19E1D121-DE2C-4172-AB1F-4F29F5E09923}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F6398085-0173-49B9-83CF-90726A129CD3}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{229F1D0C-056C-4C77-A0B6-BB5FC349D98E}" name="Name : String"/>
@@ -3859,8 +3905,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D256" totalsRowShown="0">
-  <autoFilter ref="A2:D256" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F74D4E88-8F3D-43A8-AC75-4B92F909077F}" name="표1_36" displayName="표1_36" ref="A2:D263" totalsRowShown="0">
+  <autoFilter ref="A2:D263" xr:uid="{8B3B7E31-C081-48F3-9878-9983B489C0D4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{939311DF-4C1C-43F5-8CFF-556A6D624696}" name="Id : Array"/>
     <tableColumn id="3" xr3:uid="{BB6BA6A8-3179-4475-BEC2-4C09A4406578}" name="Description : String" dataDxfId="1"/>
@@ -3885,8 +3931,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D7" totalsRowShown="0">
-  <autoFilter ref="A2:D7" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D8" totalsRowShown="0">
+  <autoFilter ref="A2:D8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7F8E7035-D64E-46C0-ABF2-61FF8FFAEB5C}" name="Id : Integer"/>
     <tableColumn id="4" xr3:uid="{3439CBEE-EFF0-42BB-8927-E1191E295509}" name="Name : String"/>
@@ -4174,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4220,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -4265,16 +4311,16 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="V2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="W2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="X2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Y2" t="s">
         <v>416</v>
@@ -4297,7 +4343,10 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>4001</v>
+        <v>4999</v>
+      </c>
+      <c r="F3">
+        <v>7006</v>
       </c>
       <c r="G3">
         <v>6001</v>
@@ -4339,13 +4388,13 @@
         <v>2</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="V3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="X3">
         <v>3</v>
@@ -4665,7 +4714,7 @@
         <v>1992</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>847</v>
       </c>
       <c r="C10">
         <v>17</v>
@@ -5024,13 +5073,13 @@
         <v>2</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="X16" s="12">
         <v>5</v>
@@ -5100,13 +5149,13 @@
         <v>2</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="X17" s="12">
         <v>8</v>
@@ -5175,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="V18" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W18" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="X18" s="14">
         <v>4</v>
@@ -5250,13 +5299,13 @@
         <v>2</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="X19" s="15">
         <v>4</v>
@@ -5326,13 +5375,13 @@
         <v>2</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V20" s="14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="X20" s="14">
         <v>4</v>
@@ -5403,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="X21" s="15">
         <v>4</v>
@@ -5479,13 +5528,13 @@
         <v>2</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="X22" s="17">
         <v>3.8</v>
@@ -5550,13 +5599,13 @@
         <v>2</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="X23" s="17">
         <v>4.4000000000000004</v>
@@ -5621,13 +5670,13 @@
         <v>2</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="X24" s="17">
         <v>3.4</v>
@@ -5692,13 +5741,13 @@
         <v>2</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="X25" s="17">
         <v>3.4</v>
@@ -5763,13 +5812,13 @@
         <v>2</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="V26" s="17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="X26" s="17">
         <v>3.6</v>
@@ -5834,13 +5883,13 @@
         <v>2</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W27" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="X27" s="19">
         <v>5.2</v>
@@ -5908,13 +5957,13 @@
         <v>2</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W28" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="X28" s="19">
         <v>4</v>
@@ -5982,13 +6031,13 @@
         <v>2</v>
       </c>
       <c r="U29" s="18" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="V29" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="X29" s="18">
         <v>3.6</v>
@@ -6055,13 +6104,13 @@
         <v>2</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W30" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="X30" s="19">
         <v>4.2</v>
@@ -6129,13 +6178,13 @@
         <v>2</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W31" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="X31" s="19">
         <v>4</v>
@@ -6205,13 +6254,13 @@
         <v>2</v>
       </c>
       <c r="U32" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="V32" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W32" s="21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="X32" s="21">
         <v>6.2</v>
@@ -6279,13 +6328,13 @@
         <v>2</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="X33" s="21">
         <v>5</v>
@@ -6353,13 +6402,13 @@
         <v>2</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W34" s="21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="X34" s="21">
         <v>3.45</v>
@@ -6427,13 +6476,13 @@
         <v>2</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W35" s="21" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="X35" s="21">
         <v>3.5</v>
@@ -6501,13 +6550,13 @@
         <v>2</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="V36" s="25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W36" s="25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="X36" s="25">
         <v>4.3</v>
@@ -6572,13 +6621,13 @@
         <v>2</v>
       </c>
       <c r="U37" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="V37" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="V37" s="23" t="s">
-        <v>736</v>
-      </c>
       <c r="W37" s="23" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="X37" s="23">
         <v>5</v>
@@ -6648,13 +6697,13 @@
         <v>2</v>
       </c>
       <c r="U38" s="23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="V38" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="X38" s="23">
         <v>5.3</v>
@@ -6722,13 +6771,13 @@
         <v>2</v>
       </c>
       <c r="U39" s="22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="V39" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W39" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="X39" s="23">
         <v>5</v>
@@ -6798,13 +6847,13 @@
         <v>2</v>
       </c>
       <c r="U40" s="27" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="V40" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W40" s="27" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="X40" s="27">
         <v>3.57</v>
@@ -6871,13 +6920,13 @@
         <v>2</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="V41" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="X41" s="27">
         <v>2.5499999999999998</v>
@@ -6942,13 +6991,13 @@
         <v>2</v>
       </c>
       <c r="U42" s="27" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="V42" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="X42" s="27">
         <v>3.55</v>
@@ -7013,13 +7062,13 @@
         <v>2</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="V43" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W43" s="27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="X43" s="27">
         <v>4.7</v>
@@ -7084,13 +7133,13 @@
         <v>2</v>
       </c>
       <c r="U44" s="28" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="V44" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W44" s="29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="X44" s="29">
         <v>4.3</v>
@@ -7158,13 +7207,13 @@
         <v>2</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="V45" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W45" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="X45" s="29">
         <v>7.5</v>
@@ -7232,13 +7281,13 @@
         <v>2</v>
       </c>
       <c r="U46" s="28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="V46" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W46" s="29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="X46" s="29">
         <v>3.9</v>
@@ -7306,13 +7355,13 @@
         <v>2</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="V47" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W47" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="X47" s="31">
         <v>4.4000000000000004</v>
@@ -7377,13 +7426,13 @@
         <v>2</v>
       </c>
       <c r="U48" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="V48" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W48" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="X48" s="31">
         <v>3.9</v>
@@ -7448,13 +7497,13 @@
         <v>2</v>
       </c>
       <c r="U49" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="V49" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W49" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="X49" s="31">
         <v>4.5999999999999996</v>
@@ -7519,13 +7568,13 @@
         <v>2</v>
       </c>
       <c r="U50" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="V50" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W50" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="X50" s="31">
         <v>4.2</v>
@@ -7590,13 +7639,13 @@
         <v>2</v>
       </c>
       <c r="U51" s="18" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="V51" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W51" s="19" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="X51" s="19">
         <v>4</v>
@@ -7661,13 +7710,13 @@
         <v>2</v>
       </c>
       <c r="U52" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="V52" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="X52" s="19">
         <v>3.4</v>
@@ -7732,13 +7781,13 @@
         <v>2</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="V53" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="X53" s="19">
         <v>3.8</v>
@@ -7803,13 +7852,13 @@
         <v>2</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="V54" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="X54" s="33">
         <v>3.4</v>
@@ -7874,13 +7923,13 @@
         <v>2</v>
       </c>
       <c r="U55" s="33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="V55" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="X55" s="33">
         <v>4</v>
@@ -7945,13 +7994,13 @@
         <v>2</v>
       </c>
       <c r="U56" s="33" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="V56" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W56" s="33" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="X56" s="33">
         <v>3.8</v>
@@ -8015,13 +8064,13 @@
         <v>2</v>
       </c>
       <c r="U57" s="33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="V57" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W57" s="33" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="X57" s="33">
         <v>3.4</v>
@@ -8085,13 +8134,13 @@
         <v>2</v>
       </c>
       <c r="U58" s="34" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="V58" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W58" s="35" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="X58" s="35">
         <v>3.9</v>
@@ -8159,13 +8208,13 @@
         <v>2</v>
       </c>
       <c r="U59" s="35" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V59" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W59" s="35" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="X59" s="35">
         <v>3.9</v>
@@ -8233,13 +8282,13 @@
         <v>2</v>
       </c>
       <c r="U60" s="35" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="V60" s="35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W60" s="35" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="X60" s="35">
         <v>4.5</v>
@@ -8305,13 +8354,13 @@
         <v>2</v>
       </c>
       <c r="U61" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="V61" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W61" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="X61">
         <v>3.7</v>
@@ -8328,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E62">
         <v>4048</v>
@@ -8373,13 +8422,13 @@
         <v>2</v>
       </c>
       <c r="U62" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="V62" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W62" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="X62">
         <v>3.6</v>
@@ -8441,13 +8490,13 @@
         <v>2</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="V63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W63" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="X63">
         <v>5.6</v>
@@ -8509,13 +8558,13 @@
         <v>2</v>
       </c>
       <c r="U64" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="V64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W64" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="X64">
         <v>3.7</v>
@@ -8911,10 +8960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8936,557 +8985,612 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4001</v>
+        <v>4999</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>836</v>
       </c>
       <c r="C3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4002</v>
+        <v>4998</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>837</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4003</v>
+        <v>4997</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>837</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4004</v>
+        <v>4996</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>837</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4005</v>
+        <v>4995</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>837</v>
       </c>
       <c r="C7" t="s">
-        <v>586</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4008</v>
+        <v>4003</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4009</v>
+        <v>4004</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4010</v>
+        <v>4005</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>588</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4011</v>
+        <v>4006</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>580</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>694</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>608</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="B21" t="s">
-        <v>730</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4021</v>
+        <v>4016</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4022</v>
+        <v>4017</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4023</v>
+        <v>4018</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>728</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4025</v>
+        <v>4020</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4026</v>
+        <v>4021</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4027</v>
+        <v>4022</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4028</v>
+        <v>4023</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4029</v>
+        <v>4024</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>505</v>
       </c>
       <c r="C31" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4030</v>
+        <v>4025</v>
       </c>
       <c r="B32" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4031</v>
+        <v>4026</v>
       </c>
       <c r="B33" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>512</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4033</v>
+        <v>4028</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>506</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="B36" t="s">
-        <v>528</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
-        <v>513</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="B37" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="C37" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="C38" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="C39" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="B42" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="C42" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4041</v>
+        <v>4036</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="C43" t="s">
-        <v>613</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4043</v>
+        <v>4038</v>
       </c>
       <c r="B45" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4044</v>
+        <v>4039</v>
       </c>
       <c r="B46" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="C46" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4045</v>
+        <v>4040</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="C47" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4046</v>
+        <v>4041</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>463</v>
       </c>
       <c r="C48" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="B49" t="s">
-        <v>683</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>684</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4048</v>
+        <v>4043</v>
       </c>
       <c r="B50" t="s">
-        <v>685</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4049</v>
+        <v>4044</v>
       </c>
       <c r="B51" t="s">
-        <v>686</v>
+        <v>532</v>
       </c>
       <c r="C51" t="s">
-        <v>687</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
+        <v>4045</v>
+      </c>
+      <c r="B52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>4046</v>
+      </c>
+      <c r="B53" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>4047</v>
+      </c>
+      <c r="B54" t="s">
+        <v>683</v>
+      </c>
+      <c r="C54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>4048</v>
+      </c>
+      <c r="B55" t="s">
+        <v>834</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>4049</v>
+      </c>
+      <c r="B56" t="s">
+        <v>685</v>
+      </c>
+      <c r="C56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
         <v>4050</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" t="s">
         <v>688</v>
-      </c>
-      <c r="C52" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -9503,10 +9607,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9537,450 +9641,436 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="33">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="49.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>713</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="49.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>713</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5">
+    <row r="16" spans="1:4" ht="33">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>714</v>
+        <v>181</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="33">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="33">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="49.5">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>576</v>
+        <v>184</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="33">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>577</v>
+        <v>186</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="33">
+    <row r="21" spans="1:3" ht="49.5">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>578</v>
+        <v>712</v>
       </c>
       <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="49.5">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="49.5">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="33">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C22">
+    <row r="24" spans="1:3" ht="49.5">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>569</v>
-      </c>
-      <c r="B23" t="s">
-        <v>570</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>592</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="33">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="33">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="33">
+      <c r="A30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="33">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="33">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="33">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B33" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="33">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B34" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C27">
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="35" spans="1:3" ht="33">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C28">
+      <c r="C35">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="36" spans="1:3" ht="49.5">
+      <c r="A36" t="s">
         <v>571</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C29">
+      <c r="C36">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="37" spans="1:3" ht="33">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B37" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="33">
+      <c r="A38" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="33">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="33">
+      <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C33">
+      <c r="C40">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="41" spans="1:3" ht="33">
+      <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C34">
+      <c r="C41">
         <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="49.5">
-      <c r="A35" t="s">
-        <v>572</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="49.5">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="49.5">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="49.5">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="49.5">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="49.5">
-      <c r="A41" t="s">
-        <v>573</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="49.5">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>572</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="49.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="33">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>558</v>
+        <v>190</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -9988,10 +10078,10 @@
     </row>
     <row r="44" spans="1:3" ht="49.5">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>558</v>
+        <v>714</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -9999,54 +10089,54 @@
     </row>
     <row r="45" spans="1:3" ht="49.5">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>560</v>
+        <v>714</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="49.5">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>559</v>
+        <v>714</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="49.5">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="49.5">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>573</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>192</v>
+        <v>574</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="49.5">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>558</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -10054,109 +10144,109 @@
     </row>
     <row r="50" spans="1:3" ht="49.5">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>193</v>
+        <v>558</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="49.5">
       <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="49.5">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="49.5">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="49.5">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="49.5">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="49.5">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="49.5">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="49.5">
+      <c r="A58" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C51">
+      <c r="C58">
         <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="66">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="66">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="66">
-      <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="66">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="66">
-      <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="66">
-      <c r="A57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="66">
-      <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="66">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10164,54 +10254,54 @@
     </row>
     <row r="60" spans="1:3" ht="66">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="66">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="66">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="66">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="66">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -10219,274 +10309,274 @@
     </row>
     <row r="65" spans="1:3" ht="66">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="66">
       <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="66">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="66">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="66">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="66">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="66">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="66">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="66">
+      <c r="A74" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="82.5">
-      <c r="A68" t="s">
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="82.5">
+      <c r="A75" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="82.5">
-      <c r="A69" t="s">
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="82.5">
+      <c r="A76" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="82.5">
-      <c r="A70" t="s">
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="82.5">
+      <c r="A77" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="82.5">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="33">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="49.5">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C70">
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="49.5">
+      <c r="A81" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="49.5">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C82">
         <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="82.5">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="33">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="49.5">
-      <c r="A73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="49.5">
-      <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="49.5">
-      <c r="A75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="49.5">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" t="s">
-        <v>708</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="49.5">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="49.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="33">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>721</v>
+        <v>267</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="49.5">
+    <row r="85" spans="1:3" ht="33">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>722</v>
+        <v>267</v>
       </c>
       <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="33">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="33">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="49.5">
-      <c r="A86" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C86">
+    <row r="88" spans="1:3" ht="33">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" t="s">
-        <v>268</v>
-      </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="49.5">
-      <c r="A88" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="49.5">
+    <row r="89" spans="1:3" ht="33">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -10494,54 +10584,54 @@
     </row>
     <row r="90" spans="1:3" ht="49.5">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="49.5">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="49.5">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C92">
         <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="66">
-      <c r="A91" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>248</v>
-      </c>
-      <c r="B92" t="s">
-        <v>419</v>
-      </c>
-      <c r="C92">
-        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="49.5">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="49.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="33">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -10549,384 +10639,384 @@
     </row>
     <row r="95" spans="1:3" ht="49.5">
       <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="49.5">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="49.5">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="66">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="33">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="49.5">
+      <c r="A100" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="49.5">
+      <c r="A101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="49.5">
+      <c r="A102" t="s">
         <v>251</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C95">
+      <c r="C102">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="66">
-      <c r="A96" t="s">
+    <row r="103" spans="1:3" ht="66">
+      <c r="A103" t="s">
         <v>252</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C96">
+      <c r="C103">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+    <row r="104" spans="1:3" ht="33">
+      <c r="A104" t="s">
         <v>253</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B104" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="33">
+      <c r="A105" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="33">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="33">
+      <c r="A107" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="33">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>254</v>
-      </c>
-      <c r="B98" t="s">
-        <v>728</v>
-      </c>
-      <c r="C98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>255</v>
-      </c>
-      <c r="B99" t="s">
-        <v>728</v>
-      </c>
-      <c r="C99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>256</v>
-      </c>
-      <c r="B100" t="s">
-        <v>728</v>
-      </c>
-      <c r="C100">
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="33">
+      <c r="A109" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="33">
+      <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="33">
+      <c r="A111" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="33">
+      <c r="A112" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C112">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>257</v>
-      </c>
-      <c r="B101" t="s">
-        <v>729</v>
-      </c>
-      <c r="C101">
+    <row r="113" spans="1:3" ht="33">
+      <c r="A113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C113">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>273</v>
-      </c>
-      <c r="B102" t="s">
-        <v>383</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" t="s">
-        <v>383</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" t="s">
-        <v>383</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" t="s">
-        <v>383</v>
-      </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>277</v>
-      </c>
-      <c r="B106" t="s">
-        <v>383</v>
-      </c>
-      <c r="C106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="114" spans="1:3" ht="49.5">
+      <c r="A114" t="s">
         <v>279</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B114" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="49.5">
+      <c r="A115" t="s">
         <v>280</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B115" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="49.5">
+      <c r="A116" t="s">
         <v>281</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B116" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>282</v>
-      </c>
-      <c r="B110" t="s">
-        <v>284</v>
-      </c>
-      <c r="C110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>283</v>
-      </c>
-      <c r="B111" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>294</v>
-      </c>
-      <c r="B112" t="s">
-        <v>44</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>295</v>
-      </c>
-      <c r="B113" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>296</v>
-      </c>
-      <c r="B114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>297</v>
-      </c>
-      <c r="B115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>298</v>
-      </c>
-      <c r="B116" t="s">
-        <v>44</v>
-      </c>
       <c r="C116">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="49.5">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="C117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="33">
       <c r="A118" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="C118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>381</v>
+        <v>44</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="66">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="C120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>659</v>
+        <v>44</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>322</v>
-      </c>
-      <c r="B122" t="s">
-        <v>377</v>
+        <v>297</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>323</v>
-      </c>
-      <c r="B123" t="s">
-        <v>377</v>
+        <v>298</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="49.5">
       <c r="A124" t="s">
-        <v>324</v>
-      </c>
-      <c r="B124" t="s">
-        <v>377</v>
+        <v>317</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="66">
       <c r="A125" t="s">
-        <v>325</v>
-      </c>
-      <c r="B125" t="s">
-        <v>377</v>
+        <v>318</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="66">
+      <c r="A126" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="66">
+      <c r="A127" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="82.5">
-      <c r="A126" t="s">
-        <v>326</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C126">
+    <row r="128" spans="1:3" ht="66">
+      <c r="A128" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C128">
         <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>327</v>
-      </c>
-      <c r="B127" t="s">
-        <v>618</v>
-      </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="49.5">
-      <c r="A128" t="s">
-        <v>328</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="49.5">
       <c r="A129" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>620</v>
+        <v>377</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -10934,164 +11024,164 @@
     </row>
     <row r="130" spans="1:3" ht="49.5">
       <c r="A130" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>621</v>
+        <v>377</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="49.5">
       <c r="A131" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>622</v>
+        <v>377</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="49.5">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="82.5">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="33">
       <c r="A134" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>344</v>
+        <v>618</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="66">
+    <row r="135" spans="1:3" ht="49.5">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>345</v>
+        <v>619</v>
       </c>
       <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="49.5">
+      <c r="A136" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="49.5">
+      <c r="A137" t="s">
+        <v>330</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C137">
         <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="82.5">
-      <c r="A136" t="s">
-        <v>341</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>346</v>
-      </c>
-      <c r="B137" t="s">
-        <v>363</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="49.5">
       <c r="A138" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>364</v>
+        <v>622</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5">
       <c r="A139" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="49.5">
+    <row r="140" spans="1:3" ht="66">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="66">
+      <c r="A141" t="s">
+        <v>339</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="66">
+      <c r="A142" t="s">
+        <v>340</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C142">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="49.5">
-      <c r="A141" t="s">
-        <v>350</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C141">
+    <row r="143" spans="1:3" ht="82.5">
+      <c r="A143" t="s">
+        <v>341</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C143">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>351</v>
-      </c>
-      <c r="B142" t="s">
-        <v>370</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="49.5">
-      <c r="A143" t="s">
-        <v>352</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="49.5">
+    <row r="144" spans="1:3" ht="33">
       <c r="A144" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -11099,164 +11189,164 @@
     </row>
     <row r="145" spans="1:3" ht="49.5">
       <c r="A145" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="49.5">
       <c r="A146" t="s">
+        <v>348</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="49.5">
+      <c r="A147" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="49.5">
+      <c r="A148" t="s">
+        <v>350</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="33">
+      <c r="A149" t="s">
+        <v>351</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="49.5">
+      <c r="A150" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="49.5">
+      <c r="A151" t="s">
+        <v>353</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="49.5">
+      <c r="A152" t="s">
+        <v>354</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="49.5">
+      <c r="A153" t="s">
         <v>355</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C146">
+      <c r="C153">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+    <row r="154" spans="1:3" ht="33">
+      <c r="A154" t="s">
         <v>356</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B154" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="33">
+      <c r="A155" t="s">
         <v>357</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B155" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="33">
+      <c r="A156" t="s">
         <v>358</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B156" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="33">
+      <c r="A157" t="s">
         <v>359</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B157" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C150">
+      <c r="C157">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
+    <row r="158" spans="1:3" ht="33">
+      <c r="A158" t="s">
         <v>360</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B158" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C151">
+      <c r="C158">
         <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>427</v>
-      </c>
-      <c r="B152" t="s">
-        <v>520</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>428</v>
-      </c>
-      <c r="B153" t="s">
-        <v>521</v>
-      </c>
-      <c r="C153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>429</v>
-      </c>
-      <c r="B154" t="s">
-        <v>522</v>
-      </c>
-      <c r="C154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>430</v>
-      </c>
-      <c r="B155" t="s">
-        <v>523</v>
-      </c>
-      <c r="C155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>431</v>
-      </c>
-      <c r="B156" t="s">
-        <v>524</v>
-      </c>
-      <c r="C156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>432</v>
-      </c>
-      <c r="B157" t="s">
-        <v>44</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>433</v>
-      </c>
-      <c r="B158" t="s">
-        <v>44</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>434</v>
-      </c>
-      <c r="B159" t="s">
-        <v>44</v>
+        <v>427</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -11264,54 +11354,54 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>435</v>
-      </c>
-      <c r="B160" t="s">
-        <v>44</v>
+        <v>428</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>436</v>
-      </c>
-      <c r="B161" t="s">
-        <v>44</v>
+        <v>429</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="C161">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>437</v>
-      </c>
-      <c r="B162" t="s">
-        <v>519</v>
+        <v>430</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>438</v>
-      </c>
-      <c r="B163" t="s">
-        <v>519</v>
+        <v>431</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>439</v>
-      </c>
-      <c r="B164" t="s">
-        <v>519</v>
+        <v>432</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -11319,109 +11409,109 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>440</v>
-      </c>
-      <c r="B165" t="s">
-        <v>519</v>
+        <v>433</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>441</v>
-      </c>
-      <c r="B166" t="s">
-        <v>519</v>
+        <v>434</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>442</v>
-      </c>
-      <c r="B167" t="s">
+        <v>435</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>443</v>
-      </c>
-      <c r="B168" t="s">
+        <v>436</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="33">
       <c r="A169" t="s">
-        <v>444</v>
-      </c>
-      <c r="B169" t="s">
-        <v>44</v>
+        <v>437</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="C169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="33">
       <c r="A170" t="s">
-        <v>445</v>
-      </c>
-      <c r="B170" t="s">
-        <v>44</v>
+        <v>438</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="33">
+      <c r="A171" t="s">
+        <v>439</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="33">
+      <c r="A172" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C172">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>446</v>
-      </c>
-      <c r="B171" t="s">
-        <v>44</v>
-      </c>
-      <c r="C171">
+    <row r="173" spans="1:3" ht="33">
+      <c r="A173" t="s">
+        <v>441</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C173">
         <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>447</v>
-      </c>
-      <c r="B172" t="s">
-        <v>514</v>
-      </c>
-      <c r="C172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>448</v>
-      </c>
-      <c r="B173" t="s">
-        <v>515</v>
-      </c>
-      <c r="C173">
-        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>449</v>
-      </c>
-      <c r="B174" t="s">
-        <v>516</v>
+        <v>442</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C174">
         <v>3</v>
@@ -11429,108 +11519,108 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>450</v>
-      </c>
-      <c r="B175" t="s">
-        <v>517</v>
+        <v>443</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>451</v>
-      </c>
-      <c r="B176" t="s">
-        <v>518</v>
+        <v>444</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>452</v>
-      </c>
-      <c r="B177" t="s">
+        <v>445</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>453</v>
-      </c>
-      <c r="B178" t="s">
+        <v>446</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="33">
       <c r="A179" t="s">
-        <v>454</v>
-      </c>
-      <c r="B179" t="s">
-        <v>44</v>
+        <v>447</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" ht="33">
       <c r="A180" t="s">
-        <v>455</v>
-      </c>
-      <c r="B180" t="s">
-        <v>44</v>
+        <v>448</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="33">
+      <c r="A181" t="s">
+        <v>449</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="33">
+      <c r="A182" t="s">
+        <v>450</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C182">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>456</v>
-      </c>
-      <c r="B181" t="s">
-        <v>44</v>
-      </c>
-      <c r="C181">
+    <row r="183" spans="1:3" ht="33">
+      <c r="A183" t="s">
+        <v>451</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C183">
         <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>457</v>
-      </c>
-      <c r="B182" t="s">
-        <v>44</v>
-      </c>
-      <c r="C182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>458</v>
-      </c>
-      <c r="B183" t="s">
-        <v>44</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>459</v>
-      </c>
-      <c r="B184" t="s">
+        <v>452</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C184">
@@ -11539,53 +11629,53 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>460</v>
-      </c>
-      <c r="B185" t="s">
+        <v>453</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>461</v>
-      </c>
-      <c r="B186" t="s">
+        <v>454</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>468</v>
-      </c>
-      <c r="B187" t="s">
+        <v>455</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>469</v>
-      </c>
-      <c r="B188" t="s">
+        <v>456</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>470</v>
-      </c>
-      <c r="B189" t="s">
+        <v>457</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C189">
@@ -11594,53 +11684,53 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>471</v>
-      </c>
-      <c r="B190" t="s">
+        <v>458</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>472</v>
-      </c>
-      <c r="B191" t="s">
+        <v>459</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>473</v>
-      </c>
-      <c r="B192" t="s">
+        <v>460</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>474</v>
-      </c>
-      <c r="B193" t="s">
+        <v>461</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>475</v>
-      </c>
-      <c r="B194" t="s">
+        <v>468</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C194">
@@ -11649,53 +11739,53 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>476</v>
-      </c>
-      <c r="B195" t="s">
+        <v>469</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>477</v>
-      </c>
-      <c r="B196" t="s">
+        <v>470</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C196">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>478</v>
-      </c>
-      <c r="B197" t="s">
+        <v>471</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>479</v>
-      </c>
-      <c r="B198" t="s">
+        <v>472</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>480</v>
-      </c>
-      <c r="B199" t="s">
+        <v>473</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C199">
@@ -11704,53 +11794,53 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>481</v>
-      </c>
-      <c r="B200" t="s">
+        <v>474</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>482</v>
-      </c>
-      <c r="B201" t="s">
+        <v>475</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>483</v>
-      </c>
-      <c r="B202" t="s">
+        <v>476</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>484</v>
-      </c>
-      <c r="B203" t="s">
+        <v>477</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>485</v>
-      </c>
-      <c r="B204" t="s">
+        <v>478</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C204">
@@ -11759,53 +11849,53 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>486</v>
-      </c>
-      <c r="B205" t="s">
+        <v>479</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>487</v>
-      </c>
-      <c r="B206" t="s">
+        <v>480</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>488</v>
-      </c>
-      <c r="B207" t="s">
+        <v>481</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>489</v>
-      </c>
-      <c r="B208" t="s">
+        <v>482</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>490</v>
-      </c>
-      <c r="B209" t="s">
+        <v>483</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C209">
@@ -11814,53 +11904,53 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>491</v>
-      </c>
-      <c r="B210" t="s">
+        <v>484</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>492</v>
-      </c>
-      <c r="B211" t="s">
+        <v>485</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>493</v>
-      </c>
-      <c r="B212" t="s">
+        <v>486</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>494</v>
-      </c>
-      <c r="B213" t="s">
+        <v>487</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>495</v>
-      </c>
-      <c r="B214" t="s">
+        <v>488</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C214">
@@ -11869,219 +11959,219 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>496</v>
-      </c>
-      <c r="B215" t="s">
+        <v>489</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>497</v>
-      </c>
-      <c r="B216" t="s">
+        <v>490</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>498</v>
-      </c>
-      <c r="B217" t="s">
-        <v>562</v>
+        <v>491</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C217">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>563</v>
+        <v>44</v>
       </c>
       <c r="C218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="49.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>564</v>
+        <v>44</v>
       </c>
       <c r="C219">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="49.5">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>565</v>
+        <v>44</v>
       </c>
       <c r="C220">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="49.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>567</v>
+        <v>44</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>535</v>
-      </c>
-      <c r="B222" t="s">
-        <v>550</v>
+        <v>496</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>566</v>
+        <v>44</v>
       </c>
       <c r="C223">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="33">
       <c r="A224" t="s">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C224">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="66">
+    <row r="225" spans="1:3" ht="33">
       <c r="A225" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="49.5">
+      <c r="A226" t="s">
+        <v>500</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="49.5">
+      <c r="A227" t="s">
+        <v>501</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C227">
         <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="66">
-      <c r="A226" t="s">
-        <v>539</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C226">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>540</v>
-      </c>
-      <c r="B227" t="s">
-        <v>614</v>
-      </c>
-      <c r="C227">
-        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>710</v>
+        <v>567</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="49.5">
+    <row r="230" spans="1:3" ht="66">
       <c r="A230" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="66">
+      <c r="A231" t="s">
+        <v>537</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="66">
+      <c r="A232" t="s">
+        <v>538</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C232">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="49.5">
-      <c r="A231" t="s">
-        <v>544</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C231">
+    <row r="233" spans="1:3" ht="66">
+      <c r="A233" t="s">
+        <v>539</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C233">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>545</v>
-      </c>
-      <c r="B232" t="s">
-        <v>623</v>
-      </c>
-      <c r="C232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="49.5">
-      <c r="A233" t="s">
-        <v>546</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="49.5">
+    <row r="234" spans="1:3" ht="33">
       <c r="A234" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>711</v>
+        <v>614</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -12089,108 +12179,108 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
+        <v>542</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="49.5">
+      <c r="A237" t="s">
+        <v>543</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="49.5">
+      <c r="A238" t="s">
+        <v>544</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="33">
+      <c r="A239" t="s">
+        <v>545</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="49.5">
+      <c r="A240" t="s">
+        <v>546</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="49.5">
+      <c r="A241" t="s">
+        <v>547</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="49.5">
+      <c r="A242" t="s">
+        <v>548</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="49.5">
+      <c r="A243" t="s">
         <v>549</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C236">
+      <c r="C243">
         <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>660</v>
-      </c>
-      <c r="B237" t="s">
-        <v>44</v>
-      </c>
-      <c r="C237">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>661</v>
-      </c>
-      <c r="B238" t="s">
-        <v>44</v>
-      </c>
-      <c r="C238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>662</v>
-      </c>
-      <c r="B239" t="s">
-        <v>44</v>
-      </c>
-      <c r="C239">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>663</v>
-      </c>
-      <c r="B240" t="s">
-        <v>44</v>
-      </c>
-      <c r="C240">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>664</v>
-      </c>
-      <c r="B241" t="s">
-        <v>44</v>
-      </c>
-      <c r="C241">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>665</v>
-      </c>
-      <c r="B242" t="s">
-        <v>44</v>
-      </c>
-      <c r="C242">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>666</v>
-      </c>
-      <c r="B243" t="s">
-        <v>44</v>
-      </c>
-      <c r="C243">
-        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>667</v>
-      </c>
-      <c r="B244" t="s">
+        <v>660</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C244">
@@ -12199,53 +12289,53 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>668</v>
-      </c>
-      <c r="B245" t="s">
+        <v>661</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>669</v>
-      </c>
-      <c r="B246" t="s">
+        <v>662</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>670</v>
-      </c>
-      <c r="B247" t="s">
+        <v>663</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>671</v>
-      </c>
-      <c r="B248" t="s">
+        <v>664</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>672</v>
-      </c>
-      <c r="B249" t="s">
+        <v>665</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C249">
@@ -12254,53 +12344,53 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>673</v>
-      </c>
-      <c r="B250" t="s">
+        <v>666</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>674</v>
-      </c>
-      <c r="B251" t="s">
+        <v>667</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>675</v>
-      </c>
-      <c r="B252" t="s">
+        <v>668</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>676</v>
-      </c>
-      <c r="B253" t="s">
+        <v>669</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>677</v>
-      </c>
-      <c r="B254" t="s">
+        <v>670</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C254">
@@ -12309,23 +12399,100 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>678</v>
-      </c>
-      <c r="B255" t="s">
+        <v>671</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>672</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>673</v>
+      </c>
+      <c r="B257" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>674</v>
+      </c>
+      <c r="B258" t="s">
+        <v>44</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>675</v>
+      </c>
+      <c r="B259" t="s">
+        <v>44</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>676</v>
+      </c>
+      <c r="B260" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>677</v>
+      </c>
+      <c r="B261" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>678</v>
+      </c>
+      <c r="B262" t="s">
+        <v>44</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
         <v>679</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B263" t="s">
         <v>44</v>
       </c>
-      <c r="C256">
+      <c r="C263">
         <v>5</v>
       </c>
     </row>
@@ -13272,10 +13439,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316F9DCA-A9D9-441F-9971-740440723A8A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13287,7 +13454,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13302,7 +13469,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5">
@@ -13310,13 +13477,13 @@
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66">
@@ -13324,10 +13491,10 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
@@ -13338,10 +13505,10 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D5" t="s">
         <v>332</v>
@@ -13352,10 +13519,10 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D6" t="s">
         <v>336</v>
@@ -13366,13 +13533,27 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5">
+      <c r="A8">
+        <v>7006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D8" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -13426,7 +13607,7 @@
         <v>627</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="66">
@@ -13437,7 +13618,7 @@
         <v>629</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5">
@@ -13448,7 +13629,7 @@
         <v>630</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66">
@@ -13459,7 +13640,7 @@
         <v>631</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AE35CD-B63D-4745-BC2B-2C4B2688D602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B38280-C30F-4CDD-B9A1-8D2ADF0E4244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="3465" windowWidth="32040" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19455" yWindow="4215" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="953">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2028,26 +2028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 10%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 20%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 30%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 50%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 표식 부여, 표식은 아즈사가 준 피해의 100%를 축적하며 5초 후 폭발합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하나에 주변으로 회복 영역 생성, 출혈을 막고 자가회복력을 증가시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2159,25 +2139,6 @@
     <t>4046, 5</t>
   </si>
   <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 범위가 10% 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 대상에게서 출혈이 발생합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 미치루가 시전 중 무적상태가 됩니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Izuna</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2207,35 +2168,6 @@
   </si>
   <si>
     <t>Hiyori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소
-(+ 피해량이 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 사거리가 50% 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 미치루의 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 관통하는 탄환을 발사, 적중한 적들의 방어력이 감소합니다.
-(+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2425,22 +2357,12 @@
   </si>
   <si>
     <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 축복 대상의 받는 피해가 20% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
 (+ 치유량이 증가합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
 (+ 파동의 범위가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
-(+ 다음 파동까지의 시간이 감소합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2905,18 +2827,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.35, 3.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 0</t>
   </si>
   <si>
     <t xml:space="preserve">CamOrthoSize : Float </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.83, 4.44</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3315,15 +3229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>집착과 연모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집착과 연모
-와카모가 치명상을 입으면 잠시동안 받는 피해를 크게 감소시키고 고통수치를 회복합니다. 한번 발동하면 30일의 쿨타임을 적용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시로코 테러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3500,10 +3405,6 @@
   </si>
   <si>
     <t>4059, 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">호시노  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신속 제압</t>
@@ -3552,12 +3453,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.0, 6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.16, 6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_BuildingRooftop_Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 6.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Background/BG_ShanVIPRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.76, 5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.43, 4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.58, 3.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wakamo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
+(+ 명중률 그리고 이동속도가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
+(+ 2분의 추가 시간을 받습니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
+(+ 최대 중첩에 도달하면 피해를 줄때마다 지속시간이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.24, 3.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.35, 4.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.35, 4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.56, 4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.
-(+ 도약을 3번 사용할 수 있습니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJump</t>
+(+ 피해량이 크게 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망토와 단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">망토와 단검
+아키라가 소집 중 일때 투명화 상태가 되며 다음 공격이 치명타를 가합니다. 이동 외 행동시 즉시 해제되며 다시 투명화 되기까지 3초의 시간이 소요됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결의
+와카모의 잃은 체력 당 받는 피해가 감소합니다. 최대 80%까지 적용됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하루카가 지정한 대상을 향해 돌진합니다. 대상이 적일 경우 주변에 큰 피해를 입히고 아군일 경우 500의 보호막을 부여합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루카가 지정한 대상을 향해 돌진합니다. 대상이 적일 경우 주변에 큰 피해를 입히고 아군일 경우 500의 보호막을 부여합니다. 
+(+ 돌진 거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루카가 지정한 대상을 향해 돌진합니다. 대상이 적일 경우 주변에 큰 피해를 입히고 아군일 경우 500의 보호막을 부여합니다. 
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루카가 지정한 대상을 향해 돌진합니다. 대상이 적일 경우 주변에 큰 피해를 입히고 아군일 경우 750의 보호막을 부여합니다. 
+(+ 보호막이 추가로 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루카가 지정한 대상을 향해 돌진합니다. 대상이 적일 경우 주변에 큰 피해를 입히고 아군일 경우 1000의 보호막을 부여합니다. 
+(+ 보호막이 추가로 증가하며 지나온 경로에 폭탄을 기폭시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주변으로 공포탄을 발사해 3초간 공포에 질리게 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주변으로 공포탄을 발사해 3초간 공포에 질리게 만듭니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주변으로 공포탄을 발사해 5초간 공포에 질리게 만듭니다.
+(+ 공포의 지속시간이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 주변으로 공포탄을 발사해 3초간 공포에 질리게 만듭니다.
+(+ 범위가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 지역으로 공포탄을 발사해 5초간 공포에 질리게 만듭니다.
+(+ 효과가 변경되며 사거리가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">악당다운 저격을 해 대상과 주변 적들에게 피해를 줍니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 5발의 탄환이 주어지며 도중에 취소가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 대상을 자신의 위치로 당겨온 뒤 체력을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 도발하는 인형을 소환합니다. 도발은 인형이 파괴되기 전까지 지속됩니다. 인형의 체력은 300 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 도발하는 인형을 소환합니다. 도발은 인형이 파괴되기 전까지 지속됩니다. 인형의 체력은 300 입니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 도발하는 인형을 소환합니다. 도발은 인형이 파괴되기 전까지 지속됩니다. 인형의 체력은 300 입니다.
+(+ 도발 범위가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 도발하는 인형을 소환합니다. 도발은 인형이 파괴되기 전까지 지속됩니다. 인형의 체력은 500 입니다.
+(+ 인형의 체력이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 도발하는 인형을 소환합니다. 도발은 인형이 파괴되기 전까지 지속됩니다. 인형의 체력은 500 입니다.
+(+ 5초 뒤 인형이 소환된 위치에 페로로지라가 발 구르기로 범위내의 적들에게 5000의 피해를 가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식을 부여합니다. 표식은 아즈사가 준 피해의 50%를 축적한 뒤 5초 후 폭발합니다.
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식을 부여합니다. 표식은 아즈사가 준 피해의 60%를 축적한 뒤 5초 후 폭발합니다.
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식을 부여합니다. 표식은 아즈사가 준 피해의 70%를 축적한 뒤 5초 후 폭발합니다.
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식을 부여합니다. 표식은 아즈사가 준 피해의 80%를 축적한 뒤 5초 후 폭발합니다.
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 표식을 부여합니다. 표식은 아즈사가 준 피해의 100%를 축적한 뒤 5초 후 폭발합니다.
+(+ 대상이 이 피해로 사망하면 쿨다운을 초기화합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상과 자신을 연결, 3초 뒤 서로의 체력 비율 중 높은 쪽으로 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 내 모든 아군과 자신을 연결, 3초 뒤 서로의 체력 비율 중 높은 쪽으로 회복시킵니다.
+(+ 효과가 변경됩니다,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상과 자신을 연결, 3초 뒤 서로의 체력 비율 중 높은 쪽으로 회복시킵니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상과 자신을 연결, 3초 뒤 서로의 체력 비율 중 높은 쪽으로 회복시킵니다.
+(+ 회복량이 추가로 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상과 자신을 연결, 3초 뒤 서로의 체력 비율 중 높은 쪽으로 회복시킵니다.
+(+ 연결된 대상들은 받는 피해가 추가로 10% 더 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 하나를 5초간 기절시키고 받는 이로운 효과를 모두 제거합니다. 부착물 및 보강물은 포함되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소를 노리는 치명적인 사격을 가합니다. 적중한 대상의 무작위 부위가 크게 손상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소를 노리는 치명적인 사격을 가합니다. 적중한 대상의 무작위 부위가 크게 손상됩니다. 
+(+ 총 3번의 추가 사격을 합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소를 노리는 치명적인 사격을 가합니다. 적중한 대상의 무작위 부위가 크게 손상됩니다.
+(+ 적중당한 대상에게서 출혈이 발생합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소를 노리는 치명적인 사격을 가합니다. 적중한 대상의 무작위 부위가 크게 손상됩니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소를 노리는 치명적인 사격을 가합니다. 적중한 대상의 무작위 부위가 크게 손상됩니다. 
+(+ 중요 부위를 노릴 확률이 크게 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유 드론을 배치, 범위 내의 아군을 주기적으로 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유 드론을 배치, 범위 내의 아군을 주기적으로 회복시킵니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유 드론을 배치, 범위 내의 아군을 주기적으로 회복시킵니다.
+(+ 치유 범위가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유 드론을 배치, 범위 내의 아군을 주기적으로 회복시킵니다.
+(+ 치유량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유 드론을 배치, 범위 내의 아군을 주기적으로 회복시킵니다.
+(+ 드론 1기를 추가로 더 배치합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 다음 파동까지의 시간이 크게 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 하나에게 1분 동안 축복을 내립니다. 축복 받은 아군을 중심으로 원형의 파동이 퍼져나가며 주변 아군을 치료합니다. 
+(+ 축복 대상의 받는 피해가 50% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">집속탄 사격으로 원형 범위를 화염지대로 만듭니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
+(+ 화염지대의 범위가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
+(+ 적중한 대상의 열기저항력이 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
+(+ 매 틱마다 최대 체력에 비례한 피해를 추가로 가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소
+(+ 피해량이 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소합니다.
+(+ 사거리가 50% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소합니다.
+(+ 탄환이 지나온 경로에 소닉붐이 발생해 추가 피해를 줍니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 범위가 10% 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 대상에게서 출혈이 발생합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
+(+ 미치루가 시전 중 무적상태가 됩니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4118,8 +4380,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D9" totalsRowShown="0">
-  <autoFilter ref="A2:D9" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}" name="표1_369" displayName="표1_369" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10" xr:uid="{F9DF1F3A-2F9A-45BC-B979-7425E4197F0E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7F8E7035-D64E-46C0-ABF2-61FF8FFAEB5C}" name="Id : Integer"/>
     <tableColumn id="4" xr3:uid="{3439CBEE-EFF0-42BB-8927-E1191E295509}" name="Name : String"/>
@@ -4407,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4453,13 +4715,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -4498,16 +4760,16 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="V2" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="W2" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="X2" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="Y2" t="s">
         <v>416</v>
@@ -4574,13 +4836,13 @@
         <v>2</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="X3" s="11">
         <v>5</v>
@@ -4650,13 +4912,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="X4" s="11">
         <v>8</v>
@@ -4725,19 +4987,19 @@
         <v>2</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="X5" s="13">
         <v>4</v>
       </c>
       <c r="Z5" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4800,20 +5062,20 @@
         <v>2</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="X6" s="14">
         <v>4</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4876,13 +5138,13 @@
         <v>2</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="X7" s="13">
         <v>4</v>
@@ -4953,13 +5215,13 @@
         <v>2</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="X8" s="14">
         <v>4</v>
@@ -5029,13 +5291,13 @@
         <v>2</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="X9" s="16">
         <v>3.8</v>
@@ -5100,13 +5362,13 @@
         <v>2</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="X10" s="16">
         <v>4.4000000000000004</v>
@@ -5171,13 +5433,13 @@
         <v>2</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="X11" s="16">
         <v>3.4</v>
@@ -5242,13 +5504,13 @@
         <v>2</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="X12" s="16">
         <v>3.4</v>
@@ -5313,13 +5575,13 @@
         <v>2</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="X13" s="16">
         <v>3.6</v>
@@ -5384,20 +5646,20 @@
         <v>2</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="X14" s="18">
         <v>5.2</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5458,20 +5720,20 @@
         <v>2</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="X15" s="18">
         <v>4</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5532,19 +5794,19 @@
         <v>2</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="X16" s="17">
         <v>3.6</v>
       </c>
       <c r="Z16" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5605,20 +5867,20 @@
         <v>2</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="X17" s="18">
         <v>4.2</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5679,20 +5941,20 @@
         <v>2</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="X18" s="18">
         <v>4</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5755,13 +6017,13 @@
         <v>2</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="X19" s="20">
         <v>6.2</v>
@@ -5829,13 +6091,13 @@
         <v>2</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="X20" s="20">
         <v>5</v>
@@ -5903,13 +6165,13 @@
         <v>2</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="X21" s="20">
         <v>3.45</v>
@@ -5977,13 +6239,13 @@
         <v>2</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="X22" s="20">
         <v>3.5</v>
@@ -6051,13 +6313,13 @@
         <v>2</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W23" s="24" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="X23" s="24">
         <v>4.3</v>
@@ -6122,16 +6384,16 @@
         <v>2</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W24" s="22" t="s">
-        <v>729</v>
+        <v>890</v>
       </c>
       <c r="X24" s="22">
-        <v>5</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" t="s">
@@ -6198,16 +6460,16 @@
         <v>2</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W25" s="22" t="s">
-        <v>732</v>
+        <v>889</v>
       </c>
       <c r="X25" s="22">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" t="s">
@@ -6272,13 +6534,13 @@
         <v>2</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="X26" s="22">
         <v>5</v>
@@ -6348,13 +6610,13 @@
         <v>2</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W27" s="26" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="X27" s="26">
         <v>3.57</v>
@@ -6421,13 +6683,13 @@
         <v>2</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W28" s="26" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="X28" s="26">
         <v>2.5499999999999998</v>
@@ -6492,13 +6754,13 @@
         <v>2</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="W29" s="26" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="X29" s="26">
         <v>3.55</v>
@@ -6563,13 +6825,13 @@
         <v>2</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="W30" s="26" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="X30" s="26">
         <v>4.7</v>
@@ -6634,13 +6896,13 @@
         <v>2</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="V31" s="28" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W31" s="28" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="X31" s="28">
         <v>4.3</v>
@@ -6708,13 +6970,13 @@
         <v>2</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="V32" s="28" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="X32" s="28">
         <v>7.5</v>
@@ -6782,13 +7044,13 @@
         <v>2</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="V33" s="28" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W33" s="28" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="X33" s="28">
         <v>3.9</v>
@@ -6856,13 +7118,13 @@
         <v>2</v>
       </c>
       <c r="U34" s="29" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W34" s="30" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="X34" s="30">
         <v>4.4000000000000004</v>
@@ -6927,13 +7189,13 @@
         <v>2</v>
       </c>
       <c r="U35" s="30" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="V35" s="30" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W35" s="30" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="X35" s="30">
         <v>3.9</v>
@@ -6998,13 +7260,13 @@
         <v>2</v>
       </c>
       <c r="U36" s="29" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="V36" s="30" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W36" s="30" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="X36" s="30">
         <v>4.5999999999999996</v>
@@ -7069,13 +7331,13 @@
         <v>2</v>
       </c>
       <c r="U37" s="29" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="V37" s="30" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W37" s="30" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="X37" s="30">
         <v>4.2</v>
@@ -7140,13 +7402,13 @@
         <v>2</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="V38" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="X38" s="18">
         <v>4</v>
@@ -7211,13 +7473,13 @@
         <v>2</v>
       </c>
       <c r="U39" s="18" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="V39" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="X39" s="18">
         <v>3.4</v>
@@ -7282,13 +7544,13 @@
         <v>2</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="X40" s="18">
         <v>3.8</v>
@@ -7353,13 +7615,13 @@
         <v>2</v>
       </c>
       <c r="U41" s="31" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="V41" s="32" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W41" s="32" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="X41" s="32">
         <v>3.4</v>
@@ -7424,13 +7686,13 @@
         <v>2</v>
       </c>
       <c r="U42" s="32" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="V42" s="32" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W42" s="32" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="X42" s="32">
         <v>4</v>
@@ -7495,13 +7757,13 @@
         <v>2</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="V43" s="32" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W43" s="32" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="X43" s="32">
         <v>3.8</v>
@@ -7565,13 +7827,13 @@
         <v>2</v>
       </c>
       <c r="U44" s="32" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="V44" s="32" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W44" s="32" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="X44" s="32">
         <v>3.4</v>
@@ -7635,13 +7897,13 @@
         <v>2</v>
       </c>
       <c r="U45" s="33" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="V45" s="34" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W45" s="34" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="X45" s="34">
         <v>3.9</v>
@@ -7709,13 +7971,13 @@
         <v>2</v>
       </c>
       <c r="U46" s="34" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="V46" s="34" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W46" s="34" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="X46" s="34">
         <v>3.9</v>
@@ -7783,13 +8045,13 @@
         <v>2</v>
       </c>
       <c r="U47" s="34" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="V47" s="34" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W47" s="34" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="X47" s="34">
         <v>4.5</v>
@@ -7804,7 +8066,7 @@
         <v>1046</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C48" s="36">
         <v>16</v>
@@ -7857,13 +8119,13 @@
         <v>2</v>
       </c>
       <c r="U48" s="36" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="V48" s="36" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W48" s="36" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="X48" s="36">
         <v>3.7</v>
@@ -7874,7 +8136,7 @@
         <v>1047</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C49" s="36">
         <v>16</v>
@@ -7927,13 +8189,13 @@
         <v>2</v>
       </c>
       <c r="U49" s="36" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="V49" s="36" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W49" s="36" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="X49" s="36">
         <v>3.6</v>
@@ -7944,7 +8206,7 @@
         <v>1048</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C50" s="36">
         <v>18</v>
@@ -7997,13 +8259,13 @@
         <v>2</v>
       </c>
       <c r="U50" s="37" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="V50" s="36" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W50" s="36" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="X50" s="36">
         <v>5.6</v>
@@ -8014,7 +8276,7 @@
         <v>1049</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="C51" s="36">
         <v>15</v>
@@ -8067,13 +8329,13 @@
         <v>2</v>
       </c>
       <c r="U51" s="36" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="V51" s="36" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W51" s="36" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="X51" s="36">
         <v>3.7</v>
@@ -8084,7 +8346,7 @@
         <v>1050</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C52" s="38">
         <v>18</v>
@@ -8139,13 +8401,13 @@
         <v>2</v>
       </c>
       <c r="U52" s="39" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="V52" s="38" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="W52" s="38" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="X52" s="38">
         <v>3</v>
@@ -8159,7 +8421,7 @@
         <v>1051</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C53" s="38">
         <v>-1</v>
@@ -8168,9 +8430,11 @@
         <v>27</v>
       </c>
       <c r="E53" s="38">
-        <v>4001</v>
-      </c>
-      <c r="F53" s="38"/>
+        <v>4052</v>
+      </c>
+      <c r="F53" s="38">
+        <v>7008</v>
+      </c>
       <c r="G53" s="38">
         <v>6001</v>
       </c>
@@ -8211,11 +8475,20 @@
       <c r="T53" s="38">
         <v>2</v>
       </c>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
+      <c r="U53" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="W53" s="38" t="s">
+        <v>888</v>
+      </c>
       <c r="X53" s="38">
-        <v>5</v>
+        <v>3.7</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -8223,7 +8496,7 @@
         <v>1052</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C54" s="38">
         <v>-1</v>
@@ -8232,7 +8505,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="38">
-        <v>4001</v>
+        <v>4053</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38">
@@ -8275,11 +8548,20 @@
       <c r="T54" s="38">
         <v>2</v>
       </c>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
+      <c r="U54" s="38" t="s">
+        <v>876</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="W54" s="38" t="s">
+        <v>891</v>
+      </c>
       <c r="X54" s="38">
-        <v>5</v>
+        <v>3.9</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -8399,7 +8681,7 @@
         <v>1057</v>
       </c>
       <c r="B59" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -8451,6 +8733,18 @@
       </c>
       <c r="T59">
         <v>2</v>
+      </c>
+      <c r="U59" t="s">
+        <v>873</v>
+      </c>
+      <c r="V59" t="s">
+        <v>711</v>
+      </c>
+      <c r="W59" t="s">
+        <v>879</v>
+      </c>
+      <c r="X59">
+        <v>3.9</v>
       </c>
       <c r="Z59" t="s">
         <v>85</v>
@@ -8461,7 +8755,7 @@
         <v>1058</v>
       </c>
       <c r="B60" t="s">
-        <v>884</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>15</v>
@@ -8470,7 +8764,7 @@
         <v>26</v>
       </c>
       <c r="E60">
-        <v>4001</v>
+        <v>4059</v>
       </c>
       <c r="G60">
         <v>6001</v>
@@ -8510,6 +8804,18 @@
       </c>
       <c r="T60">
         <v>2</v>
+      </c>
+      <c r="U60" t="s">
+        <v>878</v>
+      </c>
+      <c r="V60" t="s">
+        <v>711</v>
+      </c>
+      <c r="W60" t="s">
+        <v>880</v>
+      </c>
+      <c r="X60">
+        <v>4.3</v>
       </c>
       <c r="Z60" t="s">
         <v>85</v>
@@ -8707,10 +9013,10 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C16" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8718,10 +9024,10 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8729,10 +9035,10 @@
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C18" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -8787,10 +9093,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -8829,7 +9135,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
         <v>300</v>
@@ -8854,13 +9160,13 @@
         <v>3005</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8907,8 +9213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8930,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8941,7 +9247,7 @@
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8971,10 +9277,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8982,10 +9288,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8993,10 +9299,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C8" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9004,10 +9310,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9073,7 +9379,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9106,7 +9412,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9136,7 +9442,7 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -9301,7 +9607,7 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C36" t="s">
         <v>513</v>
@@ -9312,10 +9618,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C37" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9326,7 +9632,7 @@
         <v>426</v>
       </c>
       <c r="C38" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9337,7 +9643,7 @@
         <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9348,7 +9654,7 @@
         <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9359,7 +9665,7 @@
         <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9370,7 +9676,7 @@
         <v>503</v>
       </c>
       <c r="C42" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9381,7 +9687,7 @@
         <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9403,7 +9709,7 @@
         <v>464</v>
       </c>
       <c r="C45" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9411,10 +9717,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C46" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9422,10 +9728,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C47" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9433,10 +9739,10 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C48" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9444,10 +9750,10 @@
         <v>4047</v>
       </c>
       <c r="B49" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C49" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9455,7 +9761,7 @@
         <v>4048</v>
       </c>
       <c r="B50" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -9466,10 +9772,10 @@
         <v>4049</v>
       </c>
       <c r="B51" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C51" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9477,10 +9783,10 @@
         <v>4050</v>
       </c>
       <c r="B52" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C52" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -9488,10 +9794,10 @@
         <v>4051</v>
       </c>
       <c r="B53" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>882</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -9499,7 +9805,7 @@
         <v>4052</v>
       </c>
       <c r="B54" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -9510,7 +9816,7 @@
         <v>4053</v>
       </c>
       <c r="B55" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -9541,10 +9847,10 @@
         <v>4058</v>
       </c>
       <c r="B60" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="C60" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9552,7 +9858,7 @@
         <v>4059</v>
       </c>
       <c r="B61" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="C61" t="s">
         <v>41</v>
@@ -9574,8 +9880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9730,7 +10036,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -9741,7 +10047,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -9752,7 +10058,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -9785,7 +10091,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -9796,7 +10102,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -9807,7 +10113,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9818,7 +10124,7 @@
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -9826,10 +10132,10 @@
     </row>
     <row r="23" spans="1:3" ht="33">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -9840,7 +10146,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -9851,7 +10157,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -9862,7 +10168,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -9873,7 +10179,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -9884,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -9892,10 +10198,10 @@
     </row>
     <row r="29" spans="1:3" ht="49.5">
       <c r="A29" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -9906,7 +10212,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -9917,7 +10223,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -9928,7 +10234,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -9939,7 +10245,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -9950,7 +10256,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -9958,10 +10264,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -9983,7 +10289,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -9994,7 +10300,7 @@
         <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10005,7 +10311,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -10024,10 +10330,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -10038,7 +10344,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -10049,7 +10355,7 @@
         <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -10060,7 +10366,7 @@
         <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -10071,7 +10377,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -10082,7 +10388,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -10346,7 +10652,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -10379,7 +10685,7 @@
         <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -10390,7 +10696,7 @@
         <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -10401,7 +10707,7 @@
         <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10412,7 +10718,7 @@
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -10478,7 +10784,7 @@
         <v>160</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -10489,7 +10795,7 @@
         <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -10500,7 +10806,7 @@
         <v>162</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -10511,7 +10817,7 @@
         <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -10522,7 +10828,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -10544,7 +10850,7 @@
         <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -10555,7 +10861,7 @@
         <v>168</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -10566,7 +10872,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -10577,7 +10883,7 @@
         <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -10643,7 +10949,7 @@
         <v>253</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -10654,7 +10960,7 @@
         <v>254</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -10665,7 +10971,7 @@
         <v>255</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -10676,7 +10982,7 @@
         <v>256</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -10687,7 +10993,7 @@
         <v>257</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -10907,7 +11213,7 @@
         <v>321</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -10973,7 +11279,7 @@
         <v>327</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -10984,7 +11290,7 @@
         <v>328</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>614</v>
+        <v>937</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -10995,7 +11301,7 @@
         <v>329</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C129">
         <v>3</v>
@@ -11006,7 +11312,7 @@
         <v>330</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -11017,7 +11323,7 @@
         <v>331</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>617</v>
+        <v>936</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11072,7 +11378,7 @@
         <v>341</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -11149,7 +11455,7 @@
         <v>352</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -11248,7 +11554,7 @@
         <v>427</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C152">
         <v>3</v>
@@ -11259,7 +11565,7 @@
         <v>428</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C153">
         <v>3</v>
@@ -11270,7 +11576,7 @@
         <v>429</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -11281,7 +11587,7 @@
         <v>430</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -11292,7 +11598,7 @@
         <v>431</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -11303,7 +11609,7 @@
         <v>432</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -11314,7 +11620,7 @@
         <v>433</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -11325,7 +11631,7 @@
         <v>434</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -11336,7 +11642,7 @@
         <v>435</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -11347,7 +11653,7 @@
         <v>436</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>44</v>
+        <v>909</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -11358,7 +11664,7 @@
         <v>437</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -11369,7 +11675,7 @@
         <v>438</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -11380,7 +11686,7 @@
         <v>439</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -11391,7 +11697,7 @@
         <v>440</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -11402,227 +11708,227 @@
         <v>441</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C166">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="33">
       <c r="A167" t="s">
         <v>442</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>44</v>
+        <v>910</v>
       </c>
       <c r="C167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" ht="49.5">
       <c r="A168" t="s">
         <v>443</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>44</v>
+        <v>911</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" ht="49.5">
       <c r="A169" t="s">
         <v>444</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>44</v>
+        <v>912</v>
       </c>
       <c r="C169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="49.5">
       <c r="A170" t="s">
         <v>445</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>44</v>
+        <v>913</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="66">
       <c r="A171" t="s">
         <v>446</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>44</v>
+        <v>914</v>
       </c>
       <c r="C171">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="33">
+    <row r="172" spans="1:3" ht="49.5">
       <c r="A172" t="s">
         <v>447</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>514</v>
+        <v>915</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="33">
+    <row r="173" spans="1:3" ht="49.5">
       <c r="A173" t="s">
         <v>448</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>515</v>
+        <v>916</v>
       </c>
       <c r="C173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="33">
+    <row r="174" spans="1:3" ht="49.5">
       <c r="A174" t="s">
         <v>449</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>516</v>
+        <v>917</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="33">
+    <row r="175" spans="1:3" ht="49.5">
       <c r="A175" t="s">
         <v>450</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>517</v>
+        <v>918</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="33">
+    <row r="176" spans="1:3" ht="49.5">
       <c r="A176" t="s">
         <v>451</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>518</v>
+        <v>919</v>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="33">
       <c r="A177" t="s">
         <v>452</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>44</v>
+        <v>920</v>
       </c>
       <c r="C177">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="49.5">
       <c r="A178" t="s">
         <v>453</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>44</v>
+        <v>922</v>
       </c>
       <c r="C178">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="49.5">
       <c r="A179" t="s">
         <v>454</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>44</v>
+        <v>923</v>
       </c>
       <c r="C179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" ht="49.5">
       <c r="A180" t="s">
         <v>455</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>44</v>
+        <v>924</v>
       </c>
       <c r="C180">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="49.5">
       <c r="A181" t="s">
         <v>456</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>44</v>
+        <v>921</v>
       </c>
       <c r="C181">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="33">
       <c r="A182" t="s">
         <v>457</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>44</v>
+        <v>925</v>
       </c>
       <c r="C182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="33">
       <c r="A183" t="s">
         <v>458</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>44</v>
+        <v>925</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="33">
       <c r="A184" t="s">
         <v>459</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>44</v>
+        <v>925</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" ht="33">
       <c r="A185" t="s">
         <v>460</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>44</v>
+        <v>925</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="33">
       <c r="A186" t="s">
         <v>461</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>44</v>
+        <v>925</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -11793,56 +12099,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="33">
       <c r="A202" t="s">
         <v>483</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>44</v>
+        <v>926</v>
       </c>
       <c r="C202">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="49.5">
       <c r="A203" t="s">
         <v>484</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>44</v>
+        <v>929</v>
       </c>
       <c r="C203">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="49.5">
       <c r="A204" t="s">
         <v>485</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>44</v>
+        <v>928</v>
       </c>
       <c r="C204">
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="49.5">
       <c r="A205" t="s">
         <v>486</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>44</v>
+        <v>930</v>
       </c>
       <c r="C205">
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="49.5">
       <c r="A206" t="s">
         <v>487</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>44</v>
+        <v>927</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -11853,51 +12159,51 @@
         <v>488</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>44</v>
+        <v>931</v>
       </c>
       <c r="C207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="33">
       <c r="A208" t="s">
         <v>489</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>44</v>
+        <v>932</v>
       </c>
       <c r="C208">
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="33">
       <c r="A209" t="s">
         <v>490</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>44</v>
+        <v>933</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="33">
       <c r="A210" t="s">
         <v>491</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>44</v>
+        <v>934</v>
       </c>
       <c r="C210">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="33">
       <c r="A211" t="s">
         <v>492</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>44</v>
+        <v>935</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -11908,51 +12214,51 @@
         <v>493</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>44</v>
+        <v>938</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="33">
       <c r="A213" t="s">
         <v>494</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>44</v>
+        <v>939</v>
       </c>
       <c r="C213">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" ht="33">
       <c r="A214" t="s">
         <v>495</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>44</v>
+        <v>940</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" ht="33">
       <c r="A215" t="s">
         <v>496</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>44</v>
+        <v>941</v>
       </c>
       <c r="C215">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" ht="33">
       <c r="A216" t="s">
         <v>497</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>44</v>
+        <v>942</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -11963,7 +12269,7 @@
         <v>498</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>562</v>
+        <v>943</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -11974,7 +12280,7 @@
         <v>499</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>563</v>
+        <v>944</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -11985,7 +12291,7 @@
         <v>500</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>564</v>
+        <v>945</v>
       </c>
       <c r="C219">
         <v>3</v>
@@ -11996,7 +12302,7 @@
         <v>501</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>565</v>
+        <v>946</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -12007,7 +12313,7 @@
         <v>502</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>567</v>
+        <v>947</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -12015,10 +12321,10 @@
     </row>
     <row r="222" spans="1:3" ht="49.5">
       <c r="A222" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>550</v>
+        <v>948</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -12026,10 +12332,10 @@
     </row>
     <row r="223" spans="1:3" ht="66">
       <c r="A223" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>566</v>
+        <v>949</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -12037,10 +12343,10 @@
     </row>
     <row r="224" spans="1:3" ht="66">
       <c r="A224" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>551</v>
+        <v>950</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -12048,10 +12354,10 @@
     </row>
     <row r="225" spans="1:3" ht="66">
       <c r="A225" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>552</v>
+        <v>951</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -12059,10 +12365,10 @@
     </row>
     <row r="226" spans="1:3" ht="66">
       <c r="A226" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>553</v>
+        <v>952</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -12070,10 +12376,10 @@
     </row>
     <row r="227" spans="1:3" ht="33">
       <c r="A227" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="C227">
         <v>3</v>
@@ -12081,10 +12387,10 @@
     </row>
     <row r="228" spans="1:3" ht="49.5">
       <c r="A228" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -12092,10 +12398,10 @@
     </row>
     <row r="229" spans="1:3" ht="49.5">
       <c r="A229" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -12103,10 +12409,10 @@
     </row>
     <row r="230" spans="1:3" ht="49.5">
       <c r="A230" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -12114,10 +12420,10 @@
     </row>
     <row r="231" spans="1:3" ht="49.5">
       <c r="A231" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -12125,10 +12431,10 @@
     </row>
     <row r="232" spans="1:3" ht="33">
       <c r="A232" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -12136,10 +12442,10 @@
     </row>
     <row r="233" spans="1:3" ht="49.5">
       <c r="A233" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -12147,10 +12453,10 @@
     </row>
     <row r="234" spans="1:3" ht="49.5">
       <c r="A234" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -12158,10 +12464,10 @@
     </row>
     <row r="235" spans="1:3" ht="49.5">
       <c r="A235" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -12169,10 +12475,10 @@
     </row>
     <row r="236" spans="1:3" ht="49.5">
       <c r="A236" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -12180,10 +12486,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>44</v>
+        <v>907</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -12191,10 +12497,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>44</v>
+        <v>907</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -12202,10 +12508,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>44</v>
+        <v>907</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -12213,10 +12519,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>44</v>
+        <v>907</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -12224,10 +12530,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>44</v>
+        <v>908</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -12235,7 +12541,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>44</v>
@@ -12246,7 +12552,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>44</v>
@@ -12257,7 +12563,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>44</v>
@@ -12268,7 +12574,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>44</v>
@@ -12279,7 +12585,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>44</v>
@@ -12290,164 +12596,164 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>44</v>
+        <v>902</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="33">
       <c r="A248" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>44</v>
+        <v>903</v>
       </c>
       <c r="C248">
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="33">
       <c r="A249" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>44</v>
+        <v>905</v>
       </c>
       <c r="C249">
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="33">
       <c r="A250" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>44</v>
+        <v>904</v>
       </c>
       <c r="C250">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="33">
       <c r="A251" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>44</v>
+        <v>906</v>
       </c>
       <c r="C251">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="33">
       <c r="A252" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>44</v>
+        <v>897</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="49.5">
       <c r="A253" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>44</v>
+        <v>898</v>
       </c>
       <c r="C253">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="49.5">
       <c r="A254" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>44</v>
+        <v>899</v>
       </c>
       <c r="C254">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="49.5">
       <c r="A255" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="C255">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" ht="49.5">
       <c r="A256" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>44</v>
+        <v>901</v>
       </c>
       <c r="C256">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" ht="49.5">
       <c r="A257" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>44</v>
+        <v>883</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" ht="66">
       <c r="A258" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>44</v>
+        <v>884</v>
       </c>
       <c r="C258">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="66">
       <c r="A259" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>44</v>
+        <v>885</v>
       </c>
       <c r="C259">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" ht="66">
       <c r="A260" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>44</v>
+        <v>886</v>
       </c>
       <c r="C260">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" ht="66">
       <c r="A261" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>44</v>
+        <v>887</v>
       </c>
       <c r="C261">
         <v>5</v>
@@ -12455,7 +12761,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>44</v>
@@ -12466,7 +12772,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>44</v>
@@ -12477,7 +12783,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>44</v>
@@ -12488,7 +12794,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>44</v>
@@ -12499,7 +12805,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>44</v>
@@ -12510,7 +12816,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>44</v>
@@ -12521,7 +12827,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>44</v>
@@ -12532,7 +12838,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>44</v>
@@ -12543,7 +12849,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>44</v>
@@ -12554,7 +12860,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>44</v>
@@ -12565,7 +12871,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>44</v>
@@ -12576,7 +12882,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>44</v>
@@ -12587,7 +12893,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>44</v>
@@ -12598,7 +12904,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>44</v>
@@ -12609,7 +12915,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>44</v>
@@ -12620,7 +12926,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>44</v>
@@ -12631,7 +12937,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>44</v>
@@ -12642,7 +12948,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>44</v>
@@ -12653,7 +12959,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>44</v>
@@ -12664,7 +12970,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>44</v>
@@ -12675,7 +12981,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>44</v>
@@ -12686,7 +12992,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>44</v>
@@ -12697,7 +13003,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>44</v>
@@ -12708,7 +13014,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>44</v>
@@ -12719,7 +13025,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>44</v>
@@ -12730,7 +13036,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>44</v>
@@ -12741,7 +13047,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>44</v>
@@ -12752,7 +13058,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>44</v>
@@ -12763,7 +13069,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>44</v>
@@ -12774,7 +13080,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>44</v>
@@ -12785,10 +13091,10 @@
     </row>
     <row r="292" spans="1:3" ht="33">
       <c r="A292" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="C292">
         <v>3</v>
@@ -12796,10 +13102,10 @@
     </row>
     <row r="293" spans="1:3" ht="49.5">
       <c r="A293" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -12807,10 +13113,10 @@
     </row>
     <row r="294" spans="1:3" ht="49.5">
       <c r="A294" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="C294">
         <v>3</v>
@@ -12818,10 +13124,10 @@
     </row>
     <row r="295" spans="1:3" ht="49.5">
       <c r="A295" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="C295">
         <v>4</v>
@@ -12829,10 +13135,10 @@
     </row>
     <row r="296" spans="1:3" ht="49.5">
       <c r="A296" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C296">
         <v>5</v>
@@ -12840,7 +13146,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>44</v>
@@ -12851,7 +13157,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>44</v>
@@ -12862,7 +13168,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>44</v>
@@ -12873,7 +13179,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>44</v>
@@ -12884,7 +13190,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>44</v>
@@ -13435,7 +13741,7 @@
         <v>6022</v>
       </c>
       <c r="B38" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -13449,7 +13755,7 @@
         <v>6023</v>
       </c>
       <c r="B39" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -13477,7 +13783,7 @@
         <v>6025</v>
       </c>
       <c r="B41" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -13491,7 +13797,7 @@
         <v>6026</v>
       </c>
       <c r="B42" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -13505,7 +13811,7 @@
         <v>6027</v>
       </c>
       <c r="B43" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -13519,7 +13825,7 @@
         <v>6028</v>
       </c>
       <c r="B44" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -13533,7 +13839,7 @@
         <v>6029</v>
       </c>
       <c r="B45" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -13547,7 +13853,7 @@
         <v>6030</v>
       </c>
       <c r="B46" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -13561,7 +13867,7 @@
         <v>6031</v>
       </c>
       <c r="B47" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -13575,7 +13881,7 @@
         <v>6032</v>
       </c>
       <c r="B48" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -13589,7 +13895,7 @@
         <v>6033</v>
       </c>
       <c r="B49" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -13603,7 +13909,7 @@
         <v>6034</v>
       </c>
       <c r="B50" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -13617,7 +13923,7 @@
         <v>6035</v>
       </c>
       <c r="B51" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -13631,7 +13937,7 @@
         <v>6036</v>
       </c>
       <c r="B52" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -13645,7 +13951,7 @@
         <v>6037</v>
       </c>
       <c r="B53" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -13659,7 +13965,7 @@
         <v>6038</v>
       </c>
       <c r="B54" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -13673,7 +13979,7 @@
         <v>6039</v>
       </c>
       <c r="B55" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -13687,7 +13993,7 @@
         <v>6040</v>
       </c>
       <c r="B56" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -13701,7 +14007,7 @@
         <v>6041</v>
       </c>
       <c r="B57" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -13715,7 +14021,7 @@
         <v>6042</v>
       </c>
       <c r="B58" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -13729,7 +14035,7 @@
         <v>6043</v>
       </c>
       <c r="B59" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -13743,7 +14049,7 @@
         <v>6044</v>
       </c>
       <c r="B60" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -13757,7 +14063,7 @@
         <v>6045</v>
       </c>
       <c r="B61" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -13771,7 +14077,7 @@
         <v>6046</v>
       </c>
       <c r="B62" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -13785,7 +14091,7 @@
         <v>6047</v>
       </c>
       <c r="B63" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -13799,7 +14105,7 @@
         <v>6048</v>
       </c>
       <c r="B64" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -13813,7 +14119,7 @@
         <v>6049</v>
       </c>
       <c r="B65" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -13836,10 +14142,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316F9DCA-A9D9-441F-9971-740440723A8A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13851,7 +14157,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13866,7 +14172,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5">
@@ -13874,13 +14180,13 @@
         <v>7001</v>
       </c>
       <c r="B3" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D3" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66">
@@ -13888,10 +14194,10 @@
         <v>7002</v>
       </c>
       <c r="B4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
@@ -13902,10 +14208,10 @@
         <v>7003</v>
       </c>
       <c r="B5" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
         <v>332</v>
@@ -13916,10 +14222,10 @@
         <v>7004</v>
       </c>
       <c r="B6" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="D6" t="s">
         <v>336</v>
@@ -13930,27 +14236,27 @@
         <v>7005</v>
       </c>
       <c r="B7" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="82.5">
+    <row r="8" spans="1:4" ht="66">
       <c r="A8">
         <v>7006</v>
       </c>
       <c r="B8" t="s">
-        <v>831</v>
+        <v>881</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>832</v>
+        <v>896</v>
       </c>
       <c r="D8" t="s">
-        <v>699</v>
+        <v>882</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="66">
@@ -13958,13 +14264,27 @@
         <v>7007</v>
       </c>
       <c r="B9" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="D9" t="s">
-        <v>889</v>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="82.5">
+      <c r="A10">
+        <v>7008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>893</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D10" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -13996,12 +14316,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -14015,10 +14335,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="66">
@@ -14026,10 +14346,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.5">
@@ -14037,10 +14357,10 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="66">
@@ -14048,10 +14368,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/@DataTable/DataTable.xlsx
+++ b/@DataTable/DataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B38280-C30F-4CDD-B9A1-8D2ADF0E4244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5E869-7E89-4C8C-9699-90F8A7A65A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="4215" windowWidth="32040" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="2910" windowWidth="32040" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="958">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,15 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
-(+ 적중한 대상은 불탐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드론을 배치, 드론은 30초간 전장에 머물면서 주변 적들을 공격합니다.
 (대책위원회 시너지 : 드론 1기 추가 배치)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1732,10 +1723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>야..야한건 안돼! 사형이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4030, 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2700,11 +2687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">원형 범위내의 자신을 제외한 아군을 강화, 아군의 공격력이 2배 증가합니다.
-추가로 아군의 무드회복력 또한 크게 상승합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이즈나가 3개의 여우불을 생성, 여우불은 주변 적에게 붙어 화상피해를 줍니다. 1분간 지속됩니다.
 (+ 쿨다운이 10% 감소합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2727,11 +2709,6 @@
   <si>
     <t>프라나가 아군 대상을 향해 도약, 프라나와 대상은 1500의 보호막을 획득합니다.
 (+ 500의 추가 보호막을 얻습니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직선 방향으로 레일건 발사, 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3241,10 +3218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불로영생단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1057, 1058</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3434,25 +3407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.
-(+ 도약시 소량의 보호막을 획득합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.
-(+ 영역의 크기가 50% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0, 6.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3493,30 +3447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
-(+ 명중률 그리고 이동속도가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
-(+ 2분의 추가 시간을 받습니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4분의 지속시간 동안 와카모는 최대 5중첩까지 적용되는 강화효과를 받습니다. 강화 효과 하나당 명중률과 이동속도가 증가하며 최대 중첩에 도달하면 주 대상 주변에도 무기 피해를 줍니다.
-(+ 최대 중첩에 도달하면 피해를 줄때마다 지속시간이 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.24, 3.54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3530,11 +3460,6 @@
   </si>
   <si>
     <t>3.56, 4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 적대 대상에게 피해를 줍니다.
-(+ 피해량이 크게 증가합니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3751,30 +3676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">집속탄 사격으로 원형 범위를 화염지대로 만듭니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
-(+ 쿨다운이 10% 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
-(+ 화염지대의 범위가 증가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
-(+ 적중한 대상의 열기저항력이 감소합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집속탄 사격으로 원형 범위를 화염지대로 만듭니다. 
-(+ 매 틱마다 최대 체력에 비례한 피해를 추가로 가합니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선 방향으로 관통하는 탄환을 발사, 적중된 적들의 방어력이 감소합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3820,6 +3721,123 @@
   <si>
     <t>미치루를 중심으로 한 원형범위 내의 모든 적들을 5초 동안 정지시킵니다. 정신집중이 끝나면 스킬의 대상이 된 적들에게 큰 피해를 줍니다.
 (+ 미치루가 시전 중 무적상태가 됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진홍빛 재액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호루스의 눈 + 근접 전투 무장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLACK FANG 465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">집속탄 사격으로 지정한 지역의 원형 범위를 화염지대로 만듭니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 지정한 지역의 원형 범위를 화염지대로 만듭니다. 
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 지정한 지역의 원형 범위를 화염지대로 만듭니다. 
+(+ 화염지대의 범위가 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 지정한 지역의 원형 범위를 화염지대로 만듭니다. 
+(+ 적중한 대상의 열기저항력이 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집속탄 사격으로 지정한 지역의 원형 범위를 화염지대로 만듭니다. 
+(+ 매 틱마다 최대 체력에 비례한 피해를 추가로 가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리스가 직선 방향으로 레일건 사격을 해 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리스가 직선 방향으로 레일건 사격을 해 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리스가 직선 방향으로 레일건 사격을 해 적중한 모든 대상에게 피해를 줍니다. 사격 후 아리스의 의식이 10%감소합니다.
+(+ 적중한 대상을 발화시킵니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원형 범위 내의 자신을 제외한 아군을 강화, 아군의 공격력이 2배 증가합니다.
+(+ 공격력 증가 및 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회독지탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">넓은 지역에 광증을 유발하는 연막을 터트려 지속적인 피해를 대가로 아군의 공격력을 증가시키고 쿨다운을 감소시킵니다. 적들은 피해만을 받으며 카이는 이 효과에 영향을 받지 않습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야..야한건 안돼! 모..몰수야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적인 피해를 대가로 와카모 자신의 공격력과 이동속도를 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 시로코를 제외한 모든 대상에게 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 시로코를 제외한 모든 대상에게 피해를 줍니다.
+(+ 쿨다운이 10% 감소합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 시로코를 제외한 모든 대상에게 피해를 줍니다.
+(+ 도약시 소량의 보호막을 획득합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 시로코를 제외한 모든 대상에게 피해를 줍니다.
+(+ 영역의 크기가 50% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 도약해 원하는 위치로 즉시 이동합니다. 도약 위치 주변의 차원이 불안정해져 시로코를 제외한 모든 대상에게 피해를 줍니다.
+(+ 피해량이 크게 증가합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광탄을 날려 적중한 대상들을 짧게 기절시키고 명중률 또한 감소시킵니다. 섬광탄 효과를 받고 있는 대상에게 호시노가 근접전을 실시하면 대상의 주요 급소 하나를 파괴합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광탄을 날려 적중한 대상들을 짧게 기절시키고 명중률 또한 감소시킵니다. 섬광탄 효과를 받고 있는 대상에게 호시노가 근접전을 실시하면 대상의 주요 급소 하나를 파괴합니다.
+(+ 준 보스/보스급의 네임드가 아니라면 대상을 처형합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마코토가 사용하는 저격소총.
+자신의 권위를 드러내기 위해, 게헨나에서도 유명한 장인에게 마코토가 직접 의뢰하여 제작한 명품 중의 명품. 다만 직접 나서기보다 뒤에서 군림하는 쪽을 선호하는 만마전의 의장님이다 보니, 사용할 일은 그다지 많지 않다는 모양이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 설명입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4367,13 +4385,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:D67" totalsRowShown="0">
-  <autoFilter ref="A2:D67" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}" name="표1_7" displayName="표1_7" ref="A2:E74" totalsRowShown="0">
+  <autoFilter ref="A2:E74" xr:uid="{D07BC1EF-D48F-4B84-8E2F-17BCEA08D68C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{277B4CB1-D202-4172-AC16-313400944C66}" name="Id : Integer"/>
     <tableColumn id="2" xr3:uid="{C0EBD593-997F-4FA4-B38B-502603D6C057}" name="Name : String"/>
     <tableColumn id="3" xr3:uid="{EC279219-6332-40E2-AE64-D410B32352A1}" name="Star : Integer"/>
     <tableColumn id="4" xr3:uid="{F4A1DDA8-669D-4C3E-A47E-FE0B2E99699E}" name="Type : String"/>
+    <tableColumn id="5" xr3:uid="{3E7E43EC-A62A-4042-AD35-BCE7195326DD}" name="열1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4669,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4715,13 +4734,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -4760,22 +4779,22 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="V2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="W2" t="s">
+        <v>703</v>
+      </c>
+      <c r="X2" t="s">
         <v>708</v>
       </c>
-      <c r="X2" t="s">
-        <v>713</v>
-      </c>
       <c r="Y2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Z2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
@@ -4836,13 +4855,13 @@
         <v>2</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="X3" s="11">
         <v>5</v>
@@ -4912,19 +4931,19 @@
         <v>2</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="X4" s="11">
         <v>8</v>
       </c>
       <c r="Z4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4987,19 +5006,19 @@
         <v>2</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="X5" s="13">
         <v>4</v>
       </c>
       <c r="Z5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -5062,20 +5081,20 @@
         <v>2</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="X6" s="14">
         <v>4</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5138,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="X7" s="13">
         <v>4</v>
@@ -5215,13 +5234,13 @@
         <v>2</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="X8" s="14">
         <v>4</v>
@@ -5291,13 +5310,13 @@
         <v>2</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="X9" s="16">
         <v>3.8</v>
@@ -5362,13 +5381,13 @@
         <v>2</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="X10" s="16">
         <v>4.4000000000000004</v>
@@ -5433,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="X11" s="16">
         <v>3.4</v>
@@ -5504,13 +5523,13 @@
         <v>2</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="X12" s="16">
         <v>3.4</v>
@@ -5575,13 +5594,13 @@
         <v>2</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="X13" s="16">
         <v>3.6</v>
@@ -5646,20 +5665,20 @@
         <v>2</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="X14" s="18">
         <v>5.2</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -5720,20 +5739,20 @@
         <v>2</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="X15" s="18">
         <v>4</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -5794,19 +5813,19 @@
         <v>2</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="X16" s="17">
         <v>3.6</v>
       </c>
       <c r="Z16" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -5867,20 +5886,20 @@
         <v>2</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="X17" s="18">
         <v>4.2</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5941,20 +5960,20 @@
         <v>2</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="X18" s="18">
         <v>4</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5962,13 +5981,13 @@
         <v>1017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C19" s="19">
         <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E19" s="19">
         <v>4018</v>
@@ -6017,20 +6036,20 @@
         <v>2</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="X19" s="20">
         <v>6.2</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -6038,13 +6057,13 @@
         <v>1018</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C20" s="19">
         <v>17</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E20" s="19">
         <v>4019</v>
@@ -6091,20 +6110,20 @@
         <v>2</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W20" s="20" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="X20" s="20">
         <v>5</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6112,13 +6131,13 @@
         <v>1019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="19">
         <v>16</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E21" s="19">
         <v>4020</v>
@@ -6165,20 +6184,20 @@
         <v>2</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="X21" s="20">
         <v>3.45</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -6186,13 +6205,13 @@
         <v>1020</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" s="19">
         <v>15</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="19">
         <v>4021</v>
@@ -6239,20 +6258,20 @@
         <v>2</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="X22" s="20">
         <v>3.5</v>
       </c>
       <c r="Y22" s="10"/>
       <c r="Z22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -6260,7 +6279,7 @@
         <v>1021</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C23" s="23">
         <v>17</v>
@@ -6313,13 +6332,13 @@
         <v>2</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W23" s="24" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="X23" s="24">
         <v>4.3</v>
@@ -6331,7 +6350,7 @@
         <v>1022</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" s="21">
         <v>17</v>
@@ -6384,20 +6403,20 @@
         <v>2</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W24" s="22" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="X24" s="22">
         <v>4.6500000000000004</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -6405,7 +6424,7 @@
         <v>1023</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C25" s="21">
         <v>17</v>
@@ -6460,20 +6479,20 @@
         <v>2</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W25" s="22" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="X25" s="22">
         <v>5</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -6481,7 +6500,7 @@
         <v>1024</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C26" s="21">
         <v>17</v>
@@ -6534,20 +6553,20 @@
         <v>2</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="X26" s="22">
         <v>5</v>
       </c>
       <c r="Y26" s="10"/>
       <c r="Z26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -6555,7 +6574,7 @@
         <v>1025</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" s="25">
         <v>17</v>
@@ -6610,13 +6629,13 @@
         <v>2</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="V27" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="W27" s="26" t="s">
         <v>711</v>
-      </c>
-      <c r="W27" s="26" t="s">
-        <v>716</v>
       </c>
       <c r="X27" s="26">
         <v>3.57</v>
@@ -6630,7 +6649,7 @@
         <v>1026</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C28" s="25">
         <v>17</v>
@@ -6683,13 +6702,13 @@
         <v>2</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="V28" s="26" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W28" s="26" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="X28" s="26">
         <v>2.5499999999999998</v>
@@ -6701,7 +6720,7 @@
         <v>1027</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C29" s="25">
         <v>16</v>
@@ -6754,13 +6773,13 @@
         <v>2</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="V29" s="26" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="W29" s="26" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="X29" s="26">
         <v>3.55</v>
@@ -6772,7 +6791,7 @@
         <v>1028</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C30" s="25">
         <v>15</v>
@@ -6825,13 +6844,13 @@
         <v>2</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="V30" s="26" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="W30" s="26" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="X30" s="26">
         <v>4.7</v>
@@ -6843,7 +6862,7 @@
         <v>1029</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C31" s="27">
         <v>17</v>
@@ -6896,20 +6915,20 @@
         <v>2</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="V31" s="28" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W31" s="28" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="X31" s="28">
         <v>4.3</v>
       </c>
       <c r="Y31" s="10"/>
       <c r="Z31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -6917,7 +6936,7 @@
         <v>1030</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C32" s="27">
         <v>16</v>
@@ -6970,20 +6989,20 @@
         <v>2</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="V32" s="28" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W32" s="28" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="X32" s="28">
         <v>7.5</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -6991,7 +7010,7 @@
         <v>1031</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C33" s="27">
         <v>15</v>
@@ -7044,20 +7063,20 @@
         <v>2</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="V33" s="28" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W33" s="28" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="X33" s="28">
         <v>3.9</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -7065,7 +7084,7 @@
         <v>1032</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
@@ -7118,13 +7137,13 @@
         <v>2</v>
       </c>
       <c r="U34" s="29" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W34" s="30" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="X34" s="30">
         <v>4.4000000000000004</v>
@@ -7136,7 +7155,7 @@
         <v>1033</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" s="29">
         <v>16</v>
@@ -7189,13 +7208,13 @@
         <v>2</v>
       </c>
       <c r="U35" s="30" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="V35" s="30" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W35" s="30" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="X35" s="30">
         <v>3.9</v>
@@ -7207,7 +7226,7 @@
         <v>1034</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C36" s="29">
         <v>16</v>
@@ -7260,13 +7279,13 @@
         <v>2</v>
       </c>
       <c r="U36" s="29" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="V36" s="30" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W36" s="30" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="X36" s="30">
         <v>4.5999999999999996</v>
@@ -7278,7 +7297,7 @@
         <v>1035</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C37" s="29">
         <v>15</v>
@@ -7331,13 +7350,13 @@
         <v>2</v>
       </c>
       <c r="U37" s="29" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="V37" s="30" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W37" s="30" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="X37" s="30">
         <v>4.2</v>
@@ -7349,7 +7368,7 @@
         <v>1036</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C38" s="17">
         <v>17</v>
@@ -7402,13 +7421,13 @@
         <v>2</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="V38" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="X38" s="18">
         <v>4</v>
@@ -7420,7 +7439,7 @@
         <v>1037</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C39" s="17">
         <v>17</v>
@@ -7473,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="U39" s="18" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="V39" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="X39" s="18">
         <v>3.4</v>
@@ -7491,7 +7510,7 @@
         <v>1038</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" s="17">
         <v>15</v>
@@ -7544,13 +7563,13 @@
         <v>2</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="X40" s="18">
         <v>3.8</v>
@@ -7562,7 +7581,7 @@
         <v>1039</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C41" s="31">
         <v>17</v>
@@ -7615,13 +7634,13 @@
         <v>2</v>
       </c>
       <c r="U41" s="31" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="V41" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W41" s="32" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="X41" s="32">
         <v>3.4</v>
@@ -7633,7 +7652,7 @@
         <v>1040</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C42" s="31">
         <v>15</v>
@@ -7686,13 +7705,13 @@
         <v>2</v>
       </c>
       <c r="U42" s="32" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="V42" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W42" s="32" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="X42" s="32">
         <v>4</v>
@@ -7704,7 +7723,7 @@
         <v>1041</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C43" s="31">
         <v>16</v>
@@ -7757,13 +7776,13 @@
         <v>2</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="V43" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W43" s="32" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="X43" s="32">
         <v>3.8</v>
@@ -7774,7 +7793,7 @@
         <v>1042</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C44" s="31">
         <v>16</v>
@@ -7827,13 +7846,13 @@
         <v>2</v>
       </c>
       <c r="U44" s="32" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="V44" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W44" s="32" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="X44" s="32">
         <v>3.4</v>
@@ -7844,7 +7863,7 @@
         <v>1043</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C45" s="33">
         <v>17</v>
@@ -7897,20 +7916,20 @@
         <v>2</v>
       </c>
       <c r="U45" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="V45" s="34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W45" s="34" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="X45" s="34">
         <v>3.9</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -7918,7 +7937,7 @@
         <v>1044</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C46" s="33">
         <v>15</v>
@@ -7971,20 +7990,20 @@
         <v>2</v>
       </c>
       <c r="U46" s="34" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="V46" s="34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W46" s="34" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="X46" s="34">
         <v>3.9</v>
       </c>
       <c r="Y46" s="10"/>
       <c r="Z46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -7992,7 +8011,7 @@
         <v>1045</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C47" s="33">
         <v>15</v>
@@ -8045,20 +8064,20 @@
         <v>2</v>
       </c>
       <c r="U47" s="34" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="V47" s="34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W47" s="34" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="X47" s="34">
         <v>4.5</v>
       </c>
       <c r="Y47" s="10"/>
       <c r="Z47" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -8066,7 +8085,7 @@
         <v>1046</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C48" s="36">
         <v>16</v>
@@ -8119,13 +8138,13 @@
         <v>2</v>
       </c>
       <c r="U48" s="36" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="V48" s="36" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W48" s="36" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="X48" s="36">
         <v>3.7</v>
@@ -8136,7 +8155,7 @@
         <v>1047</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C49" s="36">
         <v>16</v>
@@ -8189,13 +8208,13 @@
         <v>2</v>
       </c>
       <c r="U49" s="36" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="V49" s="36" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W49" s="36" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="X49" s="36">
         <v>3.6</v>
@@ -8206,7 +8225,7 @@
         <v>1048</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C50" s="36">
         <v>18</v>
@@ -8259,13 +8278,13 @@
         <v>2</v>
       </c>
       <c r="U50" s="37" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="V50" s="36" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W50" s="36" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="X50" s="36">
         <v>5.6</v>
@@ -8276,7 +8295,7 @@
         <v>1049</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C51" s="36">
         <v>15</v>
@@ -8329,13 +8348,13 @@
         <v>2</v>
       </c>
       <c r="U51" s="36" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="V51" s="36" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W51" s="36" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="X51" s="36">
         <v>3.7</v>
@@ -8346,7 +8365,7 @@
         <v>1050</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C52" s="38">
         <v>18</v>
@@ -8361,7 +8380,7 @@
         <v>7006</v>
       </c>
       <c r="G52" s="38">
-        <v>6001</v>
+        <v>6050</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="38">
@@ -8401,19 +8420,19 @@
         <v>2</v>
       </c>
       <c r="U52" s="39" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="V52" s="38" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W52" s="38" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="X52" s="38">
         <v>3</v>
       </c>
       <c r="Z52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -8421,7 +8440,7 @@
         <v>1051</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C53" s="38">
         <v>-1</v>
@@ -8476,19 +8495,19 @@
         <v>2</v>
       </c>
       <c r="U53" s="39" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="V53" s="38" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W53" s="38" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="X53" s="38">
         <v>3.7</v>
       </c>
       <c r="Z53" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -8496,13 +8515,13 @@
         <v>1052</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C54" s="38">
         <v>-1</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="38">
         <v>4053</v>
@@ -8549,19 +8568,19 @@
         <v>2</v>
       </c>
       <c r="U54" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="W54" s="38" t="s">
         <v>876</v>
-      </c>
-      <c r="V54" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="W54" s="38" t="s">
-        <v>891</v>
       </c>
       <c r="X54" s="38">
         <v>3.9</v>
       </c>
       <c r="Z54" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -8681,7 +8700,7 @@
         <v>1057</v>
       </c>
       <c r="B59" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -8735,13 +8754,13 @@
         <v>2</v>
       </c>
       <c r="U59" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="V59" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W59" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="X59">
         <v>3.9</v>
@@ -8806,13 +8825,13 @@
         <v>2</v>
       </c>
       <c r="U60" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="V60" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="W60" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="X60">
         <v>4.3</v>
@@ -8914,10 +8933,10 @@
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8925,7 +8944,7 @@
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8">
         <v>1021</v>
@@ -8936,10 +8955,10 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8947,10 +8966,10 @@
         <v>2008</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8958,10 +8977,10 @@
         <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8969,10 +8988,10 @@
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8980,10 +8999,10 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8991,10 +9010,10 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9002,10 +9021,10 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9013,10 +9032,10 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C16" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9024,10 +9043,10 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9035,10 +9054,10 @@
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -9085,7 +9104,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
@@ -9093,10 +9112,10 @@
         <v>3999</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
@@ -9135,10 +9154,10 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9146,13 +9165,13 @@
         <v>3004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9160,13 +9179,13 @@
         <v>3005</v>
       </c>
       <c r="B8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C8">
         <v>2002</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9174,13 +9193,13 @@
         <v>3006</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C9">
         <v>2013</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9188,13 +9207,13 @@
         <v>3007</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C10">
         <v>2012</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9213,8 +9232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABA6E5-4834-4D9E-89AC-05773206F068}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9236,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9247,7 +9266,7 @@
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9277,10 +9296,10 @@
         <v>4004</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9288,10 +9307,10 @@
         <v>4005</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9299,10 +9318,10 @@
         <v>4006</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9310,10 +9329,10 @@
         <v>4007</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9379,7 +9398,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9412,7 +9431,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9431,10 +9450,10 @@
         <v>4018</v>
       </c>
       <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
         <v>269</v>
-      </c>
-      <c r="C20" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9442,7 +9461,7 @@
         <v>4019</v>
       </c>
       <c r="B21" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -9453,10 +9472,10 @@
         <v>4020</v>
       </c>
       <c r="B22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" t="s">
         <v>270</v>
-      </c>
-      <c r="C22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9464,10 +9483,10 @@
         <v>4021</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9475,10 +9494,10 @@
         <v>4022</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9486,10 +9505,10 @@
         <v>4023</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9497,10 +9516,10 @@
         <v>4024</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9508,10 +9527,10 @@
         <v>4025</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9519,10 +9538,10 @@
         <v>4026</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9530,10 +9549,10 @@
         <v>4027</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9541,10 +9560,10 @@
         <v>4028</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9552,10 +9571,10 @@
         <v>4029</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9563,10 +9582,10 @@
         <v>4030</v>
       </c>
       <c r="B32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9574,10 +9593,10 @@
         <v>4031</v>
       </c>
       <c r="B33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9585,10 +9604,10 @@
         <v>4032</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C34" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9596,10 +9615,10 @@
         <v>4033</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9607,10 +9626,10 @@
         <v>4034</v>
       </c>
       <c r="B36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9618,10 +9637,10 @@
         <v>4035</v>
       </c>
       <c r="B37" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C37" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9629,10 +9648,10 @@
         <v>4036</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>946</v>
       </c>
       <c r="C38" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9640,10 +9659,10 @@
         <v>4037</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9651,10 +9670,10 @@
         <v>4038</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9662,10 +9681,10 @@
         <v>4039</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9673,10 +9692,10 @@
         <v>4040</v>
       </c>
       <c r="B42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9684,10 +9703,10 @@
         <v>4041</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C43" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9695,10 +9714,10 @@
         <v>4042</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9706,10 +9725,10 @@
         <v>4043</v>
       </c>
       <c r="B45" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C45" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9717,10 +9736,10 @@
         <v>4044</v>
       </c>
       <c r="B46" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9728,10 +9747,10 @@
         <v>4045</v>
       </c>
       <c r="B47" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C47" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9739,10 +9758,10 @@
         <v>4046</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9750,10 +9769,10 @@
         <v>4047</v>
       </c>
       <c r="B49" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C49" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9761,7 +9780,7 @@
         <v>4048</v>
       </c>
       <c r="B50" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -9772,10 +9791,10 @@
         <v>4049</v>
       </c>
       <c r="B51" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C51" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9783,10 +9802,10 @@
         <v>4050</v>
       </c>
       <c r="B52" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C52" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -9794,10 +9813,10 @@
         <v>4051</v>
       </c>
       <c r="B53" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C53" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -9805,7 +9824,7 @@
         <v>4052</v>
       </c>
       <c r="B54" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -9816,7 +9835,7 @@
         <v>4053</v>
       </c>
       <c r="B55" t="s">
-        <v>815</v>
+        <v>944</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -9847,10 +9866,10 @@
         <v>4058</v>
       </c>
       <c r="B60" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C60" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9858,7 +9877,7 @@
         <v>4059</v>
       </c>
       <c r="B61" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C61" t="s">
         <v>41</v>
@@ -9880,8 +9899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FF8734-3DF6-4096-8FC7-C0F9E261A7CA}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+    <sheetView topLeftCell="A293" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10036,7 +10055,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -10047,7 +10066,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -10058,7 +10077,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -10091,7 +10110,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -10102,7 +10121,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -10113,7 +10132,7 @@
         <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -10124,7 +10143,7 @@
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -10132,10 +10151,10 @@
     </row>
     <row r="23" spans="1:3" ht="33">
       <c r="A23" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -10146,7 +10165,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -10157,7 +10176,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -10168,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -10179,7 +10198,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -10190,7 +10209,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -10198,10 +10217,10 @@
     </row>
     <row r="29" spans="1:3" ht="49.5">
       <c r="A29" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -10212,7 +10231,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -10223,7 +10242,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -10234,7 +10253,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -10245,7 +10264,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -10256,7 +10275,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -10264,10 +10283,10 @@
     </row>
     <row r="35" spans="1:3" ht="49.5">
       <c r="A35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -10278,7 +10297,7 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>940</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -10289,7 +10308,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>691</v>
+        <v>941</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -10300,7 +10319,7 @@
         <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>691</v>
+        <v>941</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -10311,7 +10330,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>691</v>
+        <v>941</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -10322,7 +10341,7 @@
         <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>942</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -10330,10 +10349,10 @@
     </row>
     <row r="41" spans="1:3" ht="49.5">
       <c r="A41" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -10344,7 +10363,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -10355,7 +10374,7 @@
         <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -10366,7 +10385,7 @@
         <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -10377,7 +10396,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -10388,7 +10407,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -10399,7 +10418,7 @@
         <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -10410,7 +10429,7 @@
         <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -10421,7 +10440,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -10432,7 +10451,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -10443,7 +10462,7 @@
         <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -10454,7 +10473,7 @@
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -10465,7 +10484,7 @@
         <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -10476,7 +10495,7 @@
         <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -10487,7 +10506,7 @@
         <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -10498,7 +10517,7 @@
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -10509,7 +10528,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -10520,7 +10539,7 @@
         <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -10531,7 +10550,7 @@
         <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -10542,7 +10561,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -10553,7 +10572,7 @@
         <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -10564,7 +10583,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -10575,7 +10594,7 @@
         <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -10586,7 +10605,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -10597,7 +10616,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -10608,7 +10627,7 @@
         <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -10619,7 +10638,7 @@
         <v>145</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -10630,7 +10649,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -10641,7 +10660,7 @@
         <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -10652,7 +10671,7 @@
         <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -10663,7 +10682,7 @@
         <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -10674,7 +10693,7 @@
         <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -10685,7 +10704,7 @@
         <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -10696,7 +10715,7 @@
         <v>152</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -10707,7 +10726,7 @@
         <v>153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -10718,7 +10737,7 @@
         <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -10729,7 +10748,7 @@
         <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -10740,7 +10759,7 @@
         <v>156</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -10751,7 +10770,7 @@
         <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -10762,7 +10781,7 @@
         <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -10773,7 +10792,7 @@
         <v>159</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -10784,7 +10803,7 @@
         <v>160</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -10795,7 +10814,7 @@
         <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -10806,7 +10825,7 @@
         <v>162</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -10817,7 +10836,7 @@
         <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -10828,7 +10847,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>685</v>
+        <v>943</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -10839,7 +10858,7 @@
         <v>166</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -10850,7 +10869,7 @@
         <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -10861,7 +10880,7 @@
         <v>168</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -10872,7 +10891,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -10883,7 +10902,7 @@
         <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -10891,10 +10910,10 @@
     </row>
     <row r="92" spans="1:3" ht="33">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -10902,10 +10921,10 @@
     </row>
     <row r="93" spans="1:3" ht="49.5">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -10913,10 +10932,10 @@
     </row>
     <row r="94" spans="1:3" ht="49.5">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -10924,10 +10943,10 @@
     </row>
     <row r="95" spans="1:3" ht="49.5">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -10935,10 +10954,10 @@
     </row>
     <row r="96" spans="1:3" ht="66">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -10946,10 +10965,10 @@
     </row>
     <row r="97" spans="1:3" ht="33">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -10957,10 +10976,10 @@
     </row>
     <row r="98" spans="1:3" ht="33">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -10968,10 +10987,10 @@
     </row>
     <row r="99" spans="1:3" ht="33">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C9